--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="1904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11351" uniqueCount="1900">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -13911,7 +13911,7 @@
     <t xml:space="preserve">Uin ನಿಷ್ಕ್ರಿಯಗೊಳಿಸಲಾಗಿದೆ</t>
   </si>
   <si>
-    <t xml:space="preserve"> UIN ರಚಿಸಲಾಗಿದೆ</t>
+    <t xml:space="preserve">UIN ರಚಿಸಲಾಗಿದೆ</t>
   </si>
   <si>
     <t xml:space="preserve">UIN ವಿವರಗಳನ್ನು ನವೀಕರಿಸಲಾಗಿದೆ</t>
@@ -14007,7 +14007,7 @@
     <t xml:space="preserve">पंजीकरण ग्राहक</t>
   </si>
   <si>
-    <t xml:space="preserve"> पंजीकरण पुष्टि</t>
+    <t xml:space="preserve">पंजीकरण पुष्टि</t>
   </si>
   <si>
     <t xml:space="preserve">नए पंजीकरण के लिए टेम्प्लेट एसएमएस</t>
@@ -14040,7 +14040,7 @@
     <t xml:space="preserve">नवीनीकरण पंजीकरण के लिए टेम्पलेट ईमेल सामग्री </t>
   </si>
   <si>
-    <t xml:space="preserve"> पंजीकरण नवीनीकरण की पुष्टि</t>
+    <t xml:space="preserve">पंजीकरण नवीनीकरण की पुष्टि</t>
   </si>
   <si>
     <t xml:space="preserve">नवीनीकरण पंजीकरण के लिए टेम्प्लेट एसएमएस</t>
@@ -14162,9 +14162,6 @@
     <t xml:space="preserve">प्रमाणीकरण ओटीपी ईमेल सेवा सामग्री</t>
   </si>
   <si>
-    <t xml:space="preserve"> ओटीपी संदेश</t>
-  </si>
-  <si>
     <t xml:space="preserve">ओटीपी संदेश</t>
   </si>
   <si>
@@ -14429,7 +14426,7 @@
     <t xml:space="preserve">VID जनरेशन विफलता ईमेल सामग्री</t>
   </si>
   <si>
-    <t xml:space="preserve">वीआईडी ​​जनरेशन विफलता</t>
+    <t xml:space="preserve">वीआईडी जनरेशन विफलता</t>
   </si>
   <si>
     <t xml:space="preserve">वीआईडी जनरेशन विफलता एसएमएस</t>
@@ -14450,7 +14447,7 @@
     <t xml:space="preserve">VID पुनर्प्राप्ति विफलता ईमेल सामग्री</t>
   </si>
   <si>
-    <t xml:space="preserve">वीआईडी ​​​​पुनर्प्राप्ति विफल</t>
+    <t xml:space="preserve">वीआईडी पुनर्प्राप्ति विफल</t>
   </si>
   <si>
     <t xml:space="preserve">वीआईडी पुनर्प्राप्ति विफलता एसएमएस </t>
@@ -14571,13 +14568,10 @@
     <t xml:space="preserve">पंजीकरण पैकेट सत्यापन सफलता ईमेल उप</t>
   </si>
   <si>
-    <t xml:space="preserve">पंजीकरण पुष्टि</t>
-  </si>
-  <si>
     <t xml:space="preserve">पैकेट सत्यापन की सफलता के लिए ईमेल सब्सक्रिप्शन अपडेट करें</t>
   </si>
   <si>
-    <t xml:space="preserve"> अनुरोध की पुष्टि अपडेट करें</t>
+    <t xml:space="preserve">अनुरोध की पुष्टि अपडेट करें</t>
   </si>
   <si>
     <t xml:space="preserve">खोया पैकेट सत्यापन सफलता ईमेल उप</t>
@@ -14595,9 +14589,6 @@
     <t xml:space="preserve">निवासी अद्यतन पैकेट सत्यापन सफलता ईमेल उप</t>
   </si>
   <si>
-    <t xml:space="preserve">अनुरोध की पुष्टि अपडेट करें</t>
-  </si>
-  <si>
     <t xml:space="preserve">सक्रियण अनुरोध की पुष्टि</t>
   </si>
   <si>
@@ -14643,7 +14634,7 @@
     <t xml:space="preserve">वितरण वितरण स्थिति सत्यापित करें EMAIL सामग्री</t>
   </si>
   <si>
-    <t xml:space="preserve"> क्रेडेंशियल वितरण की स्थिति</t>
+    <t xml:space="preserve">क्रेडेंशियल वितरण की स्थिति</t>
   </si>
   <si>
     <t xml:space="preserve">एक क्रेडेंशियल अनुरोध रद्द करें सफल एसएमएस</t>
@@ -14791,13 +14782,13 @@
     <t xml:space="preserve">Uin सफलतापूर्वक सक्रिय हो गया</t>
   </si>
   <si>
-    <t xml:space="preserve"> यूआई निष्क्रिय है </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> यूआई निष्क्रिय है</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> यूआईएन उत्पन्न</t>
+    <t xml:space="preserve">यूआई निष्क्रिय है </t>
+  </si>
+  <si>
+    <t xml:space="preserve">यूआई निष्क्रिय है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यूआईएन उत्पन्न</t>
   </si>
   <si>
     <t xml:space="preserve">यूआईएन विवरण अपडेट किया गया</t>
@@ -15651,9 +15642,6 @@
   </si>
   <si>
     <t xml:space="preserve">UIN உருவாக்கப்பட்டது</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UIN உருவாக்கப்பட்டது</t>
   </si>
   <si>
     <t xml:space="preserve">UIN விவரங்கள் புதுப்பிக்கப்பட்டன</t>
@@ -15827,8 +15815,8 @@
   </sheetPr>
   <dimension ref="A1:BF947"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A718" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E769" activeCellId="0" sqref="E769"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B912" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G624" activeCellId="0" sqref="G624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43291,7 +43279,7 @@
         <v>17</v>
       </c>
       <c r="G670" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H670" s="0" t="n">
         <v>10008</v>
@@ -43414,7 +43402,7 @@
         <v>17</v>
       </c>
       <c r="G673" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H673" s="0" t="n">
         <v>10004</v>
@@ -43484,19 +43472,19 @@
         <v>1346</v>
       </c>
       <c r="C675" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E675" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F675" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G675" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="D675" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E675" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F675" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G675" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="H675" s="0" t="n">
         <v>10004</v>
@@ -43525,10 +43513,10 @@
         <v>1346</v>
       </c>
       <c r="C676" s="0" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D676" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E676" s="0" t="s">
         <v>16</v>
@@ -43537,7 +43525,7 @@
         <v>17</v>
       </c>
       <c r="G676" s="0" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H676" s="0" t="n">
         <v>10004</v>
@@ -43566,19 +43554,19 @@
         <v>1346</v>
       </c>
       <c r="C677" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E677" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F677" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G677" s="0" t="s">
         <v>1427</v>
-      </c>
-      <c r="D677" s="5" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E677" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F677" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G677" s="0" t="s">
-        <v>1428</v>
       </c>
       <c r="H677" s="0" t="n">
         <v>10004</v>
@@ -43607,19 +43595,19 @@
         <v>1346</v>
       </c>
       <c r="C678" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E678" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F678" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G678" s="0" t="s">
         <v>1429</v>
-      </c>
-      <c r="D678" s="5" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E678" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F678" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G678" s="0" t="s">
-        <v>1430</v>
       </c>
       <c r="H678" s="0" t="n">
         <v>10001</v>
@@ -43651,16 +43639,16 @@
         <v>1413</v>
       </c>
       <c r="D679" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E679" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F679" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G679" s="0" t="s">
         <v>1431</v>
-      </c>
-      <c r="E679" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F679" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G679" s="0" t="s">
-        <v>1432</v>
       </c>
       <c r="H679" s="0" t="n">
         <v>10005</v>
@@ -43692,7 +43680,7 @@
         <v>1410</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E680" s="0" t="s">
         <v>16</v>
@@ -43701,7 +43689,7 @@
         <v>17</v>
       </c>
       <c r="G680" s="0" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H680" s="0" t="n">
         <v>10005</v>
@@ -43733,7 +43721,7 @@
         <v>1413</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E681" s="0" t="s">
         <v>16</v>
@@ -43742,7 +43730,7 @@
         <v>17</v>
       </c>
       <c r="G681" s="0" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H681" s="0" t="n">
         <v>10005</v>
@@ -43774,7 +43762,7 @@
         <v>1410</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E682" s="0" t="s">
         <v>16</v>
@@ -43783,7 +43771,7 @@
         <v>17</v>
       </c>
       <c r="G682" s="0" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H682" s="0" t="n">
         <v>10005</v>
@@ -43812,19 +43800,19 @@
         <v>1346</v>
       </c>
       <c r="C683" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E683" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F683" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G683" s="0" t="s">
         <v>1435</v>
-      </c>
-      <c r="D683" s="5" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E683" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F683" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G683" s="0" t="s">
-        <v>1436</v>
       </c>
       <c r="H683" s="0" t="n">
         <v>10001</v>
@@ -43853,19 +43841,19 @@
         <v>1346</v>
       </c>
       <c r="C684" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E684" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F684" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G684" s="0" t="s">
         <v>1437</v>
-      </c>
-      <c r="D684" s="5" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E684" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F684" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G684" s="0" t="s">
-        <v>1438</v>
       </c>
       <c r="H684" s="0" t="n">
         <v>10003</v>
@@ -43894,19 +43882,19 @@
         <v>1346</v>
       </c>
       <c r="C685" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E685" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F685" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G685" s="0" t="s">
         <v>1439</v>
-      </c>
-      <c r="D685" s="5" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E685" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F685" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G685" s="0" t="s">
-        <v>1440</v>
       </c>
       <c r="H685" s="0" t="n">
         <v>10003</v>
@@ -43935,19 +43923,19 @@
         <v>1346</v>
       </c>
       <c r="C686" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E686" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F686" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G686" s="5" t="s">
         <v>1441</v>
-      </c>
-      <c r="D686" s="5" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E686" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F686" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G686" s="5" t="s">
-        <v>1442</v>
       </c>
       <c r="H686" s="0" t="n">
         <v>10003</v>
@@ -43976,25 +43964,25 @@
         <v>1346</v>
       </c>
       <c r="C687" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F687" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G687" s="0" t="s">
         <v>1443</v>
-      </c>
-      <c r="D687" s="5" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E687" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F687" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G687" s="0" t="s">
-        <v>1444</v>
       </c>
       <c r="H687" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I687" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J687" s="0" t="s">
         <v>414</v>
@@ -44017,10 +44005,10 @@
         <v>1346</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D688" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E688" s="0" t="s">
         <v>16</v>
@@ -44029,13 +44017,13 @@
         <v>17</v>
       </c>
       <c r="G688" s="0" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H688" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I688" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J688" s="0" t="s">
         <v>422</v>
@@ -44058,25 +44046,25 @@
         <v>1346</v>
       </c>
       <c r="C689" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E689" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F689" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G689" s="0" t="s">
         <v>1447</v>
-      </c>
-      <c r="D689" s="5" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E689" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F689" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G689" s="0" t="s">
-        <v>1448</v>
       </c>
       <c r="H689" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I689" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J689" s="0" t="s">
         <v>429</v>
@@ -44099,25 +44087,25 @@
         <v>1346</v>
       </c>
       <c r="C690" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E690" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F690" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G690" s="0" t="s">
         <v>1449</v>
-      </c>
-      <c r="D690" s="5" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E690" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F690" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G690" s="0" t="s">
-        <v>1450</v>
       </c>
       <c r="H690" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I690" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J690" s="0" t="s">
         <v>437</v>
@@ -44140,25 +44128,25 @@
         <v>1346</v>
       </c>
       <c r="C691" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E691" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F691" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G691" s="0" t="s">
         <v>1451</v>
-      </c>
-      <c r="D691" s="5" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E691" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F691" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G691" s="0" t="s">
-        <v>1452</v>
       </c>
       <c r="H691" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I691" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J691" s="0" t="s">
         <v>446</v>
@@ -44181,10 +44169,10 @@
         <v>1346</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D692" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E692" s="0" t="s">
         <v>16</v>
@@ -44193,13 +44181,13 @@
         <v>17</v>
       </c>
       <c r="G692" s="0" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H692" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I692" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J692" s="0" t="s">
         <v>454</v>
@@ -44222,25 +44210,25 @@
         <v>1346</v>
       </c>
       <c r="C693" s="0" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E693" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F693" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G693" s="0" t="s">
         <v>1454</v>
-      </c>
-      <c r="D693" s="5" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E693" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F693" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G693" s="0" t="s">
-        <v>1455</v>
       </c>
       <c r="H693" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I693" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J693" s="0" t="s">
         <v>460</v>
@@ -44263,25 +44251,25 @@
         <v>1346</v>
       </c>
       <c r="C694" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E694" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F694" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G694" s="0" t="s">
         <v>1456</v>
-      </c>
-      <c r="D694" s="5" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E694" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F694" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G694" s="0" t="s">
-        <v>1457</v>
       </c>
       <c r="H694" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I694" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J694" s="0" t="s">
         <v>468</v>
@@ -44304,10 +44292,10 @@
         <v>1346</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D695" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E695" s="0" t="s">
         <v>16</v>
@@ -44316,13 +44304,13 @@
         <v>17</v>
       </c>
       <c r="G695" s="0" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H695" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I695" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J695" s="0" t="s">
         <v>475</v>
@@ -44345,25 +44333,25 @@
         <v>1346</v>
       </c>
       <c r="C696" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E696" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F696" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G696" s="0" t="s">
         <v>1459</v>
-      </c>
-      <c r="D696" s="5" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E696" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F696" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G696" s="0" t="s">
-        <v>1460</v>
       </c>
       <c r="H696" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I696" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J696" s="0" t="s">
         <v>481</v>
@@ -44386,25 +44374,25 @@
         <v>1346</v>
       </c>
       <c r="C697" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D697" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E697" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F697" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G697" s="0" t="s">
         <v>1461</v>
-      </c>
-      <c r="D697" s="5" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E697" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F697" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G697" s="0" t="s">
-        <v>1462</v>
       </c>
       <c r="H697" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I697" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J697" s="0" t="s">
         <v>489</v>
@@ -44427,10 +44415,10 @@
         <v>1346</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D698" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E698" s="0" t="s">
         <v>16</v>
@@ -44439,13 +44427,13 @@
         <v>17</v>
       </c>
       <c r="G698" s="0" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H698" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I698" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J698" s="0" t="s">
         <v>496</v>
@@ -44468,25 +44456,25 @@
         <v>1346</v>
       </c>
       <c r="C699" s="0" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E699" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F699" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G699" s="0" t="s">
         <v>1464</v>
-      </c>
-      <c r="D699" s="5" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E699" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F699" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G699" s="0" t="s">
-        <v>1465</v>
       </c>
       <c r="H699" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I699" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J699" s="0" t="s">
         <v>502</v>
@@ -44509,25 +44497,25 @@
         <v>1346</v>
       </c>
       <c r="C700" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D700" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E700" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F700" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G700" s="0" t="s">
         <v>1466</v>
-      </c>
-      <c r="D700" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E700" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F700" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G700" s="0" t="s">
-        <v>1467</v>
       </c>
       <c r="H700" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I700" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J700" s="0" t="s">
         <v>510</v>
@@ -44550,10 +44538,10 @@
         <v>1346</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D701" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E701" s="0" t="s">
         <v>16</v>
@@ -44562,13 +44550,13 @@
         <v>17</v>
       </c>
       <c r="G701" s="0" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H701" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I701" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J701" s="0" t="s">
         <v>517</v>
@@ -44591,25 +44579,25 @@
         <v>1346</v>
       </c>
       <c r="C702" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E702" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F702" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G702" s="0" t="s">
         <v>1469</v>
-      </c>
-      <c r="D702" s="5" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E702" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F702" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G702" s="0" t="s">
-        <v>1470</v>
       </c>
       <c r="H702" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I702" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J702" s="0" t="s">
         <v>523</v>
@@ -44632,25 +44620,25 @@
         <v>1346</v>
       </c>
       <c r="C703" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E703" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F703" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G703" s="0" t="s">
         <v>1471</v>
-      </c>
-      <c r="D703" s="5" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E703" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F703" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G703" s="0" t="s">
-        <v>1472</v>
       </c>
       <c r="H703" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I703" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J703" s="0" t="s">
         <v>531</v>
@@ -44673,10 +44661,10 @@
         <v>1346</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D704" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E704" s="0" t="s">
         <v>16</v>
@@ -44685,13 +44673,13 @@
         <v>17</v>
       </c>
       <c r="G704" s="0" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H704" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I704" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J704" s="0" t="s">
         <v>538</v>
@@ -44714,25 +44702,25 @@
         <v>1346</v>
       </c>
       <c r="C705" s="0" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D705" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E705" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F705" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G705" s="0" t="s">
         <v>1474</v>
-      </c>
-      <c r="D705" s="5" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E705" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F705" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G705" s="0" t="s">
-        <v>1475</v>
       </c>
       <c r="H705" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I705" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J705" s="0" t="s">
         <v>544</v>
@@ -44755,25 +44743,25 @@
         <v>1346</v>
       </c>
       <c r="C706" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D706" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E706" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F706" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G706" s="0" t="s">
         <v>1476</v>
-      </c>
-      <c r="D706" s="5" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E706" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F706" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G706" s="0" t="s">
-        <v>1477</v>
       </c>
       <c r="H706" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I706" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J706" s="0" t="s">
         <v>552</v>
@@ -44796,10 +44784,10 @@
         <v>1346</v>
       </c>
       <c r="C707" s="0" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D707" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E707" s="0" t="s">
         <v>16</v>
@@ -44808,13 +44796,13 @@
         <v>17</v>
       </c>
       <c r="G707" s="0" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H707" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I707" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J707" s="0" t="s">
         <v>559</v>
@@ -44837,25 +44825,25 @@
         <v>1346</v>
       </c>
       <c r="C708" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D708" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E708" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F708" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G708" s="0" t="s">
         <v>1479</v>
-      </c>
-      <c r="D708" s="5" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E708" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F708" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G708" s="0" t="s">
-        <v>1480</v>
       </c>
       <c r="H708" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I708" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J708" s="0" t="s">
         <v>565</v>
@@ -44878,25 +44866,25 @@
         <v>1346</v>
       </c>
       <c r="C709" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D709" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E709" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F709" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G709" s="0" t="s">
         <v>1481</v>
-      </c>
-      <c r="D709" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E709" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F709" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G709" s="0" t="s">
-        <v>1482</v>
       </c>
       <c r="H709" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I709" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J709" s="0" t="s">
         <v>573</v>
@@ -44919,25 +44907,25 @@
         <v>1346</v>
       </c>
       <c r="C710" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D710" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E710" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F710" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G710" s="0" t="s">
         <v>1483</v>
-      </c>
-      <c r="D710" s="5" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E710" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F710" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G710" s="0" t="s">
-        <v>1484</v>
       </c>
       <c r="H710" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I710" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J710" s="0" t="s">
         <v>581</v>
@@ -44960,25 +44948,25 @@
         <v>1346</v>
       </c>
       <c r="C711" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D711" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E711" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F711" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G711" s="0" t="s">
         <v>1485</v>
-      </c>
-      <c r="D711" s="5" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E711" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F711" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G711" s="0" t="s">
-        <v>1486</v>
       </c>
       <c r="H711" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I711" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J711" s="0" t="s">
         <v>588</v>
@@ -45001,25 +44989,25 @@
         <v>1346</v>
       </c>
       <c r="C712" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D712" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E712" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F712" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G712" s="0" t="s">
         <v>1487</v>
-      </c>
-      <c r="D712" s="5" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E712" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F712" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G712" s="0" t="s">
-        <v>1488</v>
       </c>
       <c r="H712" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I712" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J712" s="0" t="s">
         <v>596</v>
@@ -45042,25 +45030,25 @@
         <v>1346</v>
       </c>
       <c r="C713" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D713" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E713" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F713" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G713" s="0" t="s">
         <v>1489</v>
-      </c>
-      <c r="D713" s="5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E713" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F713" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G713" s="0" t="s">
-        <v>1490</v>
       </c>
       <c r="H713" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I713" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J713" s="0" t="s">
         <v>603</v>
@@ -45083,10 +45071,10 @@
         <v>1346</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D714" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E714" s="0" t="s">
         <v>16</v>
@@ -45095,13 +45083,13 @@
         <v>17</v>
       </c>
       <c r="G714" s="0" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H714" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I714" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J714" s="0" t="s">
         <v>609</v>
@@ -45124,25 +45112,25 @@
         <v>1346</v>
       </c>
       <c r="C715" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D715" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E715" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F715" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G715" s="0" t="s">
         <v>1492</v>
-      </c>
-      <c r="D715" s="5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E715" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F715" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G715" s="0" t="s">
-        <v>1493</v>
       </c>
       <c r="H715" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I715" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J715" s="0" t="s">
         <v>617</v>
@@ -45165,25 +45153,25 @@
         <v>1346</v>
       </c>
       <c r="C716" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D716" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E716" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F716" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G716" s="0" t="s">
         <v>1494</v>
-      </c>
-      <c r="D716" s="5" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E716" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F716" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G716" s="0" t="s">
-        <v>1495</v>
       </c>
       <c r="H716" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I716" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J716" s="0" t="s">
         <v>624</v>
@@ -45206,25 +45194,25 @@
         <v>1346</v>
       </c>
       <c r="C717" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D717" s="5" t="s">
         <v>1496</v>
       </c>
-      <c r="D717" s="5" t="s">
+      <c r="E717" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F717" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G717" s="0" t="s">
         <v>1497</v>
-      </c>
-      <c r="E717" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F717" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G717" s="0" t="s">
-        <v>1498</v>
       </c>
       <c r="H717" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I717" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J717" s="0" t="s">
         <v>630</v>
@@ -45247,25 +45235,25 @@
         <v>1346</v>
       </c>
       <c r="C718" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D718" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E718" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F718" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G718" s="0" t="s">
         <v>1499</v>
-      </c>
-      <c r="D718" s="5" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E718" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F718" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G718" s="0" t="s">
-        <v>1500</v>
       </c>
       <c r="H718" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I718" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J718" s="0" t="s">
         <v>638</v>
@@ -45288,10 +45276,10 @@
         <v>1346</v>
       </c>
       <c r="C719" s="0" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E719" s="0" t="s">
         <v>16</v>
@@ -45300,13 +45288,13 @@
         <v>17</v>
       </c>
       <c r="G719" s="0" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H719" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I719" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J719" s="0" t="s">
         <v>645</v>
@@ -45329,25 +45317,25 @@
         <v>1346</v>
       </c>
       <c r="C720" s="0" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D720" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E720" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F720" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G720" s="0" t="s">
         <v>1502</v>
-      </c>
-      <c r="D720" s="5" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E720" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F720" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G720" s="0" t="s">
-        <v>1503</v>
       </c>
       <c r="H720" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I720" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J720" s="0" t="s">
         <v>651</v>
@@ -45370,25 +45358,25 @@
         <v>1346</v>
       </c>
       <c r="C721" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D721" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E721" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F721" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G721" s="0" t="s">
         <v>1504</v>
-      </c>
-      <c r="D721" s="5" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E721" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F721" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G721" s="0" t="s">
-        <v>1505</v>
       </c>
       <c r="H721" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I721" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J721" s="0" t="s">
         <v>659</v>
@@ -45411,10 +45399,10 @@
         <v>1346</v>
       </c>
       <c r="C722" s="0" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D722" s="5" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E722" s="0" t="s">
         <v>16</v>
@@ -45423,13 +45411,13 @@
         <v>17</v>
       </c>
       <c r="G722" s="0" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H722" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I722" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J722" s="0" t="s">
         <v>666</v>
@@ -45452,25 +45440,25 @@
         <v>1346</v>
       </c>
       <c r="C723" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D723" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E723" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F723" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G723" s="0" t="s">
         <v>1507</v>
-      </c>
-      <c r="D723" s="5" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E723" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F723" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G723" s="0" t="s">
-        <v>1508</v>
       </c>
       <c r="H723" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I723" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J723" s="0" t="s">
         <v>672</v>
@@ -45493,25 +45481,25 @@
         <v>1346</v>
       </c>
       <c r="C724" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D724" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F724" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G724" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="D724" s="5" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E724" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F724" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G724" s="0" t="s">
-        <v>1510</v>
       </c>
       <c r="H724" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I724" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J724" s="0" t="s">
         <v>680</v>
@@ -45534,10 +45522,10 @@
         <v>1346</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D725" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E725" s="0" t="s">
         <v>16</v>
@@ -45546,13 +45534,13 @@
         <v>17</v>
       </c>
       <c r="G725" s="0" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H725" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I725" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J725" s="0" t="s">
         <v>685</v>
@@ -45575,25 +45563,25 @@
         <v>1346</v>
       </c>
       <c r="C726" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D726" s="5" t="s">
         <v>1512</v>
       </c>
-      <c r="D726" s="5" t="s">
+      <c r="E726" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F726" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G726" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="E726" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F726" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G726" s="0" t="s">
-        <v>1514</v>
       </c>
       <c r="H726" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I726" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J726" s="0" t="s">
         <v>691</v>
@@ -45616,25 +45604,25 @@
         <v>1346</v>
       </c>
       <c r="C727" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D727" s="5" t="s">
         <v>1515</v>
       </c>
-      <c r="D727" s="5" t="s">
+      <c r="E727" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F727" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G727" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="E727" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F727" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G727" s="0" t="s">
-        <v>1517</v>
       </c>
       <c r="H727" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I727" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J727" s="0" t="s">
         <v>699</v>
@@ -45657,11 +45645,11 @@
         <v>1346</v>
       </c>
       <c r="C728" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D728" s="5" t="s">
         <v>1518</v>
       </c>
-      <c r="D728" s="5" t="s">
-        <v>1519</v>
-      </c>
       <c r="E728" s="0" t="s">
         <v>16</v>
       </c>
@@ -45669,13 +45657,13 @@
         <v>17</v>
       </c>
       <c r="G728" s="0" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H728" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I728" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J728" s="0" t="s">
         <v>706</v>
@@ -45698,25 +45686,25 @@
         <v>1346</v>
       </c>
       <c r="C729" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D729" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E729" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F729" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G729" s="0" t="s">
         <v>1520</v>
-      </c>
-      <c r="D729" s="5" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E729" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F729" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G729" s="0" t="s">
-        <v>1521</v>
       </c>
       <c r="H729" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I729" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J729" s="0" t="s">
         <v>712</v>
@@ -45739,25 +45727,25 @@
         <v>1346</v>
       </c>
       <c r="C730" s="0" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D730" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E730" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F730" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G730" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="D730" s="5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E730" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F730" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G730" s="0" t="s">
-        <v>1523</v>
       </c>
       <c r="H730" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I730" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J730" s="0" t="s">
         <v>720</v>
@@ -45780,10 +45768,10 @@
         <v>1346</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D731" s="5" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E731" s="0" t="s">
         <v>16</v>
@@ -45792,13 +45780,13 @@
         <v>17</v>
       </c>
       <c r="G731" s="0" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H731" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I731" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J731" s="0" t="s">
         <v>727</v>
@@ -45821,25 +45809,25 @@
         <v>1346</v>
       </c>
       <c r="C732" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D732" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F732" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G732" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="D732" s="5" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E732" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F732" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G732" s="0" t="s">
-        <v>1526</v>
       </c>
       <c r="H732" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I732" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J732" s="0" t="s">
         <v>733</v>
@@ -45862,25 +45850,25 @@
         <v>1346</v>
       </c>
       <c r="C733" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D733" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E733" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F733" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G733" s="0" t="s">
         <v>1527</v>
-      </c>
-      <c r="D733" s="5" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E733" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F733" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G733" s="0" t="s">
-        <v>1528</v>
       </c>
       <c r="H733" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I733" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J733" s="0" t="s">
         <v>741</v>
@@ -45903,25 +45891,25 @@
         <v>1346</v>
       </c>
       <c r="C734" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D734" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F734" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G734" s="0" t="s">
         <v>1529</v>
-      </c>
-      <c r="D734" s="5" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E734" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F734" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G734" s="0" t="s">
-        <v>1530</v>
       </c>
       <c r="H734" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I734" s="0" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J734" s="0" t="s">
         <v>748</v>
@@ -45944,25 +45932,25 @@
         <v>1346</v>
       </c>
       <c r="C735" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D735" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E735" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F735" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G735" s="0" t="s">
         <v>1531</v>
-      </c>
-      <c r="D735" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E735" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F735" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G735" s="0" t="s">
-        <v>1532</v>
       </c>
       <c r="H735" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I735" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J735" s="0" t="s">
         <v>754</v>
@@ -45985,10 +45973,10 @@
         <v>1346</v>
       </c>
       <c r="C736" s="0" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E736" s="0" t="s">
         <v>16</v>
@@ -45997,13 +45985,13 @@
         <v>17</v>
       </c>
       <c r="G736" s="0" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H736" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I736" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J736" s="0" t="s">
         <v>760</v>
@@ -46026,25 +46014,25 @@
         <v>1346</v>
       </c>
       <c r="C737" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D737" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E737" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F737" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G737" s="0" t="s">
         <v>1535</v>
-      </c>
-      <c r="D737" s="5" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E737" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F737" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G737" s="0" t="s">
-        <v>1536</v>
       </c>
       <c r="H737" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I737" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J737" s="0" t="s">
         <v>765</v>
@@ -46067,10 +46055,10 @@
         <v>1346</v>
       </c>
       <c r="C738" s="0" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D738" s="5" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E738" s="0" t="s">
         <v>16</v>
@@ -46079,13 +46067,13 @@
         <v>17</v>
       </c>
       <c r="G738" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H738" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I738" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J738" s="0" t="s">
         <v>771</v>
@@ -46108,25 +46096,25 @@
         <v>1346</v>
       </c>
       <c r="C739" s="0" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D739" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F739" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G739" s="0" t="s">
         <v>1538</v>
-      </c>
-      <c r="D739" s="5" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E739" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F739" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G739" s="0" t="s">
-        <v>1539</v>
       </c>
       <c r="H739" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I739" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J739" s="0" t="s">
         <v>776</v>
@@ -46149,25 +46137,25 @@
         <v>1346</v>
       </c>
       <c r="C740" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D740" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E740" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F740" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G740" s="0" t="s">
         <v>1540</v>
-      </c>
-      <c r="D740" s="5" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E740" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F740" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G740" s="0" t="s">
-        <v>1541</v>
       </c>
       <c r="H740" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I740" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J740" s="0" t="s">
         <v>782</v>
@@ -46190,10 +46178,10 @@
         <v>1346</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D741" s="5" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E741" s="0" t="s">
         <v>16</v>
@@ -46202,13 +46190,13 @@
         <v>17</v>
       </c>
       <c r="G741" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H741" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I741" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J741" s="0" t="s">
         <v>786</v>
@@ -46231,10 +46219,10 @@
         <v>1346</v>
       </c>
       <c r="C742" s="0" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D742" s="5" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E742" s="0" t="s">
         <v>16</v>
@@ -46243,13 +46231,13 @@
         <v>17</v>
       </c>
       <c r="G742" s="0" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H742" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I742" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J742" s="0" t="s">
         <v>790</v>
@@ -46272,25 +46260,25 @@
         <v>1346</v>
       </c>
       <c r="C743" s="0" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D743" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E743" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F743" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G743" s="0" t="s">
         <v>1544</v>
-      </c>
-      <c r="D743" s="5" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E743" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F743" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G743" s="0" t="s">
-        <v>1545</v>
       </c>
       <c r="H743" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I743" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J743" s="0" t="s">
         <v>795</v>
@@ -46313,10 +46301,10 @@
         <v>1346</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D744" s="5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E744" s="0" t="s">
         <v>16</v>
@@ -46325,13 +46313,13 @@
         <v>17</v>
       </c>
       <c r="G744" s="0" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H744" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I744" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J744" s="0" t="s">
         <v>801</v>
@@ -46354,25 +46342,25 @@
         <v>1346</v>
       </c>
       <c r="C745" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D745" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E745" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F745" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G745" s="0" t="s">
         <v>1547</v>
-      </c>
-      <c r="D745" s="5" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E745" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F745" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G745" s="0" t="s">
-        <v>1548</v>
       </c>
       <c r="H745" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I745" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J745" s="0" t="s">
         <v>806</v>
@@ -46395,10 +46383,10 @@
         <v>1346</v>
       </c>
       <c r="C746" s="0" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D746" s="5" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E746" s="0" t="s">
         <v>16</v>
@@ -46407,13 +46395,13 @@
         <v>17</v>
       </c>
       <c r="G746" s="0" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H746" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I746" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J746" s="0" t="s">
         <v>812</v>
@@ -46436,25 +46424,25 @@
         <v>1346</v>
       </c>
       <c r="C747" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D747" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E747" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F747" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G747" s="0" t="s">
         <v>1550</v>
-      </c>
-      <c r="D747" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E747" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F747" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G747" s="0" t="s">
-        <v>1551</v>
       </c>
       <c r="H747" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I747" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J747" s="0" t="s">
         <v>817</v>
@@ -46477,25 +46465,25 @@
         <v>1346</v>
       </c>
       <c r="C748" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D748" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="D748" s="5" t="s">
+      <c r="E748" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F748" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G748" s="0" t="s">
         <v>1553</v>
-      </c>
-      <c r="E748" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F748" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G748" s="0" t="s">
-        <v>1554</v>
       </c>
       <c r="H748" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I748" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J748" s="0" t="s">
         <v>823</v>
@@ -46518,11 +46506,11 @@
         <v>1346</v>
       </c>
       <c r="C749" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D749" s="5" t="s">
         <v>1555</v>
       </c>
-      <c r="D749" s="5" t="s">
-        <v>1556</v>
-      </c>
       <c r="E749" s="0" t="s">
         <v>16</v>
       </c>
@@ -46530,13 +46518,13 @@
         <v>17</v>
       </c>
       <c r="G749" s="0" t="s">
-        <v>1557</v>
+        <v>1372</v>
       </c>
       <c r="H749" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I749" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J749" s="0" t="s">
         <v>828</v>
@@ -46559,10 +46547,10 @@
         <v>1346</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D750" s="5" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E750" s="0" t="s">
         <v>16</v>
@@ -46571,13 +46559,13 @@
         <v>17</v>
       </c>
       <c r="G750" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H750" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I750" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J750" s="0" t="s">
         <v>834</v>
@@ -46600,10 +46588,10 @@
         <v>1346</v>
       </c>
       <c r="C751" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D751" s="5" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E751" s="0" t="s">
         <v>16</v>
@@ -46612,13 +46600,13 @@
         <v>17</v>
       </c>
       <c r="G751" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H751" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I751" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J751" s="0" t="s">
         <v>841</v>
@@ -46641,10 +46629,10 @@
         <v>1346</v>
       </c>
       <c r="C752" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D752" s="5" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E752" s="0" t="s">
         <v>16</v>
@@ -46653,13 +46641,13 @@
         <v>17</v>
       </c>
       <c r="G752" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H752" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I752" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J752" s="0" t="s">
         <v>848</v>
@@ -46682,10 +46670,10 @@
         <v>1346</v>
       </c>
       <c r="C753" s="0" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D753" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E753" s="0" t="s">
         <v>16</v>
@@ -46694,13 +46682,13 @@
         <v>17</v>
       </c>
       <c r="G753" s="0" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="H753" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I753" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J753" s="0" t="s">
         <v>854</v>
@@ -46723,10 +46711,10 @@
         <v>1346</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D754" s="5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E754" s="0" t="s">
         <v>16</v>
@@ -46735,13 +46723,13 @@
         <v>17</v>
       </c>
       <c r="G754" s="0" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H754" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I754" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J754" s="0" t="s">
         <v>859</v>
@@ -46764,10 +46752,10 @@
         <v>1346</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D755" s="5" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E755" s="0" t="s">
         <v>16</v>
@@ -46776,13 +46764,13 @@
         <v>17</v>
       </c>
       <c r="G755" s="0" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H755" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I755" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J755" s="0" t="s">
         <v>866</v>
@@ -46805,10 +46793,10 @@
         <v>1346</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D756" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E756" s="0" t="s">
         <v>16</v>
@@ -46817,13 +46805,13 @@
         <v>17</v>
       </c>
       <c r="G756" s="0" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H756" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I756" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J756" s="0" t="s">
         <v>873</v>
@@ -46846,10 +46834,10 @@
         <v>1346</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D757" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E757" s="0" t="s">
         <v>16</v>
@@ -46858,13 +46846,13 @@
         <v>17</v>
       </c>
       <c r="G757" s="0" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H757" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I757" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J757" s="0" t="s">
         <v>879</v>
@@ -46887,10 +46875,10 @@
         <v>1346</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D758" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E758" s="0" t="s">
         <v>16</v>
@@ -46899,13 +46887,13 @@
         <v>17</v>
       </c>
       <c r="G758" s="0" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H758" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I758" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J758" s="0" t="s">
         <v>884</v>
@@ -46928,10 +46916,10 @@
         <v>1346</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D759" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E759" s="0" t="s">
         <v>16</v>
@@ -46940,13 +46928,13 @@
         <v>17</v>
       </c>
       <c r="G759" s="0" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H759" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I759" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J759" s="0" t="s">
         <v>891</v>
@@ -46969,10 +46957,10 @@
         <v>1346</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D760" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="E760" s="0" t="s">
         <v>16</v>
@@ -46981,13 +46969,13 @@
         <v>17</v>
       </c>
       <c r="G760" s="0" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H760" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I760" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J760" s="0" t="s">
         <v>897</v>
@@ -47010,10 +46998,10 @@
         <v>1346</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D761" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E761" s="0" t="s">
         <v>16</v>
@@ -47022,13 +47010,13 @@
         <v>17</v>
       </c>
       <c r="G761" s="0" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H761" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I761" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J761" s="0" t="s">
         <v>902</v>
@@ -47051,10 +47039,10 @@
         <v>1346</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D762" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="E762" s="0" t="s">
         <v>16</v>
@@ -47063,13 +47051,13 @@
         <v>17</v>
       </c>
       <c r="G762" s="0" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H762" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I762" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J762" s="0" t="s">
         <v>909</v>
@@ -47092,10 +47080,10 @@
         <v>1346</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D763" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E763" s="0" t="s">
         <v>16</v>
@@ -47104,13 +47092,13 @@
         <v>17</v>
       </c>
       <c r="G763" s="0" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H763" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I763" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J763" s="0" t="s">
         <v>916</v>
@@ -47133,10 +47121,10 @@
         <v>1346</v>
       </c>
       <c r="C764" s="0" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D764" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="E764" s="0" t="s">
         <v>16</v>
@@ -47145,13 +47133,13 @@
         <v>17</v>
       </c>
       <c r="G764" s="0" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H764" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I764" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J764" s="0" t="s">
         <v>922</v>
@@ -47174,10 +47162,10 @@
         <v>1346</v>
       </c>
       <c r="C765" s="0" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D765" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="E765" s="0" t="s">
         <v>16</v>
@@ -47186,13 +47174,13 @@
         <v>17</v>
       </c>
       <c r="G765" s="0" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H765" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I765" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J765" s="0" t="s">
         <v>929</v>
@@ -47215,10 +47203,10 @@
         <v>1346</v>
       </c>
       <c r="C766" s="0" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D766" s="5" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E766" s="0" t="s">
         <v>16</v>
@@ -47227,13 +47215,13 @@
         <v>17</v>
       </c>
       <c r="G766" s="0" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="H766" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I766" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J766" s="0" t="s">
         <v>935</v>
@@ -47256,10 +47244,10 @@
         <v>1346</v>
       </c>
       <c r="C767" s="0" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D767" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="E767" s="0" t="s">
         <v>16</v>
@@ -47268,13 +47256,13 @@
         <v>17</v>
       </c>
       <c r="G767" s="0" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H767" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I767" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J767" s="0" t="s">
         <v>940</v>
@@ -47297,10 +47285,10 @@
         <v>1346</v>
       </c>
       <c r="C768" s="0" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D768" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E768" s="0" t="s">
         <v>16</v>
@@ -47309,13 +47297,13 @@
         <v>17</v>
       </c>
       <c r="G768" s="5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H768" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I768" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J768" s="0" t="s">
         <v>947</v>
@@ -47338,10 +47326,10 @@
         <v>1346</v>
       </c>
       <c r="C769" s="0" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D769" s="5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="E769" s="0" t="s">
         <v>16</v>
@@ -47350,13 +47338,13 @@
         <v>17</v>
       </c>
       <c r="G769" s="5" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="H769" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I769" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J769" s="0" t="s">
         <v>955</v>
@@ -47379,10 +47367,10 @@
         <v>1346</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D770" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E770" s="0" t="s">
         <v>16</v>
@@ -47391,13 +47379,13 @@
         <v>17</v>
       </c>
       <c r="G770" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H770" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I770" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="J770" s="0" t="s">
         <v>964</v>
@@ -47420,10 +47408,10 @@
         <v>1346</v>
       </c>
       <c r="C771" s="0" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D771" s="5" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E771" s="0" t="s">
         <v>16</v>
@@ -47432,7 +47420,7 @@
         <v>17</v>
       </c>
       <c r="G771" s="0" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="H771" s="0" t="n">
         <v>10007</v>
@@ -47461,10 +47449,10 @@
         <v>1346</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D772" s="5" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="E772" s="0" t="s">
         <v>16</v>
@@ -47473,7 +47461,7 @@
         <v>17</v>
       </c>
       <c r="G772" s="0" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H772" s="0" t="n">
         <v>10007</v>
@@ -47502,10 +47490,10 @@
         <v>1346</v>
       </c>
       <c r="C773" s="0" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D773" s="5" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="E773" s="0" t="s">
         <v>16</v>
@@ -47514,7 +47502,7 @@
         <v>17</v>
       </c>
       <c r="G773" s="0" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H773" s="0" t="n">
         <v>10007</v>
@@ -47543,10 +47531,10 @@
         <v>1346</v>
       </c>
       <c r="C774" s="5" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D774" s="0" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E774" s="0" t="s">
         <v>16</v>
@@ -47555,7 +47543,7 @@
         <v>17</v>
       </c>
       <c r="G774" s="0" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H774" s="0" t="n">
         <v>10007</v>
@@ -47584,10 +47572,10 @@
         <v>1346</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="D775" s="0" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="E775" s="0" t="s">
         <v>16</v>
@@ -47596,7 +47584,7 @@
         <v>17</v>
       </c>
       <c r="G775" s="0" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="H775" s="0" t="n">
         <v>10007</v>
@@ -47625,10 +47613,10 @@
         <v>1346</v>
       </c>
       <c r="C776" s="0" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D776" s="0" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E776" s="0" t="s">
         <v>16</v>
@@ -47637,7 +47625,7 @@
         <v>17</v>
       </c>
       <c r="G776" s="0" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="H776" s="0" t="n">
         <v>10007</v>
@@ -47666,10 +47654,10 @@
         <v>1346</v>
       </c>
       <c r="C777" s="0" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D777" s="0" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="E777" s="0" t="s">
         <v>16</v>
@@ -47678,13 +47666,13 @@
         <v>17</v>
       </c>
       <c r="G777" s="5" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="H777" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I777" s="0" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="J777" s="0" t="s">
         <v>1014</v>
@@ -47707,10 +47695,10 @@
         <v>1346</v>
       </c>
       <c r="C778" s="0" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D778" s="5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E778" s="0" t="s">
         <v>16</v>
@@ -47719,13 +47707,13 @@
         <v>17</v>
       </c>
       <c r="G778" s="5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H778" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I778" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J778" s="0" t="s">
         <v>1022</v>
@@ -47748,10 +47736,10 @@
         <v>1346</v>
       </c>
       <c r="C779" s="0" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D779" s="0" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E779" s="0" t="s">
         <v>16</v>
@@ -47763,7 +47751,7 @@
         <v>10003</v>
       </c>
       <c r="I779" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J779" s="0" t="s">
         <v>1029</v>
@@ -47786,10 +47774,10 @@
         <v>1346</v>
       </c>
       <c r="C780" s="0" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="D780" s="0" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E780" s="0" t="s">
         <v>16</v>
@@ -47798,13 +47786,13 @@
         <v>17</v>
       </c>
       <c r="G780" s="0" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="H780" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I780" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J780" s="0" t="s">
         <v>1035</v>
@@ -47827,10 +47815,10 @@
         <v>1346</v>
       </c>
       <c r="C781" s="0" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D781" s="5" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E781" s="0" t="s">
         <v>16</v>
@@ -47839,13 +47827,13 @@
         <v>17</v>
       </c>
       <c r="G781" s="0" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H781" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I781" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J781" s="0" t="s">
         <v>1040</v>
@@ -47868,10 +47856,10 @@
         <v>1346</v>
       </c>
       <c r="C782" s="0" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="D782" s="5" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E782" s="0" t="s">
         <v>16</v>
@@ -47880,13 +47868,13 @@
         <v>17</v>
       </c>
       <c r="G782" s="0" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="H782" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I782" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J782" s="0" t="s">
         <v>1045</v>
@@ -47909,10 +47897,10 @@
         <v>1346</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D783" s="0" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="E783" s="0" t="s">
         <v>16</v>
@@ -47921,13 +47909,13 @@
         <v>17</v>
       </c>
       <c r="G783" s="0" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H783" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I783" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J783" s="0" t="s">
         <v>1050</v>
@@ -47950,10 +47938,10 @@
         <v>1346</v>
       </c>
       <c r="C784" s="0" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="D784" s="0" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E784" s="0" t="s">
         <v>16</v>
@@ -47962,13 +47950,13 @@
         <v>17</v>
       </c>
       <c r="G784" s="0" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="H784" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I784" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J784" s="0" t="s">
         <v>1055</v>
@@ -47991,10 +47979,10 @@
         <v>1346</v>
       </c>
       <c r="C785" s="0" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D785" s="5" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E785" s="0" t="s">
         <v>16</v>
@@ -48003,13 +47991,13 @@
         <v>17</v>
       </c>
       <c r="G785" s="0" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="H785" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I785" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J785" s="0" t="s">
         <v>1060</v>
@@ -48032,10 +48020,10 @@
         <v>1346</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D786" s="5" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="E786" s="0" t="s">
         <v>16</v>
@@ -48044,13 +48032,13 @@
         <v>17</v>
       </c>
       <c r="G786" s="0" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H786" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I786" s="0" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="J786" s="0" t="s">
         <v>1065</v>
@@ -48073,10 +48061,10 @@
         <v>1346</v>
       </c>
       <c r="C787" s="0" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="D787" s="5" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E787" s="0" t="s">
         <v>16</v>
@@ -48085,13 +48073,13 @@
         <v>17</v>
       </c>
       <c r="G787" s="0" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="H787" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I787" s="0" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="J787" s="0" t="s">
         <v>1070</v>
@@ -48111,13 +48099,13 @@
         <v>13</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C788" s="0" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D788" s="5" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="E788" s="0" t="s">
         <v>16</v>
@@ -48126,13 +48114,13 @@
         <v>17</v>
       </c>
       <c r="G788" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="H788" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I788" s="0" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="J788" s="0" t="s">
         <v>20</v>
@@ -48152,28 +48140,28 @@
         <v>24</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C789" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D789" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F789" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G789" s="0" t="s">
         <v>1633</v>
-      </c>
-      <c r="D789" s="5" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E789" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F789" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G789" s="0" t="s">
-        <v>1636</v>
       </c>
       <c r="H789" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I789" s="0" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="J789" s="0" t="s">
         <v>27</v>
@@ -48193,13 +48181,13 @@
         <v>28</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C790" s="0" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D790" s="5" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="E790" s="0" t="s">
         <v>16</v>
@@ -48208,13 +48196,13 @@
         <v>17</v>
       </c>
       <c r="G790" s="0" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="H790" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I790" s="0" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="J790" s="0" t="s">
         <v>31</v>
@@ -48234,13 +48222,13 @@
         <v>48</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D791" s="5" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="E791" s="0" t="s">
         <v>16</v>
@@ -48249,13 +48237,13 @@
         <v>17</v>
       </c>
       <c r="G791" s="5" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="H791" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I791" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J791" s="0" t="s">
         <v>52</v>
@@ -48275,13 +48263,13 @@
         <v>53</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C792" s="0" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D792" s="5" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="E792" s="0" t="s">
         <v>16</v>
@@ -48290,13 +48278,13 @@
         <v>17</v>
       </c>
       <c r="G792" s="0" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="H792" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I792" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J792" s="0" t="s">
         <v>56</v>
@@ -48316,13 +48304,13 @@
         <v>57</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D793" s="5" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E793" s="0" t="s">
         <v>16</v>
@@ -48331,13 +48319,13 @@
         <v>17</v>
       </c>
       <c r="G793" s="5" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="H793" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I793" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J793" s="0" t="s">
         <v>60</v>
@@ -48357,13 +48345,13 @@
         <v>61</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D794" s="5" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E794" s="0" t="s">
         <v>16</v>
@@ -48372,13 +48360,13 @@
         <v>17</v>
       </c>
       <c r="G794" s="5" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="H794" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I794" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J794" s="0" t="s">
         <v>64</v>
@@ -48398,13 +48386,13 @@
         <v>65</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C795" s="0" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D795" s="5" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E795" s="0" t="s">
         <v>16</v>
@@ -48413,13 +48401,13 @@
         <v>17</v>
       </c>
       <c r="G795" s="0" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="H795" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I795" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J795" s="0" t="s">
         <v>68</v>
@@ -48439,13 +48427,13 @@
         <v>69</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C796" s="0" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D796" s="5" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E796" s="0" t="s">
         <v>16</v>
@@ -48454,13 +48442,13 @@
         <v>17</v>
       </c>
       <c r="G796" s="0" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="H796" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I796" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J796" s="0" t="s">
         <v>72</v>
@@ -48480,13 +48468,13 @@
         <v>73</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C797" s="0" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D797" s="5" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E797" s="0" t="s">
         <v>16</v>
@@ -48495,13 +48483,13 @@
         <v>17</v>
       </c>
       <c r="G797" s="0" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="H797" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I797" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J797" s="0" t="s">
         <v>76</v>
@@ -48521,13 +48509,13 @@
         <v>77</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="D798" s="5" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E798" s="0" t="s">
         <v>16</v>
@@ -48536,13 +48524,13 @@
         <v>17</v>
       </c>
       <c r="G798" s="0" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="H798" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I798" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J798" s="0" t="s">
         <v>80</v>
@@ -48562,13 +48550,13 @@
         <v>115</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D799" s="5" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E799" s="0" t="s">
         <v>16</v>
@@ -48577,13 +48565,13 @@
         <v>17</v>
       </c>
       <c r="G799" s="0" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H799" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I799" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J799" s="0" t="s">
         <v>119</v>
@@ -48603,28 +48591,28 @@
         <v>120</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C800" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D800" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F800" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G800" s="0" t="s">
         <v>1655</v>
-      </c>
-      <c r="D800" s="5" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E800" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F800" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G800" s="0" t="s">
-        <v>1658</v>
       </c>
       <c r="H800" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I800" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J800" s="0" t="s">
         <v>123</v>
@@ -48644,13 +48632,13 @@
         <v>124</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C801" s="0" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="D801" s="5" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="E801" s="0" t="s">
         <v>16</v>
@@ -48659,13 +48647,13 @@
         <v>17</v>
       </c>
       <c r="G801" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="H801" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I801" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J801" s="0" t="s">
         <v>126</v>
@@ -48685,13 +48673,13 @@
         <v>127</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C802" s="0" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D802" s="5" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E802" s="0" t="s">
         <v>16</v>
@@ -48700,13 +48688,13 @@
         <v>17</v>
       </c>
       <c r="G802" s="5" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="H802" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I802" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J802" s="0" t="s">
         <v>130</v>
@@ -48726,13 +48714,13 @@
         <v>131</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C803" s="0" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D803" s="5" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="E803" s="0" t="s">
         <v>16</v>
@@ -48741,13 +48729,13 @@
         <v>17</v>
       </c>
       <c r="G803" s="0" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="H803" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I803" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J803" s="0" t="s">
         <v>134</v>
@@ -48767,13 +48755,13 @@
         <v>135</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C804" s="0" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="D804" s="5" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E804" s="0" t="s">
         <v>16</v>
@@ -48782,13 +48770,13 @@
         <v>17</v>
       </c>
       <c r="G804" s="5" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="H804" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I804" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J804" s="0" t="s">
         <v>137</v>
@@ -48808,13 +48796,13 @@
         <v>138</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C805" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D805" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E805" s="0" t="s">
         <v>16</v>
@@ -48823,13 +48811,13 @@
         <v>17</v>
       </c>
       <c r="G805" s="5" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="H805" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I805" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J805" s="0" t="s">
         <v>141</v>
@@ -48849,13 +48837,13 @@
         <v>142</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C806" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D806" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E806" s="0" t="s">
         <v>16</v>
@@ -48864,13 +48852,13 @@
         <v>17</v>
       </c>
       <c r="G806" s="0" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="H806" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I806" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J806" s="0" t="s">
         <v>145</v>
@@ -48890,13 +48878,13 @@
         <v>146</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="D807" s="5" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="E807" s="0" t="s">
         <v>16</v>
@@ -48905,13 +48893,13 @@
         <v>17</v>
       </c>
       <c r="G807" s="5" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="H807" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I807" s="0" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="J807" s="0" t="s">
         <v>148</v>
@@ -48931,13 +48919,13 @@
         <v>182</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C808" s="0" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D808" s="5" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E808" s="0" t="s">
         <v>16</v>
@@ -48946,13 +48934,13 @@
         <v>17</v>
       </c>
       <c r="G808" s="5" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="H808" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I808" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J808" s="0" t="s">
         <v>186</v>
@@ -48972,13 +48960,13 @@
         <v>187</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C809" s="0" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D809" s="5" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E809" s="0" t="s">
         <v>16</v>
@@ -48987,13 +48975,13 @@
         <v>17</v>
       </c>
       <c r="G809" s="5" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="H809" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I809" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J809" s="0" t="s">
         <v>190</v>
@@ -49013,13 +49001,13 @@
         <v>191</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C810" s="0" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D810" s="5" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E810" s="0" t="s">
         <v>16</v>
@@ -49028,13 +49016,13 @@
         <v>17</v>
       </c>
       <c r="G810" s="5" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="H810" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I810" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J810" s="0" t="s">
         <v>194</v>
@@ -49054,13 +49042,13 @@
         <v>195</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C811" s="0" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D811" s="5" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E811" s="0" t="s">
         <v>16</v>
@@ -49069,13 +49057,13 @@
         <v>17</v>
       </c>
       <c r="G811" s="0" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H811" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I811" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J811" s="0" t="s">
         <v>198</v>
@@ -49095,13 +49083,13 @@
         <v>199</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C812" s="0" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="D812" s="5" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E812" s="0" t="s">
         <v>16</v>
@@ -49110,13 +49098,13 @@
         <v>17</v>
       </c>
       <c r="G812" s="5" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="H812" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I812" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J812" s="0" t="s">
         <v>201</v>
@@ -49136,13 +49124,13 @@
         <v>202</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C813" s="0" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D813" s="5" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E813" s="0" t="s">
         <v>16</v>
@@ -49151,13 +49139,13 @@
         <v>17</v>
       </c>
       <c r="G813" s="5" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H813" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I813" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J813" s="0" t="s">
         <v>205</v>
@@ -49177,13 +49165,13 @@
         <v>230</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C814" s="0" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D814" s="5" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E814" s="0" t="s">
         <v>16</v>
@@ -49192,13 +49180,13 @@
         <v>17</v>
       </c>
       <c r="G814" s="0" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="H814" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I814" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J814" s="0" t="s">
         <v>233</v>
@@ -49218,7 +49206,7 @@
         <v>238</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C815" s="0" t="s">
         <v>1123</v>
@@ -49233,13 +49221,13 @@
         <v>17</v>
       </c>
       <c r="G815" s="5" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="H815" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I815" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J815" s="0" t="s">
         <v>242</v>
@@ -49259,13 +49247,13 @@
         <v>247</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D816" s="5" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E816" s="0" t="s">
         <v>16</v>
@@ -49274,13 +49262,13 @@
         <v>17</v>
       </c>
       <c r="G816" s="0" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="H816" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I816" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J816" s="0" t="s">
         <v>250</v>
@@ -49300,13 +49288,13 @@
         <v>254</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="D817" s="5" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E817" s="0" t="s">
         <v>16</v>
@@ -49315,13 +49303,13 @@
         <v>17</v>
       </c>
       <c r="G817" s="0" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="H817" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I817" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J817" s="0" t="s">
         <v>257</v>
@@ -49341,13 +49329,13 @@
         <v>261</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="D818" s="5" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E818" s="0" t="s">
         <v>16</v>
@@ -49356,13 +49344,13 @@
         <v>17</v>
       </c>
       <c r="G818" s="0" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="H818" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I818" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J818" s="0" t="s">
         <v>264</v>
@@ -49382,13 +49370,13 @@
         <v>268</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C819" s="0" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="D819" s="5" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E819" s="0" t="s">
         <v>16</v>
@@ -49397,13 +49385,13 @@
         <v>17</v>
       </c>
       <c r="G819" s="0" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="H819" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I819" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J819" s="0" t="s">
         <v>271</v>
@@ -49423,13 +49411,13 @@
         <v>275</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C820" s="0" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D820" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E820" s="0" t="s">
         <v>16</v>
@@ -49438,13 +49426,13 @@
         <v>17</v>
       </c>
       <c r="G820" s="0" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="H820" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I820" s="5" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="J820" s="0" t="s">
         <v>280</v>
@@ -49464,13 +49452,13 @@
         <v>288</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C821" s="0" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D821" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E821" s="0" t="s">
         <v>16</v>
@@ -49479,13 +49467,13 @@
         <v>17</v>
       </c>
       <c r="G821" s="5" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="H821" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I821" s="5" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="J821" s="0" t="s">
         <v>290</v>
@@ -49505,13 +49493,13 @@
         <v>295</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C822" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D822" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E822" s="0" t="s">
         <v>16</v>
@@ -49520,13 +49508,13 @@
         <v>17</v>
       </c>
       <c r="G822" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H822" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I822" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J822" s="0" t="s">
         <v>201</v>
@@ -49546,13 +49534,13 @@
         <v>299</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C823" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D823" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E823" s="0" t="s">
         <v>16</v>
@@ -49561,13 +49549,13 @@
         <v>17</v>
       </c>
       <c r="G823" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H823" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I823" s="0" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="J823" s="0" t="s">
         <v>201</v>
@@ -49587,13 +49575,13 @@
         <v>301</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C824" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D824" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E824" s="0" t="s">
         <v>16</v>
@@ -49602,13 +49590,13 @@
         <v>17</v>
       </c>
       <c r="G824" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H824" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I824" s="0" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="J824" s="0" t="s">
         <v>201</v>
@@ -49628,13 +49616,13 @@
         <v>303</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D825" s="0" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E825" s="0" t="s">
         <v>16</v>
@@ -49643,13 +49631,13 @@
         <v>17</v>
       </c>
       <c r="G825" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H825" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I825" s="5" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="J825" s="0" t="s">
         <v>201</v>
@@ -49669,13 +49657,13 @@
         <v>304</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C826" s="0" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D826" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="E826" s="0" t="s">
         <v>16</v>
@@ -49684,13 +49672,13 @@
         <v>17</v>
       </c>
       <c r="G826" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H826" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I826" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J826" s="0" t="s">
         <v>308</v>
@@ -49710,13 +49698,13 @@
         <v>312</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C827" s="0" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D827" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E827" s="0" t="s">
         <v>16</v>
@@ -49725,13 +49713,13 @@
         <v>17</v>
       </c>
       <c r="G827" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="H827" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I827" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J827" s="0" t="s">
         <v>315</v>
@@ -49751,13 +49739,13 @@
         <v>318</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C828" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D828" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E828" s="0" t="s">
         <v>16</v>
@@ -49766,13 +49754,13 @@
         <v>17</v>
       </c>
       <c r="G828" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H828" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I828" s="5" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J828" s="0" t="s">
         <v>319</v>
@@ -49792,13 +49780,13 @@
         <v>320</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C829" s="5" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D829" s="0" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="E829" s="0" t="s">
         <v>16</v>
@@ -49807,13 +49795,13 @@
         <v>17</v>
       </c>
       <c r="G829" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H829" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I829" s="5" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="J829" s="0" t="s">
         <v>308</v>
@@ -49833,28 +49821,28 @@
         <v>324</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C830" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D830" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F830" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G830" s="5" t="s">
         <v>1705</v>
-      </c>
-      <c r="D830" s="5" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E830" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F830" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G830" s="5" t="s">
-        <v>1708</v>
       </c>
       <c r="H830" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I830" s="5" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="J830" s="0" t="s">
         <v>315</v>
@@ -49874,13 +49862,13 @@
         <v>326</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C831" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D831" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E831" s="0" t="s">
         <v>16</v>
@@ -49889,13 +49877,13 @@
         <v>17</v>
       </c>
       <c r="G831" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H831" s="0" t="n">
         <v>10008</v>
       </c>
       <c r="I831" s="5" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="J831" s="0" t="s">
         <v>319</v>
@@ -49915,13 +49903,13 @@
         <v>327</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C832" s="5" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D832" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="E832" s="0" t="s">
         <v>16</v>
@@ -49930,13 +49918,13 @@
         <v>17</v>
       </c>
       <c r="G832" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H832" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I832" s="0" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="J832" s="0" t="s">
         <v>308</v>
@@ -49956,13 +49944,13 @@
         <v>328</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C833" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D833" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E833" s="0" t="s">
         <v>16</v>
@@ -49971,13 +49959,13 @@
         <v>17</v>
       </c>
       <c r="G833" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="H833" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I833" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="J833" s="0" t="s">
         <v>315</v>
@@ -49997,13 +49985,13 @@
         <v>329</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C834" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="D834" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E834" s="0" t="s">
         <v>16</v>
@@ -50012,13 +50000,13 @@
         <v>17</v>
       </c>
       <c r="G834" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H834" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I834" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="J834" s="0" t="s">
         <v>319</v>
@@ -50038,13 +50026,13 @@
         <v>330</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D835" s="5" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E835" s="0" t="s">
         <v>16</v>
@@ -50053,13 +50041,13 @@
         <v>17</v>
       </c>
       <c r="G835" s="5" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="H835" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I835" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="J835" s="0" t="s">
         <v>333</v>
@@ -50079,13 +50067,13 @@
         <v>338</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="D836" s="5" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E836" s="0" t="s">
         <v>16</v>
@@ -50094,13 +50082,13 @@
         <v>17</v>
       </c>
       <c r="G836" s="5" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="H836" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I836" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="J836" s="0" t="s">
         <v>341</v>
@@ -50120,13 +50108,13 @@
         <v>346</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C837" s="0" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D837" s="5" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E837" s="0" t="s">
         <v>16</v>
@@ -50135,13 +50123,13 @@
         <v>17</v>
       </c>
       <c r="G837" s="5" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="H837" s="0" t="n">
         <v>10004</v>
       </c>
       <c r="I837" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="J837" s="0" t="s">
         <v>349</v>
@@ -50161,13 +50149,13 @@
         <v>354</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C838" s="0" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="D838" s="5" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="E838" s="0" t="s">
         <v>16</v>
@@ -50176,13 +50164,13 @@
         <v>17</v>
       </c>
       <c r="G838" s="0" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="H838" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I838" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="J838" s="0" t="s">
         <v>357</v>
@@ -50202,13 +50190,13 @@
         <v>362</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C839" s="0" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D839" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E839" s="0" t="s">
         <v>16</v>
@@ -50217,13 +50205,13 @@
         <v>17</v>
       </c>
       <c r="G839" s="0" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="H839" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I839" s="5" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="J839" s="0" t="s">
         <v>364</v>
@@ -50243,13 +50231,13 @@
         <v>369</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C840" s="0" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D840" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E840" s="0" t="s">
         <v>16</v>
@@ -50258,13 +50246,13 @@
         <v>17</v>
       </c>
       <c r="G840" s="0" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H840" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I840" s="5" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="J840" s="0" t="s">
         <v>370</v>
@@ -50284,13 +50272,13 @@
         <v>372</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C841" s="0" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D841" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E841" s="0" t="s">
         <v>16</v>
@@ -50299,13 +50287,13 @@
         <v>17</v>
       </c>
       <c r="G841" s="0" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="H841" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I841" s="5" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="J841" s="0" t="s">
         <v>374</v>
@@ -50325,13 +50313,13 @@
         <v>377</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C842" s="0" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D842" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E842" s="0" t="s">
         <v>16</v>
@@ -50340,13 +50328,13 @@
         <v>17</v>
       </c>
       <c r="G842" s="0" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="H842" s="0" t="n">
         <v>10005</v>
       </c>
       <c r="I842" s="5" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="J842" s="0" t="s">
         <v>378</v>
@@ -50366,13 +50354,13 @@
         <v>379</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C843" s="0" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="D843" s="5" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E843" s="0" t="s">
         <v>16</v>
@@ -50381,13 +50369,13 @@
         <v>17</v>
       </c>
       <c r="G843" s="5" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="H843" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I843" s="5" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="J843" s="0" t="s">
         <v>382</v>
@@ -50407,13 +50395,13 @@
         <v>387</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C844" s="0" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D844" s="0" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="E844" s="0" t="s">
         <v>16</v>
@@ -50422,13 +50410,13 @@
         <v>17</v>
       </c>
       <c r="G844" s="0" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="H844" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I844" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J844" s="0" t="s">
         <v>390</v>
@@ -50448,13 +50436,13 @@
         <v>395</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C845" s="0" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D845" s="5" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="E845" s="0" t="s">
         <v>16</v>
@@ -50463,13 +50451,13 @@
         <v>17</v>
       </c>
       <c r="G845" s="0" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="H845" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I845" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J845" s="0" t="s">
         <v>398</v>
@@ -50489,13 +50477,13 @@
         <v>403</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C846" s="0" t="s">
         <v>1163</v>
       </c>
       <c r="D846" s="5" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="E846" s="0" t="s">
         <v>16</v>
@@ -50504,13 +50492,13 @@
         <v>17</v>
       </c>
       <c r="G846" s="5" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="H846" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I846" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J846" s="0" t="s">
         <v>406</v>
@@ -50530,13 +50518,13 @@
         <v>410</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C847" s="0" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D847" s="5" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E847" s="0" t="s">
         <v>16</v>
@@ -50545,13 +50533,13 @@
         <v>17</v>
       </c>
       <c r="G847" s="0" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="H847" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I847" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J847" s="0" t="s">
         <v>414</v>
@@ -50571,13 +50559,13 @@
         <v>420</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C848" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D848" s="5" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E848" s="0" t="s">
         <v>16</v>
@@ -50586,13 +50574,13 @@
         <v>17</v>
       </c>
       <c r="G848" s="0" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="H848" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I848" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J848" s="0" t="s">
         <v>422</v>
@@ -50612,13 +50600,13 @@
         <v>426</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C849" s="0" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D849" s="5" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="E849" s="0" t="s">
         <v>16</v>
@@ -50627,13 +50615,13 @@
         <v>17</v>
       </c>
       <c r="G849" s="0" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="H849" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I849" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J849" s="0" t="s">
         <v>429</v>
@@ -50653,13 +50641,13 @@
         <v>434</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C850" s="0" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D850" s="5" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="E850" s="0" t="s">
         <v>16</v>
@@ -50668,13 +50656,13 @@
         <v>17</v>
       </c>
       <c r="G850" s="0" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="H850" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I850" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J850" s="0" t="s">
         <v>437</v>
@@ -50694,13 +50682,13 @@
         <v>442</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C851" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D851" s="5" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E851" s="0" t="s">
         <v>16</v>
@@ -50709,13 +50697,13 @@
         <v>17</v>
       </c>
       <c r="G851" s="0" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="H851" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I851" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J851" s="0" t="s">
         <v>446</v>
@@ -50735,13 +50723,13 @@
         <v>452</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C852" s="0" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D852" s="5" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="E852" s="0" t="s">
         <v>16</v>
@@ -50750,13 +50738,13 @@
         <v>17</v>
       </c>
       <c r="G852" s="0" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="H852" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I852" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J852" s="0" t="s">
         <v>454</v>
@@ -50776,13 +50764,13 @@
         <v>457</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C853" s="0" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D853" s="5" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="E853" s="0" t="s">
         <v>16</v>
@@ -50791,13 +50779,13 @@
         <v>17</v>
       </c>
       <c r="G853" s="0" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="H853" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I853" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J853" s="0" t="s">
         <v>460</v>
@@ -50817,13 +50805,13 @@
         <v>465</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C854" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D854" s="5" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="E854" s="0" t="s">
         <v>16</v>
@@ -50832,13 +50820,13 @@
         <v>17</v>
       </c>
       <c r="G854" s="0" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="H854" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I854" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J854" s="0" t="s">
         <v>468</v>
@@ -50858,13 +50846,13 @@
         <v>473</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C855" s="0" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D855" s="5" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E855" s="0" t="s">
         <v>16</v>
@@ -50873,13 +50861,13 @@
         <v>17</v>
       </c>
       <c r="G855" s="0" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="H855" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I855" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J855" s="0" t="s">
         <v>475</v>
@@ -50899,13 +50887,13 @@
         <v>478</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C856" s="0" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="E856" s="0" t="s">
         <v>16</v>
@@ -50914,13 +50902,13 @@
         <v>17</v>
       </c>
       <c r="G856" s="0" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="H856" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I856" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J856" s="0" t="s">
         <v>481</v>
@@ -50940,13 +50928,13 @@
         <v>486</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C857" s="0" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="D857" s="5" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="E857" s="0" t="s">
         <v>16</v>
@@ -50955,13 +50943,13 @@
         <v>17</v>
       </c>
       <c r="G857" s="0" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="H857" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I857" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J857" s="0" t="s">
         <v>489</v>
@@ -50981,13 +50969,13 @@
         <v>494</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D858" s="5" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="E858" s="0" t="s">
         <v>16</v>
@@ -50996,13 +50984,13 @@
         <v>17</v>
       </c>
       <c r="G858" s="0" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="H858" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I858" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J858" s="0" t="s">
         <v>496</v>
@@ -51022,13 +51010,13 @@
         <v>499</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C859" s="0" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D859" s="5" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="E859" s="0" t="s">
         <v>16</v>
@@ -51037,13 +51025,13 @@
         <v>17</v>
       </c>
       <c r="G859" s="0" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="H859" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I859" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J859" s="0" t="s">
         <v>502</v>
@@ -51063,13 +51051,13 @@
         <v>507</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D860" s="5" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="E860" s="0" t="s">
         <v>16</v>
@@ -51078,13 +51066,13 @@
         <v>17</v>
       </c>
       <c r="G860" s="0" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="H860" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I860" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J860" s="0" t="s">
         <v>510</v>
@@ -51104,13 +51092,13 @@
         <v>515</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C861" s="0" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D861" s="5" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="E861" s="0" t="s">
         <v>16</v>
@@ -51119,13 +51107,13 @@
         <v>17</v>
       </c>
       <c r="G861" s="0" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="H861" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I861" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J861" s="0" t="s">
         <v>517</v>
@@ -51145,13 +51133,13 @@
         <v>520</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C862" s="0" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D862" s="5" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="E862" s="0" t="s">
         <v>16</v>
@@ -51160,13 +51148,13 @@
         <v>17</v>
       </c>
       <c r="G862" s="5" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="H862" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I862" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J862" s="0" t="s">
         <v>523</v>
@@ -51186,13 +51174,13 @@
         <v>528</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C863" s="0" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="D863" s="5" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="E863" s="0" t="s">
         <v>16</v>
@@ -51201,13 +51189,13 @@
         <v>17</v>
       </c>
       <c r="G863" s="0" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="H863" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I863" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J863" s="0" t="s">
         <v>531</v>
@@ -51227,13 +51215,13 @@
         <v>536</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C864" s="0" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D864" s="5" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="E864" s="0" t="s">
         <v>16</v>
@@ -51242,13 +51230,13 @@
         <v>17</v>
       </c>
       <c r="G864" s="0" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="H864" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I864" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J864" s="0" t="s">
         <v>538</v>
@@ -51268,13 +51256,13 @@
         <v>541</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C865" s="0" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="D865" s="5" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="E865" s="0" t="s">
         <v>16</v>
@@ -51283,13 +51271,13 @@
         <v>17</v>
       </c>
       <c r="G865" s="0" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="H865" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I865" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J865" s="0" t="s">
         <v>544</v>
@@ -51309,13 +51297,13 @@
         <v>549</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C866" s="0" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D866" s="5" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E866" s="0" t="s">
         <v>16</v>
@@ -51324,13 +51312,13 @@
         <v>17</v>
       </c>
       <c r="G866" s="0" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="H866" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I866" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J866" s="0" t="s">
         <v>552</v>
@@ -51350,13 +51338,13 @@
         <v>557</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C867" s="0" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D867" s="5" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E867" s="0" t="s">
         <v>16</v>
@@ -51365,13 +51353,13 @@
         <v>17</v>
       </c>
       <c r="G867" s="0" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="H867" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I867" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J867" s="0" t="s">
         <v>559</v>
@@ -51391,13 +51379,13 @@
         <v>562</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C868" s="0" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D868" s="5" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E868" s="0" t="s">
         <v>16</v>
@@ -51406,13 +51394,13 @@
         <v>17</v>
       </c>
       <c r="G868" s="0" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="H868" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I868" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J868" s="0" t="s">
         <v>565</v>
@@ -51432,13 +51420,13 @@
         <v>570</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C869" s="0" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D869" s="5" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="E869" s="0" t="s">
         <v>16</v>
@@ -51447,13 +51435,13 @@
         <v>17</v>
       </c>
       <c r="G869" s="0" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="H869" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I869" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J869" s="0" t="s">
         <v>573</v>
@@ -51473,13 +51461,13 @@
         <v>578</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C870" s="0" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D870" s="5" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="E870" s="0" t="s">
         <v>16</v>
@@ -51488,13 +51476,13 @@
         <v>17</v>
       </c>
       <c r="G870" s="0" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="H870" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I870" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J870" s="0" t="s">
         <v>581</v>
@@ -51514,13 +51502,13 @@
         <v>585</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C871" s="0" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="E871" s="0" t="s">
         <v>16</v>
@@ -51529,13 +51517,13 @@
         <v>17</v>
       </c>
       <c r="G871" s="0" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="H871" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I871" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J871" s="0" t="s">
         <v>588</v>
@@ -51555,13 +51543,13 @@
         <v>593</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C872" s="0" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D872" s="5" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="E872" s="0" t="s">
         <v>16</v>
@@ -51570,13 +51558,13 @@
         <v>17</v>
       </c>
       <c r="G872" s="0" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="H872" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I872" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J872" s="0" t="s">
         <v>596</v>
@@ -51596,13 +51584,13 @@
         <v>601</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C873" s="0" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D873" s="5" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="E873" s="0" t="s">
         <v>16</v>
@@ -51611,13 +51599,13 @@
         <v>17</v>
       </c>
       <c r="G873" s="0" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="H873" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I873" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J873" s="0" t="s">
         <v>603</v>
@@ -51637,13 +51625,13 @@
         <v>606</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C874" s="0" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D874" s="5" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="E874" s="0" t="s">
         <v>16</v>
@@ -51652,13 +51640,13 @@
         <v>17</v>
       </c>
       <c r="G874" s="0" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="H874" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I874" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J874" s="0" t="s">
         <v>609</v>
@@ -51678,13 +51666,13 @@
         <v>614</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C875" s="0" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D875" s="5" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="E875" s="0" t="s">
         <v>16</v>
@@ -51693,13 +51681,13 @@
         <v>17</v>
       </c>
       <c r="G875" s="0" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="H875" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I875" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J875" s="0" t="s">
         <v>617</v>
@@ -51719,13 +51707,13 @@
         <v>622</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D876" s="5" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E876" s="0" t="s">
         <v>16</v>
@@ -51734,13 +51722,13 @@
         <v>17</v>
       </c>
       <c r="G876" s="0" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="H876" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I876" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J876" s="0" t="s">
         <v>624</v>
@@ -51760,13 +51748,13 @@
         <v>627</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D877" s="5" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="E877" s="0" t="s">
         <v>16</v>
@@ -51775,13 +51763,13 @@
         <v>17</v>
       </c>
       <c r="G877" s="0" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="H877" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I877" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J877" s="0" t="s">
         <v>630</v>
@@ -51801,13 +51789,13 @@
         <v>635</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C878" s="0" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D878" s="5" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="E878" s="0" t="s">
         <v>16</v>
@@ -51816,13 +51804,13 @@
         <v>17</v>
       </c>
       <c r="G878" s="0" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="H878" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I878" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J878" s="0" t="s">
         <v>638</v>
@@ -51842,13 +51830,13 @@
         <v>643</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D879" s="5" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="E879" s="0" t="s">
         <v>16</v>
@@ -51857,13 +51845,13 @@
         <v>17</v>
       </c>
       <c r="G879" s="0" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="H879" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I879" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J879" s="0" t="s">
         <v>645</v>
@@ -51883,13 +51871,13 @@
         <v>648</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D880" s="5" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="E880" s="0" t="s">
         <v>16</v>
@@ -51898,13 +51886,13 @@
         <v>17</v>
       </c>
       <c r="G880" s="0" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="H880" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I880" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J880" s="0" t="s">
         <v>651</v>
@@ -51924,13 +51912,13 @@
         <v>656</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C881" s="0" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D881" s="5" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="E881" s="0" t="s">
         <v>16</v>
@@ -51939,13 +51927,13 @@
         <v>17</v>
       </c>
       <c r="G881" s="0" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="H881" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I881" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J881" s="0" t="s">
         <v>659</v>
@@ -51965,13 +51953,13 @@
         <v>664</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D882" s="5" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="E882" s="0" t="s">
         <v>16</v>
@@ -51980,13 +51968,13 @@
         <v>17</v>
       </c>
       <c r="G882" s="0" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="H882" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I882" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J882" s="0" t="s">
         <v>666</v>
@@ -52006,13 +51994,13 @@
         <v>669</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C883" s="0" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D883" s="5" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="E883" s="0" t="s">
         <v>16</v>
@@ -52021,13 +52009,13 @@
         <v>17</v>
       </c>
       <c r="G883" s="0" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="H883" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I883" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J883" s="0" t="s">
         <v>672</v>
@@ -52047,13 +52035,13 @@
         <v>677</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C884" s="0" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D884" s="5" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E884" s="0" t="s">
         <v>16</v>
@@ -52062,13 +52050,13 @@
         <v>17</v>
       </c>
       <c r="G884" s="0" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="H884" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I884" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J884" s="0" t="s">
         <v>680</v>
@@ -52088,13 +52076,13 @@
         <v>683</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C885" s="0" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D885" s="5" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="E885" s="0" t="s">
         <v>16</v>
@@ -52103,13 +52091,13 @@
         <v>17</v>
       </c>
       <c r="G885" s="0" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="H885" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I885" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J885" s="0" t="s">
         <v>685</v>
@@ -52129,13 +52117,13 @@
         <v>688</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C886" s="0" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="D886" s="5" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E886" s="0" t="s">
         <v>16</v>
@@ -52144,13 +52132,13 @@
         <v>17</v>
       </c>
       <c r="G886" s="0" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H886" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I886" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J886" s="0" t="s">
         <v>691</v>
@@ -52170,13 +52158,13 @@
         <v>696</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C887" s="0" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D887" s="5" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="E887" s="0" t="s">
         <v>16</v>
@@ -52185,13 +52173,13 @@
         <v>17</v>
       </c>
       <c r="G887" s="0" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="H887" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I887" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J887" s="0" t="s">
         <v>699</v>
@@ -52211,13 +52199,13 @@
         <v>704</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C888" s="0" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D888" s="5" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="E888" s="0" t="s">
         <v>16</v>
@@ -52226,13 +52214,13 @@
         <v>17</v>
       </c>
       <c r="G888" s="0" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H888" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I888" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J888" s="0" t="s">
         <v>706</v>
@@ -52252,13 +52240,13 @@
         <v>709</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C889" s="0" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D889" s="5" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E889" s="0" t="s">
         <v>16</v>
@@ -52267,13 +52255,13 @@
         <v>17</v>
       </c>
       <c r="G889" s="0" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="H889" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I889" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J889" s="0" t="s">
         <v>712</v>
@@ -52293,13 +52281,13 @@
         <v>717</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C890" s="0" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D890" s="5" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="E890" s="0" t="s">
         <v>16</v>
@@ -52308,13 +52296,13 @@
         <v>17</v>
       </c>
       <c r="G890" s="0" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="H890" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I890" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J890" s="0" t="s">
         <v>720</v>
@@ -52334,13 +52322,13 @@
         <v>725</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C891" s="0" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D891" s="5" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E891" s="0" t="s">
         <v>16</v>
@@ -52349,13 +52337,13 @@
         <v>17</v>
       </c>
       <c r="G891" s="0" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="H891" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I891" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J891" s="0" t="s">
         <v>727</v>
@@ -52375,13 +52363,13 @@
         <v>730</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C892" s="0" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D892" s="5" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E892" s="0" t="s">
         <v>16</v>
@@ -52390,13 +52378,13 @@
         <v>17</v>
       </c>
       <c r="G892" s="0" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H892" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I892" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J892" s="0" t="s">
         <v>733</v>
@@ -52416,13 +52404,13 @@
         <v>738</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C893" s="0" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D893" s="5" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="E893" s="0" t="s">
         <v>16</v>
@@ -52431,13 +52419,13 @@
         <v>17</v>
       </c>
       <c r="G893" s="0" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="H893" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I893" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J893" s="0" t="s">
         <v>741</v>
@@ -52457,13 +52445,13 @@
         <v>746</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C894" s="0" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D894" s="5" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E894" s="0" t="s">
         <v>16</v>
@@ -52472,13 +52460,13 @@
         <v>17</v>
       </c>
       <c r="G894" s="0" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="H894" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I894" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J894" s="0" t="s">
         <v>748</v>
@@ -52498,13 +52486,13 @@
         <v>751</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C895" s="0" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D895" s="5" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="E895" s="0" t="s">
         <v>16</v>
@@ -52513,13 +52501,13 @@
         <v>17</v>
       </c>
       <c r="G895" s="0" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="H895" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I895" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J895" s="0" t="s">
         <v>754</v>
@@ -52539,13 +52527,13 @@
         <v>758</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C896" s="0" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="D896" s="5" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E896" s="0" t="s">
         <v>16</v>
@@ -52554,13 +52542,13 @@
         <v>17</v>
       </c>
       <c r="G896" s="0" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="H896" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I896" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J896" s="0" t="s">
         <v>760</v>
@@ -52580,13 +52568,13 @@
         <v>762</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C897" s="0" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D897" s="5" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="E897" s="0" t="s">
         <v>16</v>
@@ -52595,13 +52583,13 @@
         <v>17</v>
       </c>
       <c r="G897" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="H897" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I897" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J897" s="0" t="s">
         <v>765</v>
@@ -52621,13 +52609,13 @@
         <v>769</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C898" s="0" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="D898" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E898" s="0" t="s">
         <v>16</v>
@@ -52636,13 +52624,13 @@
         <v>17</v>
       </c>
       <c r="G898" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="H898" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I898" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J898" s="0" t="s">
         <v>771</v>
@@ -52662,13 +52650,13 @@
         <v>773</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C899" s="0" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D899" s="5" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="E899" s="0" t="s">
         <v>16</v>
@@ -52677,13 +52665,13 @@
         <v>17</v>
       </c>
       <c r="G899" s="5" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="H899" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I899" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J899" s="0" t="s">
         <v>776</v>
@@ -52703,13 +52691,13 @@
         <v>780</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C900" s="0" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="D900" s="5" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="E900" s="0" t="s">
         <v>16</v>
@@ -52718,13 +52706,13 @@
         <v>17</v>
       </c>
       <c r="G900" s="5" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="H900" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I900" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J900" s="0" t="s">
         <v>782</v>
@@ -52744,13 +52732,13 @@
         <v>784</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C901" s="0" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D901" s="5" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="E901" s="0" t="s">
         <v>16</v>
@@ -52759,13 +52747,13 @@
         <v>17</v>
       </c>
       <c r="G901" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="H901" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I901" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J901" s="0" t="s">
         <v>786</v>
@@ -52785,13 +52773,13 @@
         <v>788</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C902" s="0" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D902" s="5" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="E902" s="0" t="s">
         <v>16</v>
@@ -52800,13 +52788,13 @@
         <v>17</v>
       </c>
       <c r="G902" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="H902" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I902" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J902" s="0" t="s">
         <v>790</v>
@@ -52826,13 +52814,13 @@
         <v>792</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C903" s="0" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D903" s="5" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="E903" s="0" t="s">
         <v>16</v>
@@ -52841,13 +52829,13 @@
         <v>17</v>
       </c>
       <c r="G903" s="5" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="H903" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I903" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J903" s="0" t="s">
         <v>795</v>
@@ -52867,13 +52855,13 @@
         <v>799</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C904" s="0" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D904" s="5" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="E904" s="0" t="s">
         <v>16</v>
@@ -52882,13 +52870,13 @@
         <v>17</v>
       </c>
       <c r="G904" s="5" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="H904" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I904" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J904" s="0" t="s">
         <v>801</v>
@@ -52908,13 +52896,13 @@
         <v>803</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C905" s="0" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="D905" s="5" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="E905" s="0" t="s">
         <v>16</v>
@@ -52923,13 +52911,13 @@
         <v>17</v>
       </c>
       <c r="G905" s="5" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="H905" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I905" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J905" s="0" t="s">
         <v>806</v>
@@ -52949,13 +52937,13 @@
         <v>810</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C906" s="0" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="D906" s="5" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E906" s="0" t="s">
         <v>16</v>
@@ -52964,13 +52952,13 @@
         <v>17</v>
       </c>
       <c r="G906" s="5" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="H906" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I906" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J906" s="0" t="s">
         <v>812</v>
@@ -52990,13 +52978,13 @@
         <v>814</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C907" s="0" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="D907" s="5" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="E907" s="0" t="s">
         <v>16</v>
@@ -53005,13 +52993,13 @@
         <v>17</v>
       </c>
       <c r="G907" s="5" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="H907" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I907" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J907" s="0" t="s">
         <v>817</v>
@@ -53031,13 +53019,13 @@
         <v>821</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C908" s="0" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D908" s="5" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="E908" s="0" t="s">
         <v>16</v>
@@ -53046,13 +53034,13 @@
         <v>17</v>
       </c>
       <c r="G908" s="5" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="H908" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I908" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J908" s="0" t="s">
         <v>823</v>
@@ -53072,13 +53060,13 @@
         <v>825</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C909" s="0" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="D909" s="5" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="E909" s="0" t="s">
         <v>16</v>
@@ -53087,13 +53075,13 @@
         <v>17</v>
       </c>
       <c r="G909" s="0" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="H909" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I909" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J909" s="0" t="s">
         <v>828</v>
@@ -53113,13 +53101,13 @@
         <v>831</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C910" s="0" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D910" s="5" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="E910" s="0" t="s">
         <v>16</v>
@@ -53128,13 +53116,13 @@
         <v>17</v>
       </c>
       <c r="G910" s="0" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="H910" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I910" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J910" s="0" t="s">
         <v>834</v>
@@ -53154,13 +53142,13 @@
         <v>838</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C911" s="0" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D911" s="5" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="E911" s="0" t="s">
         <v>16</v>
@@ -53169,13 +53157,13 @@
         <v>17</v>
       </c>
       <c r="G911" s="0" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="H911" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I911" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J911" s="0" t="s">
         <v>841</v>
@@ -53195,13 +53183,13 @@
         <v>845</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C912" s="0" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D912" s="5" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="E912" s="0" t="s">
         <v>16</v>
@@ -53210,13 +53198,13 @@
         <v>17</v>
       </c>
       <c r="G912" s="0" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="H912" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I912" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J912" s="0" t="s">
         <v>848</v>
@@ -53236,13 +53224,13 @@
         <v>852</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C913" s="0" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D913" s="5" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E913" s="0" t="s">
         <v>16</v>
@@ -53251,13 +53239,13 @@
         <v>17</v>
       </c>
       <c r="G913" s="0" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="H913" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I913" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J913" s="0" t="s">
         <v>854</v>
@@ -53277,13 +53265,13 @@
         <v>856</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D914" s="5" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E914" s="0" t="s">
         <v>16</v>
@@ -53292,13 +53280,13 @@
         <v>17</v>
       </c>
       <c r="G914" s="0" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="H914" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I914" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J914" s="0" t="s">
         <v>859</v>
@@ -53318,13 +53306,13 @@
         <v>863</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C915" s="0" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D915" s="5" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="E915" s="0" t="s">
         <v>16</v>
@@ -53333,13 +53321,13 @@
         <v>17</v>
       </c>
       <c r="G915" s="0" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="H915" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I915" s="0" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="J915" s="0" t="s">
         <v>866</v>
@@ -53359,13 +53347,13 @@
         <v>870</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C916" s="0" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D916" s="5" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="E916" s="0" t="s">
         <v>16</v>
@@ -53374,13 +53362,13 @@
         <v>17</v>
       </c>
       <c r="G916" s="0" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="H916" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I916" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J916" s="0" t="s">
         <v>873</v>
@@ -53400,13 +53388,13 @@
         <v>877</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C917" s="0" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D917" s="5" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="E917" s="0" t="s">
         <v>16</v>
@@ -53415,13 +53403,13 @@
         <v>17</v>
       </c>
       <c r="G917" s="0" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="H917" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I917" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J917" s="0" t="s">
         <v>879</v>
@@ -53441,13 +53429,13 @@
         <v>881</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C918" s="0" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="D918" s="5" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="E918" s="0" t="s">
         <v>16</v>
@@ -53456,13 +53444,13 @@
         <v>17</v>
       </c>
       <c r="G918" s="0" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="H918" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I918" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J918" s="0" t="s">
         <v>884</v>
@@ -53482,13 +53470,13 @@
         <v>888</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="D919" s="5" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="E919" s="0" t="s">
         <v>16</v>
@@ -53497,13 +53485,13 @@
         <v>17</v>
       </c>
       <c r="G919" s="5" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="H919" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I919" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J919" s="0" t="s">
         <v>891</v>
@@ -53523,13 +53511,13 @@
         <v>895</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D920" s="5" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="E920" s="0" t="s">
         <v>16</v>
@@ -53538,13 +53526,13 @@
         <v>17</v>
       </c>
       <c r="G920" s="5" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="H920" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I920" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J920" s="0" t="s">
         <v>897</v>
@@ -53564,13 +53552,13 @@
         <v>899</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C921" s="0" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D921" s="5" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="E921" s="0" t="s">
         <v>16</v>
@@ -53579,13 +53567,13 @@
         <v>17</v>
       </c>
       <c r="G921" s="0" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="H921" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I921" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J921" s="0" t="s">
         <v>902</v>
@@ -53605,13 +53593,13 @@
         <v>906</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C922" s="0" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D922" s="5" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="E922" s="0" t="s">
         <v>16</v>
@@ -53620,13 +53608,13 @@
         <v>17</v>
       </c>
       <c r="G922" s="5" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="H922" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I922" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J922" s="0" t="s">
         <v>909</v>
@@ -53646,13 +53634,13 @@
         <v>913</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D923" s="5" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="E923" s="0" t="s">
         <v>16</v>
@@ -53661,13 +53649,13 @@
         <v>17</v>
       </c>
       <c r="G923" s="0" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="H923" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I923" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J923" s="0" t="s">
         <v>916</v>
@@ -53687,13 +53675,13 @@
         <v>919</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C924" s="0" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D924" s="5" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="E924" s="0" t="s">
         <v>16</v>
@@ -53702,13 +53690,13 @@
         <v>17</v>
       </c>
       <c r="G924" s="0" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="H924" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I924" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J924" s="0" t="s">
         <v>922</v>
@@ -53728,13 +53716,13 @@
         <v>926</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C925" s="0" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D925" s="5" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="E925" s="0" t="s">
         <v>16</v>
@@ -53743,13 +53731,13 @@
         <v>17</v>
       </c>
       <c r="G925" s="0" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="H925" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I925" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J925" s="0" t="s">
         <v>929</v>
@@ -53769,13 +53757,13 @@
         <v>933</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C926" s="0" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D926" s="5" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="E926" s="0" t="s">
         <v>16</v>
@@ -53784,13 +53772,13 @@
         <v>17</v>
       </c>
       <c r="G926" s="0" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="H926" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I926" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J926" s="0" t="s">
         <v>935</v>
@@ -53810,13 +53798,13 @@
         <v>937</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D927" s="5" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="E927" s="0" t="s">
         <v>16</v>
@@ -53825,13 +53813,13 @@
         <v>17</v>
       </c>
       <c r="G927" s="0" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="H927" s="0" t="n">
         <v>10006</v>
       </c>
       <c r="I927" s="0" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="J927" s="0" t="s">
         <v>940</v>
@@ -53851,13 +53839,13 @@
         <v>944</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="D928" s="5" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E928" s="0" t="s">
         <v>16</v>
@@ -53866,13 +53854,13 @@
         <v>17</v>
       </c>
       <c r="G928" s="5" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="H928" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I928" s="0" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="J928" s="0" t="s">
         <v>947</v>
@@ -53892,13 +53880,13 @@
         <v>951</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C929" s="0" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D929" s="5" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="E929" s="0" t="s">
         <v>16</v>
@@ -53907,7 +53895,7 @@
         <v>17</v>
       </c>
       <c r="G929" s="5" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="H929" s="0" t="n">
         <v>10002</v>
@@ -53933,13 +53921,13 @@
         <v>960</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C930" s="0" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D930" s="5" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="E930" s="0" t="s">
         <v>16</v>
@@ -53948,7 +53936,7 @@
         <v>17</v>
       </c>
       <c r="G930" s="5" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="H930" s="0" t="n">
         <v>10002</v>
@@ -53974,13 +53962,13 @@
         <v>968</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C931" s="0" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D931" s="5" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="E931" s="0" t="s">
         <v>16</v>
@@ -53989,7 +53977,7 @@
         <v>17</v>
       </c>
       <c r="G931" s="0" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="H931" s="0" t="n">
         <v>10007</v>
@@ -54015,13 +54003,13 @@
         <v>973</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C932" s="0" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D932" s="5" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="E932" s="0" t="s">
         <v>16</v>
@@ -54030,7 +54018,7 @@
         <v>17</v>
       </c>
       <c r="G932" s="0" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="H932" s="0" t="n">
         <v>10007</v>
@@ -54056,13 +54044,13 @@
         <v>977</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C933" s="0" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D933" s="5" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="E933" s="0" t="s">
         <v>16</v>
@@ -54071,7 +54059,7 @@
         <v>17</v>
       </c>
       <c r="G933" s="0" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="H933" s="0" t="n">
         <v>10007</v>
@@ -54097,13 +54085,13 @@
         <v>981</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C934" s="5" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D934" s="0" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="E934" s="0" t="s">
         <v>16</v>
@@ -54112,7 +54100,7 @@
         <v>17</v>
       </c>
       <c r="G934" s="0" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="H934" s="0" t="n">
         <v>10007</v>
@@ -54138,13 +54126,13 @@
         <v>985</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C935" s="0" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D935" s="0" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="E935" s="0" t="s">
         <v>16</v>
@@ -54153,7 +54141,7 @@
         <v>17</v>
       </c>
       <c r="G935" s="5" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="H935" s="0" t="n">
         <v>10007</v>
@@ -54179,13 +54167,13 @@
         <v>989</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C936" s="0" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D936" s="0" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="E936" s="0" t="s">
         <v>16</v>
@@ -54194,7 +54182,7 @@
         <v>17</v>
       </c>
       <c r="G936" s="5" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="H936" s="0" t="n">
         <v>10007</v>
@@ -54220,13 +54208,13 @@
         <v>1010</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C937" s="0" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D937" s="0" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="E937" s="0" t="s">
         <v>16</v>
@@ -54235,13 +54223,13 @@
         <v>17</v>
       </c>
       <c r="G937" s="5" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="H937" s="0" t="n">
         <v>10002</v>
       </c>
       <c r="I937" s="0" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="J937" s="0" t="s">
         <v>1014</v>
@@ -54261,13 +54249,13 @@
         <v>1019</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C938" s="0" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D938" s="0" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="E938" s="0" t="s">
         <v>16</v>
@@ -54276,13 +54264,13 @@
         <v>17</v>
       </c>
       <c r="G938" s="5" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="H938" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I938" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J938" s="0" t="s">
         <v>1022</v>
@@ -54302,13 +54290,13 @@
         <v>1027</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C939" s="0" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D939" s="0" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="E939" s="0" t="s">
         <v>16</v>
@@ -54320,7 +54308,7 @@
         <v>10003</v>
       </c>
       <c r="I939" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J939" s="0" t="s">
         <v>1029</v>
@@ -54340,13 +54328,13 @@
         <v>1033</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C940" s="0" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D940" s="0" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="E940" s="0" t="s">
         <v>16</v>
@@ -54355,13 +54343,13 @@
         <v>17</v>
       </c>
       <c r="G940" s="0" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="H940" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I940" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J940" s="0" t="s">
         <v>1035</v>
@@ -54381,13 +54369,13 @@
         <v>1038</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C941" s="0" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D941" s="0" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="E941" s="0" t="s">
         <v>16</v>
@@ -54396,13 +54384,13 @@
         <v>17</v>
       </c>
       <c r="G941" s="0" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="H941" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I941" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J941" s="0" t="s">
         <v>1040</v>
@@ -54422,13 +54410,13 @@
         <v>1043</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C942" s="0" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D942" s="0" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="E942" s="0" t="s">
         <v>16</v>
@@ -54437,13 +54425,13 @@
         <v>17</v>
       </c>
       <c r="G942" s="0" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="H942" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I942" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J942" s="0" t="s">
         <v>1045</v>
@@ -54463,13 +54451,13 @@
         <v>1048</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C943" s="0" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D943" s="0" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="E943" s="0" t="s">
         <v>16</v>
@@ -54478,13 +54466,13 @@
         <v>17</v>
       </c>
       <c r="G943" s="0" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="H943" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I943" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J943" s="0" t="s">
         <v>1050</v>
@@ -54504,13 +54492,13 @@
         <v>1053</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C944" s="0" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D944" s="0" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="E944" s="0" t="s">
         <v>16</v>
@@ -54519,13 +54507,13 @@
         <v>17</v>
       </c>
       <c r="G944" s="0" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="H944" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I944" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J944" s="0" t="s">
         <v>1055</v>
@@ -54545,13 +54533,13 @@
         <v>1058</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C945" s="0" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D945" s="0" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="E945" s="0" t="s">
         <v>16</v>
@@ -54560,13 +54548,13 @@
         <v>17</v>
       </c>
       <c r="G945" s="0" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="H945" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I945" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J945" s="0" t="s">
         <v>1060</v>
@@ -54586,13 +54574,13 @@
         <v>1063</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C946" s="0" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="D946" s="0" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="E946" s="0" t="s">
         <v>16</v>
@@ -54601,13 +54589,13 @@
         <v>17</v>
       </c>
       <c r="G946" s="0" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="H946" s="0" t="n">
         <v>10003</v>
       </c>
       <c r="I946" s="0" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="J946" s="0" t="s">
         <v>1065</v>
@@ -54627,13 +54615,13 @@
         <v>1281</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C947" s="0" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="D947" s="0" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="E947" s="0" t="s">
         <v>16</v>
@@ -54642,13 +54630,13 @@
         <v>17</v>
       </c>
       <c r="G947" s="0" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="H947" s="0" t="n">
         <v>10001</v>
       </c>
       <c r="I947" s="5" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="J947" s="0" t="s">
         <v>1070</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1549F49-6812-4866-BB18-EAEB0A2D817D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$M$467</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11347" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11380" uniqueCount="1903">
   <si>
     <t>id</t>
   </si>
@@ -15350,11 +15349,23 @@
   <si>
     <t>شكر وتقدير: ApplicationDetails$ | معرف التطبيق: ApplicationId$</t>
   </si>
+  <si>
+    <t>Android Registration Preview Template</t>
+  </si>
+  <si>
+    <t>Preview generated after android registration</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html $rtl&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.demoDiv{width: 85%;float: left;}.photoDiv{width: 15%;float:right;}.form{display:inline-block;}.section{align:center;padding:30px;width:400px;margin:auto;}.headings{color:#808080;font-size:11px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:11px;display:inline;position:absolute;}.leftRing{top:3px;left:23px;}.leftMiddle{top:-7px;left:37px;}.leftIndex{top:3px;left:54px;}.rightIndex{top:3px;left:26px;}.rightMiddle{top:-7px;left:39px;}.rightRing{top:3px;left:55px;}.rightLittle{top:15px;left:68px;}.leftThumb{top:-4px;left:24px;}.rightThumb{top:-4px;left:54px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}.consent-text{margin-left: 7px;margin-bottom: 4px;}input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}*,*:before,*:after { box-sizing: border-box;}.consent-block label { display: inline-flex; align-items: center;}.demoDiv&gt;table{width:100%}.demoDiv&gt;table&gt;tbody&gt;tr&gt;th{color:#808080;font-size:10px; width:25%; text-align: left;padding: 2px}.demoDiv&gt;table&gt;tbody&gt;tr&gt;td{width:25%; text-align: left;padding: 2px}&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;&lt;body&gt; &lt;div class=section&gt; &lt;div class=form&gt; &lt;table class=headerTable&gt; &lt;tr&gt; &lt;td class=bottom&gt;&lt;p class=headings&gt;${ApplicationIDLabel}&lt;/p&gt;&lt;br/&gt;${ApplicationID}&lt;/td&gt; #if ( $UIN ) &lt;td class=bottom&gt;&lt;p class=headings&gt;${UINLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt; #end &lt;td class=bottom&gt;&lt;p class=headings&gt;${DateLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; #if ( $name ) &lt;table class=headerTable&gt; &lt;tr&gt;&lt;td&gt;&lt;p class=headings&gt;${NameLabel}&lt;/p&gt;&lt;br/&gt;${NameValue}&lt;/td&gt;&lt;/tr&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="demoDiv"&gt;&lt;table&gt; &lt;tr&gt; #if( $demographics.get("fullName") ) &lt;th&gt;$demographics.get("fullName").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("fullName") ) &lt;td&gt;$demographics.get("fullName").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;th&gt;$demographics.get("dateOfBirth").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("dateOfBirth") ) &lt;td&gt;$demographics.get("dateOfBirth").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;th&gt;$demographics.get("gender").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("gender") ) &lt;td&gt;$demographics.get("gender").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;th&gt;$demographics.get("phone").get("label")&lt;/th&gt; #end #if( $demographics.get("email") ) &lt;th&gt;$demographics.get("email").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("phone") ) &lt;td&gt;$demographics.get("phone").get("value")&lt;/td&gt; #end #if( $demographics.get("email") ) &lt;td&gt;$demographics.get("email").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt; #if( $demographics.get("addressLine1") ) &lt;hr/&gt;&lt;h1 class="headings"&gt;Address&lt;/h1&gt; #end &lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;th&gt;$demographics.get("addressLine1").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine2") ) &lt;th&gt;$demographics.get("addressLine2").get("label")&lt;/th&gt; #end #if( $demographics.get("addressLine3") ) &lt;th&gt;$demographics.get("addressLine3").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("addressLine1") ) &lt;td&gt;$demographics.get("addressLine1").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine2") ) &lt;td&gt;$demographics.get("addressLine2").get("value")&lt;/td&gt; #end #if( $demographics.get("addressLine3") ) &lt;td&gt;$demographics.get("addressLine3").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;th&gt;$demographics.get("region").get("label")&lt;/th&gt; #end #if( $demographics.get("province") ) &lt;th&gt;$demographics.get("province").get("label")&lt;/th&gt; #end #if( $demographics.get("city") ) &lt;th&gt;$demographics.get("city").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("region") ) &lt;td&gt;$demographics.get("region").get("value")&lt;/td&gt; #end #if( $demographics.get("province") ) &lt;td&gt;$demographics.get("province").get("value")&lt;/td&gt; #end #if( $demographics.get("city") ) &lt;td&gt;$demographics.get("city").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt;&lt;table&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;th&gt;$demographics.get("zone").get("label")&lt;/th&gt; #end #if( $demographics.get("postalCode") ) &lt;th&gt;$demographics.get("postalCode").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("zone") ) &lt;td&gt;$demographics.get("zone").get("value")&lt;/td&gt; #end #if( $demographics.get("postalCode") ) &lt;td&gt;$demographics.get("postalCode").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;tr&gt;#if( $demographics.get("modeOfClaim") ) &lt;th&gt;$demographics.get("modeOfClaim").get("label")&lt;/th&gt; #end&lt;/tr&gt;&lt;tr&gt; #if( $demographics.get("modeOfClaim") ) &lt;td&gt;$demographics.get("modeOfClaim").get("value")&lt;/td&gt; #end&lt;/tr&gt;&lt;/table&gt; #if( $demographics.get("parentOrGuardianName") ) &lt;hr/&gt; &lt;table&gt; &lt;h1 class="headings"&gt;Gaurdian Details&lt;/h1&gt;&lt;tr&gt;&lt;th&gt;$demographics.get("parentOrGuardianName").get("label")&lt;/th&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;th&gt;$demographics.get("parentOrGuardianRID").get("label")&lt;/th&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;th&gt;$demographics.get("parentOrGuardianUIN").get("label")&lt;/th&gt; #end &lt;/tr&gt;&lt;tr&gt;&lt;td&gt;$demographics.get("parentOrGuardianName").get("value")&lt;/td&gt; #if( $demographics.get("parentOrGuardianRID") ) &lt;td&gt;$demographics.get("parentOrGuardianRID").get("value")&lt;/td&gt; #end #if( $demographics.get("parentOrGuardianUIN") ) &lt;td&gt;$demographics.get("parentOrGuardianUIN").get("value")&lt;/td&gt; #end &lt;/tr&gt;&lt;/table&gt; #end &lt;/div&gt; #if ( $ApplicantImageSource ) &lt;div class="photoDiv"&gt; &lt;table&gt; &lt;tr&gt; &lt;td&gt; &lt;p&gt;${Photo}&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td&gt;&lt;img src=${ApplicantImageSource} border=0 width=100 height=100/&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/div&gt; #end &lt;div style="width: 100%; height: 50%; clear:both"&gt;&lt;/div&gt; &lt;br&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${DocumentsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; &lt;table class=dataTable&gt; #foreach( $key in $documents.keySet() ) &lt;tr&gt; &lt;td&gt; &lt;p class=headings&gt;$documents.get($key).get("label")&lt;/p&gt; &lt;br/&gt; &lt;p&gt; $documents.get($key).get("value")&lt;/p&gt; &lt;/td&gt; &lt;/tr&gt; #end &lt;/table&gt; &lt;br/&gt; &lt;hr/&gt; &lt;p class=head&gt;&lt;b&gt;${BiometricsLabel}&lt;/b&gt;&lt;/p&gt; &lt;hr/&gt; #foreach( $key in $biometrics.keySet() ) &lt;table&gt; &lt;tr&gt; &lt;td&gt; $biometrics.get($key).get("label")&lt;br/&gt; &lt;p class=headings&gt;${Fingers} ( $biometrics.get($key).get("FingerCount") ),${Iris} ( $biometrics.get($key).get("IrisCount") ),${Face} ( $biometrics.get($key).get("FaceCount") )&lt;br/&gt;&lt;/p&gt; &lt;br/&gt; &lt;/td&gt; &lt;/tr&gt;&lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt;&lt;p class=headings&gt;${LeftEyeLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; &lt;p class=headings&gt;${RightEyeLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedLeftEye") ) &lt;img src=$biometrics.get($key).get("CapturedLeftEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;td&gt; #if( $biometrics.get($key).get("CapturedRightEye") ) &lt;img src=$biometrics.get($key).get("CapturedRightEye") border=0 width=85 height=80/&gt; #end &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td&gt; &lt;p class=headings&gt;${LeftPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td&gt; &lt;p class=headings&gt;${RightPalmLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td&gt; &lt;p class=headings&gt;${ThumbsLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("CapturedLeftSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedLeftSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedRightSlap") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedRightSlap") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("CapturedThumbs") ) &lt;td style="text-align:-webkit-center"&gt; &lt;img src=$biometrics.get($key).get("CapturedThumbs") border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;br/&gt; &lt;table class=biometricsTable&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;p class=headings&gt;${FaceLabel}&lt;/p&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;p class=headings&gt;${ExceptionPhotoLabel}&lt;/p&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;tr&gt; #if( $biometrics.get($key).get("FaceImageSource") ) &lt;td&gt; &lt;img src=$biometrics.get($key).get("FaceImageSource") border=0 width=85 height=80/&gt; &lt;/td&gt; #end #if( $biometrics.get($key).get("subType") == "applicant" &amp;&amp; $ExceptionImageSource ) &lt;td&gt; &lt;img src=${ExceptionImageSource} border=0 width=85 height=80/&gt; &lt;/td&gt; #end &lt;/tr&gt; &lt;/table&gt; &lt;/table&gt; #end &lt;br/&gt; &lt;/div&gt; &lt;/body&gt; &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>reg-android-preview-template-part</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -15466,8 +15477,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15775,29 +15814,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M947"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E457" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H464" sqref="H464"/>
+    <sheetView tabSelected="1" topLeftCell="A939" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A948" sqref="A948:M950"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="50.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" customWidth="1"/>
-    <col min="9" max="9" width="30.81640625" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="22.7265625" customWidth="1"/>
-    <col min="953" max="1024" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="953" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16087,7 +16126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.5">
+    <row r="8" spans="1:13" ht="45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16169,7 +16208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -16866,7 +16905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.5">
+    <row r="27" spans="1:13" ht="45">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -16907,7 +16946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="43.5">
+    <row r="28" spans="1:13" ht="45">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -16948,7 +16987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="43.5">
+    <row r="29" spans="1:13" ht="45">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -16989,7 +17028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="43.5">
+    <row r="30" spans="1:13" ht="45">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -17030,7 +17069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="29">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -17071,7 +17110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="29">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -17112,7 +17151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="43.5">
+    <row r="33" spans="1:13" ht="45">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17153,7 +17192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="43.5">
+    <row r="34" spans="1:13" ht="45">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -17932,7 +17971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="57.5">
+    <row r="53" spans="1:13" ht="59.25">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -17973,7 +18012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.5">
+    <row r="54" spans="1:13" ht="29.25">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -18014,7 +18053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="57.5">
+    <row r="55" spans="1:13" ht="59.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -18055,7 +18094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.5">
+    <row r="56" spans="1:13" ht="45">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -18096,7 +18135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="29">
+    <row r="57" spans="1:13" ht="30">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18137,7 +18176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.5">
+    <row r="58" spans="1:13" ht="45">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -18178,7 +18217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="57.5">
+    <row r="59" spans="1:13" ht="59.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -18219,7 +18258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5">
+    <row r="60" spans="1:13" ht="29.25">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -18260,7 +18299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="57.5">
+    <row r="61" spans="1:13" ht="59.25">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -18301,7 +18340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="130.5">
+    <row r="62" spans="1:13" ht="135">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -18547,7 +18586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="145">
+    <row r="68" spans="1:13" ht="150">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -18793,7 +18832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="112.5">
+    <row r="74" spans="1:13" ht="129">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -18834,7 +18873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="29">
+    <row r="75" spans="1:13" ht="30">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -18875,7 +18914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29">
+    <row r="76" spans="1:13" ht="45">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -18916,7 +18955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.5">
+    <row r="77" spans="1:13" ht="29.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -18957,7 +18996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="29">
+    <row r="78" spans="1:13" ht="30">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -18998,7 +19037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="58">
+    <row r="79" spans="1:13" ht="60">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -19121,7 +19160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.5">
+    <row r="82" spans="1:13" ht="29.25">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -19367,7 +19406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="29">
+    <row r="88" spans="1:13" ht="30">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -19490,7 +19529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="29">
+    <row r="91" spans="1:13" ht="30">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -19613,7 +19652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="29">
+    <row r="94" spans="1:13" ht="30">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -19736,7 +19775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="29">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -19859,7 +19898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="130.5">
+    <row r="100" spans="1:13" ht="135">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -19982,7 +20021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="130.5">
+    <row r="103" spans="1:13" ht="135">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -20392,7 +20431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="28.5">
+    <row r="113" spans="1:13" ht="29.25">
       <c r="A113" t="s">
         <v>306</v>
       </c>
@@ -20515,7 +20554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="28.5">
+    <row r="116" spans="1:13" ht="29.25">
       <c r="A116" t="s">
         <v>312</v>
       </c>
@@ -20761,7 +20800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="28.5">
+    <row r="122" spans="1:13" ht="29.25">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -20884,7 +20923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="28.5">
+    <row r="125" spans="1:13" ht="29.25">
       <c r="A125" t="s">
         <v>320</v>
       </c>
@@ -21130,7 +21169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.5">
+    <row r="131" spans="1:13" ht="29.25">
       <c r="A131" t="s">
         <v>322</v>
       </c>
@@ -21253,7 +21292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.5">
+    <row r="134" spans="1:13" ht="29.25">
       <c r="A134" t="s">
         <v>323</v>
       </c>
@@ -21376,7 +21415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="29">
+    <row r="137" spans="1:13" ht="45">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -21499,7 +21538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.5">
+    <row r="140" spans="1:13" ht="29.25">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -21622,7 +21661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="29">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -21745,7 +21784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="71">
+    <row r="146" spans="1:13" ht="87.75">
       <c r="A146" t="s">
         <v>348</v>
       </c>
@@ -21868,7 +21907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="29">
+    <row r="149" spans="1:13" ht="30">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -21991,7 +22030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="29">
+    <row r="152" spans="1:13" ht="30">
       <c r="A152" t="s">
         <v>363</v>
       </c>
@@ -22114,7 +22153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="28.5">
+    <row r="155" spans="1:13" ht="44.25">
       <c r="A155" t="s">
         <v>366</v>
       </c>
@@ -22237,7 +22276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="28.5">
+    <row r="158" spans="1:13" ht="44.25">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -22278,7 +22317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="116">
+    <row r="159" spans="1:13" ht="120">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -22319,7 +22358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="130.5">
+    <row r="160" spans="1:13" ht="150">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -22360,7 +22399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="98.5">
+    <row r="161" spans="1:13" ht="100.5">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -22483,7 +22522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="29">
+    <row r="164" spans="1:13" ht="45">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -22606,7 +22645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="43.5">
+    <row r="167" spans="1:13" ht="45">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -22852,7 +22891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="29">
+    <row r="173" spans="1:13" ht="30">
       <c r="A173" t="s">
         <v>401</v>
       </c>
@@ -22975,7 +23014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="29">
+    <row r="176" spans="1:13" ht="30">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -23098,7 +23137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="28.5">
+    <row r="179" spans="1:13" ht="29.25">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -23221,7 +23260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="29">
+    <row r="182" spans="1:13" ht="30">
       <c r="A182" t="s">
         <v>425</v>
       </c>
@@ -23344,7 +23383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="28.5">
+    <row r="185" spans="1:13" ht="29.25">
       <c r="A185" t="s">
         <v>433</v>
       </c>
@@ -23467,7 +23506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="29">
+    <row r="188" spans="1:13" ht="30">
       <c r="A188" t="s">
         <v>443</v>
       </c>
@@ -23590,7 +23629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="29">
+    <row r="191" spans="1:13" ht="30">
       <c r="A191" t="s">
         <v>448</v>
       </c>
@@ -23713,7 +23752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="28.5">
+    <row r="194" spans="1:13" ht="29.25">
       <c r="A194" t="s">
         <v>456</v>
       </c>
@@ -23836,7 +23875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="29">
+    <row r="197" spans="1:13" ht="30">
       <c r="A197" t="s">
         <v>464</v>
       </c>
@@ -23959,7 +23998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="29">
+    <row r="200" spans="1:13" ht="30">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -24082,7 +24121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="28.5">
+    <row r="203" spans="1:13" ht="29.25">
       <c r="A203" t="s">
         <v>477</v>
       </c>
@@ -24205,7 +24244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="29">
+    <row r="206" spans="1:13" ht="30">
       <c r="A206" t="s">
         <v>485</v>
       </c>
@@ -24328,7 +24367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="29">
+    <row r="209" spans="1:13" ht="30">
       <c r="A209" t="s">
         <v>490</v>
       </c>
@@ -24451,7 +24490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="28.5">
+    <row r="212" spans="1:13" ht="29.25">
       <c r="A212" t="s">
         <v>498</v>
       </c>
@@ -24574,7 +24613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="29">
+    <row r="215" spans="1:13" ht="30">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -24697,7 +24736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="28.5">
+    <row r="218" spans="1:13" ht="30">
       <c r="A218" t="s">
         <v>511</v>
       </c>
@@ -24820,7 +24859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="28.5">
+    <row r="221" spans="1:13" ht="29.25">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -24943,7 +24982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" ht="30">
       <c r="A224" t="s">
         <v>527</v>
       </c>
@@ -25066,7 +25105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="29">
+    <row r="227" spans="1:13" ht="30">
       <c r="A227" t="s">
         <v>532</v>
       </c>
@@ -25189,7 +25228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="28.5">
+    <row r="230" spans="1:13" ht="29.25">
       <c r="A230" t="s">
         <v>540</v>
       </c>
@@ -25312,7 +25351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="29">
+    <row r="233" spans="1:13" ht="30">
       <c r="A233" t="s">
         <v>548</v>
       </c>
@@ -25435,7 +25474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="29">
+    <row r="236" spans="1:13" ht="30">
       <c r="A236" t="s">
         <v>553</v>
       </c>
@@ -25558,7 +25597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="28.5">
+    <row r="239" spans="1:13" ht="43.5">
       <c r="A239" t="s">
         <v>561</v>
       </c>
@@ -25681,7 +25720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="28.5">
+    <row r="242" spans="1:13" ht="30">
       <c r="A242" t="s">
         <v>569</v>
       </c>
@@ -25804,7 +25843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="29">
+    <row r="245" spans="1:13" ht="30">
       <c r="A245" t="s">
         <v>576</v>
       </c>
@@ -25927,7 +25966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="28.5">
+    <row r="248" spans="1:13" ht="29.25">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -26050,7 +26089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="29">
+    <row r="251" spans="1:13" ht="30">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -26173,7 +26212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="29">
+    <row r="254" spans="1:13" ht="30">
       <c r="A254" t="s">
         <v>597</v>
       </c>
@@ -26296,7 +26335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="28.5">
+    <row r="257" spans="1:13" ht="29.25">
       <c r="A257" t="s">
         <v>605</v>
       </c>
@@ -26419,7 +26458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="29">
+    <row r="260" spans="1:13" ht="30">
       <c r="A260" t="s">
         <v>613</v>
       </c>
@@ -26542,7 +26581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="29">
+    <row r="263" spans="1:13" ht="30">
       <c r="A263" t="s">
         <v>618</v>
       </c>
@@ -26665,7 +26704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="28.5">
+    <row r="266" spans="1:13" ht="29.25">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -26788,7 +26827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="29">
+    <row r="269" spans="1:13" ht="30">
       <c r="A269" t="s">
         <v>634</v>
       </c>
@@ -26911,7 +26950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="29">
+    <row r="272" spans="1:13" ht="30">
       <c r="A272" t="s">
         <v>639</v>
       </c>
@@ -27034,7 +27073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="42.5">
+    <row r="275" spans="1:13" ht="43.5">
       <c r="A275" t="s">
         <v>647</v>
       </c>
@@ -27157,7 +27196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="29">
+    <row r="278" spans="1:13" ht="30">
       <c r="A278" t="s">
         <v>655</v>
       </c>
@@ -27280,7 +27319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="29">
+    <row r="281" spans="1:13" ht="30">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -27403,7 +27442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="29">
+    <row r="284" spans="1:13" ht="30">
       <c r="A284" t="s">
         <v>668</v>
       </c>
@@ -27526,7 +27565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="29">
+    <row r="287" spans="1:13" ht="30">
       <c r="A287" t="s">
         <v>674</v>
       </c>
@@ -27649,7 +27688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="29">
+    <row r="290" spans="1:13" ht="30">
       <c r="A290" t="s">
         <v>679</v>
       </c>
@@ -27772,7 +27811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="28.5">
+    <row r="293" spans="1:13" ht="29.25">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -27895,7 +27934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="29">
+    <row r="296" spans="1:13" ht="30">
       <c r="A296" t="s">
         <v>695</v>
       </c>
@@ -28018,7 +28057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="29">
+    <row r="299" spans="1:13" ht="30">
       <c r="A299" t="s">
         <v>700</v>
       </c>
@@ -28141,7 +28180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="29">
+    <row r="302" spans="1:13" ht="44.25">
       <c r="A302" t="s">
         <v>708</v>
       </c>
@@ -28264,7 +28303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="29">
+    <row r="305" spans="1:13" ht="30">
       <c r="A305" t="s">
         <v>716</v>
       </c>
@@ -28387,7 +28426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="29">
+    <row r="308" spans="1:13" ht="30">
       <c r="A308" t="s">
         <v>721</v>
       </c>
@@ -28510,7 +28549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="29">
+    <row r="311" spans="1:13" ht="30">
       <c r="A311" t="s">
         <v>729</v>
       </c>
@@ -28633,7 +28672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="29">
+    <row r="314" spans="1:13" ht="30">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -28756,7 +28795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="29">
+    <row r="317" spans="1:13" ht="43.5">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -28879,7 +28918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="29">
+    <row r="320" spans="1:13" ht="30">
       <c r="A320" t="s">
         <v>749</v>
       </c>
@@ -29002,7 +29041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="29">
+    <row r="323" spans="1:13" ht="43.5">
       <c r="A323" t="s">
         <v>753</v>
       </c>
@@ -29125,7 +29164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="29">
+    <row r="326" spans="1:13" ht="30">
       <c r="A326" t="s">
         <v>760</v>
       </c>
@@ -29248,7 +29287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="29">
+    <row r="329" spans="1:13" ht="43.5">
       <c r="A329" t="s">
         <v>764</v>
       </c>
@@ -29371,7 +29410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="29">
+    <row r="332" spans="1:13" ht="30">
       <c r="A332" t="s">
         <v>771</v>
       </c>
@@ -29494,7 +29533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="29">
+    <row r="335" spans="1:13" ht="43.5">
       <c r="A335" t="s">
         <v>775</v>
       </c>
@@ -29617,7 +29656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="29">
+    <row r="338" spans="1:13" ht="30">
       <c r="A338" t="s">
         <v>779</v>
       </c>
@@ -29740,7 +29779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="42.5">
+    <row r="341" spans="1:13" ht="43.5">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -29863,7 +29902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="29">
+    <row r="344" spans="1:13" ht="30">
       <c r="A344" t="s">
         <v>790</v>
       </c>
@@ -29986,7 +30025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="29">
+    <row r="347" spans="1:13" ht="43.5">
       <c r="A347" t="s">
         <v>794</v>
       </c>
@@ -30109,7 +30148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="29">
+    <row r="350" spans="1:13" ht="30">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -30232,7 +30271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="29">
+    <row r="353" spans="1:13" ht="43.5">
       <c r="A353" t="s">
         <v>805</v>
       </c>
@@ -30355,7 +30394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="43">
+    <row r="356" spans="1:13" ht="44.25">
       <c r="A356" t="s">
         <v>812</v>
       </c>
@@ -30478,7 +30517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="28.5">
+    <row r="359" spans="1:13" ht="43.5">
       <c r="A359" t="s">
         <v>816</v>
       </c>
@@ -30601,7 +30640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="28.5">
+    <row r="362" spans="1:13" ht="43.5">
       <c r="A362" t="s">
         <v>822</v>
       </c>
@@ -30724,7 +30763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="28.5">
+    <row r="365" spans="1:13" ht="29.25">
       <c r="A365" t="s">
         <v>829</v>
       </c>
@@ -30847,7 +30886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="42.5">
+    <row r="368" spans="1:13" ht="43.5">
       <c r="A368" t="s">
         <v>836</v>
       </c>
@@ -30970,7 +31009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="42.5">
+    <row r="371" spans="1:13" ht="43.5">
       <c r="A371" t="s">
         <v>843</v>
       </c>
@@ -31093,7 +31132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="28.5">
+    <row r="374" spans="1:13" ht="43.5">
       <c r="A374" t="s">
         <v>847</v>
       </c>
@@ -31216,7 +31255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="42.5">
+    <row r="377" spans="1:13" ht="43.5">
       <c r="A377" t="s">
         <v>854</v>
       </c>
@@ -31339,7 +31378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="43.5">
+    <row r="380" spans="1:13" ht="60">
       <c r="A380" t="s">
         <v>861</v>
       </c>
@@ -31462,7 +31501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="43.5">
+    <row r="383" spans="1:13" ht="60">
       <c r="A383" t="s">
         <v>868</v>
       </c>
@@ -31585,7 +31624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="29">
+    <row r="386" spans="1:13" ht="30">
       <c r="A386" t="s">
         <v>872</v>
       </c>
@@ -31708,7 +31747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="29">
+    <row r="389" spans="1:13" ht="30">
       <c r="A389" t="s">
         <v>879</v>
       </c>
@@ -31831,7 +31870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="29">
+    <row r="392" spans="1:13" ht="30">
       <c r="A392" t="s">
         <v>886</v>
       </c>
@@ -31954,7 +31993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="28.5">
+    <row r="395" spans="1:13" ht="29.25">
       <c r="A395" t="s">
         <v>890</v>
       </c>
@@ -32077,7 +32116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="29">
+    <row r="398" spans="1:13" ht="30">
       <c r="A398" t="s">
         <v>897</v>
       </c>
@@ -32200,7 +32239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="29">
+    <row r="401" spans="1:13" ht="30">
       <c r="A401" t="s">
         <v>904</v>
       </c>
@@ -32323,7 +32362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="28.5">
+    <row r="404" spans="1:13" ht="29.25">
       <c r="A404" t="s">
         <v>910</v>
       </c>
@@ -32446,7 +32485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="43.5">
+    <row r="407" spans="1:13" ht="60">
       <c r="A407" t="s">
         <v>917</v>
       </c>
@@ -32569,7 +32608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="43.5">
+    <row r="410" spans="1:13" ht="60">
       <c r="A410" t="s">
         <v>924</v>
       </c>
@@ -32692,7 +32731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="29">
+    <row r="413" spans="1:13" ht="30">
       <c r="A413" t="s">
         <v>928</v>
       </c>
@@ -33717,7 +33756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="159.5">
+    <row r="438" spans="1:13" ht="165">
       <c r="A438" t="s">
         <v>1010</v>
       </c>
@@ -33758,7 +33797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="174">
+    <row r="439" spans="1:13" ht="180">
       <c r="A439" t="s">
         <v>1010</v>
       </c>
@@ -33799,7 +33838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="72.5">
+    <row r="440" spans="1:13" ht="89.25">
       <c r="A440" t="s">
         <v>1010</v>
       </c>
@@ -33878,7 +33917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="145">
+    <row r="442" spans="1:13" ht="150">
       <c r="A442" t="s">
         <v>1018</v>
       </c>
@@ -33919,7 +33958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="29">
+    <row r="443" spans="1:13" ht="30">
       <c r="A443" t="s">
         <v>1018</v>
       </c>
@@ -34039,7 +34078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="28.5">
+    <row r="446" spans="1:13" ht="29.25">
       <c r="A446" t="s">
         <v>1024</v>
       </c>
@@ -34162,7 +34201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="28.5">
+    <row r="449" spans="1:13" ht="29.25">
       <c r="A449" t="s">
         <v>1029</v>
       </c>
@@ -34777,7 +34816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="28.5">
+    <row r="464" spans="1:13" ht="29.25">
       <c r="A464" t="s">
         <v>1054</v>
       </c>
@@ -34941,7 +34980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="58">
+    <row r="468" spans="1:13" ht="60">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -34982,7 +35021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="29">
+    <row r="469" spans="1:13" ht="30">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -35023,7 +35062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="29">
+    <row r="470" spans="1:13" ht="30">
       <c r="A470" t="s">
         <v>28</v>
       </c>
@@ -35064,7 +35103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="29">
+    <row r="471" spans="1:13" ht="30">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -35105,7 +35144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="29">
+    <row r="472" spans="1:13" ht="30">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -35146,7 +35185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="29">
+    <row r="473" spans="1:13" ht="30">
       <c r="A473" t="s">
         <v>57</v>
       </c>
@@ -35187,7 +35226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="29">
+    <row r="474" spans="1:13" ht="30">
       <c r="A474" t="s">
         <v>61</v>
       </c>
@@ -35228,7 +35267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="29">
+    <row r="475" spans="1:13" ht="30">
       <c r="A475" t="s">
         <v>65</v>
       </c>
@@ -35269,7 +35308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="29">
+    <row r="476" spans="1:13" ht="30">
       <c r="A476" t="s">
         <v>69</v>
       </c>
@@ -35310,7 +35349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="29">
+    <row r="477" spans="1:13" ht="45">
       <c r="A477" t="s">
         <v>73</v>
       </c>
@@ -35351,7 +35390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="29">
+    <row r="478" spans="1:13" ht="45">
       <c r="A478" t="s">
         <v>77</v>
       </c>
@@ -35392,7 +35431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="43.5">
+    <row r="479" spans="1:13" ht="45">
       <c r="A479" t="s">
         <v>115</v>
       </c>
@@ -35433,7 +35472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="43.5">
+    <row r="480" spans="1:13" ht="45">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -35474,7 +35513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="29">
+    <row r="481" spans="1:13" ht="30">
       <c r="A481" t="s">
         <v>124</v>
       </c>
@@ -35515,7 +35554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="29">
+    <row r="482" spans="1:13" ht="30">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -35556,7 +35595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="29">
+    <row r="483" spans="1:13" ht="30">
       <c r="A483" t="s">
         <v>131</v>
       </c>
@@ -35638,7 +35677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="43.5">
+    <row r="485" spans="1:13" ht="60">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -35679,7 +35718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="43.5">
+    <row r="486" spans="1:13" ht="60">
       <c r="A486" t="s">
         <v>142</v>
       </c>
@@ -35720,7 +35759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="43.5">
+    <row r="487" spans="1:13" ht="45">
       <c r="A487" t="s">
         <v>146</v>
       </c>
@@ -35761,7 +35800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="29">
+    <row r="488" spans="1:13" ht="30">
       <c r="A488" t="s">
         <v>182</v>
       </c>
@@ -35802,7 +35841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="29">
+    <row r="489" spans="1:13" ht="30">
       <c r="A489" t="s">
         <v>186</v>
       </c>
@@ -35843,7 +35882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="29">
+    <row r="490" spans="1:13" ht="30">
       <c r="A490" t="s">
         <v>190</v>
       </c>
@@ -35884,7 +35923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="29">
+    <row r="491" spans="1:13" ht="30">
       <c r="A491" t="s">
         <v>194</v>
       </c>
@@ -35966,7 +36005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="29">
+    <row r="493" spans="1:13" ht="30">
       <c r="A493" t="s">
         <v>201</v>
       </c>
@@ -36007,7 +36046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="29">
+    <row r="494" spans="1:13" ht="30">
       <c r="A494" t="s">
         <v>227</v>
       </c>
@@ -36048,7 +36087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="495" spans="1:13" s="11" customFormat="1">
       <c r="A495" s="11">
         <v>1131</v>
       </c>
@@ -36089,7 +36128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="29">
+    <row r="496" spans="1:13" ht="45">
       <c r="A496" t="s">
         <v>241</v>
       </c>
@@ -36130,7 +36169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="29">
+    <row r="497" spans="1:13" ht="30">
       <c r="A497" t="s">
         <v>248</v>
       </c>
@@ -36171,7 +36210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="29">
+    <row r="498" spans="1:13" ht="45">
       <c r="A498" t="s">
         <v>255</v>
       </c>
@@ -36212,7 +36251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="43.5">
+    <row r="499" spans="1:13" ht="45">
       <c r="A499" t="s">
         <v>262</v>
       </c>
@@ -36499,7 +36538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="29">
+    <row r="506" spans="1:13" ht="30">
       <c r="A506" t="s">
         <v>298</v>
       </c>
@@ -36540,7 +36579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="29">
+    <row r="507" spans="1:13" ht="30">
       <c r="A507" t="s">
         <v>306</v>
       </c>
@@ -36581,7 +36620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="29">
+    <row r="508" spans="1:13" ht="30">
       <c r="A508" t="s">
         <v>312</v>
       </c>
@@ -36622,7 +36661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:13">
+    <row r="509" spans="1:13" ht="30">
       <c r="A509" t="s">
         <v>314</v>
       </c>
@@ -36663,7 +36702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="29">
+    <row r="510" spans="1:13" ht="30">
       <c r="A510" t="s">
         <v>318</v>
       </c>
@@ -36704,7 +36743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="29">
+    <row r="511" spans="1:13" ht="30">
       <c r="A511" t="s">
         <v>320</v>
       </c>
@@ -36745,7 +36784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="29">
+    <row r="512" spans="1:13" ht="30">
       <c r="A512" t="s">
         <v>321</v>
       </c>
@@ -36786,7 +36825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="29">
+    <row r="513" spans="1:13" ht="30">
       <c r="A513" t="s">
         <v>322</v>
       </c>
@@ -36827,7 +36866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="29">
+    <row r="514" spans="1:13" ht="30">
       <c r="A514" t="s">
         <v>323</v>
       </c>
@@ -36868,7 +36907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="29">
+    <row r="515" spans="1:13" ht="30">
       <c r="A515" t="s">
         <v>324</v>
       </c>
@@ -36909,7 +36948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="29">
+    <row r="516" spans="1:13" ht="30">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -36950,7 +36989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="29">
+    <row r="517" spans="1:13" ht="30">
       <c r="A517" t="s">
         <v>340</v>
       </c>
@@ -37196,7 +37235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="29">
+    <row r="523" spans="1:13" ht="45">
       <c r="A523" t="s">
         <v>373</v>
       </c>
@@ -37237,7 +37276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="29">
+    <row r="524" spans="1:13" ht="30">
       <c r="A524" t="s">
         <v>378</v>
       </c>
@@ -37278,7 +37317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="29">
+    <row r="525" spans="1:13" ht="30">
       <c r="A525" t="s">
         <v>386</v>
       </c>
@@ -37360,7 +37399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="43.5">
+    <row r="527" spans="1:13" ht="45">
       <c r="A527" t="s">
         <v>401</v>
       </c>
@@ -37401,7 +37440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="29">
+    <row r="528" spans="1:13" ht="30">
       <c r="A528" t="s">
         <v>411</v>
       </c>
@@ -37442,7 +37481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="43.5">
+    <row r="529" spans="1:13" ht="45">
       <c r="A529" t="s">
         <v>417</v>
       </c>
@@ -37483,7 +37522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="29">
+    <row r="530" spans="1:13" ht="45">
       <c r="A530" t="s">
         <v>425</v>
       </c>
@@ -37524,7 +37563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="43.5">
+    <row r="531" spans="1:13" ht="45">
       <c r="A531" t="s">
         <v>433</v>
       </c>
@@ -37565,7 +37604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="29">
+    <row r="532" spans="1:13" ht="30">
       <c r="A532" t="s">
         <v>443</v>
       </c>
@@ -37606,7 +37645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="29">
+    <row r="533" spans="1:13" ht="45">
       <c r="A533" t="s">
         <v>448</v>
       </c>
@@ -37647,7 +37686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="43.5">
+    <row r="534" spans="1:13" ht="45">
       <c r="A534" t="s">
         <v>456</v>
       </c>
@@ -37688,7 +37727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="29">
+    <row r="535" spans="1:13" ht="30">
       <c r="A535" t="s">
         <v>464</v>
       </c>
@@ -37770,7 +37809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="43.5">
+    <row r="537" spans="1:13" ht="45">
       <c r="A537" t="s">
         <v>477</v>
       </c>
@@ -37811,7 +37850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="43.5">
+    <row r="538" spans="1:13" ht="45">
       <c r="A538" t="s">
         <v>485</v>
       </c>
@@ -37852,7 +37891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="29">
+    <row r="539" spans="1:13" ht="30">
       <c r="A539" t="s">
         <v>490</v>
       </c>
@@ -37893,7 +37932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="29">
+    <row r="540" spans="1:13" ht="45">
       <c r="A540" t="s">
         <v>498</v>
       </c>
@@ -37934,7 +37973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="29">
+    <row r="541" spans="1:13" ht="30">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -37975,7 +38014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="29">
+    <row r="542" spans="1:13" ht="45">
       <c r="A542" t="s">
         <v>511</v>
       </c>
@@ -38016,7 +38055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="58">
+    <row r="543" spans="1:13" ht="60">
       <c r="A543" t="s">
         <v>519</v>
       </c>
@@ -38057,7 +38096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="43.5">
+    <row r="544" spans="1:13" ht="45">
       <c r="A544" t="s">
         <v>527</v>
       </c>
@@ -38098,7 +38137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="29">
+    <row r="545" spans="1:13" ht="45">
       <c r="A545" t="s">
         <v>532</v>
       </c>
@@ -38139,7 +38178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="43.5">
+    <row r="546" spans="1:13" ht="45">
       <c r="A546" t="s">
         <v>540</v>
       </c>
@@ -38180,7 +38219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="29">
+    <row r="547" spans="1:13" ht="30">
       <c r="A547" t="s">
         <v>548</v>
       </c>
@@ -38221,7 +38260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="29">
+    <row r="548" spans="1:13" ht="30">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -38262,7 +38301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="43.5">
+    <row r="549" spans="1:13" ht="45">
       <c r="A549" t="s">
         <v>561</v>
       </c>
@@ -38303,7 +38342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="29">
+    <row r="550" spans="1:13" ht="45">
       <c r="A550" t="s">
         <v>569</v>
       </c>
@@ -38344,7 +38383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="43.5">
+    <row r="551" spans="1:13" ht="45">
       <c r="A551" t="s">
         <v>576</v>
       </c>
@@ -38385,7 +38424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="43.5">
+    <row r="552" spans="1:13" ht="45">
       <c r="A552" t="s">
         <v>584</v>
       </c>
@@ -38426,7 +38465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="43.5">
+    <row r="553" spans="1:13" ht="45">
       <c r="A553" t="s">
         <v>592</v>
       </c>
@@ -38467,7 +38506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="43.5">
+    <row r="554" spans="1:13" ht="60">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -38508,7 +38547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="43.5">
+    <row r="555" spans="1:13" ht="60">
       <c r="A555" t="s">
         <v>605</v>
       </c>
@@ -38549,7 +38588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="43.5">
+    <row r="556" spans="1:13" ht="45">
       <c r="A556" t="s">
         <v>613</v>
       </c>
@@ -38590,7 +38629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="29">
+    <row r="557" spans="1:13" ht="30">
       <c r="A557" t="s">
         <v>618</v>
       </c>
@@ -38631,7 +38670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="43.5">
+    <row r="558" spans="1:13" ht="45">
       <c r="A558" t="s">
         <v>626</v>
       </c>
@@ -38672,7 +38711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="29">
+    <row r="559" spans="1:13" ht="30">
       <c r="A559" t="s">
         <v>634</v>
       </c>
@@ -38713,7 +38752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="58">
+    <row r="560" spans="1:13" ht="60">
       <c r="A560" t="s">
         <v>639</v>
       </c>
@@ -38754,7 +38793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="58">
+    <row r="561" spans="1:13" ht="60">
       <c r="A561" t="s">
         <v>647</v>
       </c>
@@ -38795,7 +38834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="43.5">
+    <row r="562" spans="1:13" ht="60">
       <c r="A562" t="s">
         <v>655</v>
       </c>
@@ -38836,7 +38875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="29">
+    <row r="563" spans="1:13" ht="30">
       <c r="A563" t="s">
         <v>660</v>
       </c>
@@ -38877,7 +38916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="29">
+    <row r="564" spans="1:13" ht="30">
       <c r="A564" t="s">
         <v>668</v>
       </c>
@@ -38918,7 +38957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="29">
+    <row r="565" spans="1:13" ht="30">
       <c r="A565" t="s">
         <v>674</v>
       </c>
@@ -38959,7 +38998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="29">
+    <row r="566" spans="1:13" ht="30">
       <c r="A566" t="s">
         <v>679</v>
       </c>
@@ -39000,7 +39039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="29">
+    <row r="567" spans="1:13" ht="45">
       <c r="A567" t="s">
         <v>687</v>
       </c>
@@ -39041,7 +39080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="29">
+    <row r="568" spans="1:13" ht="30">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -39082,7 +39121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="58">
+    <row r="569" spans="1:13" ht="60">
       <c r="A569" t="s">
         <v>700</v>
       </c>
@@ -39123,7 +39162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="72.5">
+    <row r="570" spans="1:13" ht="75">
       <c r="A570" t="s">
         <v>708</v>
       </c>
@@ -39164,7 +39203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="58">
+    <row r="571" spans="1:13" ht="60">
       <c r="A571" t="s">
         <v>716</v>
       </c>
@@ -39205,7 +39244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="29">
+    <row r="572" spans="1:13" ht="30">
       <c r="A572" t="s">
         <v>721</v>
       </c>
@@ -39246,7 +39285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="43.5">
+    <row r="573" spans="1:13" ht="45">
       <c r="A573" t="s">
         <v>729</v>
       </c>
@@ -39287,7 +39326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="29">
+    <row r="574" spans="1:13" ht="30">
       <c r="A574" t="s">
         <v>737</v>
       </c>
@@ -39328,7 +39367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="43.5">
+    <row r="575" spans="1:13" ht="45">
       <c r="A575" t="s">
         <v>742</v>
       </c>
@@ -39369,7 +39408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="43.5">
+    <row r="576" spans="1:13" ht="45">
       <c r="A576" t="s">
         <v>749</v>
       </c>
@@ -39410,7 +39449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="43.5">
+    <row r="577" spans="1:13" ht="60">
       <c r="A577" t="s">
         <v>753</v>
       </c>
@@ -39451,7 +39490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="43.5">
+    <row r="578" spans="1:13" ht="60">
       <c r="A578" t="s">
         <v>760</v>
       </c>
@@ -39492,7 +39531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="43.5">
+    <row r="579" spans="1:13" ht="45">
       <c r="A579" t="s">
         <v>764</v>
       </c>
@@ -39533,7 +39572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="43.5">
+    <row r="580" spans="1:13" ht="45">
       <c r="A580" t="s">
         <v>771</v>
       </c>
@@ -39574,7 +39613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="43.5">
+    <row r="581" spans="1:13" ht="60">
       <c r="A581" t="s">
         <v>775</v>
       </c>
@@ -39615,7 +39654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="43.5">
+    <row r="582" spans="1:13" ht="45">
       <c r="A582" t="s">
         <v>779</v>
       </c>
@@ -39656,7 +39695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="43.5">
+    <row r="583" spans="1:13" ht="60">
       <c r="A583" t="s">
         <v>783</v>
       </c>
@@ -39738,7 +39777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="43.5">
+    <row r="585" spans="1:13" ht="60">
       <c r="A585" t="s">
         <v>794</v>
       </c>
@@ -39779,7 +39818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="43.5">
+    <row r="586" spans="1:13" ht="60">
       <c r="A586" t="s">
         <v>801</v>
       </c>
@@ -39820,7 +39859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="43.5">
+    <row r="587" spans="1:13" ht="60">
       <c r="A587" t="s">
         <v>805</v>
       </c>
@@ -39861,7 +39900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="43.5">
+    <row r="588" spans="1:13" ht="45">
       <c r="A588" t="s">
         <v>812</v>
       </c>
@@ -39902,7 +39941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="43.5">
+    <row r="589" spans="1:13" ht="45">
       <c r="A589" t="s">
         <v>816</v>
       </c>
@@ -39943,7 +39982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="43.5">
+    <row r="590" spans="1:13" ht="60">
       <c r="A590" t="s">
         <v>822</v>
       </c>
@@ -39984,7 +40023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="43.5">
+    <row r="591" spans="1:13" ht="45">
       <c r="A591" t="s">
         <v>829</v>
       </c>
@@ -40025,7 +40064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="43.5">
+    <row r="592" spans="1:13" ht="45">
       <c r="A592" t="s">
         <v>836</v>
       </c>
@@ -40066,7 +40105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="43.5">
+    <row r="593" spans="1:13" ht="60">
       <c r="A593" t="s">
         <v>843</v>
       </c>
@@ -40107,7 +40146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="58">
+    <row r="594" spans="1:13" ht="75">
       <c r="A594" t="s">
         <v>847</v>
       </c>
@@ -40148,7 +40187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="43.5">
+    <row r="595" spans="1:13" ht="45">
       <c r="A595" t="s">
         <v>854</v>
       </c>
@@ -40189,7 +40228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="29">
+    <row r="596" spans="1:13" ht="30">
       <c r="A596" t="s">
         <v>861</v>
       </c>
@@ -40230,7 +40269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="29">
+    <row r="597" spans="1:13" ht="30">
       <c r="A597" t="s">
         <v>868</v>
       </c>
@@ -40271,7 +40310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="29">
+    <row r="598" spans="1:13" ht="45">
       <c r="A598" t="s">
         <v>872</v>
       </c>
@@ -40312,7 +40351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="29">
+    <row r="599" spans="1:13" ht="30">
       <c r="A599" t="s">
         <v>879</v>
       </c>
@@ -40353,7 +40392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="29">
+    <row r="600" spans="1:13" ht="30">
       <c r="A600" t="s">
         <v>886</v>
       </c>
@@ -40394,7 +40433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="29">
+    <row r="601" spans="1:13" ht="45">
       <c r="A601" t="s">
         <v>890</v>
       </c>
@@ -40435,7 +40474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="43.5">
+    <row r="602" spans="1:13" ht="60">
       <c r="A602" t="s">
         <v>897</v>
       </c>
@@ -40476,7 +40515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="58">
+    <row r="603" spans="1:13" ht="60">
       <c r="A603" t="s">
         <v>904</v>
       </c>
@@ -40517,7 +40556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="58">
+    <row r="604" spans="1:13" ht="60">
       <c r="A604" t="s">
         <v>910</v>
       </c>
@@ -40558,7 +40597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="29">
+    <row r="605" spans="1:13" ht="30">
       <c r="A605" t="s">
         <v>917</v>
       </c>
@@ -40599,7 +40638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="29">
+    <row r="606" spans="1:13" ht="30">
       <c r="A606" t="s">
         <v>924</v>
       </c>
@@ -40640,7 +40679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="29">
+    <row r="607" spans="1:13" ht="45">
       <c r="A607" t="s">
         <v>928</v>
       </c>
@@ -40763,7 +40802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="29">
+    <row r="610" spans="1:13" ht="30">
       <c r="A610" s="6" t="s">
         <v>951</v>
       </c>
@@ -40804,7 +40843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="29">
+    <row r="611" spans="1:13" ht="30">
       <c r="A611" t="s">
         <v>959</v>
       </c>
@@ -40845,7 +40884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="29">
+    <row r="612" spans="1:13" ht="30">
       <c r="A612" t="s">
         <v>964</v>
       </c>
@@ -40886,7 +40925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="29">
+    <row r="613" spans="1:13" ht="30">
       <c r="A613" t="s">
         <v>968</v>
       </c>
@@ -40927,7 +40966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="29">
+    <row r="614" spans="1:13" ht="30">
       <c r="A614" t="s">
         <v>972</v>
       </c>
@@ -41091,7 +41130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="174">
+    <row r="618" spans="1:13" ht="180">
       <c r="A618" t="s">
         <v>1010</v>
       </c>
@@ -41293,7 +41332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="29">
+    <row r="623" spans="1:13" ht="30">
       <c r="A623" t="s">
         <v>1039</v>
       </c>
@@ -41498,7 +41537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="26.15" customHeight="1">
+    <row r="628" spans="1:13" ht="26.1" customHeight="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -41539,7 +41578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="25.4" customHeight="1">
+    <row r="629" spans="1:13" ht="25.35" customHeight="1">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -41580,7 +41619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="26.9" customHeight="1">
+    <row r="630" spans="1:13" ht="26.85" customHeight="1">
       <c r="A630" t="s">
         <v>28</v>
       </c>
@@ -41621,7 +41660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="26.9" customHeight="1">
+    <row r="631" spans="1:13" ht="26.85" customHeight="1">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -41662,7 +41701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="29.9" customHeight="1">
+    <row r="632" spans="1:13" ht="29.85" customHeight="1">
       <c r="A632" t="s">
         <v>53</v>
       </c>
@@ -41703,7 +41742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.65" customHeight="1">
+    <row r="633" spans="1:13" ht="27.6" customHeight="1">
       <c r="A633" t="s">
         <v>57</v>
       </c>
@@ -41744,7 +41783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="29.9" customHeight="1">
+    <row r="634" spans="1:13" ht="29.85" customHeight="1">
       <c r="A634" t="s">
         <v>61</v>
       </c>
@@ -41785,7 +41824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="32" customHeight="1">
+    <row r="635" spans="1:13" ht="32.1" customHeight="1">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -41826,7 +41865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="29">
+    <row r="636" spans="1:13" ht="30">
       <c r="A636" t="s">
         <v>69</v>
       </c>
@@ -41867,7 +41906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="29">
+    <row r="637" spans="1:13" ht="30">
       <c r="A637" t="s">
         <v>73</v>
       </c>
@@ -41908,7 +41947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="29">
+    <row r="638" spans="1:13" ht="30">
       <c r="A638" t="s">
         <v>77</v>
       </c>
@@ -41949,7 +41988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="29">
+    <row r="639" spans="1:13" ht="30">
       <c r="A639" t="s">
         <v>115</v>
       </c>
@@ -41990,7 +42029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="29">
+    <row r="640" spans="1:13" ht="30">
       <c r="A640" t="s">
         <v>120</v>
       </c>
@@ -42031,7 +42070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="29">
+    <row r="641" spans="1:13" ht="30">
       <c r="A641" t="s">
         <v>124</v>
       </c>
@@ -42072,7 +42111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="29">
+    <row r="642" spans="1:13" ht="30">
       <c r="A642" t="s">
         <v>127</v>
       </c>
@@ -42113,7 +42152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="29">
+    <row r="643" spans="1:13" ht="30">
       <c r="A643" t="s">
         <v>131</v>
       </c>
@@ -42154,7 +42193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="29">
+    <row r="644" spans="1:13" ht="30">
       <c r="A644" t="s">
         <v>135</v>
       </c>
@@ -42195,7 +42234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="29">
+    <row r="645" spans="1:13" ht="30">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -42236,7 +42275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="29">
+    <row r="646" spans="1:13" ht="30">
       <c r="A646" t="s">
         <v>142</v>
       </c>
@@ -42277,7 +42316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="29">
+    <row r="647" spans="1:13" ht="30">
       <c r="A647" t="s">
         <v>146</v>
       </c>
@@ -42318,7 +42357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="116">
+    <row r="648" spans="1:13" ht="120">
       <c r="A648" t="s">
         <v>182</v>
       </c>
@@ -42359,7 +42398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="29">
+    <row r="649" spans="1:13" ht="30">
       <c r="A649" t="s">
         <v>186</v>
       </c>
@@ -42400,7 +42439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="29">
+    <row r="650" spans="1:13" ht="30">
       <c r="A650" t="s">
         <v>190</v>
       </c>
@@ -42441,7 +42480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="29">
+    <row r="651" spans="1:13" ht="30">
       <c r="A651" t="s">
         <v>194</v>
       </c>
@@ -42482,7 +42521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="29">
+    <row r="652" spans="1:13" ht="30">
       <c r="A652" t="s">
         <v>198</v>
       </c>
@@ -42523,7 +42562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="29">
+    <row r="653" spans="1:13" ht="30">
       <c r="A653" t="s">
         <v>201</v>
       </c>
@@ -42564,7 +42603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="29">
+    <row r="654" spans="1:13" ht="30">
       <c r="A654" t="s">
         <v>227</v>
       </c>
@@ -42605,7 +42644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="11" customFormat="1" ht="15.5">
+    <row r="655" spans="1:13" s="11" customFormat="1">
       <c r="A655" s="11">
         <v>1131</v>
       </c>
@@ -42646,7 +42685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="29">
+    <row r="656" spans="1:13" ht="30">
       <c r="A656" t="s">
         <v>241</v>
       </c>
@@ -42687,7 +42726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="29">
+    <row r="657" spans="1:13" ht="30">
       <c r="A657" t="s">
         <v>248</v>
       </c>
@@ -42728,7 +42767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="29">
+    <row r="658" spans="1:13" ht="30">
       <c r="A658" t="s">
         <v>255</v>
       </c>
@@ -42769,7 +42808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="29">
+    <row r="659" spans="1:13" ht="30">
       <c r="A659" t="s">
         <v>262</v>
       </c>
@@ -42851,7 +42890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="145">
+    <row r="661" spans="1:13" ht="165">
       <c r="A661" t="s">
         <v>282</v>
       </c>
@@ -43056,7 +43095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="29">
+    <row r="666" spans="1:13" ht="30">
       <c r="A666" t="s">
         <v>298</v>
       </c>
@@ -43097,7 +43136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="29">
+    <row r="667" spans="1:13" ht="30">
       <c r="A667" t="s">
         <v>306</v>
       </c>
@@ -43138,7 +43177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="29">
+    <row r="668" spans="1:13" ht="30">
       <c r="A668" t="s">
         <v>312</v>
       </c>
@@ -43220,7 +43259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="29">
+    <row r="670" spans="1:13" ht="30">
       <c r="A670" t="s">
         <v>318</v>
       </c>
@@ -43261,7 +43300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="29">
+    <row r="671" spans="1:13" ht="30">
       <c r="A671" t="s">
         <v>320</v>
       </c>
@@ -43302,7 +43341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="29">
+    <row r="672" spans="1:13" ht="30">
       <c r="A672" t="s">
         <v>321</v>
       </c>
@@ -43343,7 +43382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="29">
+    <row r="673" spans="1:13" ht="30">
       <c r="A673" t="s">
         <v>322</v>
       </c>
@@ -43384,7 +43423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="29">
+    <row r="674" spans="1:13" ht="30">
       <c r="A674" t="s">
         <v>323</v>
       </c>
@@ -43425,7 +43464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="58">
+    <row r="675" spans="1:13" ht="60">
       <c r="A675" t="s">
         <v>324</v>
       </c>
@@ -43466,7 +43505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:13" ht="30">
       <c r="A676" t="s">
         <v>332</v>
       </c>
@@ -43507,7 +43546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="29">
+    <row r="677" spans="1:13" ht="30">
       <c r="A677" t="s">
         <v>340</v>
       </c>
@@ -43753,7 +43792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="29">
+    <row r="683" spans="1:13" ht="30">
       <c r="A683" t="s">
         <v>373</v>
       </c>
@@ -43794,7 +43833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="29">
+    <row r="684" spans="1:13" ht="30">
       <c r="A684" t="s">
         <v>378</v>
       </c>
@@ -43835,7 +43874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:13" ht="30">
       <c r="A685" t="s">
         <v>386</v>
       </c>
@@ -43917,7 +43956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="29">
+    <row r="687" spans="1:13" ht="30">
       <c r="A687" t="s">
         <v>401</v>
       </c>
@@ -43958,7 +43997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="29">
+    <row r="688" spans="1:13" ht="30">
       <c r="A688" t="s">
         <v>411</v>
       </c>
@@ -43999,7 +44038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="43.5">
+    <row r="689" spans="1:13" ht="45">
       <c r="A689" t="s">
         <v>417</v>
       </c>
@@ -44040,7 +44079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="29">
+    <row r="690" spans="1:13" ht="30">
       <c r="A690" t="s">
         <v>425</v>
       </c>
@@ -44081,7 +44120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="29">
+    <row r="691" spans="1:13" ht="30">
       <c r="A691" t="s">
         <v>433</v>
       </c>
@@ -44122,7 +44161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="29">
+    <row r="692" spans="1:13" ht="30">
       <c r="A692" t="s">
         <v>443</v>
       </c>
@@ -44163,7 +44202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="29">
+    <row r="693" spans="1:13" ht="30">
       <c r="A693" t="s">
         <v>448</v>
       </c>
@@ -44204,7 +44243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="29">
+    <row r="694" spans="1:13" ht="45">
       <c r="A694" t="s">
         <v>456</v>
       </c>
@@ -44245,7 +44284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="29">
+    <row r="695" spans="1:13" ht="30">
       <c r="A695" t="s">
         <v>464</v>
       </c>
@@ -44286,7 +44325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="29">
+    <row r="696" spans="1:13" ht="45">
       <c r="A696" t="s">
         <v>469</v>
       </c>
@@ -44327,7 +44366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="43.5">
+    <row r="697" spans="1:13" ht="60">
       <c r="A697" t="s">
         <v>477</v>
       </c>
@@ -44368,7 +44407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="29">
+    <row r="698" spans="1:13" ht="45">
       <c r="A698" t="s">
         <v>485</v>
       </c>
@@ -44450,7 +44489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="29">
+    <row r="700" spans="1:13" ht="30">
       <c r="A700" t="s">
         <v>498</v>
       </c>
@@ -44491,7 +44530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="29">
+    <row r="701" spans="1:13" ht="30">
       <c r="A701" t="s">
         <v>506</v>
       </c>
@@ -44573,7 +44612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="29">
+    <row r="703" spans="1:13" ht="30">
       <c r="A703" t="s">
         <v>519</v>
       </c>
@@ -44614,7 +44653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="29">
+    <row r="704" spans="1:13" ht="30">
       <c r="A704" t="s">
         <v>527</v>
       </c>
@@ -44655,7 +44694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:13" ht="29">
+    <row r="705" spans="1:13" ht="30">
       <c r="A705" t="s">
         <v>532</v>
       </c>
@@ -44696,7 +44735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="29">
+    <row r="706" spans="1:13" ht="30">
       <c r="A706" t="s">
         <v>540</v>
       </c>
@@ -44737,7 +44776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="29">
+    <row r="707" spans="1:13" ht="30">
       <c r="A707" t="s">
         <v>548</v>
       </c>
@@ -44778,7 +44817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="29">
+    <row r="708" spans="1:13" ht="30">
       <c r="A708" t="s">
         <v>553</v>
       </c>
@@ -44819,7 +44858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="29">
+    <row r="709" spans="1:13" ht="30">
       <c r="A709" t="s">
         <v>561</v>
       </c>
@@ -44860,7 +44899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="29">
+    <row r="710" spans="1:13" ht="30">
       <c r="A710" t="s">
         <v>569</v>
       </c>
@@ -44901,7 +44940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="29">
+    <row r="711" spans="1:13" ht="30">
       <c r="A711" t="s">
         <v>576</v>
       </c>
@@ -44942,7 +44981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="29">
+    <row r="712" spans="1:13" ht="30">
       <c r="A712" t="s">
         <v>584</v>
       </c>
@@ -44983,7 +45022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="29">
+    <row r="713" spans="1:13" ht="45">
       <c r="A713" t="s">
         <v>592</v>
       </c>
@@ -45024,7 +45063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="29">
+    <row r="714" spans="1:13" ht="30">
       <c r="A714" t="s">
         <v>597</v>
       </c>
@@ -45065,7 +45104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="43.5">
+    <row r="715" spans="1:13" ht="45">
       <c r="A715" t="s">
         <v>605</v>
       </c>
@@ -45106,7 +45145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="29">
+    <row r="716" spans="1:13" ht="45">
       <c r="A716" t="s">
         <v>613</v>
       </c>
@@ -45147,7 +45186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="29">
+    <row r="717" spans="1:13" ht="30">
       <c r="A717" t="s">
         <v>618</v>
       </c>
@@ -45188,7 +45227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="29">
+    <row r="718" spans="1:13" ht="30">
       <c r="A718" t="s">
         <v>626</v>
       </c>
@@ -45229,7 +45268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="29">
+    <row r="719" spans="1:13" ht="30">
       <c r="A719" t="s">
         <v>634</v>
       </c>
@@ -45270,7 +45309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="29">
+    <row r="720" spans="1:13" ht="30">
       <c r="A720" t="s">
         <v>639</v>
       </c>
@@ -45311,7 +45350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="43.5">
+    <row r="721" spans="1:13" ht="45">
       <c r="A721" t="s">
         <v>647</v>
       </c>
@@ -45352,7 +45391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="43.5">
+    <row r="722" spans="1:13" ht="45">
       <c r="A722" t="s">
         <v>655</v>
       </c>
@@ -45393,7 +45432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:13">
+    <row r="723" spans="1:13" ht="30">
       <c r="A723" t="s">
         <v>660</v>
       </c>
@@ -45434,7 +45473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="29">
+    <row r="724" spans="1:13" ht="30">
       <c r="A724" t="s">
         <v>668</v>
       </c>
@@ -45475,7 +45514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="29">
+    <row r="725" spans="1:13" ht="30">
       <c r="A725" t="s">
         <v>674</v>
       </c>
@@ -45557,7 +45596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="29">
+    <row r="727" spans="1:13" ht="30">
       <c r="A727" t="s">
         <v>687</v>
       </c>
@@ -45598,7 +45637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="29">
+    <row r="728" spans="1:13" ht="30">
       <c r="A728" t="s">
         <v>695</v>
       </c>
@@ -45639,7 +45678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="43.5">
+    <row r="729" spans="1:13" ht="45">
       <c r="A729" t="s">
         <v>700</v>
       </c>
@@ -45680,7 +45719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="29">
+    <row r="730" spans="1:13" ht="45">
       <c r="A730" t="s">
         <v>708</v>
       </c>
@@ -45721,7 +45760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="43.5">
+    <row r="731" spans="1:13" ht="45">
       <c r="A731" t="s">
         <v>716</v>
       </c>
@@ -45762,7 +45801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="29">
+    <row r="732" spans="1:13" ht="30">
       <c r="A732" t="s">
         <v>721</v>
       </c>
@@ -45803,7 +45842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="29">
+    <row r="733" spans="1:13" ht="45">
       <c r="A733" t="s">
         <v>729</v>
       </c>
@@ -45844,7 +45883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="29">
+    <row r="734" spans="1:13" ht="30">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -45885,7 +45924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="29">
+    <row r="735" spans="1:13" ht="30">
       <c r="A735" t="s">
         <v>742</v>
       </c>
@@ -45926,7 +45965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="29">
+    <row r="736" spans="1:13" ht="30">
       <c r="A736" t="s">
         <v>749</v>
       </c>
@@ -45967,7 +46006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="29">
+    <row r="737" spans="1:13" ht="30">
       <c r="A737" t="s">
         <v>753</v>
       </c>
@@ -46008,7 +46047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="29">
+    <row r="738" spans="1:13" ht="30">
       <c r="A738" t="s">
         <v>760</v>
       </c>
@@ -46049,7 +46088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="29">
+    <row r="739" spans="1:13" ht="30">
       <c r="A739" t="s">
         <v>764</v>
       </c>
@@ -46090,7 +46129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="29">
+    <row r="740" spans="1:13" ht="30">
       <c r="A740" t="s">
         <v>771</v>
       </c>
@@ -46131,7 +46170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="29">
+    <row r="741" spans="1:13" ht="30">
       <c r="A741" t="s">
         <v>775</v>
       </c>
@@ -46172,7 +46211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="29">
+    <row r="742" spans="1:13" ht="30">
       <c r="A742" t="s">
         <v>779</v>
       </c>
@@ -46213,7 +46252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="29">
+    <row r="743" spans="1:13" ht="45">
       <c r="A743" t="s">
         <v>783</v>
       </c>
@@ -46254,7 +46293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="29">
+    <row r="744" spans="1:13" ht="30">
       <c r="A744" t="s">
         <v>790</v>
       </c>
@@ -46295,7 +46334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="29">
+    <row r="745" spans="1:13" ht="30">
       <c r="A745" t="s">
         <v>794</v>
       </c>
@@ -46336,7 +46375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="29">
+    <row r="746" spans="1:13" ht="30">
       <c r="A746" t="s">
         <v>801</v>
       </c>
@@ -46377,7 +46416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="29">
+    <row r="747" spans="1:13" ht="30">
       <c r="A747" t="s">
         <v>805</v>
       </c>
@@ -46418,7 +46457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="43.5">
+    <row r="748" spans="1:13" ht="45">
       <c r="A748" t="s">
         <v>812</v>
       </c>
@@ -46459,7 +46498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="43.5">
+    <row r="749" spans="1:13" ht="45">
       <c r="A749" t="s">
         <v>816</v>
       </c>
@@ -46500,7 +46539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="43.5">
+    <row r="750" spans="1:13" ht="45">
       <c r="A750" t="s">
         <v>822</v>
       </c>
@@ -46541,7 +46580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="29">
+    <row r="751" spans="1:13" ht="30">
       <c r="A751" t="s">
         <v>829</v>
       </c>
@@ -46582,7 +46621,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="29">
+    <row r="752" spans="1:13" ht="30">
       <c r="A752" t="s">
         <v>836</v>
       </c>
@@ -46623,7 +46662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="29">
+    <row r="753" spans="1:13" ht="30">
       <c r="A753" t="s">
         <v>843</v>
       </c>
@@ -46664,7 +46703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="29">
+    <row r="754" spans="1:13" ht="45">
       <c r="A754" t="s">
         <v>847</v>
       </c>
@@ -46705,7 +46744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="29">
+    <row r="755" spans="1:13" ht="30">
       <c r="A755" t="s">
         <v>854</v>
       </c>
@@ -46746,7 +46785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="29">
+    <row r="756" spans="1:13" ht="30">
       <c r="A756" t="s">
         <v>861</v>
       </c>
@@ -46787,7 +46826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="29">
+    <row r="757" spans="1:13" ht="30">
       <c r="A757" t="s">
         <v>868</v>
       </c>
@@ -46828,7 +46867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="29">
+    <row r="758" spans="1:13" ht="30">
       <c r="A758" t="s">
         <v>872</v>
       </c>
@@ -46869,7 +46908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="29">
+    <row r="759" spans="1:13" ht="30">
       <c r="A759" t="s">
         <v>879</v>
       </c>
@@ -46910,7 +46949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="29">
+    <row r="760" spans="1:13" ht="30">
       <c r="A760" t="s">
         <v>886</v>
       </c>
@@ -46951,7 +46990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="29">
+    <row r="761" spans="1:13" ht="30">
       <c r="A761" t="s">
         <v>890</v>
       </c>
@@ -46992,7 +47031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="29">
+    <row r="762" spans="1:13" ht="30">
       <c r="A762" t="s">
         <v>897</v>
       </c>
@@ -47033,7 +47072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="29">
+    <row r="763" spans="1:13" ht="30">
       <c r="A763" t="s">
         <v>904</v>
       </c>
@@ -47074,7 +47113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="29">
+    <row r="764" spans="1:13" ht="30">
       <c r="A764" t="s">
         <v>910</v>
       </c>
@@ -47115,7 +47154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="29">
+    <row r="765" spans="1:13" ht="30">
       <c r="A765" t="s">
         <v>917</v>
       </c>
@@ -47156,7 +47195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="29">
+    <row r="766" spans="1:13" ht="30">
       <c r="A766" t="s">
         <v>924</v>
       </c>
@@ -47197,7 +47236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="29">
+    <row r="767" spans="1:13" ht="30">
       <c r="A767" t="s">
         <v>928</v>
       </c>
@@ -47443,7 +47482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="29">
+    <row r="773" spans="1:13" ht="30">
       <c r="A773" t="s">
         <v>968</v>
       </c>
@@ -47607,7 +47646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="145">
+    <row r="777" spans="1:13" ht="165">
       <c r="A777" t="s">
         <v>1001</v>
       </c>
@@ -47648,7 +47687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="130.5">
+    <row r="778" spans="1:13" ht="135">
       <c r="A778" t="s">
         <v>1010</v>
       </c>
@@ -47768,7 +47807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="29">
+    <row r="781" spans="1:13" ht="45">
       <c r="A781" t="s">
         <v>1029</v>
       </c>
@@ -47809,7 +47848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="29">
+    <row r="782" spans="1:13" ht="30">
       <c r="A782" t="s">
         <v>1034</v>
       </c>
@@ -47932,7 +47971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="29">
+    <row r="785" spans="1:13" ht="30">
       <c r="A785" t="s">
         <v>1049</v>
       </c>
@@ -47973,7 +48012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="43.5">
+    <row r="786" spans="1:13" ht="45">
       <c r="A786" t="s">
         <v>1054</v>
       </c>
@@ -48014,7 +48053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="29">
+    <row r="787" spans="1:13" ht="30">
       <c r="A787" s="6">
         <v>1281</v>
       </c>
@@ -48055,7 +48094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="44" customHeight="1">
+    <row r="788" spans="1:13" ht="44.1" customHeight="1">
       <c r="A788" t="s">
         <v>13</v>
       </c>
@@ -48096,7 +48135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="43.5">
+    <row r="789" spans="1:13" ht="45">
       <c r="A789" t="s">
         <v>24</v>
       </c>
@@ -48137,7 +48176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="43.5">
+    <row r="790" spans="1:13" ht="45">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -48178,7 +48217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="130.5">
+    <row r="791" spans="1:13" ht="150">
       <c r="A791" t="s">
         <v>48</v>
       </c>
@@ -48219,7 +48258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="29">
+    <row r="792" spans="1:13" ht="45">
       <c r="A792" t="s">
         <v>53</v>
       </c>
@@ -48260,7 +48299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="101.5">
+    <row r="793" spans="1:13" ht="105">
       <c r="A793" t="s">
         <v>57</v>
       </c>
@@ -48301,7 +48340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="101.5">
+    <row r="794" spans="1:13" ht="105">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -48342,7 +48381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="43.5">
+    <row r="795" spans="1:13" ht="45">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -48383,7 +48422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="43.5">
+    <row r="796" spans="1:13" ht="45">
       <c r="A796" t="s">
         <v>69</v>
       </c>
@@ -48424,7 +48463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="58">
+    <row r="797" spans="1:13" ht="60">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -48465,7 +48504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="58">
+    <row r="798" spans="1:13" ht="60">
       <c r="A798" t="s">
         <v>77</v>
       </c>
@@ -48506,7 +48545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="58">
+    <row r="799" spans="1:13" ht="60">
       <c r="A799" t="s">
         <v>115</v>
       </c>
@@ -48547,7 +48586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="58">
+    <row r="800" spans="1:13" ht="60">
       <c r="A800" t="s">
         <v>120</v>
       </c>
@@ -48588,7 +48627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="43.5">
+    <row r="801" spans="1:13" ht="45">
       <c r="A801" t="s">
         <v>124</v>
       </c>
@@ -48629,7 +48668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="72.5">
+    <row r="802" spans="1:13" ht="75">
       <c r="A802" t="s">
         <v>127</v>
       </c>
@@ -48670,7 +48709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="58">
+    <row r="803" spans="1:13" ht="75">
       <c r="A803" t="s">
         <v>131</v>
       </c>
@@ -48711,7 +48750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="72.5">
+    <row r="804" spans="1:13" ht="75">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -48752,7 +48791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="101.5">
+    <row r="805" spans="1:13" ht="105">
       <c r="A805" t="s">
         <v>138</v>
       </c>
@@ -48793,7 +48832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="72.5">
+    <row r="806" spans="1:13" ht="75">
       <c r="A806" t="s">
         <v>142</v>
       </c>
@@ -48834,7 +48873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="116">
+    <row r="807" spans="1:13" ht="135">
       <c r="A807" t="s">
         <v>146</v>
       </c>
@@ -48875,7 +48914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="159.5">
+    <row r="808" spans="1:13" ht="180">
       <c r="A808" t="s">
         <v>182</v>
       </c>
@@ -48916,7 +48955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="87">
+    <row r="809" spans="1:13" ht="90">
       <c r="A809" t="s">
         <v>186</v>
       </c>
@@ -48957,7 +48996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="58">
+    <row r="810" spans="1:13" ht="75">
       <c r="A810" t="s">
         <v>190</v>
       </c>
@@ -48998,7 +49037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="43.5">
+    <row r="811" spans="1:13" ht="45">
       <c r="A811" t="s">
         <v>194</v>
       </c>
@@ -49039,7 +49078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="58">
+    <row r="812" spans="1:13" ht="60">
       <c r="A812" t="s">
         <v>198</v>
       </c>
@@ -49080,7 +49119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="101.5">
+    <row r="813" spans="1:13" ht="120">
       <c r="A813" t="s">
         <v>201</v>
       </c>
@@ -49121,7 +49160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="58">
+    <row r="814" spans="1:13" ht="60">
       <c r="A814" t="s">
         <v>227</v>
       </c>
@@ -49162,7 +49201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13" s="11" customFormat="1" ht="29">
+    <row r="815" spans="1:13" s="11" customFormat="1" ht="30">
       <c r="A815" s="11">
         <v>1131</v>
       </c>
@@ -49203,7 +49242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="29">
+    <row r="816" spans="1:13" ht="30">
       <c r="A816" t="s">
         <v>241</v>
       </c>
@@ -49244,7 +49283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="43.5">
+    <row r="817" spans="1:13" ht="45">
       <c r="A817" t="s">
         <v>248</v>
       </c>
@@ -49285,7 +49324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="43.5">
+    <row r="818" spans="1:13" ht="60">
       <c r="A818" t="s">
         <v>255</v>
       </c>
@@ -49326,7 +49365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="58">
+    <row r="819" spans="1:13" ht="60">
       <c r="A819" t="s">
         <v>262</v>
       </c>
@@ -49367,7 +49406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="43.5">
+    <row r="820" spans="1:13" ht="45">
       <c r="A820" t="s">
         <v>269</v>
       </c>
@@ -49408,7 +49447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="174">
+    <row r="821" spans="1:13" ht="180">
       <c r="A821" t="s">
         <v>282</v>
       </c>
@@ -49613,7 +49652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="29">
+    <row r="826" spans="1:13" ht="45">
       <c r="A826" t="s">
         <v>298</v>
       </c>
@@ -49654,7 +49693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="29">
+    <row r="827" spans="1:13" ht="30">
       <c r="A827" t="s">
         <v>306</v>
       </c>
@@ -49695,7 +49734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="58">
+    <row r="828" spans="1:13" ht="60">
       <c r="A828" t="s">
         <v>312</v>
       </c>
@@ -49736,7 +49775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="29">
+    <row r="829" spans="1:13" ht="30">
       <c r="A829" t="s">
         <v>314</v>
       </c>
@@ -49777,7 +49816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="58">
+    <row r="830" spans="1:13" ht="60">
       <c r="A830" t="s">
         <v>318</v>
       </c>
@@ -49818,7 +49857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="58">
+    <row r="831" spans="1:13" ht="60">
       <c r="A831" t="s">
         <v>320</v>
       </c>
@@ -49859,7 +49898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="29">
+    <row r="832" spans="1:13" ht="45">
       <c r="A832" t="s">
         <v>321</v>
       </c>
@@ -49900,7 +49939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="58">
+    <row r="833" spans="1:13" ht="60">
       <c r="A833" t="s">
         <v>322</v>
       </c>
@@ -49941,7 +49980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="58">
+    <row r="834" spans="1:13" ht="60">
       <c r="A834" t="s">
         <v>323</v>
       </c>
@@ -49982,7 +50021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="58">
+    <row r="835" spans="1:13" ht="75">
       <c r="A835" t="s">
         <v>324</v>
       </c>
@@ -50023,7 +50062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="43.5">
+    <row r="836" spans="1:13" ht="45">
       <c r="A836" t="s">
         <v>332</v>
       </c>
@@ -50064,7 +50103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="58">
+    <row r="837" spans="1:13" ht="60">
       <c r="A837" t="s">
         <v>340</v>
       </c>
@@ -50105,7 +50144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="838" spans="1:13">
+    <row r="838" spans="1:13" ht="30">
       <c r="A838" t="s">
         <v>348</v>
       </c>
@@ -50146,7 +50185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="29">
+    <row r="839" spans="1:13" ht="30">
       <c r="A839" t="s">
         <v>356</v>
       </c>
@@ -50310,7 +50349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="116">
+    <row r="843" spans="1:13" ht="135">
       <c r="A843" t="s">
         <v>373</v>
       </c>
@@ -50392,7 +50431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="29">
+    <row r="845" spans="1:13" ht="45">
       <c r="A845" t="s">
         <v>386</v>
       </c>
@@ -50474,7 +50513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="58">
+    <row r="847" spans="1:13" ht="60">
       <c r="A847" t="s">
         <v>401</v>
       </c>
@@ -50515,7 +50554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="43.5">
+    <row r="848" spans="1:13" ht="45">
       <c r="A848" t="s">
         <v>411</v>
       </c>
@@ -50556,7 +50595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="72.5">
+    <row r="849" spans="1:13" ht="90">
       <c r="A849" t="s">
         <v>417</v>
       </c>
@@ -50597,7 +50636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="43.5">
+    <row r="850" spans="1:13" ht="60">
       <c r="A850" t="s">
         <v>425</v>
       </c>
@@ -50638,7 +50677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="58">
+    <row r="851" spans="1:13" ht="60">
       <c r="A851" t="s">
         <v>433</v>
       </c>
@@ -50679,7 +50718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="43.5">
+    <row r="852" spans="1:13" ht="45">
       <c r="A852" t="s">
         <v>443</v>
       </c>
@@ -50720,7 +50759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="72.5">
+    <row r="853" spans="1:13" ht="75">
       <c r="A853" t="s">
         <v>448</v>
       </c>
@@ -50761,7 +50800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="87">
+    <row r="854" spans="1:13" ht="90">
       <c r="A854" t="s">
         <v>456</v>
       </c>
@@ -50802,7 +50841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="72.5">
+    <row r="855" spans="1:13" ht="75">
       <c r="A855" t="s">
         <v>464</v>
       </c>
@@ -50843,7 +50882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="58">
+    <row r="856" spans="1:13" ht="60">
       <c r="A856" t="s">
         <v>469</v>
       </c>
@@ -50884,7 +50923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="87">
+    <row r="857" spans="1:13" ht="90">
       <c r="A857" t="s">
         <v>477</v>
       </c>
@@ -50925,7 +50964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="58">
+    <row r="858" spans="1:13" ht="60">
       <c r="A858" t="s">
         <v>485</v>
       </c>
@@ -50966,7 +51005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="29">
+    <row r="859" spans="1:13" ht="30">
       <c r="A859" t="s">
         <v>490</v>
       </c>
@@ -51007,7 +51046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="43.5">
+    <row r="860" spans="1:13" ht="60">
       <c r="A860" t="s">
         <v>498</v>
       </c>
@@ -51048,7 +51087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="43.5">
+    <row r="861" spans="1:13" ht="45">
       <c r="A861" t="s">
         <v>506</v>
       </c>
@@ -51089,7 +51128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="58">
+    <row r="862" spans="1:13" ht="60">
       <c r="A862" t="s">
         <v>511</v>
       </c>
@@ -51130,7 +51169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="58">
+    <row r="863" spans="1:13" ht="60">
       <c r="A863" t="s">
         <v>519</v>
       </c>
@@ -51171,7 +51210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="29">
+    <row r="864" spans="1:13" ht="45">
       <c r="A864" t="s">
         <v>527</v>
       </c>
@@ -51212,7 +51251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="58">
+    <row r="865" spans="1:13" ht="60">
       <c r="A865" t="s">
         <v>532</v>
       </c>
@@ -51253,7 +51292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="72.5">
+    <row r="866" spans="1:13" ht="75">
       <c r="A866" t="s">
         <v>540</v>
       </c>
@@ -51294,7 +51333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="43.5">
+    <row r="867" spans="1:13" ht="45">
       <c r="A867" t="s">
         <v>548</v>
       </c>
@@ -51335,7 +51374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="43.5">
+    <row r="868" spans="1:13" ht="75">
       <c r="A868" t="s">
         <v>553</v>
       </c>
@@ -51376,7 +51415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="72.5">
+    <row r="869" spans="1:13" ht="75">
       <c r="A869" t="s">
         <v>561</v>
       </c>
@@ -51417,7 +51456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="58">
+    <row r="870" spans="1:13" ht="60">
       <c r="A870" t="s">
         <v>569</v>
       </c>
@@ -51458,7 +51497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="43.5">
+    <row r="871" spans="1:13" ht="45">
       <c r="A871" t="s">
         <v>576</v>
       </c>
@@ -51499,7 +51538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="872" spans="1:13" ht="58">
+    <row r="872" spans="1:13" ht="60">
       <c r="A872" t="s">
         <v>584</v>
       </c>
@@ -51540,7 +51579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="29">
+    <row r="873" spans="1:13" ht="30">
       <c r="A873" t="s">
         <v>592</v>
       </c>
@@ -51581,7 +51620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="43.5">
+    <row r="874" spans="1:13" ht="60">
       <c r="A874" t="s">
         <v>597</v>
       </c>
@@ -51622,7 +51661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="72.5">
+    <row r="875" spans="1:13" ht="90">
       <c r="A875" t="s">
         <v>605</v>
       </c>
@@ -51663,7 +51702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="58">
+    <row r="876" spans="1:13" ht="75">
       <c r="A876" t="s">
         <v>613</v>
       </c>
@@ -51704,7 +51743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="43.5">
+    <row r="877" spans="1:13" ht="60">
       <c r="A877" t="s">
         <v>618</v>
       </c>
@@ -51745,7 +51784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="58">
+    <row r="878" spans="1:13" ht="60">
       <c r="A878" t="s">
         <v>626</v>
       </c>
@@ -51786,7 +51825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="43.5">
+    <row r="879" spans="1:13" ht="45">
       <c r="A879" t="s">
         <v>634</v>
       </c>
@@ -51827,7 +51866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="72.5">
+    <row r="880" spans="1:13" ht="75">
       <c r="A880" t="s">
         <v>639</v>
       </c>
@@ -51868,7 +51907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="72.5">
+    <row r="881" spans="1:13" ht="90">
       <c r="A881" t="s">
         <v>647</v>
       </c>
@@ -51909,7 +51948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="58">
+    <row r="882" spans="1:13" ht="60">
       <c r="A882" t="s">
         <v>655</v>
       </c>
@@ -51950,7 +51989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="29">
+    <row r="883" spans="1:13" ht="45">
       <c r="A883" t="s">
         <v>660</v>
       </c>
@@ -51991,7 +52030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="43.5">
+    <row r="884" spans="1:13" ht="60">
       <c r="A884" t="s">
         <v>668</v>
       </c>
@@ -52032,7 +52071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="29">
+    <row r="885" spans="1:13" ht="45">
       <c r="A885" t="s">
         <v>674</v>
       </c>
@@ -52073,7 +52112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="43.5">
+    <row r="886" spans="1:13" ht="45">
       <c r="A886" t="s">
         <v>679</v>
       </c>
@@ -52114,7 +52153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="43.5">
+    <row r="887" spans="1:13" ht="60">
       <c r="A887" t="s">
         <v>687</v>
       </c>
@@ -52155,7 +52194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="29">
+    <row r="888" spans="1:13" ht="45">
       <c r="A888" t="s">
         <v>695</v>
       </c>
@@ -52196,7 +52235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="72.5">
+    <row r="889" spans="1:13" ht="75">
       <c r="A889" t="s">
         <v>700</v>
       </c>
@@ -52237,7 +52276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="72.5">
+    <row r="890" spans="1:13" ht="75">
       <c r="A890" t="s">
         <v>708</v>
       </c>
@@ -52278,7 +52317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="58">
+    <row r="891" spans="1:13" ht="60">
       <c r="A891" t="s">
         <v>716</v>
       </c>
@@ -52319,7 +52358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="43.5">
+    <row r="892" spans="1:13" ht="60">
       <c r="A892" t="s">
         <v>721</v>
       </c>
@@ -52360,7 +52399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="72.5">
+    <row r="893" spans="1:13" ht="75">
       <c r="A893" t="s">
         <v>729</v>
       </c>
@@ -52401,7 +52440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="43.5">
+    <row r="894" spans="1:13" ht="45">
       <c r="A894" t="s">
         <v>737</v>
       </c>
@@ -52442,7 +52481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="58">
+    <row r="895" spans="1:13" ht="60">
       <c r="A895" t="s">
         <v>742</v>
       </c>
@@ -52483,7 +52522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="43.5">
+    <row r="896" spans="1:13" ht="45">
       <c r="A896" t="s">
         <v>749</v>
       </c>
@@ -52524,7 +52563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="72.5">
+    <row r="897" spans="1:13" ht="90">
       <c r="A897" t="s">
         <v>753</v>
       </c>
@@ -52565,7 +52604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="72.5">
+    <row r="898" spans="1:13" ht="90">
       <c r="A898" t="s">
         <v>760</v>
       </c>
@@ -52606,7 +52645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="72.5">
+    <row r="899" spans="1:13" ht="90">
       <c r="A899" t="s">
         <v>764</v>
       </c>
@@ -52647,7 +52686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="72.5">
+    <row r="900" spans="1:13" ht="90">
       <c r="A900" t="s">
         <v>771</v>
       </c>
@@ -52688,7 +52727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="72.5">
+    <row r="901" spans="1:13" ht="90">
       <c r="A901" t="s">
         <v>775</v>
       </c>
@@ -52729,7 +52768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="72.5">
+    <row r="902" spans="1:13" ht="90">
       <c r="A902" t="s">
         <v>779</v>
       </c>
@@ -52770,7 +52809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="72.5">
+    <row r="903" spans="1:13" ht="75">
       <c r="A903" t="s">
         <v>783</v>
       </c>
@@ -52811,7 +52850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:13" ht="72.5">
+    <row r="904" spans="1:13" ht="75">
       <c r="A904" t="s">
         <v>790</v>
       </c>
@@ -52852,7 +52891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="72.5">
+    <row r="905" spans="1:13" ht="75">
       <c r="A905" t="s">
         <v>794</v>
       </c>
@@ -52893,7 +52932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="72.5">
+    <row r="906" spans="1:13" ht="75">
       <c r="A906" t="s">
         <v>801</v>
       </c>
@@ -52934,7 +52973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="72.5">
+    <row r="907" spans="1:13" ht="90">
       <c r="A907" t="s">
         <v>805</v>
       </c>
@@ -52975,7 +53014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="72.5">
+    <row r="908" spans="1:13" ht="90">
       <c r="A908" t="s">
         <v>812</v>
       </c>
@@ -53016,7 +53055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="43.5">
+    <row r="909" spans="1:13" ht="45">
       <c r="A909" t="s">
         <v>816</v>
       </c>
@@ -53057,7 +53096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="87">
+    <row r="910" spans="1:13" ht="90">
       <c r="A910" t="s">
         <v>822</v>
       </c>
@@ -53098,7 +53137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="43.5">
+    <row r="911" spans="1:13" ht="45">
       <c r="A911" t="s">
         <v>829</v>
       </c>
@@ -53139,7 +53178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="58">
+    <row r="912" spans="1:13" ht="60">
       <c r="A912" t="s">
         <v>836</v>
       </c>
@@ -53180,7 +53219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="58">
+    <row r="913" spans="1:13" ht="75">
       <c r="A913" t="s">
         <v>843</v>
       </c>
@@ -53221,7 +53260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="87">
+    <row r="914" spans="1:13" ht="105">
       <c r="A914" t="s">
         <v>847</v>
       </c>
@@ -53262,7 +53301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="43.5">
+    <row r="915" spans="1:13" ht="75">
       <c r="A915" t="s">
         <v>854</v>
       </c>
@@ -53303,7 +53342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="43.5">
+    <row r="916" spans="1:13" ht="45">
       <c r="A916" t="s">
         <v>861</v>
       </c>
@@ -53344,7 +53383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="43.5">
+    <row r="917" spans="1:13" ht="45">
       <c r="A917" t="s">
         <v>868</v>
       </c>
@@ -53385,7 +53424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="72.5">
+    <row r="918" spans="1:13" ht="75">
       <c r="A918" t="s">
         <v>872</v>
       </c>
@@ -53426,7 +53465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="58">
+    <row r="919" spans="1:13" ht="60">
       <c r="A919" t="s">
         <v>879</v>
       </c>
@@ -53467,7 +53506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="58">
+    <row r="920" spans="1:13" ht="60">
       <c r="A920" t="s">
         <v>886</v>
       </c>
@@ -53508,7 +53547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="58">
+    <row r="921" spans="1:13" ht="75">
       <c r="A921" t="s">
         <v>890</v>
       </c>
@@ -53549,7 +53588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="58">
+    <row r="922" spans="1:13" ht="60">
       <c r="A922" t="s">
         <v>897</v>
       </c>
@@ -53590,7 +53629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="58">
+    <row r="923" spans="1:13" ht="60">
       <c r="A923" t="s">
         <v>904</v>
       </c>
@@ -53631,7 +53670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="58">
+    <row r="924" spans="1:13" ht="75">
       <c r="A924" t="s">
         <v>910</v>
       </c>
@@ -53672,7 +53711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="43.5">
+    <row r="925" spans="1:13" ht="45">
       <c r="A925" t="s">
         <v>917</v>
       </c>
@@ -53713,7 +53752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="43.5">
+    <row r="926" spans="1:13" ht="45">
       <c r="A926" t="s">
         <v>924</v>
       </c>
@@ -53754,7 +53793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="35.75" customHeight="1">
+    <row r="927" spans="1:13" ht="35.85" customHeight="1">
       <c r="A927" t="s">
         <v>928</v>
       </c>
@@ -53959,7 +53998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="29">
+    <row r="932" spans="1:13" ht="30">
       <c r="A932" t="s">
         <v>964</v>
       </c>
@@ -54000,7 +54039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="29">
+    <row r="933" spans="1:13" ht="30">
       <c r="A933" t="s">
         <v>968</v>
       </c>
@@ -54041,7 +54080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="29">
+    <row r="934" spans="1:13" ht="30">
       <c r="A934" t="s">
         <v>972</v>
       </c>
@@ -54082,7 +54121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="101.5">
+    <row r="935" spans="1:13" ht="105">
       <c r="A935" t="s">
         <v>976</v>
       </c>
@@ -54123,7 +54162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="116">
+    <row r="936" spans="1:13" ht="120">
       <c r="A936" t="s">
         <v>980</v>
       </c>
@@ -54164,7 +54203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="217.5">
+    <row r="937" spans="1:13" ht="240">
       <c r="A937" t="s">
         <v>1001</v>
       </c>
@@ -54205,7 +54244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="188.5">
+    <row r="938" spans="1:13" ht="195">
       <c r="A938" t="s">
         <v>1010</v>
       </c>
@@ -54609,6 +54648,129 @@
         <v>22</v>
       </c>
       <c r="M947" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13">
+      <c r="A948">
+        <v>1282</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D948" t="s">
+        <v>15</v>
+      </c>
+      <c r="E948" t="s">
+        <v>16</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G948">
+        <v>10002</v>
+      </c>
+      <c r="H948" t="s">
+        <v>118</v>
+      </c>
+      <c r="I948" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J948" t="s">
+        <v>20</v>
+      </c>
+      <c r="K948" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L948" t="s">
+        <v>22</v>
+      </c>
+      <c r="M948" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13">
+      <c r="A949">
+        <v>1283</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D949" t="s">
+        <v>15</v>
+      </c>
+      <c r="E949" t="s">
+        <v>16</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G949">
+        <v>10002</v>
+      </c>
+      <c r="H949" t="s">
+        <v>118</v>
+      </c>
+      <c r="I949" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J949" t="s">
+        <v>35</v>
+      </c>
+      <c r="K949" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L949" t="s">
+        <v>22</v>
+      </c>
+      <c r="M949" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13">
+      <c r="A950">
+        <v>1284</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D950" t="s">
+        <v>15</v>
+      </c>
+      <c r="E950" t="s">
+        <v>16</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G950">
+        <v>10002</v>
+      </c>
+      <c r="H950" t="s">
+        <v>118</v>
+      </c>
+      <c r="I950" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J950" t="s">
+        <v>43</v>
+      </c>
+      <c r="K950" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L950" t="s">
+        <v>22</v>
+      </c>
+      <c r="M950" t="s">
         <v>23</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP_REPO\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B89D4-9D0B-472A-B528-7A4CF81A2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11380" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11578" uniqueCount="1927">
   <si>
     <t>id</t>
   </si>
@@ -15361,11 +15362,137 @@
   <si>
     <t>reg-android-preview-template-part</t>
   </si>
+  <si>
+    <t>Order a physical card</t>
+  </si>
+  <si>
+    <t>tnc-order-a-physical-card</t>
+  </si>
+  <si>
+    <t>Share your credential with a partner</t>
+  </si>
+  <si>
+    <t>tnc-share-cred-with-partner</t>
+  </si>
+  <si>
+    <t>Update demographic data</t>
+  </si>
+  <si>
+    <t>tnc-update-demo</t>
+  </si>
+  <si>
+    <t>1. Your chosen data will be shared with the chosen third party (print partner).
+ 2. You are responsible for any and all costs and fees associated with agreements entered into with the third-party provider.
+ 3. The delivery of the printed card will be the sole responsibility of the partner.
+ 4. Under no circumstances will we be liable for loss or misuse of data whatsoever, arising from the usage of data shared with the partner.
+ 5. If a third-party provider ceases to make its service available or requires MOSIP to suspend or terminate the provision of all or any part of its services to you that part of data or services will be terminated immediately without notice or further obligation to you.</t>
+  </si>
+  <si>
+    <t>1. ستتم مشاركة البيانات التي اخترتها مع الطرف الثالث المختار (شريك الطباعة).
+ 2. أنت مسؤول عن أي وجميع التكاليف والرسوم المرتبطة بالاتفاقيات المبرمة مع مزود الطرف الثالث.
+ 3. تسليم البطاقة المطبوعة سيكون من مسؤولية الشريك وحده.
+ 4. لن نتحمل تحت أي ظرف من الظروف المسؤولية عن فقدان البيانات أو إساءة استخدامها على الإطلاق ، الناشئة عن استخدام البيانات التي تمت مشاركتها مع الشريك.
+ 5. إذا توقف موفر الطرف الثالث عن إتاحة خدمته أو طلب من MOSIP تعليق أو إنهاء توفير كل أو أي جزء من خدماته لك ، فسيتم إنهاء هذا الجزء من البيانات أو الخدمات على الفور دون إشعار أو التزام آخر تجاهك .</t>
+  </si>
+  <si>
+    <t>1. Vos données choisies seront partagées avec le tiers choisi (partenaire d'impression).
+ 2. Vous êtes responsable de tous les coûts et frais associés aux accords conclus avec le fournisseur tiers.
+ 3. La livraison de la carte imprimée sera de la seule responsabilité du partenaire.
+ 4. Nous ne serons en aucun cas responsables de la perte ou de l'utilisation abusive des données, quelle qu'elle soit, résultant de l'utilisation des données partagées avec le partenaire.
+ 5. Si un fournisseur tiers cesse de mettre son service à disposition ou exige que MOSIP suspende ou résilie la fourniture de tout ou partie de ses services, cette partie des données ou des services sera immédiatement résiliée sans préavis ni autre obligation envers vous. .</t>
+  </si>
+  <si>
+    <t>1. आपका चुना हुआ डेटा चुने हुए तीसरे पक्ष (प्रिंट पार्टनर) के साथ साझा किया जाएगा।
+ 2. आप तृतीय-पक्ष प्रदाता के साथ किए गए समझौतों से जुड़ी किसी भी और सभी लागतों और शुल्क के लिए जिम्मेदार हैं।
+ 3. मुद्रित कार्ड की सुपुर्दगी की एकमात्र जिम्मेदारी भागीदार की होगी।
+ 4. पार्टनर के साथ साझा किए गए डेटा के उपयोग से उत्पन्न होने वाले डेटा के नुकसान या दुरुपयोग के लिए हम किसी भी परिस्थिति में उत्तरदायी नहीं होंगे।
+ 5. यदि कोई तृतीय-पक्ष प्रदाता अपनी सेवा उपलब्ध कराना बंद कर देता है या MOSIP को आपकी सेवाओं के सभी या किसी भी हिस्से के प्रावधान को निलंबित या समाप्त करने की आवश्यकता होती है, तो डेटा या सेवाओं का वह हिस्सा बिना किसी सूचना या आपके लिए आगे की बाध्यता के तुरंत समाप्त कर दिया जाएगा। ।</t>
+  </si>
+  <si>
+    <t>1. ನಿಮ್ಮ ಆಯ್ಕೆಮಾಡಿದ ಡೇಟಾವನ್ನು ಆಯ್ಕೆಮಾಡಿದ ಮೂರನೇ ವ್ಯಕ್ತಿಯೊಂದಿಗೆ ಹಂಚಿಕೊಳ್ಳಲಾಗುತ್ತದೆ (ಮುದ್ರಣ ಪಾಲುದಾರ).
+ 2. ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಪೂರೈಕೆದಾರರೊಂದಿಗೆ ಮಾಡಿಕೊಂಡಿರುವ ಒಪ್ಪಂದಗಳಿಗೆ ಸಂಬಂಧಿಸಿದ ಯಾವುದೇ ಮತ್ತು ಎಲ್ಲಾ ವೆಚ್ಚಗಳು ಮತ್ತು ಶುಲ್ಕಗಳಿಗೆ ನೀವು ಜವಾಬ್ದಾರರಾಗಿರುತ್ತೀರಿ.
+ 3. ಮುದ್ರಿತ ಕಾರ್ಡ್‌ನ ವಿತರಣೆಯು ಪಾಲುದಾರರ ಸಂಪೂರ್ಣ ಜವಾಬ್ದಾರಿಯಾಗಿರುತ್ತದೆ.
+ 4. ಪಾಲುದಾರರೊಂದಿಗೆ ಹಂಚಿಕೊಂಡ ಡೇಟಾದ ಬಳಕೆಯಿಂದ ಉಂಟಾಗುವ ಡೇಟಾದ ನಷ್ಟ ಅಥವಾ ದುರ್ಬಳಕೆಗೆ ನಾವು ಯಾವುದೇ ಸಂದರ್ಭಗಳಲ್ಲಿ ಜವಾಬ್ದಾರರಾಗಿರುವುದಿಲ್ಲ.
+ 5. ಥರ್ಡ್-ಪಾರ್ಟಿ ಪ್ರೊವೈಡರ್ ತನ್ನ ಸೇವೆಯನ್ನು ಲಭ್ಯವಾಗುವಂತೆ ಮಾಡುವುದನ್ನು ನಿಲ್ಲಿಸಿದರೆ ಅಥವಾ MOSIP ನಿಮಗೆ ಅದರ ಎಲ್ಲಾ ಅಥವಾ ಯಾವುದೇ ಭಾಗದ ಸೇವೆಗಳ ನಿಬಂಧನೆಯನ್ನು ಅಮಾನತುಗೊಳಿಸಲು ಅಥವಾ ಅಂತ್ಯಗೊಳಿಸಲು ಅಗತ್ಯವಿದ್ದರೆ ಡೇಟಾ ಅಥವಾ ಸೇವೆಗಳ ಭಾಗವನ್ನು ನಿಮಗೆ ಸೂಚನೆ ಅಥವಾ ಹೆಚ್ಚಿನ ಬಾಧ್ಯತೆ ಇಲ್ಲದೆ ತಕ್ಷಣವೇ ಕೊನೆಗೊಳಿಸಲಾಗುತ್ತದೆ .</t>
+  </si>
+  <si>
+    <t>1. நீங்கள் தேர்ந்தெடுத்த தரவு தேர்ந்தெடுக்கப்பட்ட மூன்றாம் தரப்பினருடன் (அச்சு பார்ட்னர்) பகிரப்படும்.
+ 2. மூன்றாம் தரப்பு வழங்குனருடன் செய்துகொள்ளப்பட்ட ஒப்பந்தங்களுடன் தொடர்புடைய அனைத்து செலவுகள் மற்றும் கட்டணங்களுக்கு நீங்கள் பொறுப்பாவீர்கள்.
+ 3. அச்சிடப்பட்ட அட்டையை வழங்குவது பங்குதாரரின் முழுப் பொறுப்பாகும்.
+ 4. கூட்டாளருடன் பகிரப்பட்ட தரவைப் பயன்படுத்துவதால் ஏற்படும் தரவு இழப்பு அல்லது தவறான பயன்பாட்டிற்கு எந்தச் சூழ்நிலையிலும் நாங்கள் பொறுப்பாக மாட்டோம்.
+ 5. ஒரு மூன்றாம் தரப்பு வழங்குநர் தனது சேவையை வழங்குவதை நிறுத்தினால் அல்லது MOSIP ஆனது அதன் அனைத்து அல்லது எந்தப் பகுதியையும் உங்களுக்கு வழங்குவதை இடைநிறுத்தவோ அல்லது நிறுத்தவோ தேவைப்பட்டால், தரவு அல்லது சேவைகளின் ஒரு பகுதி உங்களுக்கு அறிவிப்பு அல்லது கூடுதல் பொறுப்பு இல்லாமல் உடனடியாக நிறுத்தப்படும். .</t>
+  </si>
+  <si>
+    <t>1. Your data will be shared with the chosen third party (credential partner)
+ 2. You are responsible for any and all costs and fees associated with agreements entered into with the third-party provider.
+ 3. Under no circumstances will we be liable for loss or misuse of data whatsoever, arising from the usage of data shared with the partner.
+ 4. If a third-party provider ceases to make its service available or requires MOSIP to suspend or terminate the provision of all or any part of its services to you that part of data or services will be terminated immediately without notice or further obligation to you.</t>
+  </si>
+  <si>
+    <t>1. ستتم مشاركة بياناتك مع الطرف الثالث المختار (الشريك المعتمد)
+ 2. أنت مسؤول عن أي وجميع التكاليف والرسوم المرتبطة بالاتفاقيات المبرمة مع مزود الطرف الثالث.
+ 3. لن نتحمل تحت أي ظرف من الظروف المسؤولية عن فقدان البيانات أو إساءة استخدامها على الإطلاق ، الناشئة عن استخدام البيانات التي تمت مشاركتها مع الشريك.
+ 4. إذا توقف موفر الطرف الثالث عن إتاحة خدمته أو طلب من MOSIP تعليق أو إنهاء توفير كل أو أي جزء من خدماته لك ، فسيتم إنهاء هذا الجزء من البيانات أو الخدمات على الفور دون إشعار أو التزام آخر تجاهك .</t>
+  </si>
+  <si>
+    <t>1. Vos données seront partagées avec le tiers choisi (partenaire d'identification)
+ 2. Vous êtes responsable de tous les coûts et frais associés aux accords conclus avec le fournisseur tiers.
+ 3. Nous ne serons en aucun cas responsables de la perte ou de l'utilisation abusive des données, quelle qu'elle soit, résultant de l'utilisation des données partagées avec le partenaire.
+ 4. Si un fournisseur tiers cesse de mettre son service à disposition ou exige que MOSIP suspende ou résilie la fourniture de tout ou partie de ses services, cette partie des données ou des services sera immédiatement résiliée sans préavis ni autre obligation envers vous. .</t>
+  </si>
+  <si>
+    <t>1. आपका डेटा चुने हुए तीसरे पक्ष (क्रेडेंशियल पार्टनर) के साथ साझा किया जाएगा
+ 2. आप तृतीय-पक्ष प्रदाता के साथ किए गए समझौतों से जुड़ी किसी भी और सभी लागतों और शुल्क के लिए जिम्मेदार हैं।
+ 3. पार्टनर के साथ साझा किए गए डेटा के उपयोग से उत्पन्न होने वाले डेटा के नुकसान या दुरुपयोग के लिए हम किसी भी परिस्थिति में उत्तरदायी नहीं होंगे।
+ 4. यदि कोई तृतीय-पक्ष प्रदाता अपनी सेवा उपलब्ध कराना बंद कर देता है या MOSIP को आपकी सेवाओं के सभी या किसी भी हिस्से के प्रावधान को निलंबित या समाप्त करने की आवश्यकता होती है, तो डेटा या सेवाओं का वह हिस्सा बिना किसी सूचना या आपके लिए आगे की बाध्यता के तुरंत समाप्त कर दिया जाएगा। ।</t>
+  </si>
+  <si>
+    <t>1. ನಿಮ್ಮ ಡೇಟಾವನ್ನು ಆಯ್ಕೆ ಮಾಡಿದ ಮೂರನೇ ವ್ಯಕ್ತಿಯೊಂದಿಗೆ ಹಂಚಿಕೊಳ್ಳಲಾಗುತ್ತದೆ (ರುಜುವಾತು ಪಾಲುದಾರ)
+ 2. ಮೂರನೇ ವ್ಯಕ್ತಿಯ ಪೂರೈಕೆದಾರರೊಂದಿಗೆ ಮಾಡಿಕೊಂಡಿರುವ ಒಪ್ಪಂದಗಳಿಗೆ ಸಂಬಂಧಿಸಿದ ಯಾವುದೇ ಮತ್ತು ಎಲ್ಲಾ ವೆಚ್ಚಗಳು ಮತ್ತು ಶುಲ್ಕಗಳಿಗೆ ನೀವು ಜವಾಬ್ದಾರರಾಗಿರುತ್ತೀರಿ.
+ 3. ಪಾಲುದಾರರೊಂದಿಗೆ ಹಂಚಿಕೊಂಡ ಡೇಟಾದ ಬಳಕೆಯಿಂದ ಉಂಟಾಗುವ ಡೇಟಾದ ನಷ್ಟ ಅಥವಾ ದುರುಪಯೋಗಕ್ಕೆ ನಾವು ಯಾವುದೇ ಸಂದರ್ಭಗಳಲ್ಲಿ ಜವಾಬ್ದಾರರಾಗಿರುವುದಿಲ್ಲ.
+ 4. ಥರ್ಡ್-ಪಾರ್ಟಿ ಪ್ರೊವೈಡರ್ ತನ್ನ ಸೇವೆಯನ್ನು ಲಭ್ಯವಾಗುವಂತೆ ಮಾಡುವುದನ್ನು ನಿಲ್ಲಿಸಿದರೆ ಅಥವಾ MOSIP ನಿಮಗೆ ಅದರ ಎಲ್ಲಾ ಅಥವಾ ಯಾವುದೇ ಭಾಗದ ಸೇವೆಗಳ ನಿಬಂಧನೆಯನ್ನು ಅಮಾನತುಗೊಳಿಸಲು ಅಥವಾ ಅಂತ್ಯಗೊಳಿಸಲು ಅಗತ್ಯವಿದ್ದರೆ ಡೇಟಾ ಅಥವಾ ಸೇವೆಗಳ ಭಾಗವನ್ನು ತಕ್ಷಣವೇ ನಿಮಗೆ ಸೂಚನೆ ಅಥವಾ ಹೆಚ್ಚಿನ ಬಾಧ್ಯತೆ ಇಲ್ಲದೆ ಕೊನೆಗೊಳಿಸಲಾಗುತ್ತದೆ .</t>
+  </si>
+  <si>
+    <t>1. உங்கள் தரவு தேர்ந்தெடுக்கப்பட்ட மூன்றாம் தரப்பினருடன் (நற்சான்றிதழ் கூட்டாளர்) பகிரப்படும்
+ 2. மூன்றாம் தரப்பு வழங்குனருடன் செய்துகொள்ளப்பட்ட ஒப்பந்தங்களுடன் தொடர்புடைய அனைத்து செலவுகள் மற்றும் கட்டணங்களுக்கு நீங்கள் பொறுப்பாவீர்கள்.
+ 3. கூட்டாளருடன் பகிரப்பட்ட தரவைப் பயன்படுத்துவதால் ஏற்படும் தரவு இழப்பு அல்லது தவறான பயன்பாட்டிற்கு எந்தச் சூழ்நிலையிலும் நாங்கள் பொறுப்பேற்க மாட்டோம்.
+ 4. ஒரு மூன்றாம் தரப்பு வழங்குநர் தனது சேவையை வழங்குவதை நிறுத்தினால் அல்லது MOSIP ஆனது அதன் அனைத்து அல்லது எந்தப் பகுதியையும் உங்களுக்கு வழங்குவதை இடைநிறுத்தவோ அல்லது நிறுத்தவோ தேவைப்பட்டால், தரவு அல்லது சேவைகளின் ஒரு பகுதி உங்களுக்கு அறிவிப்பு அல்லது கூடுதல் பொறுப்பு இல்லாமல் உடனடியாக நிறுத்தப்படும். .</t>
+  </si>
+  <si>
+    <t>1. The data chosen by you will be updated after the Proof of address or Proof of Identity is duly verified.
+ 2. You are responsible for any and all costs and fees associated with an agreement to update your data.
+ 3. You are responsible for any changes made to your already existing personal data or uploaded document to support the same.</t>
+  </si>
+  <si>
+    <t>1. سيتم تحديث البيانات التي اخترتها بعد التحقق من إثبات العنوان أو إثبات الهوية على النحو الواجب.
+ 2. أنت مسؤول عن أي وجميع التكاليف والرسوم المرتبطة باتفاقية لتحديث بياناتك.
+ 3. أنت مسؤول عن أي تغييرات يتم إجراؤها على بياناتك الشخصية الموجودة بالفعل أو المستند الذي تم تحميله لدعمها ".</t>
+  </si>
+  <si>
+    <t>1. Les données que vous avez choisies seront mises à jour après que le justificatif de domicile ou la preuve d'identité aura été dûment vérifié.
+ 2. Vous êtes responsable de tous les coûts et frais associés à un accord de mise à jour de vos données.
+ 3. Vous êtes responsable de toute modification apportée à vos données personnelles déjà existantes ou à un document téléchargé pour les prendre en charge.</t>
+  </si>
+  <si>
+    <t>1. आपके द्वारा चुने गए डेटा को पते के प्रमाण या पहचान के प्रमाण के विधिवत सत्यापित होने के बाद अपडेट किया जाएगा।
+ 2. आप अपने डेटा को अपडेट करने के लिए एक समझौते से जुड़े किसी भी और सभी लागतों और शुल्क के लिए जिम्मेदार हैं।
+ 3. आप अपने पहले से मौजूद व्यक्तिगत डेटा या उसके समर्थन के लिए अपलोड किए गए दस्तावेज़ में किए गए किसी भी बदलाव के लिए जिम्मेदार हैं।</t>
+  </si>
+  <si>
+    <t>1. ವಿಳಾಸದ ಪುರಾವೆ ಅಥವಾ ಗುರುತಿನ ಪುರಾವೆಯನ್ನು ಸರಿಯಾಗಿ ಪರಿಶೀಲಿಸಿದ ನಂತರ ನೀವು ಆಯ್ಕೆ ಮಾಡಿದ ಡೇಟಾವನ್ನು ನವೀಕರಿಸಲಾಗುತ್ತದೆ.
+ 2. ನಿಮ್ಮ ಡೇಟಾವನ್ನು ನವೀಕರಿಸಲು ಒಪ್ಪಂದಕ್ಕೆ ಸಂಬಂಧಿಸಿದ ಯಾವುದೇ ಮತ್ತು ಎಲ್ಲಾ ವೆಚ್ಚಗಳು ಮತ್ತು ಶುಲ್ಕಗಳಿಗೆ ನೀವು ಜವಾಬ್ದಾರರಾಗಿರುತ್ತೀರಿ.
+ 3. ನಿಮ್ಮ ಈಗಾಗಲೇ ಅಸ್ತಿತ್ವದಲ್ಲಿರುವ ವೈಯಕ್ತಿಕ ಡೇಟಾ ಅಥವಾ ಅದನ್ನು ಬೆಂಬಲಿಸಲು ಅಪ್‌ಲೋಡ್ ಮಾಡಿದ ಡಾಕ್ಯುಮೆಂಟ್‌ಗೆ ಮಾಡಿದ ಯಾವುದೇ ಬದಲಾವಣೆಗಳಿಗೆ ನೀವು ಜವಾಬ್ದಾರರಾಗಿರುತ್ತೀರಿ.</t>
+  </si>
+  <si>
+    <t>1. நீங்கள் தேர்ந்தெடுத்த தரவு முகவரிச் சான்று அல்லது அடையாளச் சான்று முறையாகச் சரிபார்க்கப்பட்ட பிறகு புதுப்பிக்கப்படும்.
+ 2. உங்கள் தரவைப் புதுப்பிப்பதற்கான ஒப்பந்தத்துடன் தொடர்புடைய அனைத்து செலவுகள் மற்றும் கட்டணங்களுக்கு நீங்கள் பொறுப்பாவீர்கள்.
+ 3. ஏற்கனவே உள்ள உங்கள் தனிப்பட்ட தரவு அல்லது பதிவேற்றிய ஆவணத்தில் ஏதேனும் மாற்றங்கள் செய்யப்பட்டால் அதற்கு நீங்களே பொறுப்பு.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -15502,7 +15629,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -15814,11 +15941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M950"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A939" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A948" sqref="A948:M950"/>
+    <sheetView tabSelected="1" topLeftCell="D968" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E971" sqref="E971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -54774,6 +54901,744 @@
         <v>23</v>
       </c>
     </row>
+    <row r="951" spans="1:13" ht="240">
+      <c r="A951">
+        <v>1244</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D951" t="s">
+        <v>15</v>
+      </c>
+      <c r="E951" t="s">
+        <v>16</v>
+      </c>
+      <c r="F951" s="16" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G951">
+        <v>10006</v>
+      </c>
+      <c r="H951" t="s">
+        <v>404</v>
+      </c>
+      <c r="I951" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J951" t="s">
+        <v>20</v>
+      </c>
+      <c r="K951" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L951" t="s">
+        <v>22</v>
+      </c>
+      <c r="M951" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" ht="180">
+      <c r="A952">
+        <v>1244</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D952" t="s">
+        <v>15</v>
+      </c>
+      <c r="E952" t="s">
+        <v>16</v>
+      </c>
+      <c r="F952" s="16" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G952">
+        <v>10006</v>
+      </c>
+      <c r="H952" t="s">
+        <v>404</v>
+      </c>
+      <c r="I952" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J952" t="s">
+        <v>43</v>
+      </c>
+      <c r="K952" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L952" t="s">
+        <v>22</v>
+      </c>
+      <c r="M952" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" ht="240">
+      <c r="A953">
+        <v>1244</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D953" t="s">
+        <v>15</v>
+      </c>
+      <c r="E953" t="s">
+        <v>16</v>
+      </c>
+      <c r="F953" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G953">
+        <v>10006</v>
+      </c>
+      <c r="H953" t="s">
+        <v>404</v>
+      </c>
+      <c r="I953" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J953" t="s">
+        <v>35</v>
+      </c>
+      <c r="K953" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L953" t="s">
+        <v>22</v>
+      </c>
+      <c r="M953" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" ht="240">
+      <c r="A954">
+        <v>1244</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D954" t="s">
+        <v>15</v>
+      </c>
+      <c r="E954" t="s">
+        <v>16</v>
+      </c>
+      <c r="F954" s="16" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G954">
+        <v>10006</v>
+      </c>
+      <c r="H954" t="s">
+        <v>404</v>
+      </c>
+      <c r="I954" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J954" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K954" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L954" t="s">
+        <v>22</v>
+      </c>
+      <c r="M954" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" ht="315">
+      <c r="A955">
+        <v>1244</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D955" t="s">
+        <v>15</v>
+      </c>
+      <c r="E955" t="s">
+        <v>16</v>
+      </c>
+      <c r="F955" s="16" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G955">
+        <v>10006</v>
+      </c>
+      <c r="H955" t="s">
+        <v>404</v>
+      </c>
+      <c r="I955" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J955" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K955" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L955" t="s">
+        <v>22</v>
+      </c>
+      <c r="M955" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" ht="390">
+      <c r="A956">
+        <v>1244</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D956" t="s">
+        <v>15</v>
+      </c>
+      <c r="E956" t="s">
+        <v>16</v>
+      </c>
+      <c r="F956" s="16" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G956">
+        <v>10006</v>
+      </c>
+      <c r="H956" t="s">
+        <v>404</v>
+      </c>
+      <c r="I956" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J956" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K956" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L956" t="s">
+        <v>22</v>
+      </c>
+      <c r="M956" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" ht="210">
+      <c r="A957">
+        <v>1245</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D957" t="s">
+        <v>15</v>
+      </c>
+      <c r="E957" t="s">
+        <v>16</v>
+      </c>
+      <c r="F957" s="16" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G957">
+        <v>10006</v>
+      </c>
+      <c r="H957" t="s">
+        <v>404</v>
+      </c>
+      <c r="I957" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J957" t="s">
+        <v>20</v>
+      </c>
+      <c r="K957" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L957" t="s">
+        <v>22</v>
+      </c>
+      <c r="M957" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" ht="150">
+      <c r="A958">
+        <v>1245</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D958" t="s">
+        <v>15</v>
+      </c>
+      <c r="E958" t="s">
+        <v>16</v>
+      </c>
+      <c r="F958" s="16" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G958">
+        <v>10006</v>
+      </c>
+      <c r="H958" t="s">
+        <v>404</v>
+      </c>
+      <c r="I958" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J958" t="s">
+        <v>43</v>
+      </c>
+      <c r="K958" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L958" t="s">
+        <v>22</v>
+      </c>
+      <c r="M958" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" ht="210">
+      <c r="A959">
+        <v>1245</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D959" t="s">
+        <v>15</v>
+      </c>
+      <c r="E959" t="s">
+        <v>16</v>
+      </c>
+      <c r="F959" s="16" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G959">
+        <v>10006</v>
+      </c>
+      <c r="H959" t="s">
+        <v>404</v>
+      </c>
+      <c r="I959" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J959" t="s">
+        <v>35</v>
+      </c>
+      <c r="K959" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L959" t="s">
+        <v>22</v>
+      </c>
+      <c r="M959" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" ht="210">
+      <c r="A960">
+        <v>1245</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D960" t="s">
+        <v>15</v>
+      </c>
+      <c r="E960" t="s">
+        <v>16</v>
+      </c>
+      <c r="F960" s="16" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G960">
+        <v>10006</v>
+      </c>
+      <c r="H960" t="s">
+        <v>404</v>
+      </c>
+      <c r="I960" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J960" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K960" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L960" t="s">
+        <v>22</v>
+      </c>
+      <c r="M960" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" ht="285">
+      <c r="A961">
+        <v>1245</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D961" t="s">
+        <v>15</v>
+      </c>
+      <c r="E961" t="s">
+        <v>16</v>
+      </c>
+      <c r="F961" s="16" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G961">
+        <v>10006</v>
+      </c>
+      <c r="H961" t="s">
+        <v>404</v>
+      </c>
+      <c r="I961" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J961" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K961" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L961" t="s">
+        <v>22</v>
+      </c>
+      <c r="M961" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" ht="345">
+      <c r="A962">
+        <v>1245</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D962" t="s">
+        <v>15</v>
+      </c>
+      <c r="E962" t="s">
+        <v>16</v>
+      </c>
+      <c r="F962" s="16" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G962">
+        <v>10006</v>
+      </c>
+      <c r="H962" t="s">
+        <v>404</v>
+      </c>
+      <c r="I962" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J962" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K962" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L962" t="s">
+        <v>22</v>
+      </c>
+      <c r="M962" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" ht="105">
+      <c r="A963">
+        <v>1246</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D963" t="s">
+        <v>15</v>
+      </c>
+      <c r="E963" t="s">
+        <v>16</v>
+      </c>
+      <c r="F963" s="16" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G963">
+        <v>10006</v>
+      </c>
+      <c r="H963" t="s">
+        <v>404</v>
+      </c>
+      <c r="I963" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J963" t="s">
+        <v>20</v>
+      </c>
+      <c r="K963" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L963" t="s">
+        <v>22</v>
+      </c>
+      <c r="M963" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" ht="90">
+      <c r="A964">
+        <v>1246</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D964" t="s">
+        <v>15</v>
+      </c>
+      <c r="E964" t="s">
+        <v>16</v>
+      </c>
+      <c r="F964" s="16" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G964">
+        <v>10006</v>
+      </c>
+      <c r="H964" t="s">
+        <v>404</v>
+      </c>
+      <c r="I964" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J964" t="s">
+        <v>43</v>
+      </c>
+      <c r="K964" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L964" t="s">
+        <v>22</v>
+      </c>
+      <c r="M964" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" ht="135">
+      <c r="A965">
+        <v>1246</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D965" t="s">
+        <v>15</v>
+      </c>
+      <c r="E965" t="s">
+        <v>16</v>
+      </c>
+      <c r="F965" s="16" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G965">
+        <v>10006</v>
+      </c>
+      <c r="H965" t="s">
+        <v>404</v>
+      </c>
+      <c r="I965" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J965" t="s">
+        <v>35</v>
+      </c>
+      <c r="K965" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L965" t="s">
+        <v>22</v>
+      </c>
+      <c r="M965" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" ht="135">
+      <c r="A966">
+        <v>1246</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D966" t="s">
+        <v>15</v>
+      </c>
+      <c r="E966" t="s">
+        <v>16</v>
+      </c>
+      <c r="F966" s="16" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G966">
+        <v>10006</v>
+      </c>
+      <c r="H966" t="s">
+        <v>404</v>
+      </c>
+      <c r="I966" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J966" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K966" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L966" t="s">
+        <v>22</v>
+      </c>
+      <c r="M966" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" ht="165">
+      <c r="A967">
+        <v>1246</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D967" t="s">
+        <v>15</v>
+      </c>
+      <c r="E967" t="s">
+        <v>16</v>
+      </c>
+      <c r="F967" s="16" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G967">
+        <v>10006</v>
+      </c>
+      <c r="H967" t="s">
+        <v>404</v>
+      </c>
+      <c r="I967" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J967" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K967" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L967" t="s">
+        <v>22</v>
+      </c>
+      <c r="M967" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" ht="195">
+      <c r="A968">
+        <v>1246</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D968" t="s">
+        <v>15</v>
+      </c>
+      <c r="E968" t="s">
+        <v>16</v>
+      </c>
+      <c r="F968" s="16" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G968">
+        <v>10006</v>
+      </c>
+      <c r="H968" t="s">
+        <v>404</v>
+      </c>
+      <c r="I968" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J968" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K968" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L968" t="s">
+        <v>22</v>
+      </c>
+      <c r="M968" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9B89D4-9D0B-472A-B528-7A4CF81A2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD151A-F512-4DBD-96DF-5B0BCB74CC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15331,26 +15331,6 @@
     <t>Rendez-vous annulé : $ApplicationDetails | ID de lapplication : $ApplicationId</t>
   </si>
   <si>
-    <t>تم إلغاء الموعد : ApplicationDetails$ | معرف التطبيق: ApplicationId$</t>
-  </si>
-  <si>
-    <t>عزيزي name$،
-يرجى ملاحظة أنه تم إلغاء موعد ApplicationDetails$ الخاص بك مقابل معرّف التطبيق ApplicationId$ وتاريخ الموعد Appointmentdate$ و زمن Appointmenttime$.
-اطلب منك تسجيل الدخول إلى البوابة الإلكترونية وإعادة حجز مكان آخر لـ ApplicationDetails$.
-شكرًا لك.</t>
-  </si>
-  <si>
-    <t>عزيزي name$،
-اكتمل تطبيقك ApplicationDetails$ بنجاح في $Date في $Time.
-معرف التطبيق الخاص بك هو ApplicationId$.
-تمت جدولة الموعد لـ Appointmentdate$ بالدولار Appointmenttime$
-في مركز التسجيل RegistrationCenterName$ في عنوان مركز التسجيل
-RegistrationCenterAddress$.</t>
-  </si>
-  <si>
-    <t>شكر وتقدير: ApplicationDetails$ | معرف التطبيق: ApplicationId$</t>
-  </si>
-  <si>
     <t>Android Registration Preview Template</t>
   </si>
   <si>
@@ -15487,6 +15467,26 @@
     <t>1. நீங்கள் தேர்ந்தெடுத்த தரவு முகவரிச் சான்று அல்லது அடையாளச் சான்று முறையாகச் சரிபார்க்கப்பட்ட பிறகு புதுப்பிக்கப்படும்.
  2. உங்கள் தரவைப் புதுப்பிப்பதற்கான ஒப்பந்தத்துடன் தொடர்புடைய அனைத்து செலவுகள் மற்றும் கட்டணங்களுக்கு நீங்கள் பொறுப்பாவீர்கள்.
  3. ஏற்கனவே உள்ள உங்கள் தனிப்பட்ட தரவு அல்லது பதிவேற்றிய ஆவணத்தில் ஏதேனும் மாற்றங்கள் செய்யப்பட்டால் அதற்கு நீங்களே பொறுப்பு.</t>
+  </si>
+  <si>
+    <t>شكر وتقدير: $ApplicationDetails | معرف التطبيق: $ApplicationId</t>
+  </si>
+  <si>
+    <t>عزيزي $name،
+اكتمل تطبيقك $ApplicationDetails بنجاح في $Date في $Time.
+معرف التطبيق الخاص بك هو $ApplicationId.
+تمت جدولة الموعد لـ $Appointmentdate بالدولار $Appointmenttime
+في مركز التسجيل $RegistrationCenterName في عنوان مركز التسجيل
+$RegistrationCenterAddress.</t>
+  </si>
+  <si>
+    <t>تم إلغاء الموعد : $ApplicationDetails | معرف التطبيق: $ApplicationId</t>
+  </si>
+  <si>
+    <t>عزيزي $name،
+يرجى ملاحظة أنه تم إلغاء موعد $ApplicationDetails الخاص بك مقابل معرّف التطبيق $ApplicationId وتاريخ الموعد $Appointmentdate و زمن $Appointmenttime.
+اطلب منك تسجيل الدخول إلى البوابة الإلكترونية وإعادة حجز مكان آخر لـ $ApplicationDetails.
+شكرًا لك.</t>
   </si>
 </sst>
 </file>
@@ -15944,26 +15944,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D968" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E971" sqref="E971"/>
+    <sheetView tabSelected="1" topLeftCell="D457" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H464" sqref="H464"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="50.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
     <col min="11" max="11" width="27" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="953" max="1024" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" customWidth="1"/>
+    <col min="953" max="1024" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16253,7 +16253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45">
+    <row r="8" spans="1:13" ht="43.5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="29">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45">
+    <row r="27" spans="1:13" ht="43.5">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45">
+    <row r="28" spans="1:13" ht="43.5">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="45">
+    <row r="29" spans="1:13" ht="43.5">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="45">
+    <row r="30" spans="1:13" ht="43.5">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30">
+    <row r="31" spans="1:13" ht="29">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30">
+    <row r="32" spans="1:13" ht="29">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="45">
+    <row r="33" spans="1:13" ht="43.5">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -17319,7 +17319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="45">
+    <row r="34" spans="1:13" ht="43.5">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18098,7 +18098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="59.25">
+    <row r="53" spans="1:13" ht="57.5">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="29.25">
+    <row r="54" spans="1:13" ht="28.5">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="59.25">
+    <row r="55" spans="1:13" ht="57.5">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="45">
+    <row r="56" spans="1:13" ht="43.5">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30">
+    <row r="57" spans="1:13" ht="29">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="45">
+    <row r="58" spans="1:13" ht="43.5">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="59.25">
+    <row r="59" spans="1:13" ht="57.5">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="29.25">
+    <row r="60" spans="1:13" ht="28.5">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="59.25">
+    <row r="61" spans="1:13" ht="57.5">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="135">
+    <row r="62" spans="1:13" ht="130.5">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="150">
+    <row r="68" spans="1:13" ht="145">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="129">
+    <row r="74" spans="1:13" ht="112.5">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1897</v>
+        <v>1924</v>
       </c>
       <c r="G74">
         <v>10001</v>
@@ -19000,7 +19000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="29">
       <c r="A75" t="s">
         <v>186</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="45">
+    <row r="76" spans="1:13" ht="29">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="29.25">
+    <row r="77" spans="1:13" ht="28.5">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="29">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="60">
+    <row r="79" spans="1:13" ht="58">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="29.25">
+    <row r="82" spans="1:13" ht="28.5">
       <c r="A82" t="s">
         <v>227</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>16</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1898</v>
+        <v>1923</v>
       </c>
       <c r="G82">
         <v>10001</v>
@@ -19533,7 +19533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30">
+    <row r="88" spans="1:13" ht="29">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30">
+    <row r="91" spans="1:13" ht="29">
       <c r="A91" t="s">
         <v>248</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30">
+    <row r="94" spans="1:13" ht="29">
       <c r="A94" t="s">
         <v>255</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="29">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="135">
+    <row r="100" spans="1:13" ht="130.5">
       <c r="A100" t="s">
         <v>269</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="135">
+    <row r="103" spans="1:13" ht="130.5">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="29.25">
+    <row r="113" spans="1:13" ht="28.5">
       <c r="A113" t="s">
         <v>306</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="29.25">
+    <row r="116" spans="1:13" ht="28.5">
       <c r="A116" t="s">
         <v>312</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="29.25">
+    <row r="122" spans="1:13" ht="28.5">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="29.25">
+    <row r="125" spans="1:13" ht="28.5">
       <c r="A125" t="s">
         <v>320</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="29.25">
+    <row r="131" spans="1:13" ht="28.5">
       <c r="A131" t="s">
         <v>322</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="29.25">
+    <row r="134" spans="1:13" ht="28.5">
       <c r="A134" t="s">
         <v>323</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="45">
+    <row r="137" spans="1:13" ht="29">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="29.25">
+    <row r="140" spans="1:13" ht="28.5">
       <c r="A140" t="s">
         <v>332</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="29">
       <c r="A143" t="s">
         <v>340</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="87.75">
+    <row r="146" spans="1:13" ht="71">
       <c r="A146" t="s">
         <v>348</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30">
+    <row r="149" spans="1:13" ht="29">
       <c r="A149" t="s">
         <v>356</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30">
+    <row r="152" spans="1:13" ht="29">
       <c r="A152" t="s">
         <v>363</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="44.25">
+    <row r="155" spans="1:13" ht="28.5">
       <c r="A155" t="s">
         <v>366</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="44.25">
+    <row r="158" spans="1:13" ht="28.5">
       <c r="A158" t="s">
         <v>371</v>
       </c>
@@ -22444,7 +22444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="120">
+    <row r="159" spans="1:13" ht="116">
       <c r="A159" t="s">
         <v>373</v>
       </c>
@@ -22485,7 +22485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="150">
+    <row r="160" spans="1:13" ht="130.5">
       <c r="A160" t="s">
         <v>373</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="100.5">
+    <row r="161" spans="1:13" ht="98.5">
       <c r="A161" t="s">
         <v>373</v>
       </c>
@@ -22543,7 +22543,7 @@
         <v>16</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1896</v>
+        <v>1926</v>
       </c>
       <c r="G161">
         <v>10001</v>
@@ -22649,7 +22649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="45">
+    <row r="164" spans="1:13" ht="29">
       <c r="A164" t="s">
         <v>378</v>
       </c>
@@ -22772,7 +22772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="45">
+    <row r="167" spans="1:13" ht="43.5">
       <c r="A167" t="s">
         <v>386</v>
       </c>
@@ -23018,7 +23018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="30">
+    <row r="173" spans="1:13" ht="29">
       <c r="A173" t="s">
         <v>401</v>
       </c>
@@ -23141,7 +23141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30">
+    <row r="176" spans="1:13" ht="29">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="29.25">
+    <row r="179" spans="1:13" ht="28.5">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="30">
+    <row r="182" spans="1:13" ht="29">
       <c r="A182" t="s">
         <v>425</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="29.25">
+    <row r="185" spans="1:13" ht="28.5">
       <c r="A185" t="s">
         <v>433</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30">
+    <row r="188" spans="1:13" ht="29">
       <c r="A188" t="s">
         <v>443</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30">
+    <row r="191" spans="1:13" ht="29">
       <c r="A191" t="s">
         <v>448</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="29.25">
+    <row r="194" spans="1:13" ht="28.5">
       <c r="A194" t="s">
         <v>456</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30">
+    <row r="197" spans="1:13" ht="29">
       <c r="A197" t="s">
         <v>464</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="30">
+    <row r="200" spans="1:13" ht="29">
       <c r="A200" t="s">
         <v>469</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="29.25">
+    <row r="203" spans="1:13" ht="28.5">
       <c r="A203" t="s">
         <v>477</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30">
+    <row r="206" spans="1:13" ht="29">
       <c r="A206" t="s">
         <v>485</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="30">
+    <row r="209" spans="1:13" ht="29">
       <c r="A209" t="s">
         <v>490</v>
       </c>
@@ -24617,7 +24617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="29.25">
+    <row r="212" spans="1:13" ht="28.5">
       <c r="A212" t="s">
         <v>498</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="30">
+    <row r="215" spans="1:13" ht="29">
       <c r="A215" t="s">
         <v>506</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30">
+    <row r="218" spans="1:13" ht="28.5">
       <c r="A218" t="s">
         <v>511</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="29.25">
+    <row r="221" spans="1:13" ht="28.5">
       <c r="A221" t="s">
         <v>519</v>
       </c>
@@ -25109,7 +25109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="30">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
         <v>527</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="30">
+    <row r="227" spans="1:13" ht="29">
       <c r="A227" t="s">
         <v>532</v>
       </c>
@@ -25355,7 +25355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="29.25">
+    <row r="230" spans="1:13" ht="28.5">
       <c r="A230" t="s">
         <v>540</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="30">
+    <row r="233" spans="1:13" ht="29">
       <c r="A233" t="s">
         <v>548</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="30">
+    <row r="236" spans="1:13" ht="29">
       <c r="A236" t="s">
         <v>553</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="43.5">
+    <row r="239" spans="1:13" ht="28.5">
       <c r="A239" t="s">
         <v>561</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="30">
+    <row r="242" spans="1:13" ht="28.5">
       <c r="A242" t="s">
         <v>569</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="30">
+    <row r="245" spans="1:13" ht="29">
       <c r="A245" t="s">
         <v>576</v>
       </c>
@@ -26093,7 +26093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="29.25">
+    <row r="248" spans="1:13" ht="28.5">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="30">
+    <row r="251" spans="1:13" ht="29">
       <c r="A251" t="s">
         <v>592</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="30">
+    <row r="254" spans="1:13" ht="29">
       <c r="A254" t="s">
         <v>597</v>
       </c>
@@ -26462,7 +26462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="29.25">
+    <row r="257" spans="1:13" ht="28.5">
       <c r="A257" t="s">
         <v>605</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="30">
+    <row r="260" spans="1:13" ht="29">
       <c r="A260" t="s">
         <v>613</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="30">
+    <row r="263" spans="1:13" ht="29">
       <c r="A263" t="s">
         <v>618</v>
       </c>
@@ -26831,7 +26831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="29.25">
+    <row r="266" spans="1:13" ht="28.5">
       <c r="A266" t="s">
         <v>626</v>
       </c>
@@ -26954,7 +26954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="30">
+    <row r="269" spans="1:13" ht="29">
       <c r="A269" t="s">
         <v>634</v>
       </c>
@@ -27077,7 +27077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="30">
+    <row r="272" spans="1:13" ht="29">
       <c r="A272" t="s">
         <v>639</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="43.5">
+    <row r="275" spans="1:13" ht="42.5">
       <c r="A275" t="s">
         <v>647</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="30">
+    <row r="278" spans="1:13" ht="29">
       <c r="A278" t="s">
         <v>655</v>
       </c>
@@ -27446,7 +27446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="30">
+    <row r="281" spans="1:13" ht="29">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="30">
+    <row r="284" spans="1:13" ht="29">
       <c r="A284" t="s">
         <v>668</v>
       </c>
@@ -27692,7 +27692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="30">
+    <row r="287" spans="1:13" ht="29">
       <c r="A287" t="s">
         <v>674</v>
       </c>
@@ -27815,7 +27815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="30">
+    <row r="290" spans="1:13" ht="29">
       <c r="A290" t="s">
         <v>679</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="29.25">
+    <row r="293" spans="1:13" ht="28.5">
       <c r="A293" t="s">
         <v>687</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="30">
+    <row r="296" spans="1:13" ht="29">
       <c r="A296" t="s">
         <v>695</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="30">
+    <row r="299" spans="1:13" ht="29">
       <c r="A299" t="s">
         <v>700</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="44.25">
+    <row r="302" spans="1:13" ht="29">
       <c r="A302" t="s">
         <v>708</v>
       </c>
@@ -28430,7 +28430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="30">
+    <row r="305" spans="1:13" ht="29">
       <c r="A305" t="s">
         <v>716</v>
       </c>
@@ -28553,7 +28553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="30">
+    <row r="308" spans="1:13" ht="29">
       <c r="A308" t="s">
         <v>721</v>
       </c>
@@ -28676,7 +28676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="30">
+    <row r="311" spans="1:13" ht="29">
       <c r="A311" t="s">
         <v>729</v>
       </c>
@@ -28799,7 +28799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="30">
+    <row r="314" spans="1:13" ht="29">
       <c r="A314" t="s">
         <v>737</v>
       </c>
@@ -28922,7 +28922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="43.5">
+    <row r="317" spans="1:13" ht="29">
       <c r="A317" t="s">
         <v>742</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="30">
+    <row r="320" spans="1:13" ht="29">
       <c r="A320" t="s">
         <v>749</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="43.5">
+    <row r="323" spans="1:13" ht="29">
       <c r="A323" t="s">
         <v>753</v>
       </c>
@@ -29291,7 +29291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="30">
+    <row r="326" spans="1:13" ht="29">
       <c r="A326" t="s">
         <v>760</v>
       </c>
@@ -29414,7 +29414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="43.5">
+    <row r="329" spans="1:13" ht="29">
       <c r="A329" t="s">
         <v>764</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="30">
+    <row r="332" spans="1:13" ht="29">
       <c r="A332" t="s">
         <v>771</v>
       </c>
@@ -29660,7 +29660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="43.5">
+    <row r="335" spans="1:13" ht="29">
       <c r="A335" t="s">
         <v>775</v>
       </c>
@@ -29783,7 +29783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="30">
+    <row r="338" spans="1:13" ht="29">
       <c r="A338" t="s">
         <v>779</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="43.5">
+    <row r="341" spans="1:13" ht="42.5">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="30">
+    <row r="344" spans="1:13" ht="29">
       <c r="A344" t="s">
         <v>790</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="43.5">
+    <row r="347" spans="1:13" ht="29">
       <c r="A347" t="s">
         <v>794</v>
       </c>
@@ -30275,7 +30275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="30">
+    <row r="350" spans="1:13" ht="29">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -30398,7 +30398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="43.5">
+    <row r="353" spans="1:13" ht="29">
       <c r="A353" t="s">
         <v>805</v>
       </c>
@@ -30521,7 +30521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="44.25">
+    <row r="356" spans="1:13" ht="43">
       <c r="A356" t="s">
         <v>812</v>
       </c>
@@ -30644,7 +30644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="43.5">
+    <row r="359" spans="1:13" ht="28.5">
       <c r="A359" t="s">
         <v>816</v>
       </c>
@@ -30767,7 +30767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="43.5">
+    <row r="362" spans="1:13" ht="28.5">
       <c r="A362" t="s">
         <v>822</v>
       </c>
@@ -30890,7 +30890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="29.25">
+    <row r="365" spans="1:13" ht="28.5">
       <c r="A365" t="s">
         <v>829</v>
       </c>
@@ -31013,7 +31013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="43.5">
+    <row r="368" spans="1:13" ht="42.5">
       <c r="A368" t="s">
         <v>836</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="43.5">
+    <row r="371" spans="1:13" ht="42.5">
       <c r="A371" t="s">
         <v>843</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="43.5">
+    <row r="374" spans="1:13" ht="28.5">
       <c r="A374" t="s">
         <v>847</v>
       </c>
@@ -31382,7 +31382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="43.5">
+    <row r="377" spans="1:13" ht="42.5">
       <c r="A377" t="s">
         <v>854</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="60">
+    <row r="380" spans="1:13" ht="43.5">
       <c r="A380" t="s">
         <v>861</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="60">
+    <row r="383" spans="1:13" ht="43.5">
       <c r="A383" t="s">
         <v>868</v>
       </c>
@@ -31751,7 +31751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="30">
+    <row r="386" spans="1:13" ht="29">
       <c r="A386" t="s">
         <v>872</v>
       </c>
@@ -31874,7 +31874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="30">
+    <row r="389" spans="1:13" ht="29">
       <c r="A389" t="s">
         <v>879</v>
       </c>
@@ -31997,7 +31997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="30">
+    <row r="392" spans="1:13" ht="29">
       <c r="A392" t="s">
         <v>886</v>
       </c>
@@ -32120,7 +32120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="29.25">
+    <row r="395" spans="1:13" ht="28.5">
       <c r="A395" t="s">
         <v>890</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="30">
+    <row r="398" spans="1:13" ht="29">
       <c r="A398" t="s">
         <v>897</v>
       </c>
@@ -32366,7 +32366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="30">
+    <row r="401" spans="1:13" ht="29">
       <c r="A401" t="s">
         <v>904</v>
       </c>
@@ -32489,7 +32489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="29.25">
+    <row r="404" spans="1:13" ht="28.5">
       <c r="A404" t="s">
         <v>910</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="60">
+    <row r="407" spans="1:13" ht="43.5">
       <c r="A407" t="s">
         <v>917</v>
       </c>
@@ -32735,7 +32735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="60">
+    <row r="410" spans="1:13" ht="43.5">
       <c r="A410" t="s">
         <v>924</v>
       </c>
@@ -32858,7 +32858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="30">
+    <row r="413" spans="1:13" ht="29">
       <c r="A413" t="s">
         <v>928</v>
       </c>
@@ -33883,7 +33883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="165">
+    <row r="438" spans="1:13" ht="159.5">
       <c r="A438" t="s">
         <v>1010</v>
       </c>
@@ -33924,7 +33924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="180">
+    <row r="439" spans="1:13" ht="174">
       <c r="A439" t="s">
         <v>1010</v>
       </c>
@@ -33965,7 +33965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="89.25">
+    <row r="440" spans="1:13" ht="72.5">
       <c r="A440" t="s">
         <v>1010</v>
       </c>
@@ -34044,7 +34044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="150">
+    <row r="442" spans="1:13" ht="145">
       <c r="A442" t="s">
         <v>1018</v>
       </c>
@@ -34085,7 +34085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="30">
+    <row r="443" spans="1:13" ht="29">
       <c r="A443" t="s">
         <v>1018</v>
       </c>
@@ -34205,7 +34205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="29.25">
+    <row r="446" spans="1:13" ht="28.5">
       <c r="A446" t="s">
         <v>1024</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="29.25">
+    <row r="449" spans="1:13" ht="28.5">
       <c r="A449" t="s">
         <v>1029</v>
       </c>
@@ -34943,7 +34943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="29.25">
+    <row r="464" spans="1:13" ht="28.5">
       <c r="A464" t="s">
         <v>1054</v>
       </c>
@@ -35083,7 +35083,7 @@
         <v>16</v>
       </c>
       <c r="F467" s="7" t="s">
-        <v>1895</v>
+        <v>1925</v>
       </c>
       <c r="G467">
         <v>10001</v>
@@ -35107,7 +35107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="60">
+    <row r="468" spans="1:13" ht="58">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="30">
+    <row r="469" spans="1:13" ht="29">
       <c r="A469" t="s">
         <v>24</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="30">
+    <row r="470" spans="1:13" ht="29">
       <c r="A470" t="s">
         <v>28</v>
       </c>
@@ -35230,7 +35230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="30">
+    <row r="471" spans="1:13" ht="29">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -35271,7 +35271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="30">
+    <row r="472" spans="1:13" ht="29">
       <c r="A472" t="s">
         <v>53</v>
       </c>
@@ -35312,7 +35312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="30">
+    <row r="473" spans="1:13" ht="29">
       <c r="A473" t="s">
         <v>57</v>
       </c>
@@ -35353,7 +35353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="30">
+    <row r="474" spans="1:13" ht="29">
       <c r="A474" t="s">
         <v>61</v>
       </c>
@@ -35394,7 +35394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="30">
+    <row r="475" spans="1:13" ht="29">
       <c r="A475" t="s">
         <v>65</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="30">
+    <row r="476" spans="1:13" ht="29">
       <c r="A476" t="s">
         <v>69</v>
       </c>
@@ -35476,7 +35476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="45">
+    <row r="477" spans="1:13" ht="29">
       <c r="A477" t="s">
         <v>73</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="45">
+    <row r="478" spans="1:13" ht="29">
       <c r="A478" t="s">
         <v>77</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="45">
+    <row r="479" spans="1:13" ht="43.5">
       <c r="A479" t="s">
         <v>115</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="45">
+    <row r="480" spans="1:13" ht="43.5">
       <c r="A480" t="s">
         <v>120</v>
       </c>
@@ -35640,7 +35640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="30">
+    <row r="481" spans="1:13" ht="29">
       <c r="A481" t="s">
         <v>124</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="30">
+    <row r="482" spans="1:13" ht="29">
       <c r="A482" t="s">
         <v>127</v>
       </c>
@@ -35722,7 +35722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="30">
+    <row r="483" spans="1:13" ht="29">
       <c r="A483" t="s">
         <v>131</v>
       </c>
@@ -35804,7 +35804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="60">
+    <row r="485" spans="1:13" ht="43.5">
       <c r="A485" t="s">
         <v>138</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="60">
+    <row r="486" spans="1:13" ht="43.5">
       <c r="A486" t="s">
         <v>142</v>
       </c>
@@ -35886,7 +35886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="45">
+    <row r="487" spans="1:13" ht="43.5">
       <c r="A487" t="s">
         <v>146</v>
       </c>
@@ -35927,7 +35927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="30">
+    <row r="488" spans="1:13" ht="29">
       <c r="A488" t="s">
         <v>182</v>
       </c>
@@ -35968,7 +35968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="30">
+    <row r="489" spans="1:13" ht="29">
       <c r="A489" t="s">
         <v>186</v>
       </c>
@@ -36009,7 +36009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="30">
+    <row r="490" spans="1:13" ht="29">
       <c r="A490" t="s">
         <v>190</v>
       </c>
@@ -36050,7 +36050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="30">
+    <row r="491" spans="1:13" ht="29">
       <c r="A491" t="s">
         <v>194</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="30">
+    <row r="493" spans="1:13" ht="29">
       <c r="A493" t="s">
         <v>201</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="30">
+    <row r="494" spans="1:13" ht="29">
       <c r="A494" t="s">
         <v>227</v>
       </c>
@@ -36214,7 +36214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:13" s="11" customFormat="1">
+    <row r="495" spans="1:13" s="11" customFormat="1" ht="15.5">
       <c r="A495" s="11">
         <v>1131</v>
       </c>
@@ -36255,7 +36255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="45">
+    <row r="496" spans="1:13" ht="29">
       <c r="A496" t="s">
         <v>241</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="30">
+    <row r="497" spans="1:13" ht="29">
       <c r="A497" t="s">
         <v>248</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="45">
+    <row r="498" spans="1:13" ht="29">
       <c r="A498" t="s">
         <v>255</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="45">
+    <row r="499" spans="1:13" ht="43.5">
       <c r="A499" t="s">
         <v>262</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="30">
+    <row r="506" spans="1:13" ht="29">
       <c r="A506" t="s">
         <v>298</v>
       </c>
@@ -36706,7 +36706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="30">
+    <row r="507" spans="1:13" ht="29">
       <c r="A507" t="s">
         <v>306</v>
       </c>
@@ -36747,7 +36747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="30">
+    <row r="508" spans="1:13" ht="29">
       <c r="A508" t="s">
         <v>312</v>
       </c>
@@ -36788,7 +36788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="30">
+    <row r="509" spans="1:13">
       <c r="A509" t="s">
         <v>314</v>
       </c>
@@ -36829,7 +36829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="30">
+    <row r="510" spans="1:13" ht="29">
       <c r="A510" t="s">
         <v>318</v>
       </c>
@@ -36870,7 +36870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="30">
+    <row r="511" spans="1:13" ht="29">
       <c r="A511" t="s">
         <v>320</v>
       </c>
@@ -36911,7 +36911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="30">
+    <row r="512" spans="1:13" ht="29">
       <c r="A512" t="s">
         <v>321</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="30">
+    <row r="513" spans="1:13" ht="29">
       <c r="A513" t="s">
         <v>322</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="30">
+    <row r="514" spans="1:13" ht="29">
       <c r="A514" t="s">
         <v>323</v>
       </c>
@@ -37034,7 +37034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="30">
+    <row r="515" spans="1:13" ht="29">
       <c r="A515" t="s">
         <v>324</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="30">
+    <row r="516" spans="1:13" ht="29">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -37116,7 +37116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="30">
+    <row r="517" spans="1:13" ht="29">
       <c r="A517" t="s">
         <v>340</v>
       </c>
@@ -37362,7 +37362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="45">
+    <row r="523" spans="1:13" ht="29">
       <c r="A523" t="s">
         <v>373</v>
       </c>
@@ -37403,7 +37403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="30">
+    <row r="524" spans="1:13" ht="29">
       <c r="A524" t="s">
         <v>378</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="30">
+    <row r="525" spans="1:13" ht="29">
       <c r="A525" t="s">
         <v>386</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="45">
+    <row r="527" spans="1:13" ht="43.5">
       <c r="A527" t="s">
         <v>401</v>
       </c>
@@ -37567,7 +37567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="30">
+    <row r="528" spans="1:13" ht="29">
       <c r="A528" t="s">
         <v>411</v>
       </c>
@@ -37608,7 +37608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="45">
+    <row r="529" spans="1:13" ht="43.5">
       <c r="A529" t="s">
         <v>417</v>
       </c>
@@ -37649,7 +37649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="45">
+    <row r="530" spans="1:13" ht="29">
       <c r="A530" t="s">
         <v>425</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="45">
+    <row r="531" spans="1:13" ht="43.5">
       <c r="A531" t="s">
         <v>433</v>
       </c>
@@ -37731,7 +37731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="30">
+    <row r="532" spans="1:13" ht="29">
       <c r="A532" t="s">
         <v>443</v>
       </c>
@@ -37772,7 +37772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="45">
+    <row r="533" spans="1:13" ht="29">
       <c r="A533" t="s">
         <v>448</v>
       </c>
@@ -37813,7 +37813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="45">
+    <row r="534" spans="1:13" ht="43.5">
       <c r="A534" t="s">
         <v>456</v>
       </c>
@@ -37854,7 +37854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="30">
+    <row r="535" spans="1:13" ht="29">
       <c r="A535" t="s">
         <v>464</v>
       </c>
@@ -37936,7 +37936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="45">
+    <row r="537" spans="1:13" ht="43.5">
       <c r="A537" t="s">
         <v>477</v>
       </c>
@@ -37977,7 +37977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="45">
+    <row r="538" spans="1:13" ht="43.5">
       <c r="A538" t="s">
         <v>485</v>
       </c>
@@ -38018,7 +38018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="30">
+    <row r="539" spans="1:13" ht="29">
       <c r="A539" t="s">
         <v>490</v>
       </c>
@@ -38059,7 +38059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="45">
+    <row r="540" spans="1:13" ht="29">
       <c r="A540" t="s">
         <v>498</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="30">
+    <row r="541" spans="1:13" ht="29">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -38141,7 +38141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="45">
+    <row r="542" spans="1:13" ht="29">
       <c r="A542" t="s">
         <v>511</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="60">
+    <row r="543" spans="1:13" ht="58">
       <c r="A543" t="s">
         <v>519</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="45">
+    <row r="544" spans="1:13" ht="43.5">
       <c r="A544" t="s">
         <v>527</v>
       </c>
@@ -38264,7 +38264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="45">
+    <row r="545" spans="1:13" ht="29">
       <c r="A545" t="s">
         <v>532</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="45">
+    <row r="546" spans="1:13" ht="43.5">
       <c r="A546" t="s">
         <v>540</v>
       </c>
@@ -38346,7 +38346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="30">
+    <row r="547" spans="1:13" ht="29">
       <c r="A547" t="s">
         <v>548</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="30">
+    <row r="548" spans="1:13" ht="29">
       <c r="A548" t="s">
         <v>553</v>
       </c>
@@ -38428,7 +38428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="45">
+    <row r="549" spans="1:13" ht="43.5">
       <c r="A549" t="s">
         <v>561</v>
       </c>
@@ -38469,7 +38469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="45">
+    <row r="550" spans="1:13" ht="29">
       <c r="A550" t="s">
         <v>569</v>
       </c>
@@ -38510,7 +38510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="45">
+    <row r="551" spans="1:13" ht="43.5">
       <c r="A551" t="s">
         <v>576</v>
       </c>
@@ -38551,7 +38551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="45">
+    <row r="552" spans="1:13" ht="43.5">
       <c r="A552" t="s">
         <v>584</v>
       </c>
@@ -38592,7 +38592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="45">
+    <row r="553" spans="1:13" ht="43.5">
       <c r="A553" t="s">
         <v>592</v>
       </c>
@@ -38633,7 +38633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="60">
+    <row r="554" spans="1:13" ht="43.5">
       <c r="A554" t="s">
         <v>597</v>
       </c>
@@ -38674,7 +38674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="60">
+    <row r="555" spans="1:13" ht="43.5">
       <c r="A555" t="s">
         <v>605</v>
       </c>
@@ -38715,7 +38715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="45">
+    <row r="556" spans="1:13" ht="43.5">
       <c r="A556" t="s">
         <v>613</v>
       </c>
@@ -38756,7 +38756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="30">
+    <row r="557" spans="1:13" ht="29">
       <c r="A557" t="s">
         <v>618</v>
       </c>
@@ -38797,7 +38797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:13" ht="45">
+    <row r="558" spans="1:13" ht="43.5">
       <c r="A558" t="s">
         <v>626</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="559" spans="1:13" ht="30">
+    <row r="559" spans="1:13" ht="29">
       <c r="A559" t="s">
         <v>634</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:13" ht="60">
+    <row r="560" spans="1:13" ht="58">
       <c r="A560" t="s">
         <v>639</v>
       </c>
@@ -38920,7 +38920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:13" ht="60">
+    <row r="561" spans="1:13" ht="58">
       <c r="A561" t="s">
         <v>647</v>
       </c>
@@ -38961,7 +38961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:13" ht="60">
+    <row r="562" spans="1:13" ht="43.5">
       <c r="A562" t="s">
         <v>655</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:13" ht="30">
+    <row r="563" spans="1:13" ht="29">
       <c r="A563" t="s">
         <v>660</v>
       </c>
@@ -39043,7 +39043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:13" ht="30">
+    <row r="564" spans="1:13" ht="29">
       <c r="A564" t="s">
         <v>668</v>
       </c>
@@ -39084,7 +39084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:13" ht="30">
+    <row r="565" spans="1:13" ht="29">
       <c r="A565" t="s">
         <v>674</v>
       </c>
@@ -39125,7 +39125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:13" ht="30">
+    <row r="566" spans="1:13" ht="29">
       <c r="A566" t="s">
         <v>679</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:13" ht="45">
+    <row r="567" spans="1:13" ht="29">
       <c r="A567" t="s">
         <v>687</v>
       </c>
@@ -39207,7 +39207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:13" ht="30">
+    <row r="568" spans="1:13" ht="29">
       <c r="A568" t="s">
         <v>695</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:13" ht="60">
+    <row r="569" spans="1:13" ht="58">
       <c r="A569" t="s">
         <v>700</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:13" ht="75">
+    <row r="570" spans="1:13" ht="72.5">
       <c r="A570" t="s">
         <v>708</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="60">
+    <row r="571" spans="1:13" ht="58">
       <c r="A571" t="s">
         <v>716</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:13" ht="30">
+    <row r="572" spans="1:13" ht="29">
       <c r="A572" t="s">
         <v>721</v>
       </c>
@@ -39412,7 +39412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:13" ht="45">
+    <row r="573" spans="1:13" ht="43.5">
       <c r="A573" t="s">
         <v>729</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:13" ht="30">
+    <row r="574" spans="1:13" ht="29">
       <c r="A574" t="s">
         <v>737</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:13" ht="45">
+    <row r="575" spans="1:13" ht="43.5">
       <c r="A575" t="s">
         <v>742</v>
       </c>
@@ -39535,7 +39535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:13" ht="45">
+    <row r="576" spans="1:13" ht="43.5">
       <c r="A576" t="s">
         <v>749</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:13" ht="60">
+    <row r="577" spans="1:13" ht="43.5">
       <c r="A577" t="s">
         <v>753</v>
       </c>
@@ -39617,7 +39617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:13" ht="60">
+    <row r="578" spans="1:13" ht="43.5">
       <c r="A578" t="s">
         <v>760</v>
       </c>
@@ -39658,7 +39658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:13" ht="45">
+    <row r="579" spans="1:13" ht="43.5">
       <c r="A579" t="s">
         <v>764</v>
       </c>
@@ -39699,7 +39699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:13" ht="45">
+    <row r="580" spans="1:13" ht="43.5">
       <c r="A580" t="s">
         <v>771</v>
       </c>
@@ -39740,7 +39740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:13" ht="60">
+    <row r="581" spans="1:13" ht="43.5">
       <c r="A581" t="s">
         <v>775</v>
       </c>
@@ -39781,7 +39781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:13" ht="45">
+    <row r="582" spans="1:13" ht="43.5">
       <c r="A582" t="s">
         <v>779</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:13" ht="60">
+    <row r="583" spans="1:13" ht="43.5">
       <c r="A583" t="s">
         <v>783</v>
       </c>
@@ -39904,7 +39904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:13" ht="60">
+    <row r="585" spans="1:13" ht="43.5">
       <c r="A585" t="s">
         <v>794</v>
       </c>
@@ -39945,7 +39945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:13" ht="60">
+    <row r="586" spans="1:13" ht="43.5">
       <c r="A586" t="s">
         <v>801</v>
       </c>
@@ -39986,7 +39986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:13" ht="60">
+    <row r="587" spans="1:13" ht="43.5">
       <c r="A587" t="s">
         <v>805</v>
       </c>
@@ -40027,7 +40027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:13" ht="45">
+    <row r="588" spans="1:13" ht="43.5">
       <c r="A588" t="s">
         <v>812</v>
       </c>
@@ -40068,7 +40068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:13" ht="45">
+    <row r="589" spans="1:13" ht="43.5">
       <c r="A589" t="s">
         <v>816</v>
       </c>
@@ -40109,7 +40109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:13" ht="60">
+    <row r="590" spans="1:13" ht="43.5">
       <c r="A590" t="s">
         <v>822</v>
       </c>
@@ -40150,7 +40150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:13" ht="45">
+    <row r="591" spans="1:13" ht="43.5">
       <c r="A591" t="s">
         <v>829</v>
       </c>
@@ -40191,7 +40191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:13" ht="45">
+    <row r="592" spans="1:13" ht="43.5">
       <c r="A592" t="s">
         <v>836</v>
       </c>
@@ -40232,7 +40232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:13" ht="60">
+    <row r="593" spans="1:13" ht="43.5">
       <c r="A593" t="s">
         <v>843</v>
       </c>
@@ -40273,7 +40273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:13" ht="75">
+    <row r="594" spans="1:13" ht="58">
       <c r="A594" t="s">
         <v>847</v>
       </c>
@@ -40314,7 +40314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:13" ht="45">
+    <row r="595" spans="1:13" ht="43.5">
       <c r="A595" t="s">
         <v>854</v>
       </c>
@@ -40355,7 +40355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:13" ht="30">
+    <row r="596" spans="1:13" ht="29">
       <c r="A596" t="s">
         <v>861</v>
       </c>
@@ -40396,7 +40396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:13" ht="30">
+    <row r="597" spans="1:13" ht="29">
       <c r="A597" t="s">
         <v>868</v>
       </c>
@@ -40437,7 +40437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:13" ht="45">
+    <row r="598" spans="1:13" ht="29">
       <c r="A598" t="s">
         <v>872</v>
       </c>
@@ -40478,7 +40478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:13" ht="30">
+    <row r="599" spans="1:13" ht="29">
       <c r="A599" t="s">
         <v>879</v>
       </c>
@@ -40519,7 +40519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:13" ht="30">
+    <row r="600" spans="1:13" ht="29">
       <c r="A600" t="s">
         <v>886</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:13" ht="45">
+    <row r="601" spans="1:13" ht="29">
       <c r="A601" t="s">
         <v>890</v>
       </c>
@@ -40601,7 +40601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:13" ht="60">
+    <row r="602" spans="1:13" ht="43.5">
       <c r="A602" t="s">
         <v>897</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:13" ht="60">
+    <row r="603" spans="1:13" ht="58">
       <c r="A603" t="s">
         <v>904</v>
       </c>
@@ -40683,7 +40683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:13" ht="60">
+    <row r="604" spans="1:13" ht="58">
       <c r="A604" t="s">
         <v>910</v>
       </c>
@@ -40724,7 +40724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:13" ht="30">
+    <row r="605" spans="1:13" ht="29">
       <c r="A605" t="s">
         <v>917</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:13" ht="30">
+    <row r="606" spans="1:13" ht="29">
       <c r="A606" t="s">
         <v>924</v>
       </c>
@@ -40806,7 +40806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:13" ht="45">
+    <row r="607" spans="1:13" ht="29">
       <c r="A607" t="s">
         <v>928</v>
       </c>
@@ -40929,7 +40929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:13" ht="30">
+    <row r="610" spans="1:13" ht="29">
       <c r="A610" s="6" t="s">
         <v>951</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:13" ht="30">
+    <row r="611" spans="1:13" ht="29">
       <c r="A611" t="s">
         <v>959</v>
       </c>
@@ -41011,7 +41011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:13" ht="30">
+    <row r="612" spans="1:13" ht="29">
       <c r="A612" t="s">
         <v>964</v>
       </c>
@@ -41052,7 +41052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:13" ht="30">
+    <row r="613" spans="1:13" ht="29">
       <c r="A613" t="s">
         <v>968</v>
       </c>
@@ -41093,7 +41093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:13" ht="30">
+    <row r="614" spans="1:13" ht="29">
       <c r="A614" t="s">
         <v>972</v>
       </c>
@@ -41257,7 +41257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:13" ht="180">
+    <row r="618" spans="1:13" ht="174">
       <c r="A618" t="s">
         <v>1010</v>
       </c>
@@ -41459,7 +41459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:13" ht="30">
+    <row r="623" spans="1:13" ht="29">
       <c r="A623" t="s">
         <v>1039</v>
       </c>
@@ -41664,7 +41664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:13" ht="26.1" customHeight="1">
+    <row r="628" spans="1:13" ht="26.15" customHeight="1">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -41705,7 +41705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:13" ht="25.35" customHeight="1">
+    <row r="629" spans="1:13" ht="25.4" customHeight="1">
       <c r="A629" t="s">
         <v>24</v>
       </c>
@@ -41746,7 +41746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:13" ht="26.85" customHeight="1">
+    <row r="630" spans="1:13" ht="26.9" customHeight="1">
       <c r="A630" t="s">
         <v>28</v>
       </c>
@@ -41787,7 +41787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:13" ht="26.85" customHeight="1">
+    <row r="631" spans="1:13" ht="26.9" customHeight="1">
       <c r="A631" t="s">
         <v>48</v>
       </c>
@@ -41828,7 +41828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:13" ht="29.85" customHeight="1">
+    <row r="632" spans="1:13" ht="29.9" customHeight="1">
       <c r="A632" t="s">
         <v>53</v>
       </c>
@@ -41869,7 +41869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:13" ht="27.6" customHeight="1">
+    <row r="633" spans="1:13" ht="27.65" customHeight="1">
       <c r="A633" t="s">
         <v>57</v>
       </c>
@@ -41910,7 +41910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:13" ht="29.85" customHeight="1">
+    <row r="634" spans="1:13" ht="29.9" customHeight="1">
       <c r="A634" t="s">
         <v>61</v>
       </c>
@@ -41951,7 +41951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:13" ht="32.1" customHeight="1">
+    <row r="635" spans="1:13" ht="32.15" customHeight="1">
       <c r="A635" t="s">
         <v>65</v>
       </c>
@@ -41992,7 +41992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:13" ht="30">
+    <row r="636" spans="1:13" ht="29">
       <c r="A636" t="s">
         <v>69</v>
       </c>
@@ -42033,7 +42033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:13" ht="30">
+    <row r="637" spans="1:13" ht="29">
       <c r="A637" t="s">
         <v>73</v>
       </c>
@@ -42074,7 +42074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="638" spans="1:13" ht="30">
+    <row r="638" spans="1:13" ht="29">
       <c r="A638" t="s">
         <v>77</v>
       </c>
@@ -42115,7 +42115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:13" ht="30">
+    <row r="639" spans="1:13" ht="29">
       <c r="A639" t="s">
         <v>115</v>
       </c>
@@ -42156,7 +42156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:13" ht="30">
+    <row r="640" spans="1:13" ht="29">
       <c r="A640" t="s">
         <v>120</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="30">
+    <row r="641" spans="1:13" ht="29">
       <c r="A641" t="s">
         <v>124</v>
       </c>
@@ -42238,7 +42238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="30">
+    <row r="642" spans="1:13" ht="29">
       <c r="A642" t="s">
         <v>127</v>
       </c>
@@ -42279,7 +42279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:13" ht="30">
+    <row r="643" spans="1:13" ht="29">
       <c r="A643" t="s">
         <v>131</v>
       </c>
@@ -42320,7 +42320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:13" ht="30">
+    <row r="644" spans="1:13" ht="29">
       <c r="A644" t="s">
         <v>135</v>
       </c>
@@ -42361,7 +42361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="30">
+    <row r="645" spans="1:13" ht="29">
       <c r="A645" t="s">
         <v>138</v>
       </c>
@@ -42402,7 +42402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="30">
+    <row r="646" spans="1:13" ht="29">
       <c r="A646" t="s">
         <v>142</v>
       </c>
@@ -42443,7 +42443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="30">
+    <row r="647" spans="1:13" ht="29">
       <c r="A647" t="s">
         <v>146</v>
       </c>
@@ -42484,7 +42484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="120">
+    <row r="648" spans="1:13" ht="116">
       <c r="A648" t="s">
         <v>182</v>
       </c>
@@ -42525,7 +42525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="30">
+    <row r="649" spans="1:13" ht="29">
       <c r="A649" t="s">
         <v>186</v>
       </c>
@@ -42566,7 +42566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="30">
+    <row r="650" spans="1:13" ht="29">
       <c r="A650" t="s">
         <v>190</v>
       </c>
@@ -42607,7 +42607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="30">
+    <row r="651" spans="1:13" ht="29">
       <c r="A651" t="s">
         <v>194</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="30">
+    <row r="652" spans="1:13" ht="29">
       <c r="A652" t="s">
         <v>198</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="30">
+    <row r="653" spans="1:13" ht="29">
       <c r="A653" t="s">
         <v>201</v>
       </c>
@@ -42730,7 +42730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="30">
+    <row r="654" spans="1:13" ht="29">
       <c r="A654" t="s">
         <v>227</v>
       </c>
@@ -42771,7 +42771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="655" spans="1:13" s="11" customFormat="1">
+    <row r="655" spans="1:13" s="11" customFormat="1" ht="15.5">
       <c r="A655" s="11">
         <v>1131</v>
       </c>
@@ -42812,7 +42812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="30">
+    <row r="656" spans="1:13" ht="29">
       <c r="A656" t="s">
         <v>241</v>
       </c>
@@ -42853,7 +42853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="30">
+    <row r="657" spans="1:13" ht="29">
       <c r="A657" t="s">
         <v>248</v>
       </c>
@@ -42894,7 +42894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="30">
+    <row r="658" spans="1:13" ht="29">
       <c r="A658" t="s">
         <v>255</v>
       </c>
@@ -42935,7 +42935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:13" ht="30">
+    <row r="659" spans="1:13" ht="29">
       <c r="A659" t="s">
         <v>262</v>
       </c>
@@ -43017,7 +43017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:13" ht="165">
+    <row r="661" spans="1:13" ht="145">
       <c r="A661" t="s">
         <v>282</v>
       </c>
@@ -43222,7 +43222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="30">
+    <row r="666" spans="1:13" ht="29">
       <c r="A666" t="s">
         <v>298</v>
       </c>
@@ -43263,7 +43263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="667" spans="1:13" ht="30">
+    <row r="667" spans="1:13" ht="29">
       <c r="A667" t="s">
         <v>306</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="30">
+    <row r="668" spans="1:13" ht="29">
       <c r="A668" t="s">
         <v>312</v>
       </c>
@@ -43386,7 +43386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:13" ht="30">
+    <row r="670" spans="1:13" ht="29">
       <c r="A670" t="s">
         <v>318</v>
       </c>
@@ -43427,7 +43427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:13" ht="30">
+    <row r="671" spans="1:13" ht="29">
       <c r="A671" t="s">
         <v>320</v>
       </c>
@@ -43468,7 +43468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="30">
+    <row r="672" spans="1:13" ht="29">
       <c r="A672" t="s">
         <v>321</v>
       </c>
@@ -43509,7 +43509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:13" ht="30">
+    <row r="673" spans="1:13" ht="29">
       <c r="A673" t="s">
         <v>322</v>
       </c>
@@ -43550,7 +43550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="674" spans="1:13" ht="30">
+    <row r="674" spans="1:13" ht="29">
       <c r="A674" t="s">
         <v>323</v>
       </c>
@@ -43591,7 +43591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="675" spans="1:13" ht="60">
+    <row r="675" spans="1:13" ht="58">
       <c r="A675" t="s">
         <v>324</v>
       </c>
@@ -43632,7 +43632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="676" spans="1:13" ht="30">
+    <row r="676" spans="1:13">
       <c r="A676" t="s">
         <v>332</v>
       </c>
@@ -43673,7 +43673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="677" spans="1:13" ht="30">
+    <row r="677" spans="1:13" ht="29">
       <c r="A677" t="s">
         <v>340</v>
       </c>
@@ -43919,7 +43919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:13" ht="30">
+    <row r="683" spans="1:13" ht="29">
       <c r="A683" t="s">
         <v>373</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:13" ht="30">
+    <row r="684" spans="1:13" ht="29">
       <c r="A684" t="s">
         <v>378</v>
       </c>
@@ -44001,7 +44001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="685" spans="1:13" ht="30">
+    <row r="685" spans="1:13">
       <c r="A685" t="s">
         <v>386</v>
       </c>
@@ -44083,7 +44083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="687" spans="1:13" ht="30">
+    <row r="687" spans="1:13" ht="29">
       <c r="A687" t="s">
         <v>401</v>
       </c>
@@ -44124,7 +44124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="688" spans="1:13" ht="30">
+    <row r="688" spans="1:13" ht="29">
       <c r="A688" t="s">
         <v>411</v>
       </c>
@@ -44165,7 +44165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:13" ht="45">
+    <row r="689" spans="1:13" ht="43.5">
       <c r="A689" t="s">
         <v>417</v>
       </c>
@@ -44206,7 +44206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="690" spans="1:13" ht="30">
+    <row r="690" spans="1:13" ht="29">
       <c r="A690" t="s">
         <v>425</v>
       </c>
@@ -44247,7 +44247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="691" spans="1:13" ht="30">
+    <row r="691" spans="1:13" ht="29">
       <c r="A691" t="s">
         <v>433</v>
       </c>
@@ -44288,7 +44288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="692" spans="1:13" ht="30">
+    <row r="692" spans="1:13" ht="29">
       <c r="A692" t="s">
         <v>443</v>
       </c>
@@ -44329,7 +44329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:13" ht="30">
+    <row r="693" spans="1:13" ht="29">
       <c r="A693" t="s">
         <v>448</v>
       </c>
@@ -44370,7 +44370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:13" ht="45">
+    <row r="694" spans="1:13" ht="29">
       <c r="A694" t="s">
         <v>456</v>
       </c>
@@ -44411,7 +44411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="30">
+    <row r="695" spans="1:13" ht="29">
       <c r="A695" t="s">
         <v>464</v>
       </c>
@@ -44452,7 +44452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:13" ht="45">
+    <row r="696" spans="1:13" ht="29">
       <c r="A696" t="s">
         <v>469</v>
       </c>
@@ -44493,7 +44493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:13" ht="60">
+    <row r="697" spans="1:13" ht="43.5">
       <c r="A697" t="s">
         <v>477</v>
       </c>
@@ -44534,7 +44534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:13" ht="45">
+    <row r="698" spans="1:13" ht="29">
       <c r="A698" t="s">
         <v>485</v>
       </c>
@@ -44616,7 +44616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:13" ht="30">
+    <row r="700" spans="1:13" ht="29">
       <c r="A700" t="s">
         <v>498</v>
       </c>
@@ -44657,7 +44657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="30">
+    <row r="701" spans="1:13" ht="29">
       <c r="A701" t="s">
         <v>506</v>
       </c>
@@ -44739,7 +44739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="703" spans="1:13" ht="30">
+    <row r="703" spans="1:13" ht="29">
       <c r="A703" t="s">
         <v>519</v>
       </c>
@@ -44780,7 +44780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="704" spans="1:13" ht="30">
+    <row r="704" spans="1:13" ht="29">
       <c r="A704" t="s">
         <v>527</v>
       </c>
@@ -44821,7 +44821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="705" spans="1:13" ht="30">
+    <row r="705" spans="1:13" ht="29">
       <c r="A705" t="s">
         <v>532</v>
       </c>
@@ -44862,7 +44862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="706" spans="1:13" ht="30">
+    <row r="706" spans="1:13" ht="29">
       <c r="A706" t="s">
         <v>540</v>
       </c>
@@ -44903,7 +44903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="30">
+    <row r="707" spans="1:13" ht="29">
       <c r="A707" t="s">
         <v>548</v>
       </c>
@@ -44944,7 +44944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:13" ht="30">
+    <row r="708" spans="1:13" ht="29">
       <c r="A708" t="s">
         <v>553</v>
       </c>
@@ -44985,7 +44985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="30">
+    <row r="709" spans="1:13" ht="29">
       <c r="A709" t="s">
         <v>561</v>
       </c>
@@ -45026,7 +45026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="710" spans="1:13" ht="30">
+    <row r="710" spans="1:13" ht="29">
       <c r="A710" t="s">
         <v>569</v>
       </c>
@@ -45067,7 +45067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="711" spans="1:13" ht="30">
+    <row r="711" spans="1:13" ht="29">
       <c r="A711" t="s">
         <v>576</v>
       </c>
@@ -45108,7 +45108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="712" spans="1:13" ht="30">
+    <row r="712" spans="1:13" ht="29">
       <c r="A712" t="s">
         <v>584</v>
       </c>
@@ -45149,7 +45149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="713" spans="1:13" ht="45">
+    <row r="713" spans="1:13" ht="29">
       <c r="A713" t="s">
         <v>592</v>
       </c>
@@ -45190,7 +45190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="714" spans="1:13" ht="30">
+    <row r="714" spans="1:13" ht="29">
       <c r="A714" t="s">
         <v>597</v>
       </c>
@@ -45231,7 +45231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="715" spans="1:13" ht="45">
+    <row r="715" spans="1:13" ht="43.5">
       <c r="A715" t="s">
         <v>605</v>
       </c>
@@ -45272,7 +45272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="716" spans="1:13" ht="45">
+    <row r="716" spans="1:13" ht="29">
       <c r="A716" t="s">
         <v>613</v>
       </c>
@@ -45313,7 +45313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:13" ht="30">
+    <row r="717" spans="1:13" ht="29">
       <c r="A717" t="s">
         <v>618</v>
       </c>
@@ -45354,7 +45354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:13" ht="30">
+    <row r="718" spans="1:13" ht="29">
       <c r="A718" t="s">
         <v>626</v>
       </c>
@@ -45395,7 +45395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:13" ht="30">
+    <row r="719" spans="1:13" ht="29">
       <c r="A719" t="s">
         <v>634</v>
       </c>
@@ -45436,7 +45436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="720" spans="1:13" ht="30">
+    <row r="720" spans="1:13" ht="29">
       <c r="A720" t="s">
         <v>639</v>
       </c>
@@ -45477,7 +45477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:13" ht="45">
+    <row r="721" spans="1:13" ht="43.5">
       <c r="A721" t="s">
         <v>647</v>
       </c>
@@ -45518,7 +45518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:13" ht="45">
+    <row r="722" spans="1:13" ht="43.5">
       <c r="A722" t="s">
         <v>655</v>
       </c>
@@ -45559,7 +45559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="723" spans="1:13" ht="30">
+    <row r="723" spans="1:13">
       <c r="A723" t="s">
         <v>660</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:13" ht="30">
+    <row r="724" spans="1:13" ht="29">
       <c r="A724" t="s">
         <v>668</v>
       </c>
@@ -45641,7 +45641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="725" spans="1:13" ht="30">
+    <row r="725" spans="1:13" ht="29">
       <c r="A725" t="s">
         <v>674</v>
       </c>
@@ -45723,7 +45723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="727" spans="1:13" ht="30">
+    <row r="727" spans="1:13" ht="29">
       <c r="A727" t="s">
         <v>687</v>
       </c>
@@ -45764,7 +45764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:13" ht="30">
+    <row r="728" spans="1:13" ht="29">
       <c r="A728" t="s">
         <v>695</v>
       </c>
@@ -45805,7 +45805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:13" ht="45">
+    <row r="729" spans="1:13" ht="43.5">
       <c r="A729" t="s">
         <v>700</v>
       </c>
@@ -45846,7 +45846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="730" spans="1:13" ht="45">
+    <row r="730" spans="1:13" ht="29">
       <c r="A730" t="s">
         <v>708</v>
       </c>
@@ -45887,7 +45887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="731" spans="1:13" ht="45">
+    <row r="731" spans="1:13" ht="43.5">
       <c r="A731" t="s">
         <v>716</v>
       </c>
@@ -45928,7 +45928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="732" spans="1:13" ht="30">
+    <row r="732" spans="1:13" ht="29">
       <c r="A732" t="s">
         <v>721</v>
       </c>
@@ -45969,7 +45969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="733" spans="1:13" ht="45">
+    <row r="733" spans="1:13" ht="29">
       <c r="A733" t="s">
         <v>729</v>
       </c>
@@ -46010,7 +46010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="734" spans="1:13" ht="30">
+    <row r="734" spans="1:13" ht="29">
       <c r="A734" t="s">
         <v>737</v>
       </c>
@@ -46051,7 +46051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:13" ht="30">
+    <row r="735" spans="1:13" ht="29">
       <c r="A735" t="s">
         <v>742</v>
       </c>
@@ -46092,7 +46092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="736" spans="1:13" ht="30">
+    <row r="736" spans="1:13" ht="29">
       <c r="A736" t="s">
         <v>749</v>
       </c>
@@ -46133,7 +46133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="30">
+    <row r="737" spans="1:13" ht="29">
       <c r="A737" t="s">
         <v>753</v>
       </c>
@@ -46174,7 +46174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:13" ht="30">
+    <row r="738" spans="1:13" ht="29">
       <c r="A738" t="s">
         <v>760</v>
       </c>
@@ -46215,7 +46215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="30">
+    <row r="739" spans="1:13" ht="29">
       <c r="A739" t="s">
         <v>764</v>
       </c>
@@ -46256,7 +46256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="30">
+    <row r="740" spans="1:13" ht="29">
       <c r="A740" t="s">
         <v>771</v>
       </c>
@@ -46297,7 +46297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="30">
+    <row r="741" spans="1:13" ht="29">
       <c r="A741" t="s">
         <v>775</v>
       </c>
@@ -46338,7 +46338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="742" spans="1:13" ht="30">
+    <row r="742" spans="1:13" ht="29">
       <c r="A742" t="s">
         <v>779</v>
       </c>
@@ -46379,7 +46379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="45">
+    <row r="743" spans="1:13" ht="29">
       <c r="A743" t="s">
         <v>783</v>
       </c>
@@ -46420,7 +46420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="744" spans="1:13" ht="30">
+    <row r="744" spans="1:13" ht="29">
       <c r="A744" t="s">
         <v>790</v>
       </c>
@@ -46461,7 +46461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="745" spans="1:13" ht="30">
+    <row r="745" spans="1:13" ht="29">
       <c r="A745" t="s">
         <v>794</v>
       </c>
@@ -46502,7 +46502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="746" spans="1:13" ht="30">
+    <row r="746" spans="1:13" ht="29">
       <c r="A746" t="s">
         <v>801</v>
       </c>
@@ -46543,7 +46543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="747" spans="1:13" ht="30">
+    <row r="747" spans="1:13" ht="29">
       <c r="A747" t="s">
         <v>805</v>
       </c>
@@ -46584,7 +46584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="748" spans="1:13" ht="45">
+    <row r="748" spans="1:13" ht="43.5">
       <c r="A748" t="s">
         <v>812</v>
       </c>
@@ -46625,7 +46625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="749" spans="1:13" ht="45">
+    <row r="749" spans="1:13" ht="43.5">
       <c r="A749" t="s">
         <v>816</v>
       </c>
@@ -46666,7 +46666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="750" spans="1:13" ht="45">
+    <row r="750" spans="1:13" ht="43.5">
       <c r="A750" t="s">
         <v>822</v>
       </c>
@@ -46707,7 +46707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="751" spans="1:13" ht="30">
+    <row r="751" spans="1:13" ht="29">
       <c r="A751" t="s">
         <v>829</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="752" spans="1:13" ht="30">
+    <row r="752" spans="1:13" ht="29">
       <c r="A752" t="s">
         <v>836</v>
       </c>
@@ -46789,7 +46789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="753" spans="1:13" ht="30">
+    <row r="753" spans="1:13" ht="29">
       <c r="A753" t="s">
         <v>843</v>
       </c>
@@ -46830,7 +46830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="45">
+    <row r="754" spans="1:13" ht="29">
       <c r="A754" t="s">
         <v>847</v>
       </c>
@@ -46871,7 +46871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="755" spans="1:13" ht="30">
+    <row r="755" spans="1:13" ht="29">
       <c r="A755" t="s">
         <v>854</v>
       </c>
@@ -46912,7 +46912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="756" spans="1:13" ht="30">
+    <row r="756" spans="1:13" ht="29">
       <c r="A756" t="s">
         <v>861</v>
       </c>
@@ -46953,7 +46953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="757" spans="1:13" ht="30">
+    <row r="757" spans="1:13" ht="29">
       <c r="A757" t="s">
         <v>868</v>
       </c>
@@ -46994,7 +46994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="758" spans="1:13" ht="30">
+    <row r="758" spans="1:13" ht="29">
       <c r="A758" t="s">
         <v>872</v>
       </c>
@@ -47035,7 +47035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="759" spans="1:13" ht="30">
+    <row r="759" spans="1:13" ht="29">
       <c r="A759" t="s">
         <v>879</v>
       </c>
@@ -47076,7 +47076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="760" spans="1:13" ht="30">
+    <row r="760" spans="1:13" ht="29">
       <c r="A760" t="s">
         <v>886</v>
       </c>
@@ -47117,7 +47117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="30">
+    <row r="761" spans="1:13" ht="29">
       <c r="A761" t="s">
         <v>890</v>
       </c>
@@ -47158,7 +47158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="762" spans="1:13" ht="30">
+    <row r="762" spans="1:13" ht="29">
       <c r="A762" t="s">
         <v>897</v>
       </c>
@@ -47199,7 +47199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="30">
+    <row r="763" spans="1:13" ht="29">
       <c r="A763" t="s">
         <v>904</v>
       </c>
@@ -47240,7 +47240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:13" ht="30">
+    <row r="764" spans="1:13" ht="29">
       <c r="A764" t="s">
         <v>910</v>
       </c>
@@ -47281,7 +47281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="765" spans="1:13" ht="30">
+    <row r="765" spans="1:13" ht="29">
       <c r="A765" t="s">
         <v>917</v>
       </c>
@@ -47322,7 +47322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="30">
+    <row r="766" spans="1:13" ht="29">
       <c r="A766" t="s">
         <v>924</v>
       </c>
@@ -47363,7 +47363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:13" ht="30">
+    <row r="767" spans="1:13" ht="29">
       <c r="A767" t="s">
         <v>928</v>
       </c>
@@ -47609,7 +47609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="773" spans="1:13" ht="30">
+    <row r="773" spans="1:13" ht="29">
       <c r="A773" t="s">
         <v>968</v>
       </c>
@@ -47773,7 +47773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="165">
+    <row r="777" spans="1:13" ht="145">
       <c r="A777" t="s">
         <v>1001</v>
       </c>
@@ -47814,7 +47814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:13" ht="135">
+    <row r="778" spans="1:13" ht="130.5">
       <c r="A778" t="s">
         <v>1010</v>
       </c>
@@ -47934,7 +47934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="781" spans="1:13" ht="45">
+    <row r="781" spans="1:13" ht="29">
       <c r="A781" t="s">
         <v>1029</v>
       </c>
@@ -47975,7 +47975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="782" spans="1:13" ht="30">
+    <row r="782" spans="1:13" ht="29">
       <c r="A782" t="s">
         <v>1034</v>
       </c>
@@ -48098,7 +48098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="785" spans="1:13" ht="30">
+    <row r="785" spans="1:13" ht="29">
       <c r="A785" t="s">
         <v>1049</v>
       </c>
@@ -48139,7 +48139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:13" ht="45">
+    <row r="786" spans="1:13" ht="43.5">
       <c r="A786" t="s">
         <v>1054</v>
       </c>
@@ -48180,7 +48180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:13" ht="30">
+    <row r="787" spans="1:13" ht="29">
       <c r="A787" s="6">
         <v>1281</v>
       </c>
@@ -48221,7 +48221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="788" spans="1:13" ht="44.1" customHeight="1">
+    <row r="788" spans="1:13" ht="44.15" customHeight="1">
       <c r="A788" t="s">
         <v>13</v>
       </c>
@@ -48262,7 +48262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="789" spans="1:13" ht="45">
+    <row r="789" spans="1:13" ht="43.5">
       <c r="A789" t="s">
         <v>24</v>
       </c>
@@ -48303,7 +48303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:13" ht="45">
+    <row r="790" spans="1:13" ht="43.5">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -48344,7 +48344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="791" spans="1:13" ht="150">
+    <row r="791" spans="1:13" ht="130.5">
       <c r="A791" t="s">
         <v>48</v>
       </c>
@@ -48385,7 +48385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="792" spans="1:13" ht="45">
+    <row r="792" spans="1:13" ht="29">
       <c r="A792" t="s">
         <v>53</v>
       </c>
@@ -48426,7 +48426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="793" spans="1:13" ht="105">
+    <row r="793" spans="1:13" ht="101.5">
       <c r="A793" t="s">
         <v>57</v>
       </c>
@@ -48467,7 +48467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="794" spans="1:13" ht="105">
+    <row r="794" spans="1:13" ht="101.5">
       <c r="A794" t="s">
         <v>61</v>
       </c>
@@ -48508,7 +48508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="795" spans="1:13" ht="45">
+    <row r="795" spans="1:13" ht="43.5">
       <c r="A795" t="s">
         <v>65</v>
       </c>
@@ -48549,7 +48549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="796" spans="1:13" ht="45">
+    <row r="796" spans="1:13" ht="43.5">
       <c r="A796" t="s">
         <v>69</v>
       </c>
@@ -48590,7 +48590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:13" ht="60">
+    <row r="797" spans="1:13" ht="58">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="798" spans="1:13" ht="60">
+    <row r="798" spans="1:13" ht="58">
       <c r="A798" t="s">
         <v>77</v>
       </c>
@@ -48672,7 +48672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="799" spans="1:13" ht="60">
+    <row r="799" spans="1:13" ht="58">
       <c r="A799" t="s">
         <v>115</v>
       </c>
@@ -48713,7 +48713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="800" spans="1:13" ht="60">
+    <row r="800" spans="1:13" ht="58">
       <c r="A800" t="s">
         <v>120</v>
       </c>
@@ -48754,7 +48754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="801" spans="1:13" ht="45">
+    <row r="801" spans="1:13" ht="43.5">
       <c r="A801" t="s">
         <v>124</v>
       </c>
@@ -48795,7 +48795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="802" spans="1:13" ht="75">
+    <row r="802" spans="1:13" ht="72.5">
       <c r="A802" t="s">
         <v>127</v>
       </c>
@@ -48836,7 +48836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:13" ht="75">
+    <row r="803" spans="1:13" ht="58">
       <c r="A803" t="s">
         <v>131</v>
       </c>
@@ -48877,7 +48877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="804" spans="1:13" ht="75">
+    <row r="804" spans="1:13" ht="72.5">
       <c r="A804" t="s">
         <v>135</v>
       </c>
@@ -48918,7 +48918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="805" spans="1:13" ht="105">
+    <row r="805" spans="1:13" ht="101.5">
       <c r="A805" t="s">
         <v>138</v>
       </c>
@@ -48959,7 +48959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="806" spans="1:13" ht="75">
+    <row r="806" spans="1:13" ht="72.5">
       <c r="A806" t="s">
         <v>142</v>
       </c>
@@ -49000,7 +49000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:13" ht="135">
+    <row r="807" spans="1:13" ht="116">
       <c r="A807" t="s">
         <v>146</v>
       </c>
@@ -49041,7 +49041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="808" spans="1:13" ht="180">
+    <row r="808" spans="1:13" ht="159.5">
       <c r="A808" t="s">
         <v>182</v>
       </c>
@@ -49082,7 +49082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="809" spans="1:13" ht="90">
+    <row r="809" spans="1:13" ht="87">
       <c r="A809" t="s">
         <v>186</v>
       </c>
@@ -49123,7 +49123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="810" spans="1:13" ht="75">
+    <row r="810" spans="1:13" ht="58">
       <c r="A810" t="s">
         <v>190</v>
       </c>
@@ -49164,7 +49164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="811" spans="1:13" ht="45">
+    <row r="811" spans="1:13" ht="43.5">
       <c r="A811" t="s">
         <v>194</v>
       </c>
@@ -49205,7 +49205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="812" spans="1:13" ht="60">
+    <row r="812" spans="1:13" ht="58">
       <c r="A812" t="s">
         <v>198</v>
       </c>
@@ -49246,7 +49246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:13" ht="120">
+    <row r="813" spans="1:13" ht="101.5">
       <c r="A813" t="s">
         <v>201</v>
       </c>
@@ -49287,7 +49287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="814" spans="1:13" ht="60">
+    <row r="814" spans="1:13" ht="58">
       <c r="A814" t="s">
         <v>227</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="815" spans="1:13" s="11" customFormat="1" ht="30">
+    <row r="815" spans="1:13" s="11" customFormat="1" ht="29">
       <c r="A815" s="11">
         <v>1131</v>
       </c>
@@ -49369,7 +49369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="816" spans="1:13" ht="30">
+    <row r="816" spans="1:13" ht="29">
       <c r="A816" t="s">
         <v>241</v>
       </c>
@@ -49410,7 +49410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="45">
+    <row r="817" spans="1:13" ht="43.5">
       <c r="A817" t="s">
         <v>248</v>
       </c>
@@ -49451,7 +49451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:13" ht="60">
+    <row r="818" spans="1:13" ht="43.5">
       <c r="A818" t="s">
         <v>255</v>
       </c>
@@ -49492,7 +49492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:13" ht="60">
+    <row r="819" spans="1:13" ht="58">
       <c r="A819" t="s">
         <v>262</v>
       </c>
@@ -49533,7 +49533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="820" spans="1:13" ht="45">
+    <row r="820" spans="1:13" ht="43.5">
       <c r="A820" t="s">
         <v>269</v>
       </c>
@@ -49574,7 +49574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="821" spans="1:13" ht="180">
+    <row r="821" spans="1:13" ht="174">
       <c r="A821" t="s">
         <v>282</v>
       </c>
@@ -49779,7 +49779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:13" ht="45">
+    <row r="826" spans="1:13" ht="29">
       <c r="A826" t="s">
         <v>298</v>
       </c>
@@ -49820,7 +49820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="30">
+    <row r="827" spans="1:13" ht="29">
       <c r="A827" t="s">
         <v>306</v>
       </c>
@@ -49861,7 +49861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="60">
+    <row r="828" spans="1:13" ht="58">
       <c r="A828" t="s">
         <v>312</v>
       </c>
@@ -49902,7 +49902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="30">
+    <row r="829" spans="1:13" ht="29">
       <c r="A829" t="s">
         <v>314</v>
       </c>
@@ -49943,7 +49943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="60">
+    <row r="830" spans="1:13" ht="58">
       <c r="A830" t="s">
         <v>318</v>
       </c>
@@ -49984,7 +49984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="60">
+    <row r="831" spans="1:13" ht="58">
       <c r="A831" t="s">
         <v>320</v>
       </c>
@@ -50025,7 +50025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="45">
+    <row r="832" spans="1:13" ht="29">
       <c r="A832" t="s">
         <v>321</v>
       </c>
@@ -50066,7 +50066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="60">
+    <row r="833" spans="1:13" ht="58">
       <c r="A833" t="s">
         <v>322</v>
       </c>
@@ -50107,7 +50107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="834" spans="1:13" ht="60">
+    <row r="834" spans="1:13" ht="58">
       <c r="A834" t="s">
         <v>323</v>
       </c>
@@ -50148,7 +50148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="1:13" ht="75">
+    <row r="835" spans="1:13" ht="58">
       <c r="A835" t="s">
         <v>324</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="45">
+    <row r="836" spans="1:13" ht="43.5">
       <c r="A836" t="s">
         <v>332</v>
       </c>
@@ -50230,7 +50230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="837" spans="1:13" ht="60">
+    <row r="837" spans="1:13" ht="58">
       <c r="A837" t="s">
         <v>340</v>
       </c>
@@ -50271,7 +50271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="838" spans="1:13" ht="30">
+    <row r="838" spans="1:13">
       <c r="A838" t="s">
         <v>348</v>
       </c>
@@ -50312,7 +50312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="30">
+    <row r="839" spans="1:13" ht="29">
       <c r="A839" t="s">
         <v>356</v>
       </c>
@@ -50476,7 +50476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="843" spans="1:13" ht="135">
+    <row r="843" spans="1:13" ht="116">
       <c r="A843" t="s">
         <v>373</v>
       </c>
@@ -50558,7 +50558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="845" spans="1:13" ht="45">
+    <row r="845" spans="1:13" ht="29">
       <c r="A845" t="s">
         <v>386</v>
       </c>
@@ -50640,7 +50640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="1:13" ht="60">
+    <row r="847" spans="1:13" ht="58">
       <c r="A847" t="s">
         <v>401</v>
       </c>
@@ -50681,7 +50681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="848" spans="1:13" ht="45">
+    <row r="848" spans="1:13" ht="43.5">
       <c r="A848" t="s">
         <v>411</v>
       </c>
@@ -50722,7 +50722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="849" spans="1:13" ht="90">
+    <row r="849" spans="1:13" ht="72.5">
       <c r="A849" t="s">
         <v>417</v>
       </c>
@@ -50763,7 +50763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="850" spans="1:13" ht="60">
+    <row r="850" spans="1:13" ht="43.5">
       <c r="A850" t="s">
         <v>425</v>
       </c>
@@ -50804,7 +50804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="851" spans="1:13" ht="60">
+    <row r="851" spans="1:13" ht="58">
       <c r="A851" t="s">
         <v>433</v>
       </c>
@@ -50845,7 +50845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="852" spans="1:13" ht="45">
+    <row r="852" spans="1:13" ht="43.5">
       <c r="A852" t="s">
         <v>443</v>
       </c>
@@ -50886,7 +50886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="75">
+    <row r="853" spans="1:13" ht="72.5">
       <c r="A853" t="s">
         <v>448</v>
       </c>
@@ -50927,7 +50927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="90">
+    <row r="854" spans="1:13" ht="87">
       <c r="A854" t="s">
         <v>456</v>
       </c>
@@ -50968,7 +50968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="855" spans="1:13" ht="75">
+    <row r="855" spans="1:13" ht="72.5">
       <c r="A855" t="s">
         <v>464</v>
       </c>
@@ -51009,7 +51009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:13" ht="60">
+    <row r="856" spans="1:13" ht="58">
       <c r="A856" t="s">
         <v>469</v>
       </c>
@@ -51050,7 +51050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="90">
+    <row r="857" spans="1:13" ht="87">
       <c r="A857" t="s">
         <v>477</v>
       </c>
@@ -51091,7 +51091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="858" spans="1:13" ht="60">
+    <row r="858" spans="1:13" ht="58">
       <c r="A858" t="s">
         <v>485</v>
       </c>
@@ -51132,7 +51132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="30">
+    <row r="859" spans="1:13" ht="29">
       <c r="A859" t="s">
         <v>490</v>
       </c>
@@ -51173,7 +51173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="860" spans="1:13" ht="60">
+    <row r="860" spans="1:13" ht="43.5">
       <c r="A860" t="s">
         <v>498</v>
       </c>
@@ -51214,7 +51214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:13" ht="45">
+    <row r="861" spans="1:13" ht="43.5">
       <c r="A861" t="s">
         <v>506</v>
       </c>
@@ -51255,7 +51255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="60">
+    <row r="862" spans="1:13" ht="58">
       <c r="A862" t="s">
         <v>511</v>
       </c>
@@ -51296,7 +51296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="60">
+    <row r="863" spans="1:13" ht="58">
       <c r="A863" t="s">
         <v>519</v>
       </c>
@@ -51337,7 +51337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="864" spans="1:13" ht="45">
+    <row r="864" spans="1:13" ht="29">
       <c r="A864" t="s">
         <v>527</v>
       </c>
@@ -51378,7 +51378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="865" spans="1:13" ht="60">
+    <row r="865" spans="1:13" ht="58">
       <c r="A865" t="s">
         <v>532</v>
       </c>
@@ -51419,7 +51419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="866" spans="1:13" ht="75">
+    <row r="866" spans="1:13" ht="72.5">
       <c r="A866" t="s">
         <v>540</v>
       </c>
@@ -51460,7 +51460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="867" spans="1:13" ht="45">
+    <row r="867" spans="1:13" ht="43.5">
       <c r="A867" t="s">
         <v>548</v>
       </c>
@@ -51501,7 +51501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="868" spans="1:13" ht="75">
+    <row r="868" spans="1:13" ht="43.5">
       <c r="A868" t="s">
         <v>553</v>
       </c>
@@ -51542,7 +51542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="869" spans="1:13" ht="75">
+    <row r="869" spans="1:13" ht="72.5">
       <c r="A869" t="s">
         <v>561</v>
       </c>
@@ -51583,7 +51583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:13" ht="60">
+    <row r="870" spans="1:13" ht="58">
       <c r="A870" t="s">
         <v>569</v>
       </c>
@@ -51624,7 +51624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:13" ht="45">
+    <row r="871" spans="1:13" ht="43.5">
       <c r="A871" t="s">
         <v>576</v>
       </c>
@@ -51665,7 +51665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="872" spans="1:13" ht="60">
+    <row r="872" spans="1:13" ht="58">
       <c r="A872" t="s">
         <v>584</v>
       </c>
@@ -51706,7 +51706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="873" spans="1:13" ht="30">
+    <row r="873" spans="1:13" ht="29">
       <c r="A873" t="s">
         <v>592</v>
       </c>
@@ -51747,7 +51747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="874" spans="1:13" ht="60">
+    <row r="874" spans="1:13" ht="43.5">
       <c r="A874" t="s">
         <v>597</v>
       </c>
@@ -51788,7 +51788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:13" ht="90">
+    <row r="875" spans="1:13" ht="72.5">
       <c r="A875" t="s">
         <v>605</v>
       </c>
@@ -51829,7 +51829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="876" spans="1:13" ht="75">
+    <row r="876" spans="1:13" ht="58">
       <c r="A876" t="s">
         <v>613</v>
       </c>
@@ -51870,7 +51870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="877" spans="1:13" ht="60">
+    <row r="877" spans="1:13" ht="43.5">
       <c r="A877" t="s">
         <v>618</v>
       </c>
@@ -51911,7 +51911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:13" ht="60">
+    <row r="878" spans="1:13" ht="58">
       <c r="A878" t="s">
         <v>626</v>
       </c>
@@ -51952,7 +51952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="879" spans="1:13" ht="45">
+    <row r="879" spans="1:13" ht="43.5">
       <c r="A879" t="s">
         <v>634</v>
       </c>
@@ -51993,7 +51993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="880" spans="1:13" ht="75">
+    <row r="880" spans="1:13" ht="72.5">
       <c r="A880" t="s">
         <v>639</v>
       </c>
@@ -52034,7 +52034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="881" spans="1:13" ht="90">
+    <row r="881" spans="1:13" ht="72.5">
       <c r="A881" t="s">
         <v>647</v>
       </c>
@@ -52075,7 +52075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="1:13" ht="60">
+    <row r="882" spans="1:13" ht="58">
       <c r="A882" t="s">
         <v>655</v>
       </c>
@@ -52116,7 +52116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="883" spans="1:13" ht="45">
+    <row r="883" spans="1:13" ht="29">
       <c r="A883" t="s">
         <v>660</v>
       </c>
@@ -52157,7 +52157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:13" ht="60">
+    <row r="884" spans="1:13" ht="43.5">
       <c r="A884" t="s">
         <v>668</v>
       </c>
@@ -52198,7 +52198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="45">
+    <row r="885" spans="1:13" ht="29">
       <c r="A885" t="s">
         <v>674</v>
       </c>
@@ -52239,7 +52239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="886" spans="1:13" ht="45">
+    <row r="886" spans="1:13" ht="43.5">
       <c r="A886" t="s">
         <v>679</v>
       </c>
@@ -52280,7 +52280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="887" spans="1:13" ht="60">
+    <row r="887" spans="1:13" ht="43.5">
       <c r="A887" t="s">
         <v>687</v>
       </c>
@@ -52321,7 +52321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="888" spans="1:13" ht="45">
+    <row r="888" spans="1:13" ht="29">
       <c r="A888" t="s">
         <v>695</v>
       </c>
@@ -52362,7 +52362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="889" spans="1:13" ht="75">
+    <row r="889" spans="1:13" ht="72.5">
       <c r="A889" t="s">
         <v>700</v>
       </c>
@@ -52403,7 +52403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="890" spans="1:13" ht="75">
+    <row r="890" spans="1:13" ht="72.5">
       <c r="A890" t="s">
         <v>708</v>
       </c>
@@ -52444,7 +52444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:13" ht="60">
+    <row r="891" spans="1:13" ht="58">
       <c r="A891" t="s">
         <v>716</v>
       </c>
@@ -52485,7 +52485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="60">
+    <row r="892" spans="1:13" ht="43.5">
       <c r="A892" t="s">
         <v>721</v>
       </c>
@@ -52526,7 +52526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="893" spans="1:13" ht="75">
+    <row r="893" spans="1:13" ht="72.5">
       <c r="A893" t="s">
         <v>729</v>
       </c>
@@ -52567,7 +52567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="894" spans="1:13" ht="45">
+    <row r="894" spans="1:13" ht="43.5">
       <c r="A894" t="s">
         <v>737</v>
       </c>
@@ -52608,7 +52608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="895" spans="1:13" ht="60">
+    <row r="895" spans="1:13" ht="58">
       <c r="A895" t="s">
         <v>742</v>
       </c>
@@ -52649,7 +52649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="896" spans="1:13" ht="45">
+    <row r="896" spans="1:13" ht="43.5">
       <c r="A896" t="s">
         <v>749</v>
       </c>
@@ -52690,7 +52690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="897" spans="1:13" ht="90">
+    <row r="897" spans="1:13" ht="72.5">
       <c r="A897" t="s">
         <v>753</v>
       </c>
@@ -52731,7 +52731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="898" spans="1:13" ht="90">
+    <row r="898" spans="1:13" ht="72.5">
       <c r="A898" t="s">
         <v>760</v>
       </c>
@@ -52772,7 +52772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="899" spans="1:13" ht="90">
+    <row r="899" spans="1:13" ht="72.5">
       <c r="A899" t="s">
         <v>764</v>
       </c>
@@ -52813,7 +52813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:13" ht="90">
+    <row r="900" spans="1:13" ht="72.5">
       <c r="A900" t="s">
         <v>771</v>
       </c>
@@ -52854,7 +52854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="901" spans="1:13" ht="90">
+    <row r="901" spans="1:13" ht="72.5">
       <c r="A901" t="s">
         <v>775</v>
       </c>
@@ -52895,7 +52895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="902" spans="1:13" ht="90">
+    <row r="902" spans="1:13" ht="72.5">
       <c r="A902" t="s">
         <v>779</v>
       </c>
@@ -52936,7 +52936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="903" spans="1:13" ht="75">
+    <row r="903" spans="1:13" ht="72.5">
       <c r="A903" t="s">
         <v>783</v>
       </c>
@@ -52977,7 +52977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:13" ht="75">
+    <row r="904" spans="1:13" ht="72.5">
       <c r="A904" t="s">
         <v>790</v>
       </c>
@@ -53018,7 +53018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="905" spans="1:13" ht="75">
+    <row r="905" spans="1:13" ht="72.5">
       <c r="A905" t="s">
         <v>794</v>
       </c>
@@ -53059,7 +53059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:13" ht="75">
+    <row r="906" spans="1:13" ht="72.5">
       <c r="A906" t="s">
         <v>801</v>
       </c>
@@ -53100,7 +53100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="907" spans="1:13" ht="90">
+    <row r="907" spans="1:13" ht="72.5">
       <c r="A907" t="s">
         <v>805</v>
       </c>
@@ -53141,7 +53141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="908" spans="1:13" ht="90">
+    <row r="908" spans="1:13" ht="72.5">
       <c r="A908" t="s">
         <v>812</v>
       </c>
@@ -53182,7 +53182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="909" spans="1:13" ht="45">
+    <row r="909" spans="1:13" ht="43.5">
       <c r="A909" t="s">
         <v>816</v>
       </c>
@@ -53223,7 +53223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="910" spans="1:13" ht="90">
+    <row r="910" spans="1:13" ht="87">
       <c r="A910" t="s">
         <v>822</v>
       </c>
@@ -53264,7 +53264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="911" spans="1:13" ht="45">
+    <row r="911" spans="1:13" ht="43.5">
       <c r="A911" t="s">
         <v>829</v>
       </c>
@@ -53305,7 +53305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="912" spans="1:13" ht="60">
+    <row r="912" spans="1:13" ht="58">
       <c r="A912" t="s">
         <v>836</v>
       </c>
@@ -53346,7 +53346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="913" spans="1:13" ht="75">
+    <row r="913" spans="1:13" ht="58">
       <c r="A913" t="s">
         <v>843</v>
       </c>
@@ -53387,7 +53387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="914" spans="1:13" ht="105">
+    <row r="914" spans="1:13" ht="87">
       <c r="A914" t="s">
         <v>847</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="915" spans="1:13" ht="75">
+    <row r="915" spans="1:13" ht="43.5">
       <c r="A915" t="s">
         <v>854</v>
       </c>
@@ -53469,7 +53469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="916" spans="1:13" ht="45">
+    <row r="916" spans="1:13" ht="43.5">
       <c r="A916" t="s">
         <v>861</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="917" spans="1:13" ht="45">
+    <row r="917" spans="1:13" ht="43.5">
       <c r="A917" t="s">
         <v>868</v>
       </c>
@@ -53551,7 +53551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:13" ht="75">
+    <row r="918" spans="1:13" ht="72.5">
       <c r="A918" t="s">
         <v>872</v>
       </c>
@@ -53592,7 +53592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="919" spans="1:13" ht="60">
+    <row r="919" spans="1:13" ht="58">
       <c r="A919" t="s">
         <v>879</v>
       </c>
@@ -53633,7 +53633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="920" spans="1:13" ht="60">
+    <row r="920" spans="1:13" ht="58">
       <c r="A920" t="s">
         <v>886</v>
       </c>
@@ -53674,7 +53674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="921" spans="1:13" ht="75">
+    <row r="921" spans="1:13" ht="58">
       <c r="A921" t="s">
         <v>890</v>
       </c>
@@ -53715,7 +53715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="922" spans="1:13" ht="60">
+    <row r="922" spans="1:13" ht="58">
       <c r="A922" t="s">
         <v>897</v>
       </c>
@@ -53756,7 +53756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="923" spans="1:13" ht="60">
+    <row r="923" spans="1:13" ht="58">
       <c r="A923" t="s">
         <v>904</v>
       </c>
@@ -53797,7 +53797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="924" spans="1:13" ht="75">
+    <row r="924" spans="1:13" ht="58">
       <c r="A924" t="s">
         <v>910</v>
       </c>
@@ -53838,7 +53838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="925" spans="1:13" ht="45">
+    <row r="925" spans="1:13" ht="43.5">
       <c r="A925" t="s">
         <v>917</v>
       </c>
@@ -53879,7 +53879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="926" spans="1:13" ht="45">
+    <row r="926" spans="1:13" ht="43.5">
       <c r="A926" t="s">
         <v>924</v>
       </c>
@@ -53920,7 +53920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="927" spans="1:13" ht="35.85" customHeight="1">
+    <row r="927" spans="1:13" ht="35.9" customHeight="1">
       <c r="A927" t="s">
         <v>928</v>
       </c>
@@ -54125,7 +54125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="932" spans="1:13" ht="30">
+    <row r="932" spans="1:13" ht="29">
       <c r="A932" t="s">
         <v>964</v>
       </c>
@@ -54166,7 +54166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="933" spans="1:13" ht="30">
+    <row r="933" spans="1:13" ht="29">
       <c r="A933" t="s">
         <v>968</v>
       </c>
@@ -54207,7 +54207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="30">
+    <row r="934" spans="1:13" ht="29">
       <c r="A934" t="s">
         <v>972</v>
       </c>
@@ -54248,7 +54248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:13" ht="105">
+    <row r="935" spans="1:13" ht="101.5">
       <c r="A935" t="s">
         <v>976</v>
       </c>
@@ -54289,7 +54289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="120">
+    <row r="936" spans="1:13" ht="116">
       <c r="A936" t="s">
         <v>980</v>
       </c>
@@ -54330,7 +54330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="937" spans="1:13" ht="240">
+    <row r="937" spans="1:13" ht="217.5">
       <c r="A937" t="s">
         <v>1001</v>
       </c>
@@ -54371,7 +54371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="938" spans="1:13" ht="195">
+    <row r="938" spans="1:13" ht="188.5">
       <c r="A938" t="s">
         <v>1010</v>
       </c>
@@ -54783,10 +54783,10 @@
         <v>1282</v>
       </c>
       <c r="B948" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C948" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D948" t="s">
         <v>15</v>
@@ -54795,7 +54795,7 @@
         <v>16</v>
       </c>
       <c r="F948" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G948">
         <v>10002</v>
@@ -54804,7 +54804,7 @@
         <v>118</v>
       </c>
       <c r="I948" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J948" t="s">
         <v>20</v>
@@ -54824,10 +54824,10 @@
         <v>1283</v>
       </c>
       <c r="B949" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C949" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D949" t="s">
         <v>15</v>
@@ -54836,7 +54836,7 @@
         <v>16</v>
       </c>
       <c r="F949" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G949">
         <v>10002</v>
@@ -54845,7 +54845,7 @@
         <v>118</v>
       </c>
       <c r="I949" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J949" t="s">
         <v>35</v>
@@ -54865,10 +54865,10 @@
         <v>1284</v>
       </c>
       <c r="B950" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C950" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="D950" t="s">
         <v>15</v>
@@ -54877,7 +54877,7 @@
         <v>16</v>
       </c>
       <c r="F950" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="G950">
         <v>10002</v>
@@ -54886,7 +54886,7 @@
         <v>118</v>
       </c>
       <c r="I950" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="J950" t="s">
         <v>43</v>
@@ -54901,15 +54901,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="951" spans="1:13" ht="240">
+    <row r="951" spans="1:13" ht="217.5">
       <c r="A951">
         <v>1244</v>
       </c>
       <c r="B951" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C951" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D951" t="s">
         <v>15</v>
@@ -54918,7 +54918,7 @@
         <v>16</v>
       </c>
       <c r="F951" s="16" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="G951">
         <v>10006</v>
@@ -54927,7 +54927,7 @@
         <v>404</v>
       </c>
       <c r="I951" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J951" t="s">
         <v>20</v>
@@ -54942,15 +54942,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="952" spans="1:13" ht="180">
+    <row r="952" spans="1:13" ht="159.5">
       <c r="A952">
         <v>1244</v>
       </c>
       <c r="B952" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C952" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D952" t="s">
         <v>15</v>
@@ -54959,7 +54959,7 @@
         <v>16</v>
       </c>
       <c r="F952" s="16" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="G952">
         <v>10006</v>
@@ -54968,7 +54968,7 @@
         <v>404</v>
       </c>
       <c r="I952" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J952" t="s">
         <v>43</v>
@@ -54983,15 +54983,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="953" spans="1:13" ht="240">
+    <row r="953" spans="1:13" ht="217.5">
       <c r="A953">
         <v>1244</v>
       </c>
       <c r="B953" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C953" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D953" t="s">
         <v>15</v>
@@ -55000,7 +55000,7 @@
         <v>16</v>
       </c>
       <c r="F953" s="16" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="G953">
         <v>10006</v>
@@ -55009,7 +55009,7 @@
         <v>404</v>
       </c>
       <c r="I953" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J953" t="s">
         <v>35</v>
@@ -55024,15 +55024,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="954" spans="1:13" ht="240">
+    <row r="954" spans="1:13" ht="217.5">
       <c r="A954">
         <v>1244</v>
       </c>
       <c r="B954" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C954" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D954" t="s">
         <v>15</v>
@@ -55041,7 +55041,7 @@
         <v>16</v>
       </c>
       <c r="F954" s="16" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="G954">
         <v>10006</v>
@@ -55050,7 +55050,7 @@
         <v>404</v>
       </c>
       <c r="I954" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J954" t="s">
         <v>1333</v>
@@ -55065,15 +55065,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="955" spans="1:13" ht="315">
+    <row r="955" spans="1:13" ht="290">
       <c r="A955">
         <v>1244</v>
       </c>
       <c r="B955" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C955" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D955" t="s">
         <v>15</v>
@@ -55082,7 +55082,7 @@
         <v>16</v>
       </c>
       <c r="F955" s="16" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="G955">
         <v>10006</v>
@@ -55091,7 +55091,7 @@
         <v>404</v>
       </c>
       <c r="I955" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J955" t="s">
         <v>1066</v>
@@ -55106,15 +55106,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="956" spans="1:13" ht="390">
+    <row r="956" spans="1:13" ht="348">
       <c r="A956">
         <v>1244</v>
       </c>
       <c r="B956" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="C956" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D956" t="s">
         <v>15</v>
@@ -55123,7 +55123,7 @@
         <v>16</v>
       </c>
       <c r="F956" s="16" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="G956">
         <v>10006</v>
@@ -55132,7 +55132,7 @@
         <v>404</v>
       </c>
       <c r="I956" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="J956" t="s">
         <v>1612</v>
@@ -55147,15 +55147,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="957" spans="1:13" ht="210">
+    <row r="957" spans="1:13" ht="188.5">
       <c r="A957">
         <v>1245</v>
       </c>
       <c r="B957" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C957" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D957" t="s">
         <v>15</v>
@@ -55164,7 +55164,7 @@
         <v>16</v>
       </c>
       <c r="F957" s="16" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="G957">
         <v>10006</v>
@@ -55173,7 +55173,7 @@
         <v>404</v>
       </c>
       <c r="I957" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J957" t="s">
         <v>20</v>
@@ -55188,15 +55188,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="958" spans="1:13" ht="150">
+    <row r="958" spans="1:13" ht="130.5">
       <c r="A958">
         <v>1245</v>
       </c>
       <c r="B958" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C958" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D958" t="s">
         <v>15</v>
@@ -55205,7 +55205,7 @@
         <v>16</v>
       </c>
       <c r="F958" s="16" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="G958">
         <v>10006</v>
@@ -55214,7 +55214,7 @@
         <v>404</v>
       </c>
       <c r="I958" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J958" t="s">
         <v>43</v>
@@ -55229,15 +55229,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="959" spans="1:13" ht="210">
+    <row r="959" spans="1:13" ht="188.5">
       <c r="A959">
         <v>1245</v>
       </c>
       <c r="B959" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C959" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D959" t="s">
         <v>15</v>
@@ -55246,7 +55246,7 @@
         <v>16</v>
       </c>
       <c r="F959" s="16" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="G959">
         <v>10006</v>
@@ -55255,7 +55255,7 @@
         <v>404</v>
       </c>
       <c r="I959" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J959" t="s">
         <v>35</v>
@@ -55270,15 +55270,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="960" spans="1:13" ht="210">
+    <row r="960" spans="1:13" ht="188.5">
       <c r="A960">
         <v>1245</v>
       </c>
       <c r="B960" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C960" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D960" t="s">
         <v>15</v>
@@ -55287,7 +55287,7 @@
         <v>16</v>
       </c>
       <c r="F960" s="16" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="G960">
         <v>10006</v>
@@ -55296,7 +55296,7 @@
         <v>404</v>
       </c>
       <c r="I960" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J960" t="s">
         <v>1333</v>
@@ -55311,15 +55311,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="961" spans="1:13" ht="285">
+    <row r="961" spans="1:13" ht="261">
       <c r="A961">
         <v>1245</v>
       </c>
       <c r="B961" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C961" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D961" t="s">
         <v>15</v>
@@ -55328,7 +55328,7 @@
         <v>16</v>
       </c>
       <c r="F961" s="16" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="G961">
         <v>10006</v>
@@ -55337,7 +55337,7 @@
         <v>404</v>
       </c>
       <c r="I961" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J961" t="s">
         <v>1066</v>
@@ -55352,15 +55352,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="962" spans="1:13" ht="345">
+    <row r="962" spans="1:13" ht="319">
       <c r="A962">
         <v>1245</v>
       </c>
       <c r="B962" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="C962" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="D962" t="s">
         <v>15</v>
@@ -55369,7 +55369,7 @@
         <v>16</v>
       </c>
       <c r="F962" s="16" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="G962">
         <v>10006</v>
@@ -55378,7 +55378,7 @@
         <v>404</v>
       </c>
       <c r="I962" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="J962" t="s">
         <v>1612</v>
@@ -55393,15 +55393,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="963" spans="1:13" ht="105">
+    <row r="963" spans="1:13" ht="101.5">
       <c r="A963">
         <v>1246</v>
       </c>
       <c r="B963" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C963" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D963" t="s">
         <v>15</v>
@@ -55410,7 +55410,7 @@
         <v>16</v>
       </c>
       <c r="F963" s="16" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="G963">
         <v>10006</v>
@@ -55419,7 +55419,7 @@
         <v>404</v>
       </c>
       <c r="I963" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J963" t="s">
         <v>20</v>
@@ -55434,15 +55434,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="964" spans="1:13" ht="90">
+    <row r="964" spans="1:13" ht="87">
       <c r="A964">
         <v>1246</v>
       </c>
       <c r="B964" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C964" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D964" t="s">
         <v>15</v>
@@ -55451,7 +55451,7 @@
         <v>16</v>
       </c>
       <c r="F964" s="16" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="G964">
         <v>10006</v>
@@ -55460,7 +55460,7 @@
         <v>404</v>
       </c>
       <c r="I964" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J964" t="s">
         <v>43</v>
@@ -55475,15 +55475,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="965" spans="1:13" ht="135">
+    <row r="965" spans="1:13" ht="116">
       <c r="A965">
         <v>1246</v>
       </c>
       <c r="B965" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C965" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D965" t="s">
         <v>15</v>
@@ -55492,7 +55492,7 @@
         <v>16</v>
       </c>
       <c r="F965" s="16" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="G965">
         <v>10006</v>
@@ -55501,7 +55501,7 @@
         <v>404</v>
       </c>
       <c r="I965" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J965" t="s">
         <v>35</v>
@@ -55516,15 +55516,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="966" spans="1:13" ht="135">
+    <row r="966" spans="1:13" ht="101.5">
       <c r="A966">
         <v>1246</v>
       </c>
       <c r="B966" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C966" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D966" t="s">
         <v>15</v>
@@ -55533,7 +55533,7 @@
         <v>16</v>
       </c>
       <c r="F966" s="16" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="G966">
         <v>10006</v>
@@ -55542,7 +55542,7 @@
         <v>404</v>
       </c>
       <c r="I966" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J966" t="s">
         <v>1333</v>
@@ -55557,15 +55557,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="967" spans="1:13" ht="165">
+    <row r="967" spans="1:13" ht="145">
       <c r="A967">
         <v>1246</v>
       </c>
       <c r="B967" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C967" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D967" t="s">
         <v>15</v>
@@ -55574,7 +55574,7 @@
         <v>16</v>
       </c>
       <c r="F967" s="16" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="G967">
         <v>10006</v>
@@ -55583,7 +55583,7 @@
         <v>404</v>
       </c>
       <c r="I967" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J967" t="s">
         <v>1066</v>
@@ -55598,15 +55598,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="968" spans="1:13" ht="195">
+    <row r="968" spans="1:13" ht="174">
       <c r="A968">
         <v>1246</v>
       </c>
       <c r="B968" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="C968" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="D968" t="s">
         <v>15</v>
@@ -55615,7 +55615,7 @@
         <v>16</v>
       </c>
       <c r="F968" s="16" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="G968">
         <v>10006</v>
@@ -55624,7 +55624,7 @@
         <v>404</v>
       </c>
       <c r="I968" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="J968" t="s">
         <v>1612</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC38CA4-130E-45D4-905B-EC1A95DBCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25A297-0032-4BEB-BFD0-9FB152E47036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14757" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16341" uniqueCount="2122">
   <si>
     <t>id</t>
   </si>
@@ -16236,6 +16236,150 @@
 &lt;/div&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Request received sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>Failure sms to customize and download my card</t>
+  </si>
+  <si>
+    <t>Request received sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Success sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure sms to order a physical card</t>
+  </si>
+  <si>
+    <t>Request received sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure sms to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Request received sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure sms to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Request received sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure sms to self update demographic data</t>
+  </si>
+  <si>
+    <t>Request received sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure sms to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Request received sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure sms to get my UIN card</t>
+  </si>
+  <si>
+    <t>Request received sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure sms to verify my phone and email</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success_SMS</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success_SMS</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success_SMS</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success_SMS</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-success_SMS</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success_SMS</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success_SMS</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success_SMS</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure_SMS</t>
   </si>
 </sst>
 </file>
@@ -16703,10 +16847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1257"/>
+  <dimension ref="A1:M1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1259" sqref="E1259"/>
+    <sheetView tabSelected="1" topLeftCell="D1392" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1403" sqref="H1403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -68249,6 +68393,5910 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1258" spans="1:13" ht="60">
+      <c r="A1258">
+        <v>1296</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1258" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1258">
+        <v>10006</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1258" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:13" ht="105">
+      <c r="A1259">
+        <v>1297</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1259" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G1259">
+        <v>10006</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1259" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:13" ht="90">
+      <c r="A1260">
+        <v>1298</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1260" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1260">
+        <v>10006</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1260" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1260" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:13" ht="45">
+      <c r="A1261">
+        <v>1296</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1261" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1261">
+        <v>10006</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:13" ht="90">
+      <c r="A1262">
+        <v>1297</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1262" s="16" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G1262">
+        <v>10006</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1262" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:13" ht="90">
+      <c r="A1263">
+        <v>1298</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1263" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1263">
+        <v>10006</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1263" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:13" ht="60">
+      <c r="A1264">
+        <v>1296</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1264" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1264">
+        <v>10006</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1264" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:13" ht="120">
+      <c r="A1265">
+        <v>1297</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1265" s="16" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G1265">
+        <v>10006</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1265" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:13" ht="90">
+      <c r="A1266">
+        <v>1298</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1266" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1266">
+        <v>10006</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1266" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1266" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:13" ht="60">
+      <c r="A1267">
+        <v>1296</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1267" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1267">
+        <v>10006</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1267" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1267" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:13" ht="120">
+      <c r="A1268">
+        <v>1297</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1268" s="16" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G1268">
+        <v>10006</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1268" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1268" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1268" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:13" ht="90">
+      <c r="A1269">
+        <v>1298</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1269" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1269">
+        <v>10006</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1269" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:13" ht="60">
+      <c r="A1270">
+        <v>1296</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1270" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1270">
+        <v>10006</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1270" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1270" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1270" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:13" ht="120">
+      <c r="A1271">
+        <v>1297</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1271" s="16" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G1271">
+        <v>10006</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1271" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1271" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1271" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:13" ht="90">
+      <c r="A1272">
+        <v>1298</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1272" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1272">
+        <v>10006</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1272" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1272" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:13" ht="60">
+      <c r="A1273">
+        <v>1296</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1273" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1273">
+        <v>10006</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J1273" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1273" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1273" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:13" ht="150">
+      <c r="A1274">
+        <v>1297</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1274" s="16" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G1274">
+        <v>10006</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J1274" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1274" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1274" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1274" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:13" ht="120">
+      <c r="A1275">
+        <v>1298</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1275" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1275">
+        <v>10006</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J1275" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1275" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1275" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:13" ht="60">
+      <c r="A1276">
+        <v>1299</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1276" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1276">
+        <v>10006</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1276" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1276" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1276" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1276" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:13" ht="120">
+      <c r="A1277">
+        <v>1300</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1277" s="16" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G1277">
+        <v>10006</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1277" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1277" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1277" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1277" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:13" ht="90">
+      <c r="A1278">
+        <v>1301</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1278" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1278">
+        <v>10006</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1278" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1278" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1278" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1278" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:13" ht="45">
+      <c r="A1279">
+        <v>1299</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1279" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1279">
+        <v>10006</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1279" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1279" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:13" ht="105">
+      <c r="A1280">
+        <v>1300</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1280" s="16" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G1280">
+        <v>10006</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1280" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1280" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1280" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:13" ht="90">
+      <c r="A1281">
+        <v>1301</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1281" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1281">
+        <v>10006</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1281" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1281" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:13" ht="60">
+      <c r="A1282">
+        <v>1299</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1282" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1282">
+        <v>10006</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1282" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1282" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:13" ht="150">
+      <c r="A1283">
+        <v>1300</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1283" s="16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G1283">
+        <v>10006</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1283" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1283" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1283" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:13" ht="90">
+      <c r="A1284">
+        <v>1301</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1284" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1284">
+        <v>10006</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1284" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1284" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1284" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1284" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:13" ht="60">
+      <c r="A1285">
+        <v>1299</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1285" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1285">
+        <v>10006</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1285" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1285" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1285" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1285" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:13" ht="150">
+      <c r="A1286">
+        <v>1300</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1286" s="16" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G1286">
+        <v>10006</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1286" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1286" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1286" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:13" ht="90">
+      <c r="A1287">
+        <v>1301</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1287" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1287">
+        <v>10006</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1287" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1287" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1287" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1287" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:13" ht="60">
+      <c r="A1288">
+        <v>1299</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1288" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1288">
+        <v>10006</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1288" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1288" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1288" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1288" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:13" ht="150">
+      <c r="A1289">
+        <v>1300</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1289" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G1289">
+        <v>10006</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1289" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1289" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1289" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1289" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:13" ht="90">
+      <c r="A1290">
+        <v>1301</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1290" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1290">
+        <v>10006</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1290" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1290" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1290" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:13" ht="60">
+      <c r="A1291">
+        <v>1299</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1291" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1291">
+        <v>10006</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J1291" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1291" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1291" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:13" ht="210">
+      <c r="A1292">
+        <v>1300</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1292" s="16" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G1292">
+        <v>10006</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1292" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1292" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1292" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:13" ht="120">
+      <c r="A1293">
+        <v>1301</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1293" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1293">
+        <v>10006</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J1293" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1293" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1293" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:13" ht="60">
+      <c r="A1294">
+        <v>1302</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1294" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1294">
+        <v>10006</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1294" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1294" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1294" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:13" ht="90">
+      <c r="A1295">
+        <v>1303</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1295" s="16" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G1295">
+        <v>10006</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1295" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1295" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1295" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:13" ht="90">
+      <c r="A1296">
+        <v>1304</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1296" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1296">
+        <v>10006</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1296" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1296" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1296" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:13" ht="45">
+      <c r="A1297">
+        <v>1302</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1297" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1297">
+        <v>10006</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1297" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1297" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1297" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:13" ht="90">
+      <c r="A1298">
+        <v>1303</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1298" s="16" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G1298">
+        <v>10006</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1298" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1298" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1298" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:13" ht="90">
+      <c r="A1299">
+        <v>1304</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1299" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1299">
+        <v>10006</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1299" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1299" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1299" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:13" ht="60">
+      <c r="A1300">
+        <v>1302</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1300" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1300">
+        <v>10006</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1300" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:13" ht="105">
+      <c r="A1301">
+        <v>1303</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1301" s="16" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G1301">
+        <v>10006</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1301" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1301" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:13" ht="90">
+      <c r="A1302">
+        <v>1304</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1302" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1302">
+        <v>10006</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1302" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1302" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:13" ht="60">
+      <c r="A1303">
+        <v>1302</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1303" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1303">
+        <v>10006</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1303" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1303" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:13" ht="105">
+      <c r="A1304">
+        <v>1303</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1304" s="16" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1304">
+        <v>10006</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1304" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1304" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1304" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:13" ht="90">
+      <c r="A1305">
+        <v>1304</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1305" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1305">
+        <v>10006</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1305" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1305" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1305" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:13" ht="60">
+      <c r="A1306">
+        <v>1302</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1306" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1306">
+        <v>10006</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1306" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1306" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:13" ht="120">
+      <c r="A1307">
+        <v>1303</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1307" s="16" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G1307">
+        <v>10006</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1307" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1307" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1307" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1307" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:13" ht="90">
+      <c r="A1308">
+        <v>1304</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1308" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1308">
+        <v>10006</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1308" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1308" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1308" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1308" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:13" ht="60">
+      <c r="A1309">
+        <v>1302</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1309" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1309">
+        <v>10006</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>2104</v>
+      </c>
+      <c r="J1309" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1309" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1309" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1309" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:13" ht="135">
+      <c r="A1310">
+        <v>1303</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1310" s="16" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G1310">
+        <v>10006</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>2105</v>
+      </c>
+      <c r="J1310" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1310" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1310" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:13" ht="120">
+      <c r="A1311">
+        <v>1304</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1311" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1311">
+        <v>10006</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J1311" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1311" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1311" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1311" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:13" ht="60">
+      <c r="A1312">
+        <v>1305</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1312" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1312">
+        <v>10006</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1312" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1312" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1312" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:13" ht="60">
+      <c r="A1313">
+        <v>1306</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1313" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1313">
+        <v>10006</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1313" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1313" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1313" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1313" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:13" ht="90">
+      <c r="A1314">
+        <v>1307</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1314" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1314">
+        <v>10006</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1314" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1314" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1314" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:13" ht="45">
+      <c r="A1315">
+        <v>1305</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1315" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1315">
+        <v>10006</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1315" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1315" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1315" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1315" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:13" ht="45">
+      <c r="A1316">
+        <v>1306</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1316" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G1316">
+        <v>10006</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1316" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1316" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1316" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1316" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:13" ht="90">
+      <c r="A1317">
+        <v>1307</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1317" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1317">
+        <v>10006</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1317" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1317" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1317" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1317" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:13" ht="60">
+      <c r="A1318">
+        <v>1305</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1318" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1318">
+        <v>10006</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1318" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1318" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1318" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1318" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:13" ht="60">
+      <c r="A1319">
+        <v>1306</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1319" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1319">
+        <v>10006</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1319" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1319" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1319" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1319" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:13" ht="90">
+      <c r="A1320">
+        <v>1307</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1320" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1320">
+        <v>10006</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1320" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1320" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1320" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1320" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:13" ht="60">
+      <c r="A1321">
+        <v>1305</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1321" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1321">
+        <v>10006</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1321" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1321" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1321" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1321" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:13" ht="60">
+      <c r="A1322">
+        <v>1306</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1322" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G1322">
+        <v>10006</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1322" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1322" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1322" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1322" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:13" ht="90">
+      <c r="A1323">
+        <v>1307</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1323" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1323">
+        <v>10006</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1323" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1323" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1323" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:13" ht="60">
+      <c r="A1324">
+        <v>1305</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1324" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1324">
+        <v>10006</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1324" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1324" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1324" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1324" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:13" ht="60">
+      <c r="A1325">
+        <v>1306</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1325" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G1325">
+        <v>10006</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1325" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1325" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1325" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1325" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:13" ht="90">
+      <c r="A1326">
+        <v>1307</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1326" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1326">
+        <v>10006</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1326" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1326" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1326" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1326" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:13" ht="60">
+      <c r="A1327">
+        <v>1305</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1327" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1327">
+        <v>10006</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>2107</v>
+      </c>
+      <c r="J1327" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1327" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1327" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1327" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:13" ht="75">
+      <c r="A1328">
+        <v>1306</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1328" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G1328">
+        <v>10006</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J1328" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1328" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1328" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1328" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:13" ht="120">
+      <c r="A1329">
+        <v>1307</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1329" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1329">
+        <v>10006</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1329" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1329" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1329" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1329" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:13" ht="60">
+      <c r="A1330">
+        <v>1308</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1330" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1330">
+        <v>10006</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1330" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1330" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1330" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:13" ht="105">
+      <c r="A1331">
+        <v>1309</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1331" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G1331">
+        <v>10006</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1331" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1331" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1331" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1331" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:13" ht="90">
+      <c r="A1332">
+        <v>1310</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1332" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1332">
+        <v>10006</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1332" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1332" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1332" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1332" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:13" ht="45">
+      <c r="A1333">
+        <v>1308</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1333" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1333">
+        <v>10006</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1333" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1333" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1333" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:13" ht="75">
+      <c r="A1334">
+        <v>1309</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1334" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G1334">
+        <v>10006</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1334" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1334" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1334" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1334" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:13" ht="90">
+      <c r="A1335">
+        <v>1310</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1335" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1335">
+        <v>10006</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1335" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1335" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1335" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1335" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:13" ht="60">
+      <c r="A1336">
+        <v>1308</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1336" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1336">
+        <v>10006</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1336" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1336" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1336" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1336" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:13" ht="105">
+      <c r="A1337">
+        <v>1309</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1337" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G1337">
+        <v>10006</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1337" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1337" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1337" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1337" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:13" ht="90">
+      <c r="A1338">
+        <v>1310</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1338" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1338">
+        <v>10006</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1338" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1338" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1338" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1338" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:13" ht="60">
+      <c r="A1339">
+        <v>1308</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1339" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1339">
+        <v>10006</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1339" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1339" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1339" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1339" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1339" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:13" ht="105">
+      <c r="A1340">
+        <v>1309</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1340" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G1340">
+        <v>10006</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1340" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1340" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1340" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1340" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:13" ht="90">
+      <c r="A1341">
+        <v>1310</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1341" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1341">
+        <v>10006</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1341" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1341" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1341" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1341" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:13" ht="60">
+      <c r="A1342">
+        <v>1308</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1342" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1342">
+        <v>10006</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1342" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1342" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1342" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1342" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:13" ht="120">
+      <c r="A1343">
+        <v>1309</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1343" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G1343">
+        <v>10006</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1343" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1343" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1343" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1343" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:13" ht="90">
+      <c r="A1344">
+        <v>1310</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1344" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1344">
+        <v>10006</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1344" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1344" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1344" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1344" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1344" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:13" ht="60">
+      <c r="A1345">
+        <v>1308</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1345" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1345">
+        <v>10006</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1345" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J1345" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1345" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1345" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1345" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:13" ht="150">
+      <c r="A1346">
+        <v>1309</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1346" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G1346">
+        <v>10006</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1346" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1346" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1346" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:13" ht="120">
+      <c r="A1347">
+        <v>1310</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1347" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1347">
+        <v>10006</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>2112</v>
+      </c>
+      <c r="J1347" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1347" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1347" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:13" ht="60">
+      <c r="A1348">
+        <v>1311</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1348" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1348">
+        <v>10006</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1348" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1348" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1348" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1348" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:13" ht="60">
+      <c r="A1349">
+        <v>1312</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1349" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1349">
+        <v>10006</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1349" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1349" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1349" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1349" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:13" ht="90">
+      <c r="A1350">
+        <v>1313</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1350" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1350">
+        <v>10006</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1350" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1350" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1350" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1350" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:13" ht="45">
+      <c r="A1351">
+        <v>1311</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1351" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1351">
+        <v>10006</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1351" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1351" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1351" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1351" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:13" ht="45">
+      <c r="A1352">
+        <v>1312</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1352" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G1352">
+        <v>10006</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1352" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1352" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1352" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1352" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:13" ht="90">
+      <c r="A1353">
+        <v>1313</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1353" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1353">
+        <v>10006</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1353" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1353" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1353" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1353" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:13" ht="60">
+      <c r="A1354">
+        <v>1311</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1354" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1354">
+        <v>10006</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1354" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1354" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1354" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:13" ht="60">
+      <c r="A1355">
+        <v>1312</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1355" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1355">
+        <v>10006</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1355" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1355" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1355" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1355" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:13" ht="90">
+      <c r="A1356">
+        <v>1313</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1356" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1356">
+        <v>10006</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1356" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1356" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:13" ht="60">
+      <c r="A1357">
+        <v>1311</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1357" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1357">
+        <v>10006</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1357" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1357" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1357" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1357" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:13" ht="60">
+      <c r="A1358">
+        <v>1312</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1358" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G1358">
+        <v>10006</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1358" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1358" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1358" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:13" ht="90">
+      <c r="A1359">
+        <v>1313</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1359" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1359">
+        <v>10006</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1359" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1359" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1359" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:13" ht="60">
+      <c r="A1360">
+        <v>1311</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1360" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1360">
+        <v>10006</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1360" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1360" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1360" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1360" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:13" ht="60">
+      <c r="A1361">
+        <v>1312</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1361" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G1361">
+        <v>10006</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1361" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1361" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1361" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1361" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1361" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:13" ht="90">
+      <c r="A1362">
+        <v>1313</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1362" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1362">
+        <v>10006</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1362" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1362" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1362" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1362" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1362" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:13" ht="60">
+      <c r="A1363">
+        <v>1311</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1363" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1363">
+        <v>10006</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1363" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1363" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:13" ht="75">
+      <c r="A1364">
+        <v>1312</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1364" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G1364">
+        <v>10006</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J1364" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1364" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1364" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1364" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:13" ht="120">
+      <c r="A1365">
+        <v>1313</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1365" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1365">
+        <v>10006</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>2115</v>
+      </c>
+      <c r="J1365" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1365" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1365" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1365" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:13" ht="60">
+      <c r="A1366">
+        <v>1314</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1366" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1366">
+        <v>10006</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1366" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1366" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1366" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1366" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:13" ht="60">
+      <c r="A1367">
+        <v>1315</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1367" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1367">
+        <v>10006</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1367" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1367" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1367" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1367" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:13" ht="90">
+      <c r="A1368">
+        <v>1316</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1368" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1368">
+        <v>10006</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1368" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1368" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1368" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1368" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:13" ht="45">
+      <c r="A1369">
+        <v>1314</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1369" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1369">
+        <v>10006</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1369" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1369" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1369" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1369" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1369" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:13" ht="45">
+      <c r="A1370">
+        <v>1315</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1370" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G1370">
+        <v>10006</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1370" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1370" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1370" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1370" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:13" ht="90">
+      <c r="A1371">
+        <v>1316</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1371" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1371">
+        <v>10006</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1371" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1371" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1371" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1371" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:13" ht="60">
+      <c r="A1372">
+        <v>1314</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1372" s="16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1372">
+        <v>10006</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1372" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1372" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1372" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1372" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1372" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:13" ht="60">
+      <c r="A1373">
+        <v>1315</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1373" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1373">
+        <v>10006</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1373" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1373" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1373" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1373" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:13" ht="90">
+      <c r="A1374">
+        <v>1316</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1374" s="16" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1374">
+        <v>10006</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1374" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1374" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1374" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1374" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:13" ht="60">
+      <c r="A1375">
+        <v>1314</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1375" s="16" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1375">
+        <v>10006</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1375" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1375" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1375" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1375" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:13" ht="60">
+      <c r="A1376">
+        <v>1315</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1376" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G1376">
+        <v>10006</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1376" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1376" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1376" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:13" ht="90">
+      <c r="A1377">
+        <v>1316</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1377" s="16" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1377">
+        <v>10006</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1377" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1377" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1377" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:13" ht="60">
+      <c r="A1378">
+        <v>1314</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1378" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1378">
+        <v>10006</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1378" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1378" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1378" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:13" ht="60">
+      <c r="A1379">
+        <v>1315</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1379" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G1379">
+        <v>10006</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1379" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1379" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1379" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1379" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1379" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:13" ht="90">
+      <c r="A1380">
+        <v>1316</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1380" s="16" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1380">
+        <v>10006</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1380" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1380" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1380" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1380" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1380" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:13" ht="60">
+      <c r="A1381">
+        <v>1314</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1381" s="16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1381">
+        <v>10006</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1381" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1381" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1381" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1381" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1381" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:13" ht="75">
+      <c r="A1382">
+        <v>1315</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1382" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G1382">
+        <v>10006</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1382" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J1382" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1382" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1382" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1382" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:13" ht="120">
+      <c r="A1383">
+        <v>1316</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1383" s="16" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1383">
+        <v>10006</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1383" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J1383" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1383" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1383" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1383" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:13" ht="60">
+      <c r="A1384">
+        <v>1317</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1384" s="16" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1384">
+        <v>10006</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1384" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1384" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1384" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1384" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1384" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:13" ht="60">
+      <c r="A1385">
+        <v>1318</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1385" s="16" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1385">
+        <v>10006</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1385" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1385" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1385" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1385" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:13" ht="90">
+      <c r="A1386">
+        <v>1319</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1386" s="16" t="s">
+        <v>1954</v>
+      </c>
+      <c r="G1386">
+        <v>10006</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1386" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1386" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1386" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:13" ht="45">
+      <c r="A1387">
+        <v>1317</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1387" s="16" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G1387">
+        <v>10006</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1387" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1387" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1387" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1387" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:13" ht="45">
+      <c r="A1388">
+        <v>1318</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1388" s="16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G1388">
+        <v>10006</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1388" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1388" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1388" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1388" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:13" ht="90">
+      <c r="A1389">
+        <v>1319</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1389" s="16" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1389">
+        <v>10006</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1389" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1389" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1389" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1389" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:13" ht="38.25">
+      <c r="A1390">
+        <v>1317</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1390" s="18" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G1390">
+        <v>10006</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1390" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1390" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1390" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1390" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:13" ht="51">
+      <c r="A1391">
+        <v>1318</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1391" s="18" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1391">
+        <v>10006</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1391" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1391" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1391" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1391" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:13" ht="76.5">
+      <c r="A1392">
+        <v>1319</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1392" s="18" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G1392">
+        <v>10006</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1392" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1392" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:13">
+      <c r="A1393">
+        <v>1317</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1393" s="17" t="s">
+        <v>1942</v>
+      </c>
+      <c r="G1393">
+        <v>10006</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1393" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1393" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1393" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:13">
+      <c r="A1394">
+        <v>1318</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1394" s="17" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G1394">
+        <v>10006</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1394" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1394" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1394" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:13">
+      <c r="A1395">
+        <v>1319</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1395" s="17" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1395">
+        <v>10006</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1395" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1395" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1395" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1395" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:13">
+      <c r="A1396">
+        <v>1317</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1396" s="17" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1396">
+        <v>10006</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1396" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1396" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1396" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:13">
+      <c r="A1397">
+        <v>1318</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1397" s="17" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G1397">
+        <v>10006</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1397" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1397" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1397" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1397" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1397" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:13">
+      <c r="A1398">
+        <v>1319</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1398" s="17" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G1398">
+        <v>10006</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1398" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1398" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1398" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1398" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:13">
+      <c r="A1399">
+        <v>1317</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1399" s="17" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1399">
+        <v>10006</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1399" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J1399" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1399" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1399" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1399" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:13">
+      <c r="A1400">
+        <v>1318</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1400" s="17" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G1400">
+        <v>10006</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1400" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J1400" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1400" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1400" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1400" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:13">
+      <c r="A1401">
+        <v>1319</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1401" s="17" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1401">
+        <v>10006</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1401" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1401" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1401" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1401" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1401" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25A297-0032-4BEB-BFD0-9FB152E47036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B91867-4297-48D6-9690-80ABC64D03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$M$467</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16341" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17925" uniqueCount="2188">
   <si>
     <t>id</t>
   </si>
@@ -16381,12 +16376,222 @@
   <si>
     <t>verify-my-phone-email-failure_SMS</t>
   </si>
+  <si>
+    <t>cust-and-down-my-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success_BELL</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success_BELL</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-request-received_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success_BELL</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-failure_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-request-received_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success_BELL</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-failure_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-request-received_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-success_BELL</t>
+  </si>
+  <si>
+    <t>update-demo-data-failure_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-request-received_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success_BELL</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-failure_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-request-received_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success_BELL</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-failure_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-request-received_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success_BELL</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-failure_BELL</t>
+  </si>
+  <si>
+    <t>Request received bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to customize and download my card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Success bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to order a physical card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Failure bell notify to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Request received bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Success bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Failure bell notify to lock/unlock authentication</t>
+  </si>
+  <si>
+    <t>Request received bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Failure bell notify to self update demographic data</t>
+  </si>
+  <si>
+    <t>Request received bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Success bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Failure bell notify to generate or revoke VID</t>
+  </si>
+  <si>
+    <t>Request received bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Failure bell notify to get my UIN card</t>
+  </si>
+  <si>
+    <t>Request received bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Success bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Failure bell notify to verify my phone and email</t>
+  </si>
+  <si>
+    <t>Your request to $eventDetails has been received</t>
+  </si>
+  <si>
+    <t>Your request to $eventDetails is completed successfully.
+Click here to download the card.</t>
+  </si>
+  <si>
+    <t>Your request to $eventDetails has failed.
+Click here for further details</t>
+  </si>
+  <si>
+    <t>تم استلام طلبك إلى eventDetails $</t>
+  </si>
+  <si>
+    <t>تم إكمال طلبك إلى eventDetails $ بنجاح.
+انقر هنا لتنزيل البطاقة.</t>
+  </si>
+  <si>
+    <t>فشل طلبك إلى eventDetails $.
+انقر هنا لمزيد من التفاصيل</t>
+  </si>
+  <si>
+    <t>Votre demande à $eventDetails a été reçue</t>
+  </si>
+  <si>
+    <t>Votre demande à $eventDetails est terminée avec succès.
+Cliquez ici pour télécharger la carte.</t>
+  </si>
+  <si>
+    <t>Votre demande à $eventDetails a échoué.
+Cliquez ici pour plus de détails</t>
+  </si>
+  <si>
+    <t>$eventDetails के लिए आपका अनुरोध प्राप्त हो गया है</t>
+  </si>
+  <si>
+    <t>$eventDetails के लिए आपका अनुरोध सफलतापूर्वक पूरा हो गया है।
+कार्ड डाउनलोड करने के लिए यहां क्लिक करें।</t>
+  </si>
+  <si>
+    <t>$eventDetails के लिए आपका अनुरोध विफल हो गया है।
+अधिक विवरण हेतु यहाँ क्लिक करें</t>
+  </si>
+  <si>
+    <t>$eventDetails ಗೆ ನಿಮ್ಮ ವಿನಂತಿಯನ್ನು ಸ್ವೀಕರಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>$eventDetails ಗೆ ನಿಮ್ಮ ವಿನಂತಿಯು ಯಶಸ್ವಿಯಾಗಿ ಪೂರ್ಣಗೊಂಡಿದೆ.
+ಕಾರ್ಡ್ ಡೌನ್‌ಲೋಡ್ ಮಾಡಲು ಇಲ್ಲಿ ಕ್ಲಿಕ್ ಮಾಡಿ.</t>
+  </si>
+  <si>
+    <t>$eventDetails ಗೆ ನಿಮ್ಮ ವಿನಂತಿಯು ವಿಫಲವಾಗಿದೆ.
+ಹೆಚ್ಚಿನ ವಿವರಗಳಿಗಾಗಿ ಇಲ್ಲಿ ಕ್ಲಿಕ್ ಮಾಡಿ</t>
+  </si>
+  <si>
+    <t>$eventDetailsக்கான உங்கள் கோரிக்கை பெறப்பட்டது</t>
+  </si>
+  <si>
+    <t>$eventDetailsக்கான உங்கள் கோரிக்கை வெற்றிகரமாக நிறைவுற்றது.
+கார்டை பதிவிறக்கம் செய்ய இங்கே கிளிக் செய்யவும்.</t>
+  </si>
+  <si>
+    <t>$eventDetailsக்கான உங்கள் கோரிக்கை தோல்வியடைந்தது.
+மேலும் விவரங்களுக்கு இங்கே கிளிக் செய்யவும்</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -16425,6 +16630,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -16458,10 +16669,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16505,9 +16717,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6E7CBC54-BCD1-4CCA-A298-9CD1FB8D693D}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -16847,10 +17067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1401"/>
+  <dimension ref="A1:M1545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1392" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1403" sqref="H1403"/>
+    <sheetView tabSelected="1" topLeftCell="D1541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1548" sqref="F1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -74297,6 +74517,5910 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1402" spans="1:13">
+      <c r="A1402">
+        <v>1320</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1402" s="19" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1402">
+        <v>10006</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1402" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1402" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1402" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1402" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:13">
+      <c r="A1403">
+        <v>1321</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1403" s="19" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1403">
+        <v>10006</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1403" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1403" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1403" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:13">
+      <c r="A1404">
+        <v>1322</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1404" s="19" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1404">
+        <v>10006</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1404" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1404" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1404" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1404" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:13">
+      <c r="A1405">
+        <v>1320</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1405" s="20" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1405">
+        <v>10006</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1405" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1405" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1405" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1405" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:13">
+      <c r="A1406">
+        <v>1321</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1406" s="20" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1406">
+        <v>10006</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1406" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1406" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1406" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1406" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:13">
+      <c r="A1407">
+        <v>1322</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1407" s="20" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1407">
+        <v>10006</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1407" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1407" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1407" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1407" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:13">
+      <c r="A1408">
+        <v>1320</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1408" s="21" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1408">
+        <v>10006</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1408" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1408" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1408" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1408" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:13">
+      <c r="A1409">
+        <v>1321</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1409" s="21" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1409">
+        <v>10006</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1409" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1409" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1409" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1409" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:13">
+      <c r="A1410">
+        <v>1322</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1410" s="21" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1410">
+        <v>10006</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1410" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1410" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1410" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1410" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:13">
+      <c r="A1411">
+        <v>1320</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1411" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1411">
+        <v>10006</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1411" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1411" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1411" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1411" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:13">
+      <c r="A1412">
+        <v>1321</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1412" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1412">
+        <v>10006</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1412" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1412" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1412" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1412" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:13">
+      <c r="A1413">
+        <v>1322</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1413" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1413">
+        <v>10006</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1413" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1413" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1413" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:13">
+      <c r="A1414">
+        <v>1320</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1414" s="23" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1414">
+        <v>10006</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1414" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1414" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1414" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:13">
+      <c r="A1415">
+        <v>1321</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1415" s="23" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1415">
+        <v>10006</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1415" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1415" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1415" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:13">
+      <c r="A1416">
+        <v>1322</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1416" s="23" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1416">
+        <v>10006</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1416" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1416" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1416" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:13">
+      <c r="A1417">
+        <v>1320</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1417" s="24" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1417">
+        <v>10006</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J1417" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1417" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1417" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1417" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:13">
+      <c r="A1418">
+        <v>1321</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1418" s="24" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1418">
+        <v>10006</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>2123</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1418" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1418" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1418" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:13">
+      <c r="A1419">
+        <v>1322</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1419" s="24" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1419">
+        <v>10006</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1419" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1419" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1419" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1419" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:13">
+      <c r="A1420">
+        <v>1323</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1420" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1420">
+        <v>10006</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1420" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1420" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1420" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1420" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:13">
+      <c r="A1421">
+        <v>1324</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1421" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1421">
+        <v>10006</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1421" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1421" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1421" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1421" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:13">
+      <c r="A1422">
+        <v>1325</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1422" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1422">
+        <v>10006</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1422" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1422" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1422" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1422" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:13">
+      <c r="A1423">
+        <v>1323</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1423" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1423">
+        <v>10006</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1423" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1423" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1423" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1423" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:13">
+      <c r="A1424">
+        <v>1324</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1424" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1424">
+        <v>10006</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1424" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1424" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1424" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:13">
+      <c r="A1425">
+        <v>1325</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1425" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1425">
+        <v>10006</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1425" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1425" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1425" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:13">
+      <c r="A1426">
+        <v>1323</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1426" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1426">
+        <v>10006</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1426" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1426" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1426" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:13">
+      <c r="A1427">
+        <v>1324</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1427" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1427">
+        <v>10006</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1427" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1427" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1427" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:13">
+      <c r="A1428">
+        <v>1325</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1428" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1428">
+        <v>10006</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1428" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1428" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1428" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1428" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:13">
+      <c r="A1429">
+        <v>1323</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1429" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1429">
+        <v>10006</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1429" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1429" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1429" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1429" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:13">
+      <c r="A1430">
+        <v>1324</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1430" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1430">
+        <v>10006</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1430" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1430" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1430" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1430" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:13">
+      <c r="A1431">
+        <v>1325</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1431" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1431">
+        <v>10006</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1431" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1431" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1431" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1431" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:13">
+      <c r="A1432">
+        <v>1323</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1432" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1432">
+        <v>10006</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1432" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1432" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1432" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1432" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:13">
+      <c r="A1433">
+        <v>1324</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1433" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1433">
+        <v>10006</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1433" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1433" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1433" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1433" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:13">
+      <c r="A1434">
+        <v>1325</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1434" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1434">
+        <v>10006</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1434" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1434" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1434" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1434" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:13">
+      <c r="A1435">
+        <v>1323</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1435" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1435">
+        <v>10006</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1435" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1435" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1435" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:13">
+      <c r="A1436">
+        <v>1324</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1436" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1436">
+        <v>10006</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1436" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1436" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1436" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:13">
+      <c r="A1437">
+        <v>1325</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1437" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1437">
+        <v>10006</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1437" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1437" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1437" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1437" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:13">
+      <c r="A1438">
+        <v>1326</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1438" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1438">
+        <v>10006</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1438" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1438" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1438" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1438" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:13">
+      <c r="A1439">
+        <v>1327</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1439" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1439">
+        <v>10006</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1439" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1439" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1439" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1439" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:13">
+      <c r="A1440">
+        <v>1328</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1440" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1440">
+        <v>10006</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1440" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1440" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1440" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:13">
+      <c r="A1441">
+        <v>1326</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1441" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1441">
+        <v>10006</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1441" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1441" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1441" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1441" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:13">
+      <c r="A1442">
+        <v>1327</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1442" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1442">
+        <v>10006</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1442" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1442" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1442" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1442" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:13">
+      <c r="A1443">
+        <v>1328</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1443" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1443">
+        <v>10006</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1443" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1443" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1443" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1443" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:13">
+      <c r="A1444">
+        <v>1326</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1444" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1444">
+        <v>10006</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1444" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1444" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1444" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1444" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:13">
+      <c r="A1445">
+        <v>1327</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1445" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1445">
+        <v>10006</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1445" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1445" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1445" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:13">
+      <c r="A1446">
+        <v>1328</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1446" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1446">
+        <v>10006</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1446" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1446" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1446" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1446" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:13">
+      <c r="A1447">
+        <v>1326</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1447" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1447">
+        <v>10006</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1447" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1447" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1447" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1447" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:13">
+      <c r="A1448">
+        <v>1327</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1448" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1448">
+        <v>10006</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1448" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1448" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1448" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:13">
+      <c r="A1449">
+        <v>1328</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1449" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1449">
+        <v>10006</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1449" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1449" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1449" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1449" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:13">
+      <c r="A1450">
+        <v>1326</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1450" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1450">
+        <v>10006</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1450" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1450" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1450" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1450" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:13">
+      <c r="A1451">
+        <v>1327</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1451" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1451">
+        <v>10006</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1451" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1451" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1451" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:13">
+      <c r="A1452">
+        <v>1328</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1452" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1452">
+        <v>10006</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1452" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1452" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1452" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1452" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:13">
+      <c r="A1453">
+        <v>1326</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1453" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1453">
+        <v>10006</v>
+      </c>
+      <c r="H1453" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1453" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1453" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1453" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1453" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:13">
+      <c r="A1454">
+        <v>1327</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1454" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1454">
+        <v>10006</v>
+      </c>
+      <c r="H1454" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1454" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1454" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1454" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1454" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:13">
+      <c r="A1455">
+        <v>1328</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1455" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1455">
+        <v>10006</v>
+      </c>
+      <c r="H1455" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J1455" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1455" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1455" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1455" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:13">
+      <c r="A1456">
+        <v>1329</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1456" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1456">
+        <v>10006</v>
+      </c>
+      <c r="H1456" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1456" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1456" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1456" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1456" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:13">
+      <c r="A1457">
+        <v>1330</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1457" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1457">
+        <v>10006</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1457" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1457" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1457" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:13">
+      <c r="A1458">
+        <v>1331</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1458" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1458">
+        <v>10006</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1458" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1458" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1458" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1458" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:13">
+      <c r="A1459">
+        <v>1329</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1459" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1459">
+        <v>10006</v>
+      </c>
+      <c r="H1459" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1459" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1459" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1459" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1459" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:13">
+      <c r="A1460">
+        <v>1330</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1460" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1460">
+        <v>10006</v>
+      </c>
+      <c r="H1460" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1460" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1460" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1460" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1460" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:13">
+      <c r="A1461">
+        <v>1331</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1461" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1461">
+        <v>10006</v>
+      </c>
+      <c r="H1461" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1461" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1461" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1461" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1461" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:13">
+      <c r="A1462">
+        <v>1329</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1462" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1462">
+        <v>10006</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1462" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1462" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1462" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1462" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:13">
+      <c r="A1463">
+        <v>1330</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1463" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1463">
+        <v>10006</v>
+      </c>
+      <c r="H1463" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1463" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1463" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1463" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1463" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:13">
+      <c r="A1464">
+        <v>1331</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1464" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1464">
+        <v>10006</v>
+      </c>
+      <c r="H1464" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1464" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1464" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1464" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1464" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:13">
+      <c r="A1465">
+        <v>1329</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1465" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1465">
+        <v>10006</v>
+      </c>
+      <c r="H1465" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1465" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1465" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1465" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1465" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:13">
+      <c r="A1466">
+        <v>1330</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1466" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1466">
+        <v>10006</v>
+      </c>
+      <c r="H1466" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1466" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1466" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1466" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:13">
+      <c r="A1467">
+        <v>1331</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1467" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1467">
+        <v>10006</v>
+      </c>
+      <c r="H1467" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1467" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1467" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1467" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:13">
+      <c r="A1468">
+        <v>1329</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1468" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1468">
+        <v>10006</v>
+      </c>
+      <c r="H1468" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1468" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1468" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1468" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:13">
+      <c r="A1469">
+        <v>1330</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1469" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1469">
+        <v>10006</v>
+      </c>
+      <c r="H1469" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1469" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1469" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1469" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:13">
+      <c r="A1470">
+        <v>1331</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1470" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1470">
+        <v>10006</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1470" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1470" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1470" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:13">
+      <c r="A1471">
+        <v>1329</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1471" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1471">
+        <v>10006</v>
+      </c>
+      <c r="H1471" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1471" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1471" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1471" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:13">
+      <c r="A1472">
+        <v>1330</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1472" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1472">
+        <v>10006</v>
+      </c>
+      <c r="H1472" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1472" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1472" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1472" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:13">
+      <c r="A1473">
+        <v>1331</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1473" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1473">
+        <v>10006</v>
+      </c>
+      <c r="H1473" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1473" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1473" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1473" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:13">
+      <c r="A1474">
+        <v>1332</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1474" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1474">
+        <v>10006</v>
+      </c>
+      <c r="H1474" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1474" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1474" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1474" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:13">
+      <c r="A1475">
+        <v>1333</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1475" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1475">
+        <v>10006</v>
+      </c>
+      <c r="H1475" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1475" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1475" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1475" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1475" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:13">
+      <c r="A1476">
+        <v>1334</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1476" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1476">
+        <v>10006</v>
+      </c>
+      <c r="H1476" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1476" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1476" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1476" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1476" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:13">
+      <c r="A1477">
+        <v>1332</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1477" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1477">
+        <v>10006</v>
+      </c>
+      <c r="H1477" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1477" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1477" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1477" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1477" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:13">
+      <c r="A1478">
+        <v>1333</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1478" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1478">
+        <v>10006</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1478" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1478" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1478" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1478" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:13">
+      <c r="A1479">
+        <v>1334</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1479" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1479">
+        <v>10006</v>
+      </c>
+      <c r="H1479" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1479" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1479" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1479" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1479" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:13">
+      <c r="A1480">
+        <v>1332</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1480" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1480">
+        <v>10006</v>
+      </c>
+      <c r="H1480" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1480" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1480" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1480" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1480" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:13">
+      <c r="A1481">
+        <v>1333</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1481" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1481">
+        <v>10006</v>
+      </c>
+      <c r="H1481" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1481" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1481" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1481" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1481" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:13">
+      <c r="A1482">
+        <v>1334</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1482" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1482">
+        <v>10006</v>
+      </c>
+      <c r="H1482" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1482" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1482" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1482" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1482" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:13">
+      <c r="A1483">
+        <v>1332</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1483" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1483">
+        <v>10006</v>
+      </c>
+      <c r="H1483" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1483" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1483" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1483" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1483" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:13">
+      <c r="A1484">
+        <v>1333</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1484" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1484">
+        <v>10006</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1484" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1484" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1484" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1484" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:13">
+      <c r="A1485">
+        <v>1334</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1485" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1485">
+        <v>10006</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1485" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1485" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1485" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1485" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:13">
+      <c r="A1486">
+        <v>1332</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1486" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1486">
+        <v>10006</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1486" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1486" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1486" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1486" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:13">
+      <c r="A1487">
+        <v>1333</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1487" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1487">
+        <v>10006</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1487" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1487" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1487" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1487" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:13">
+      <c r="A1488">
+        <v>1334</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1488" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1488">
+        <v>10006</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1488" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1488" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1488" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1488" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:13">
+      <c r="A1489">
+        <v>1332</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1489" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1489">
+        <v>10006</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1489" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1489" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1489" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:13">
+      <c r="A1490">
+        <v>1333</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1490" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1490">
+        <v>10006</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>2135</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1490" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1490" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1490" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:13">
+      <c r="A1491">
+        <v>1334</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1491" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1491">
+        <v>10006</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1491" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1491" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1491" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:13">
+      <c r="A1492">
+        <v>1335</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1492" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1492">
+        <v>10006</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1492" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1492" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1492" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:13">
+      <c r="A1493">
+        <v>1336</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1493" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1493">
+        <v>10006</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1493" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1493" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1493" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:13">
+      <c r="A1494">
+        <v>1337</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1494" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1494">
+        <v>10006</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1494" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1494" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1494" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1494" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:13">
+      <c r="A1495">
+        <v>1335</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1495" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1495">
+        <v>10006</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1495" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1495" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1495" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1495" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:13">
+      <c r="A1496">
+        <v>1336</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1496" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1496">
+        <v>10006</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1496" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1496" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1496" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1496" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:13">
+      <c r="A1497">
+        <v>1337</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1497" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1497">
+        <v>10006</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1497" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1497" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1497" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1497" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:13">
+      <c r="A1498">
+        <v>1335</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1498" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1498">
+        <v>10006</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1498" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1498" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1498" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1498" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:13">
+      <c r="A1499">
+        <v>1336</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1499" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1499">
+        <v>10006</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1499" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1499" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1499" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1499" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:13">
+      <c r="A1500">
+        <v>1337</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1500" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1500">
+        <v>10006</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1500" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1500" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1500" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1500" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:13">
+      <c r="A1501">
+        <v>1335</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1501" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1501">
+        <v>10006</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1501" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1501" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1501" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1501" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:13">
+      <c r="A1502">
+        <v>1336</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1502" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1502">
+        <v>10006</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1502" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1502" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1502" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1502" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:13">
+      <c r="A1503">
+        <v>1337</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1503" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1503">
+        <v>10006</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1503" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1503" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1503" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1503" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:13">
+      <c r="A1504">
+        <v>1335</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1504" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1504">
+        <v>10006</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1504" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1504" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1504" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:13">
+      <c r="A1505">
+        <v>1336</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1505" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1505">
+        <v>10006</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1505" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1505" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1505" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:13">
+      <c r="A1506">
+        <v>1337</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1506" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1506">
+        <v>10006</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1506" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1506" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1506" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:13">
+      <c r="A1507">
+        <v>1335</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1507" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1507">
+        <v>10006</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1507" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1507" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:13">
+      <c r="A1508">
+        <v>1336</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1508" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1508">
+        <v>10006</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1508" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1508" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1508" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:13">
+      <c r="A1509">
+        <v>1337</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1509" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1509">
+        <v>10006</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1509" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1509" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1509" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:13">
+      <c r="A1510">
+        <v>1338</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1510" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1510">
+        <v>10006</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1510" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1510" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1510" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1510" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1510" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:13">
+      <c r="A1511">
+        <v>1339</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1511" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1511">
+        <v>10006</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1511" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1511" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1511" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1511" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:13">
+      <c r="A1512">
+        <v>1340</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1512" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1512">
+        <v>10006</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1512" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1512" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1512" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1512" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:13">
+      <c r="A1513">
+        <v>1338</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1513" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1513">
+        <v>10006</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1513" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1513" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1513" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1513" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1513" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:13">
+      <c r="A1514">
+        <v>1339</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1514" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1514">
+        <v>10006</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1514" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1514" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1514" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1514" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:13">
+      <c r="A1515">
+        <v>1340</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1515" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1515">
+        <v>10006</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1515" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1515" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1515" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1515" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1515" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:13">
+      <c r="A1516">
+        <v>1338</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1516" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1516">
+        <v>10006</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1516" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1516" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1516" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1516" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1516" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:13">
+      <c r="A1517">
+        <v>1339</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1517" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1517">
+        <v>10006</v>
+      </c>
+      <c r="H1517" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1517" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1517" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1517" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1517" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1517" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:13">
+      <c r="A1518">
+        <v>1340</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1518" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1518">
+        <v>10006</v>
+      </c>
+      <c r="H1518" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1518" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1518" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1518" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1518" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1518" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:13">
+      <c r="A1519">
+        <v>1338</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1519" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1519">
+        <v>10006</v>
+      </c>
+      <c r="H1519" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1519" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1519" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1519" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1519" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1519" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:13">
+      <c r="A1520">
+        <v>1339</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1520" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1520">
+        <v>10006</v>
+      </c>
+      <c r="H1520" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1520" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1520" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1520" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1520" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:13">
+      <c r="A1521">
+        <v>1340</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1521" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1521">
+        <v>10006</v>
+      </c>
+      <c r="H1521" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1521" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1521" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1521" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1521" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1521" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:13">
+      <c r="A1522">
+        <v>1338</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1522" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1522">
+        <v>10006</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1522" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1522" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1522" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1522" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1522" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:13">
+      <c r="A1523">
+        <v>1339</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1523" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1523">
+        <v>10006</v>
+      </c>
+      <c r="H1523" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1523" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1523" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1523" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1523" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:13">
+      <c r="A1524">
+        <v>1340</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1524" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1524">
+        <v>10006</v>
+      </c>
+      <c r="H1524" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1524" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1524" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1524" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1524" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:13">
+      <c r="A1525">
+        <v>1338</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1525" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1525">
+        <v>10006</v>
+      </c>
+      <c r="H1525" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1525" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1525" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1525" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1525" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:13">
+      <c r="A1526">
+        <v>1339</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1526" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1526">
+        <v>10006</v>
+      </c>
+      <c r="H1526" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1526" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J1526" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1526" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1526" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1526" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:13">
+      <c r="A1527">
+        <v>1340</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1527" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1527">
+        <v>10006</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1527" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1527" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1527" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1527" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1527" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:13">
+      <c r="A1528">
+        <v>1341</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1528" s="25" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1528">
+        <v>10006</v>
+      </c>
+      <c r="H1528" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1528" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1528" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1528" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1528" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1528" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:13">
+      <c r="A1529">
+        <v>1342</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1529" s="25" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1529">
+        <v>10006</v>
+      </c>
+      <c r="H1529" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1529" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1529" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1529" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1529" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1529" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:13">
+      <c r="A1530">
+        <v>1343</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1530" s="25" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1530">
+        <v>10006</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1530" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1530" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1530" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1530" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1530" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:13">
+      <c r="A1531">
+        <v>1341</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1531" s="25" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1531">
+        <v>10006</v>
+      </c>
+      <c r="H1531" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1531" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1531" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1531" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1531" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:13">
+      <c r="A1532">
+        <v>1342</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1532" s="25" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1532">
+        <v>10006</v>
+      </c>
+      <c r="H1532" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1532" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1532" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1532" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1532" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:13">
+      <c r="A1533">
+        <v>1343</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1533" s="25" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1533">
+        <v>10006</v>
+      </c>
+      <c r="H1533" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1533" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1533" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1533" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1533" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:13">
+      <c r="A1534">
+        <v>1341</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1534" s="25" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1534">
+        <v>10006</v>
+      </c>
+      <c r="H1534" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1534" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1534" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1534" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1534" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:13">
+      <c r="A1535">
+        <v>1342</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1535" s="25" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1535">
+        <v>10006</v>
+      </c>
+      <c r="H1535" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1535" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1535" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1535" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1535" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:13">
+      <c r="A1536">
+        <v>1343</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1536" s="25" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1536">
+        <v>10006</v>
+      </c>
+      <c r="H1536" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1536" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1536" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1536" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1536" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:13">
+      <c r="A1537">
+        <v>1341</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1537" s="25" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G1537">
+        <v>10006</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1537" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1537" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1537" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1537" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:13">
+      <c r="A1538">
+        <v>1342</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1538" s="25" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1538">
+        <v>10006</v>
+      </c>
+      <c r="H1538" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1538" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1538" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1538" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1538" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:13">
+      <c r="A1539">
+        <v>1343</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1539" s="25" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1539">
+        <v>10006</v>
+      </c>
+      <c r="H1539" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1539" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1539" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1539" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1539" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:13">
+      <c r="A1540">
+        <v>1341</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1540" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1540">
+        <v>10006</v>
+      </c>
+      <c r="H1540" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1540" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1540" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1540" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1540" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1540" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:13">
+      <c r="A1541">
+        <v>1342</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1541" s="25" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1541">
+        <v>10006</v>
+      </c>
+      <c r="H1541" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1541" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1541" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1541" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1541" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:13">
+      <c r="A1542">
+        <v>1343</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1542" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G1542">
+        <v>10006</v>
+      </c>
+      <c r="H1542" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1542" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1542" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1542" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1542" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:13">
+      <c r="A1543">
+        <v>1341</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1543" s="25" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1543">
+        <v>10006</v>
+      </c>
+      <c r="H1543" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1543" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1543" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1543" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1543" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:13">
+      <c r="A1544">
+        <v>1342</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1544" s="25" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1544">
+        <v>10006</v>
+      </c>
+      <c r="H1544" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1544" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1544" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1544" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1544" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:13">
+      <c r="A1545">
+        <v>1343</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1545" s="25" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1545">
+        <v>10006</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1545" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1545" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1545" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1545" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF572292-B0BF-40E8-BD6B-35D826354CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F1224-417D-482F-BE29-5936A8299380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18981" uniqueCount="2316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19509" uniqueCount="2380">
   <si>
     <t>id</t>
   </si>
@@ -17012,6 +17012,216 @@
     <t>$authType ஐப் பூட்ட முயற்சி செய்யப்பட்டது
 $authType ஐ திறக்க முயற்சி செய்யப்பட்டது</t>
   </si>
+  <si>
+    <t>Success summary to customize and download my card</t>
+  </si>
+  <si>
+    <t>Success summary to order a physical card</t>
+  </si>
+  <si>
+    <t>Success summary to share my credential with a partner</t>
+  </si>
+  <si>
+    <t>Success summary to lock/unlock various authentication types</t>
+  </si>
+  <si>
+    <t>Success summary to self update demographic data</t>
+  </si>
+  <si>
+    <t>Success summary to generate or revoke VIDs</t>
+  </si>
+  <si>
+    <t>Success summary to get my UIN card</t>
+  </si>
+  <si>
+    <t>Success summary to verify my phone and email</t>
+  </si>
+  <si>
+    <t>cust-and-down-my-card-success-summary</t>
+  </si>
+  <si>
+    <t>order-a-physical-card-success-summary</t>
+  </si>
+  <si>
+    <t>share-cred-with-partner-success-summary</t>
+  </si>
+  <si>
+    <t>lock-unlock-auth-success-summary</t>
+  </si>
+  <si>
+    <t>update-demo-data-success-summary</t>
+  </si>
+  <si>
+    <t>gen-or-revoke-vid-success-summary</t>
+  </si>
+  <si>
+    <t>get-my-uin-card-success-summary</t>
+  </si>
+  <si>
+    <t>verify-my-phone-email-success-summary</t>
+  </si>
+  <si>
+    <t>Personalised card with the $attributes was generated successfully and sent to the registered email ID and/or phone number</t>
+  </si>
+  <si>
+    <t>Order for a physical card has been placed successfully with the partner</t>
+  </si>
+  <si>
+    <t>Your $attributes were successfully shared</t>
+  </si>
+  <si>
+    <t>Your $authType was locked successfully
+Your $authType was unlocked successfully</t>
+  </si>
+  <si>
+    <t>Your $attributes were updated successfully and sent to the registered email ID and/or phone number</t>
+  </si>
+  <si>
+    <t>$vidType VID *masked VID* was generated successfully
+$vidType VID *masked VID* was revoked successfully</t>
+  </si>
+  <si>
+    <t>UIN card was successfully sent to the registered email ID and/or phone number</t>
+  </si>
+  <si>
+    <t>Your phone number was successfully verified
+Your email ID was successfully verified</t>
+  </si>
+  <si>
+    <t>تم إنشاء بطاقة شخصية بسماattributes$ بنجاح وتم إرسالها إلى معرف البريد الإلكتروني المسجل و / أو رقم الهاتف</t>
+  </si>
+  <si>
+    <t>تم تقديم طلب للحصول على بطاقة فعلية بنجاح مع الشريك</t>
+  </si>
+  <si>
+    <t>تمت مشاركة سمات attributes$ الخاصة بك بنجاح</t>
+  </si>
+  <si>
+    <t>م قفل authType$ الخاص بك بنجاح
+تم إلغاء قفل  authType$ الخاص بك بنجاح</t>
+  </si>
+  <si>
+    <t>تم تحديث سمات attributes$ بنجاح وتم إرسالها إلى معرف البريد الإلكتروني المسجل و / أو رقم الهاتف</t>
+  </si>
+  <si>
+    <t>تم إنشاء  vidType VID$ * مقنع VID * بنجاح
+تم إبطال vidType VID$ * المقنع VID * بنجاح</t>
+  </si>
+  <si>
+    <t>تم إرسال بطاقة UIN بنجاح إلى معرف البريد الإلكتروني المسجل و / أو رقم الهاتف</t>
+  </si>
+  <si>
+    <t>تم التحقق من رقم هاتفك بنجاح
+تم التحقق من معرف البريد الإلكتروني الخاص بك بنجاح</t>
+  </si>
+  <si>
+    <t>La carte personnalisée avec les $attributes a été générée avec succès et envoyée à l'adresse e-mail et/ou au numéro de téléphone enregistrés</t>
+  </si>
+  <si>
+    <t>La commande d'une carte physique a été passée avec succès auprès du partenaire</t>
+  </si>
+  <si>
+    <t>Vos $attributes ont été partagés avec succès</t>
+  </si>
+  <si>
+    <t>Votre $authType a été verrouillé avec succès
+Votre $authType a été déverrouillé avec succès</t>
+  </si>
+  <si>
+    <t>Vos $attributes ont été mis à jour avec succès et envoyés à l'identifiant de messagerie et/ou au numéro de téléphone enregistrés</t>
+  </si>
+  <si>
+    <t>$vidType VID *VID masqué* a été généré avec succès
+$vidType VID *masked VID* a été révoqué avec succès</t>
+  </si>
+  <si>
+    <t>La carte UIN a été envoyée avec succès à l'adresse e-mail et/ou au numéro de téléphone enregistrés</t>
+  </si>
+  <si>
+    <t>Votre numéro de téléphone a été vérifié avec succès
+Votre identifiant de messagerie a été vérifié avec succès</t>
+  </si>
+  <si>
+    <t>$attributes वाला वैयक्तिकृत कार्ड सफलतापूर्वक जनरेट किया गया और पंजीकृत ईमेल आईडी और/या फ़ोन नंबर पर भेजा गया</t>
+  </si>
+  <si>
+    <t>फिजिकल कार्ड के लिए ऑर्डर पार्टनर को सफलतापूर्वक दे दिया गया है</t>
+  </si>
+  <si>
+    <t>आपकी $attributes सफलतापूर्वक साझा की ग</t>
+  </si>
+  <si>
+    <t>आपका $authType सफलतापूर्वक लॉक कर दिया गया था
+आपका $authType सफलतापूर्वक अनलॉक हो गया था</t>
+  </si>
+  <si>
+    <t>आपकी $attributes सफलतापूर्वक अपडेट की गईं और पंजीकृत ईमेल आईडी और/या फोन नंबर पर भेज दी गईं</t>
+  </si>
+  <si>
+    <t>$vidType VID *नकाबपोश VID* सफलतापूर्वक जनरेट किया गया
+$vidType VID *नकाबपोश VID* को सफलतापूर्वक निरस्त कर दिया गया</t>
+  </si>
+  <si>
+    <t>यूआईएन कार्ड सफलतापूर्वक पंजीकृत ईमेल आईडी और/या फोन नंबर पर भेजा गया था</t>
+  </si>
+  <si>
+    <t>आपका फ़ोन नंबर सफलतापूर्वक सत्यापित किया गया था
+आपकी ईमेल आईडी को सफलतापूर्व</t>
+  </si>
+  <si>
+    <t>$attributes ಜೊತೆಗೆ ವೈಯಕ್ತಿಕಗೊಳಿಸಿದ ಕಾರ್ಡ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ರಚಿಸಲಾಗಿದೆ ಮತ್ತು ನೋಂದಾಯಿತ ಇಮೇಲ್ ID ಮತ್ತು/ಅಥವಾ ಫೋನ್ ಸಂಖ್ಯೆಗೆ ಕಳುಹಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ಪಾಲುದಾರರೊಂದಿಗೆ ಭೌತಿಕ ಕಾರ್ಡ್‌ಗಾಗಿ ಆರ್ಡರ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಇರಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ನಿಮ್ಮ $attributes ಗುಣಲಕ್ಷಣಗಳನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಹಂಚಿಕೊಳ್ಳಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ನಿಮ್ಮ $authType ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಲಾಕ್ ಮಾಡಲಾಗಿದೆ
+ನಿಮ್ಮ $authType ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಅನ್‌ಲಾಕ್ ಮಾಡಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ನಿಮ್ಮ $attributes ಯಶಸ್ವಿಯಾಗಿ ನವೀಕರಿಸಲಾಗಿದೆ ಮತ್ತು ನೋಂದಾಯಿತ ಇಮೇಲ್ ID ಮತ್ತು/ಅಥವಾ ಫೋನ್ ಸಂಖ್ಯೆಗೆ ಕಳುಹಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>$vidType VID *ಮಾಸ್ಕ್ಡ್ VID* ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ರಚಿಸಲಾಗಿದೆ
+$vidType VID *ಮಾಸ್ಕ್ ಮಾಡಿದ VID* ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಹಿಂಪಡೆಯಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ನೋಂದಾಯಿತ ಇಮೇಲ್ ಐಡಿ ಮತ್ತು/ಅಥವಾ ಫೋನ್ ಸಂಖ್ಯೆಗೆ UIN ಕಾರ್ಡ್ ಅನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಕಳುಹಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>ನಿಮ್ಮ ಫೋನ್ ಸಂಖ್ಯೆಯನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಪರಿಶೀಲಿಸಲಾಗಿದೆ
+ನಿಮ್ಮ ಇಮೇಲ್ ಐಡಿಯನ್ನು ಯಶಸ್ವಿಯಾಗಿ ಪರಿಶೀಲಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t>$attributes கொண்ட தனிப்பயனாக்கப்பட்ட அட்டை வெற்றிகரமாக உருவாக்கப்பட்டு, பதிவுசெய்யப்பட்ட மின்னஞ்சல் ஐடி மற்றும்/அல்லது தொலைபேசி எண்ணுக்கு அனுப்பப்பட்டது</t>
+  </si>
+  <si>
+    <t>பார்ட்னரிடம் உடல் அட்டைக்கான ஆர்டர் வெற்றிகரமாக வைக்கப்பட்டுள்ளது</t>
+  </si>
+  <si>
+    <t>உங்கள் $attributes புகள் வெற்றிகரமாகப் பகிரப்பட்டன</t>
+  </si>
+  <si>
+    <t>உங்கள் $authType வெற்றிகரமாக பூட்டப்பட்டது
+உங்கள் $authType வெற்றிகரமாக திறக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t>உங்கள் $attributesக்கூறுகள் வெற்றிகரமாக புதுப்பிக்கப்பட்டு பதிவு செய்யப்பட்ட மின்னஞ்சல் ஐடி மற்றும்/அல்லது ஃபோன் எண்ணுக்கு அனுப்பப்பட்டது</t>
+  </si>
+  <si>
+    <t>$vidType VID *மாஸ்க் செய்யப்பட்ட VID* வெற்றிகரமாக உருவாக்கப்பட்டது
+$vidType VID *மாஸ்க் செய்யப்பட்ட VID* வெற்றிகரமாக திரும்பப் பெறப்பட்டது</t>
+  </si>
+  <si>
+    <t>UIN கார்டு பதிவு செய்யப்பட்ட மின்னஞ்சல் ஐடி மற்றும்/அல்லது தொலைபேசி எண்ணுக்கு வெற்றிகரமாக அனுப்பப்பட்டது</t>
+  </si>
+  <si>
+    <t>உங்கள் தொலைபேசி எண் வெற்றிகரமாகச் சரிபார்க்கப்பட்டது
+உங்கள் மின்னஞ்சல் ஐடி வெற்றிகரமாகச் சரிபார்க்கப்பட்டது</t>
+  </si>
 </sst>
 </file>
 
@@ -17099,7 +17309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -17193,6 +17403,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17537,10 +17751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1641"/>
+  <dimension ref="A1:M1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1591" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1597" sqref="F1597"/>
+    <sheetView tabSelected="1" topLeftCell="A1682" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1691" sqref="F1691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -84827,6 +85041,1974 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1642" spans="1:13">
+      <c r="A1642">
+        <v>1360</v>
+      </c>
+      <c r="B1642" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1642" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1642" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1642" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1642" s="42" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G1642" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1642" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1642" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1642" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1642" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1642" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1642" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:13">
+      <c r="A1643">
+        <v>1361</v>
+      </c>
+      <c r="B1643" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1643" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1643" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1643" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1643" s="42" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G1643" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1643" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1643" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1643" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1643" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1643" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1643" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:13">
+      <c r="A1644">
+        <v>1362</v>
+      </c>
+      <c r="B1644" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1644" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1644" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1644" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1644" s="43" t="s">
+        <v>2334</v>
+      </c>
+      <c r="G1644" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1644" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1644" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1644" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1644" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1644" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1644" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:13">
+      <c r="A1645">
+        <v>1363</v>
+      </c>
+      <c r="B1645" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1645" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1645" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1645" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1645" s="43" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G1645" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1645" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1645" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1645" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1645" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1645" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1645" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:13">
+      <c r="A1646">
+        <v>1364</v>
+      </c>
+      <c r="B1646" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1646" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1646" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1646" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1646" s="42" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G1646" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1646" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1646" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1646" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1646" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1646" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1646" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:13">
+      <c r="A1647">
+        <v>1365</v>
+      </c>
+      <c r="B1647" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1647" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1647" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1647" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1647" s="42" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G1647" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1647" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1647" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1647" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1647" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1647" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1647" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:13">
+      <c r="A1648">
+        <v>1366</v>
+      </c>
+      <c r="B1648" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1648" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1648" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1648" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1648" s="42" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G1648" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1648" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1648" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1648" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1648" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1648" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1648" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:13">
+      <c r="A1649">
+        <v>1367</v>
+      </c>
+      <c r="B1649" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1649" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1649" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1649" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1649" s="43" t="s">
+        <v>2339</v>
+      </c>
+      <c r="G1649" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1649" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1649" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1649" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1649" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1649" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1649" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:13">
+      <c r="A1650" s="26">
+        <v>1360</v>
+      </c>
+      <c r="B1650" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1650" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1650" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1650" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1650" s="42" t="s">
+        <v>2340</v>
+      </c>
+      <c r="G1650" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1650" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1650" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1650" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1650" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1650" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1650" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:13">
+      <c r="A1651" s="26">
+        <v>1361</v>
+      </c>
+      <c r="B1651" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1651" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1651" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1651" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1651" s="42" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G1651" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1651" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1651" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1651" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1651" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1651" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1651" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:13">
+      <c r="A1652" s="26">
+        <v>1362</v>
+      </c>
+      <c r="B1652" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1652" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1652" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1652" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1652" s="43" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G1652" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1652" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1652" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1652" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1652" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1652" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1652" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:13">
+      <c r="A1653" s="26">
+        <v>1363</v>
+      </c>
+      <c r="B1653" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1653" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1653" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1653" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1653" s="43" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G1653" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1653" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1653" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1653" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1653" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1653" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1653" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:13">
+      <c r="A1654" s="26">
+        <v>1364</v>
+      </c>
+      <c r="B1654" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1654" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1654" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1654" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1654" s="42" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G1654" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1654" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1654" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1654" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1654" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1654" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1654" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:13">
+      <c r="A1655" s="26">
+        <v>1365</v>
+      </c>
+      <c r="B1655" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1655" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1655" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1655" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1655" s="42" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G1655" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1655" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1655" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1655" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1655" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1655" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1655" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:13">
+      <c r="A1656" s="26">
+        <v>1366</v>
+      </c>
+      <c r="B1656" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1656" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1656" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1656" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1656" s="42" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G1656" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1656" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1656" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1656" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1656" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1656" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1656" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:13">
+      <c r="A1657" s="26">
+        <v>1367</v>
+      </c>
+      <c r="B1657" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1657" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1657" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1657" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1657" s="43" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G1657" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1657" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1657" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1657" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1657" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1657" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1657" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:13">
+      <c r="A1658" s="26">
+        <v>1360</v>
+      </c>
+      <c r="B1658" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1658" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1658" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1658" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1658" s="42" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G1658" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1658" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1658" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1658" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1658" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1658" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1658" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:13">
+      <c r="A1659" s="26">
+        <v>1361</v>
+      </c>
+      <c r="B1659" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1659" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1659" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1659" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1659" s="42" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G1659" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1659" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1659" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1659" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1659" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1659" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1659" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:13">
+      <c r="A1660" s="26">
+        <v>1362</v>
+      </c>
+      <c r="B1660" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1660" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1660" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1660" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1660" s="43" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G1660" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1660" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1660" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1660" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1660" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1660" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1660" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:13">
+      <c r="A1661" s="26">
+        <v>1363</v>
+      </c>
+      <c r="B1661" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1661" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1661" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1661" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1661" s="43" t="s">
+        <v>2351</v>
+      </c>
+      <c r="G1661" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1661" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1661" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1661" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1661" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1661" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1661" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:13">
+      <c r="A1662" s="26">
+        <v>1364</v>
+      </c>
+      <c r="B1662" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1662" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1662" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1662" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1662" s="42" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G1662" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1662" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1662" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1662" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1662" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1662" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1662" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:13">
+      <c r="A1663" s="26">
+        <v>1365</v>
+      </c>
+      <c r="B1663" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1663" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1663" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1663" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1663" s="42" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G1663" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1663" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1663" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1663" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1663" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1663" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1663" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:13">
+      <c r="A1664" s="26">
+        <v>1366</v>
+      </c>
+      <c r="B1664" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1664" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1664" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1664" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1664" s="42" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G1664" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1664" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1664" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1664" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1664" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1664" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1664" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:13">
+      <c r="A1665" s="26">
+        <v>1367</v>
+      </c>
+      <c r="B1665" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1665" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1665" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1665" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1665" s="43" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G1665" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1665" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1665" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1665" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1665" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1665" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1665" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:13">
+      <c r="A1666" s="26">
+        <v>1360</v>
+      </c>
+      <c r="B1666" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1666" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1666" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1666" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1666" s="42" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G1666" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1666" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1666" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1666" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1666" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1666" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1666" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:13">
+      <c r="A1667" s="26">
+        <v>1361</v>
+      </c>
+      <c r="B1667" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1667" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1667" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1667" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1667" s="42" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G1667" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1667" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1667" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1667" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1667" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1667" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1667" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:13">
+      <c r="A1668" s="26">
+        <v>1362</v>
+      </c>
+      <c r="B1668" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1668" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1668" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1668" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1668" s="43" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G1668" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1668" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1668" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1668" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1668" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1668" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1668" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:13">
+      <c r="A1669" s="26">
+        <v>1363</v>
+      </c>
+      <c r="B1669" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1669" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1669" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1669" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1669" s="43" t="s">
+        <v>2359</v>
+      </c>
+      <c r="G1669" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1669" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1669" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1669" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1669" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1669" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1669" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:13">
+      <c r="A1670" s="26">
+        <v>1364</v>
+      </c>
+      <c r="B1670" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1670" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1670" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1670" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1670" s="42" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G1670" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1670" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1670" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1670" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1670" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1670" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1670" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:13">
+      <c r="A1671" s="26">
+        <v>1365</v>
+      </c>
+      <c r="B1671" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1671" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1671" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1671" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1671" s="42" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G1671" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1671" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1671" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1671" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1671" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1671" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1671" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:13">
+      <c r="A1672" s="26">
+        <v>1366</v>
+      </c>
+      <c r="B1672" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1672" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1672" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1672" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1672" s="42" t="s">
+        <v>2362</v>
+      </c>
+      <c r="G1672" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1672" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1672" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1672" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1672" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1672" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1672" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:13">
+      <c r="A1673" s="26">
+        <v>1367</v>
+      </c>
+      <c r="B1673" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1673" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1673" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1673" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1673" s="43" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G1673" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1673" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1673" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1673" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1673" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1673" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1673" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:13">
+      <c r="A1674" s="26">
+        <v>1360</v>
+      </c>
+      <c r="B1674" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1674" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1674" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1674" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1674" s="42" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G1674" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1674" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1674" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1674" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1674" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1674" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1674" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:13">
+      <c r="A1675" s="26">
+        <v>1361</v>
+      </c>
+      <c r="B1675" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1675" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1675" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1675" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1675" s="42" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G1675" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1675" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1675" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1675" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1675" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1675" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1675" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:13">
+      <c r="A1676" s="26">
+        <v>1362</v>
+      </c>
+      <c r="B1676" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1676" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1676" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1676" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1676" s="43" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G1676" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1676" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1676" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1676" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1676" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1676" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1676" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:13">
+      <c r="A1677" s="26">
+        <v>1363</v>
+      </c>
+      <c r="B1677" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1677" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1677" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1677" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1677" s="43" t="s">
+        <v>2367</v>
+      </c>
+      <c r="G1677" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1677" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1677" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1677" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1677" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1677" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1677" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:13">
+      <c r="A1678" s="26">
+        <v>1364</v>
+      </c>
+      <c r="B1678" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1678" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1678" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1678" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1678" s="42" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G1678" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1678" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1678" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1678" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1678" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1678" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1678" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:13">
+      <c r="A1679" s="26">
+        <v>1365</v>
+      </c>
+      <c r="B1679" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1679" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1679" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1679" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1679" s="42" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G1679" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1679" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1679" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1679" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1679" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1679" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1679" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:13">
+      <c r="A1680" s="26">
+        <v>1366</v>
+      </c>
+      <c r="B1680" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1680" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1680" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1680" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1680" s="42" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G1680" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1680" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1680" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1680" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1680" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1680" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1680" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:13">
+      <c r="A1681" s="26">
+        <v>1367</v>
+      </c>
+      <c r="B1681" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1681" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1681" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1681" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1681" s="43" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G1681" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1681" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1681" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1681" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K1681" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1681" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1681" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:13">
+      <c r="A1682" s="26">
+        <v>1360</v>
+      </c>
+      <c r="B1682" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C1682" s="26" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1682" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1682" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1682" s="42" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G1682" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1682" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1682" s="26" t="s">
+        <v>2324</v>
+      </c>
+      <c r="J1682" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1682" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1682" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1682" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:13">
+      <c r="A1683" s="26">
+        <v>1361</v>
+      </c>
+      <c r="B1683" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C1683" s="26" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1683" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1683" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1683" s="42" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G1683" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1683" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1683" s="26" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J1683" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1683" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1683" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1683" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:13">
+      <c r="A1684" s="26">
+        <v>1362</v>
+      </c>
+      <c r="B1684" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C1684" s="26" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D1684" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1684" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1684" s="43" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G1684" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1684" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1684" s="26" t="s">
+        <v>2326</v>
+      </c>
+      <c r="J1684" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1684" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1684" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1684" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:13">
+      <c r="A1685" s="26">
+        <v>1363</v>
+      </c>
+      <c r="B1685" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C1685" s="26" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1685" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1685" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1685" s="43" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G1685" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1685" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1685" s="26" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J1685" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1685" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1685" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1685" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:13">
+      <c r="A1686" s="26">
+        <v>1364</v>
+      </c>
+      <c r="B1686" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C1686" s="26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1686" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1686" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1686" s="42" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G1686" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1686" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1686" s="26" t="s">
+        <v>2328</v>
+      </c>
+      <c r="J1686" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1686" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1686" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1686" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:13">
+      <c r="A1687" s="26">
+        <v>1365</v>
+      </c>
+      <c r="B1687" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C1687" s="26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D1687" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1687" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1687" s="42" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G1687" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1687" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1687" s="26" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J1687" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1687" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1687" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1687" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:13">
+      <c r="A1688" s="26">
+        <v>1366</v>
+      </c>
+      <c r="B1688" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C1688" s="26" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D1688" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1688" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1688" s="42" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G1688" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1688" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1688" s="26" t="s">
+        <v>2330</v>
+      </c>
+      <c r="J1688" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1688" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1688" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1688" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:13">
+      <c r="A1689" s="26">
+        <v>1367</v>
+      </c>
+      <c r="B1689" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C1689" s="26" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1689" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1689" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1689" s="43" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1689" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1689" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1689" s="26" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J1689" s="26" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K1689" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1689" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1689" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F1224-417D-482F-BE29-5936A8299380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6B413-3435-4CF3-895B-6B3C5F55A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17753,8 +17753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1682" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1691" sqref="F1691"/>
+    <sheetView tabSelected="1" topLeftCell="A1184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1197" sqref="D1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -58188,7 +58188,7 @@
     </row>
     <row r="987" spans="1:13" ht="60">
       <c r="A987">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B987" t="s">
         <v>1938</v>
@@ -58229,7 +58229,7 @@
     </row>
     <row r="988" spans="1:13" ht="45">
       <c r="A988">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B988" t="s">
         <v>1938</v>
@@ -58270,7 +58270,7 @@
     </row>
     <row r="989" spans="1:13" ht="60">
       <c r="A989">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B989" t="s">
         <v>1938</v>
@@ -58311,7 +58311,7 @@
     </row>
     <row r="990" spans="1:13" ht="60">
       <c r="A990">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B990" t="s">
         <v>1938</v>
@@ -58352,7 +58352,7 @@
     </row>
     <row r="991" spans="1:13" ht="60">
       <c r="A991">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B991" t="s">
         <v>1938</v>
@@ -58393,7 +58393,7 @@
     </row>
     <row r="992" spans="1:13" ht="60">
       <c r="A992">
-        <v>1250</v>
+        <v>1368</v>
       </c>
       <c r="B992" t="s">
         <v>1938</v>
@@ -58926,7 +58926,7 @@
     </row>
     <row r="1005" spans="1:13" ht="30">
       <c r="A1005">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1005" t="s">
         <v>1963</v>
@@ -58967,7 +58967,7 @@
     </row>
     <row r="1006" spans="1:13" ht="30">
       <c r="A1006">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1006" t="s">
         <v>1963</v>
@@ -59008,7 +59008,7 @@
     </row>
     <row r="1007" spans="1:13" ht="30">
       <c r="A1007">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1007" t="s">
         <v>1963</v>
@@ -59049,7 +59049,7 @@
     </row>
     <row r="1008" spans="1:13" ht="30">
       <c r="A1008">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1008" t="s">
         <v>1963</v>
@@ -59090,7 +59090,7 @@
     </row>
     <row r="1009" spans="1:13" ht="30">
       <c r="A1009">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1009" t="s">
         <v>1963</v>
@@ -59131,7 +59131,7 @@
     </row>
     <row r="1010" spans="1:13" ht="30">
       <c r="A1010">
-        <v>1253</v>
+        <v>1369</v>
       </c>
       <c r="B1010" t="s">
         <v>1963</v>
@@ -60648,7 +60648,7 @@
     </row>
     <row r="1047" spans="1:13" ht="30">
       <c r="A1047">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1047" t="s">
         <v>1985</v>
@@ -60689,7 +60689,7 @@
     </row>
     <row r="1048" spans="1:13" ht="30">
       <c r="A1048">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1048" t="s">
         <v>1985</v>
@@ -60730,7 +60730,7 @@
     </row>
     <row r="1049" spans="1:13" ht="30">
       <c r="A1049">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1049" t="s">
         <v>1985</v>
@@ -60771,7 +60771,7 @@
     </row>
     <row r="1050" spans="1:13" ht="30">
       <c r="A1050">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1050" t="s">
         <v>1985</v>
@@ -60812,7 +60812,7 @@
     </row>
     <row r="1051" spans="1:13" ht="30">
       <c r="A1051">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1051" t="s">
         <v>1985</v>
@@ -60853,7 +60853,7 @@
     </row>
     <row r="1052" spans="1:13" ht="30">
       <c r="A1052">
-        <v>1260</v>
+        <v>1370</v>
       </c>
       <c r="B1052" t="s">
         <v>1985</v>
@@ -61386,7 +61386,7 @@
     </row>
     <row r="1065" spans="1:13" ht="60">
       <c r="A1065">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1065" t="s">
         <v>1988</v>
@@ -61427,7 +61427,7 @@
     </row>
     <row r="1066" spans="1:13" ht="60">
       <c r="A1066">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1066" t="s">
         <v>1988</v>
@@ -61468,7 +61468,7 @@
     </row>
     <row r="1067" spans="1:13" ht="60">
       <c r="A1067">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1067" t="s">
         <v>1988</v>
@@ -61509,7 +61509,7 @@
     </row>
     <row r="1068" spans="1:13" ht="60">
       <c r="A1068">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1068" t="s">
         <v>1988</v>
@@ -61550,7 +61550,7 @@
     </row>
     <row r="1069" spans="1:13" ht="75">
       <c r="A1069">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1069" t="s">
         <v>1988</v>
@@ -61591,7 +61591,7 @@
     </row>
     <row r="1070" spans="1:13" ht="75">
       <c r="A1070">
-        <v>1263</v>
+        <v>1371</v>
       </c>
       <c r="B1070" t="s">
         <v>1988</v>
@@ -61632,7 +61632,7 @@
     </row>
     <row r="1071" spans="1:13" ht="90">
       <c r="A1071">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1071" t="s">
         <v>1989</v>
@@ -61673,7 +61673,7 @@
     </row>
     <row r="1072" spans="1:13" ht="90">
       <c r="A1072">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1072" t="s">
         <v>1989</v>
@@ -61714,7 +61714,7 @@
     </row>
     <row r="1073" spans="1:13" ht="90">
       <c r="A1073">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1073" t="s">
         <v>1989</v>
@@ -61755,7 +61755,7 @@
     </row>
     <row r="1074" spans="1:13" ht="90">
       <c r="A1074">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1074" t="s">
         <v>1989</v>
@@ -61796,7 +61796,7 @@
     </row>
     <row r="1075" spans="1:13" ht="90">
       <c r="A1075">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1075" t="s">
         <v>1989</v>
@@ -61837,7 +61837,7 @@
     </row>
     <row r="1076" spans="1:13" ht="120">
       <c r="A1076">
-        <v>1264</v>
+        <v>1372</v>
       </c>
       <c r="B1076" t="s">
         <v>1989</v>
@@ -61878,7 +61878,7 @@
     </row>
     <row r="1077" spans="1:13" ht="30">
       <c r="A1077">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1077" t="s">
         <v>1993</v>
@@ -61919,7 +61919,7 @@
     </row>
     <row r="1078" spans="1:13" ht="30">
       <c r="A1078">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1078" t="s">
         <v>1993</v>
@@ -61960,7 +61960,7 @@
     </row>
     <row r="1079" spans="1:13" ht="30">
       <c r="A1079">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1079" t="s">
         <v>1993</v>
@@ -62001,7 +62001,7 @@
     </row>
     <row r="1080" spans="1:13" ht="30">
       <c r="A1080">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1080" t="s">
         <v>1993</v>
@@ -62042,7 +62042,7 @@
     </row>
     <row r="1081" spans="1:13" ht="30">
       <c r="A1081">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1081" t="s">
         <v>1993</v>
@@ -62083,7 +62083,7 @@
     </row>
     <row r="1082" spans="1:13" ht="30">
       <c r="A1082">
-        <v>1265</v>
+        <v>1373</v>
       </c>
       <c r="B1082" t="s">
         <v>1993</v>
@@ -62124,7 +62124,7 @@
     </row>
     <row r="1083" spans="1:13" ht="30">
       <c r="A1083">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1083" t="s">
         <v>1994</v>
@@ -62165,7 +62165,7 @@
     </row>
     <row r="1084" spans="1:13" ht="30">
       <c r="A1084">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1084" t="s">
         <v>1994</v>
@@ -62206,7 +62206,7 @@
     </row>
     <row r="1085" spans="1:13" ht="30">
       <c r="A1085">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1085" t="s">
         <v>1994</v>
@@ -62247,7 +62247,7 @@
     </row>
     <row r="1086" spans="1:13" ht="30">
       <c r="A1086">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1086" t="s">
         <v>1994</v>
@@ -62288,7 +62288,7 @@
     </row>
     <row r="1087" spans="1:13" ht="30">
       <c r="A1087">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1087" t="s">
         <v>1994</v>
@@ -62329,7 +62329,7 @@
     </row>
     <row r="1088" spans="1:13" ht="30">
       <c r="A1088">
-        <v>1266</v>
+        <v>1374</v>
       </c>
       <c r="B1088" t="s">
         <v>1994</v>
@@ -62370,7 +62370,7 @@
     </row>
     <row r="1089" spans="1:13" ht="30">
       <c r="A1089">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1089" t="s">
         <v>1995</v>
@@ -62411,7 +62411,7 @@
     </row>
     <row r="1090" spans="1:13" ht="30">
       <c r="A1090">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1090" t="s">
         <v>1995</v>
@@ -62452,7 +62452,7 @@
     </row>
     <row r="1091" spans="1:13" ht="30">
       <c r="A1091">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1091" t="s">
         <v>1995</v>
@@ -62493,7 +62493,7 @@
     </row>
     <row r="1092" spans="1:13" ht="30">
       <c r="A1092">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1092" t="s">
         <v>1995</v>
@@ -62534,7 +62534,7 @@
     </row>
     <row r="1093" spans="1:13" ht="30">
       <c r="A1093">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1093" t="s">
         <v>1995</v>
@@ -62575,7 +62575,7 @@
     </row>
     <row r="1094" spans="1:13" ht="30">
       <c r="A1094">
-        <v>1267</v>
+        <v>1375</v>
       </c>
       <c r="B1094" t="s">
         <v>1995</v>
@@ -62616,7 +62616,7 @@
     </row>
     <row r="1095" spans="1:13" ht="60">
       <c r="A1095">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1095" t="s">
         <v>1996</v>
@@ -62657,7 +62657,7 @@
     </row>
     <row r="1096" spans="1:13" ht="60">
       <c r="A1096">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1096" t="s">
         <v>1997</v>
@@ -62739,7 +62739,7 @@
     </row>
     <row r="1098" spans="1:13" ht="45">
       <c r="A1098">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1098" t="s">
         <v>1996</v>
@@ -62780,7 +62780,7 @@
     </row>
     <row r="1099" spans="1:13" ht="45">
       <c r="A1099">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1099" t="s">
         <v>1997</v>
@@ -62862,7 +62862,7 @@
     </row>
     <row r="1101" spans="1:13" ht="60">
       <c r="A1101">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1101" t="s">
         <v>1996</v>
@@ -62903,7 +62903,7 @@
     </row>
     <row r="1102" spans="1:13" ht="60">
       <c r="A1102">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1102" t="s">
         <v>1997</v>
@@ -62985,7 +62985,7 @@
     </row>
     <row r="1104" spans="1:13" ht="60">
       <c r="A1104">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1104" t="s">
         <v>1996</v>
@@ -63026,7 +63026,7 @@
     </row>
     <row r="1105" spans="1:13" ht="60">
       <c r="A1105">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1105" t="s">
         <v>1997</v>
@@ -63108,7 +63108,7 @@
     </row>
     <row r="1107" spans="1:13" ht="60">
       <c r="A1107">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1107" t="s">
         <v>1996</v>
@@ -63149,7 +63149,7 @@
     </row>
     <row r="1108" spans="1:13" ht="60">
       <c r="A1108">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1108" t="s">
         <v>1997</v>
@@ -63231,7 +63231,7 @@
     </row>
     <row r="1110" spans="1:13" ht="60">
       <c r="A1110">
-        <v>1268</v>
+        <v>1376</v>
       </c>
       <c r="B1110" t="s">
         <v>1996</v>
@@ -63272,7 +63272,7 @@
     </row>
     <row r="1111" spans="1:13" ht="75">
       <c r="A1111">
-        <v>1269</v>
+        <v>1377</v>
       </c>
       <c r="B1111" t="s">
         <v>1997</v>
@@ -63600,7 +63600,7 @@
     </row>
     <row r="1119" spans="1:13" ht="30">
       <c r="A1119">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1119" t="s">
         <v>2012</v>
@@ -63641,7 +63641,7 @@
     </row>
     <row r="1120" spans="1:13" ht="30">
       <c r="A1120">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1120" t="s">
         <v>2012</v>
@@ -63682,7 +63682,7 @@
     </row>
     <row r="1121" spans="1:13" ht="30">
       <c r="A1121">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1121" t="s">
         <v>2012</v>
@@ -63723,7 +63723,7 @@
     </row>
     <row r="1122" spans="1:13" ht="30">
       <c r="A1122">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1122" t="s">
         <v>2012</v>
@@ -63764,7 +63764,7 @@
     </row>
     <row r="1123" spans="1:13" ht="30">
       <c r="A1123">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1123" t="s">
         <v>2012</v>
@@ -63805,7 +63805,7 @@
     </row>
     <row r="1124" spans="1:13" ht="30">
       <c r="A1124">
-        <v>1272</v>
+        <v>1378</v>
       </c>
       <c r="B1124" t="s">
         <v>2012</v>
@@ -63846,7 +63846,7 @@
     </row>
     <row r="1125" spans="1:13" ht="30">
       <c r="A1125">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1125" t="s">
         <v>2013</v>
@@ -63887,7 +63887,7 @@
     </row>
     <row r="1126" spans="1:13" ht="30">
       <c r="A1126">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1126" t="s">
         <v>2013</v>
@@ -63928,7 +63928,7 @@
     </row>
     <row r="1127" spans="1:13" ht="30">
       <c r="A1127">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1127" t="s">
         <v>2013</v>
@@ -63969,7 +63969,7 @@
     </row>
     <row r="1128" spans="1:13" ht="30">
       <c r="A1128">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1128" t="s">
         <v>2013</v>
@@ -64010,7 +64010,7 @@
     </row>
     <row r="1129" spans="1:13" ht="30">
       <c r="A1129">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1129" t="s">
         <v>2013</v>
@@ -64051,7 +64051,7 @@
     </row>
     <row r="1130" spans="1:13" ht="30">
       <c r="A1130">
-        <v>1273</v>
+        <v>1379</v>
       </c>
       <c r="B1130" t="s">
         <v>2013</v>
@@ -64092,7 +64092,7 @@
     </row>
     <row r="1131" spans="1:13" ht="60">
       <c r="A1131">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1131" t="s">
         <v>2014</v>
@@ -64133,7 +64133,7 @@
     </row>
     <row r="1132" spans="1:13" ht="105">
       <c r="A1132">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1132" t="s">
         <v>2015</v>
@@ -64174,7 +64174,7 @@
     </row>
     <row r="1133" spans="1:13" ht="90">
       <c r="A1133">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1133" t="s">
         <v>2016</v>
@@ -64215,7 +64215,7 @@
     </row>
     <row r="1134" spans="1:13" ht="45">
       <c r="A1134">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1134" t="s">
         <v>2014</v>
@@ -64256,7 +64256,7 @@
     </row>
     <row r="1135" spans="1:13" ht="75">
       <c r="A1135">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1135" t="s">
         <v>2015</v>
@@ -64297,7 +64297,7 @@
     </row>
     <row r="1136" spans="1:13" ht="90">
       <c r="A1136">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1136" t="s">
         <v>2016</v>
@@ -64338,7 +64338,7 @@
     </row>
     <row r="1137" spans="1:13" ht="60">
       <c r="A1137">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1137" t="s">
         <v>2014</v>
@@ -64379,7 +64379,7 @@
     </row>
     <row r="1138" spans="1:13" ht="105">
       <c r="A1138">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1138" t="s">
         <v>2015</v>
@@ -64420,7 +64420,7 @@
     </row>
     <row r="1139" spans="1:13" ht="90">
       <c r="A1139">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1139" t="s">
         <v>2016</v>
@@ -64461,7 +64461,7 @@
     </row>
     <row r="1140" spans="1:13" ht="60">
       <c r="A1140">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1140" t="s">
         <v>2014</v>
@@ -64502,7 +64502,7 @@
     </row>
     <row r="1141" spans="1:13" ht="105">
       <c r="A1141">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1141" t="s">
         <v>2015</v>
@@ -64543,7 +64543,7 @@
     </row>
     <row r="1142" spans="1:13" ht="90">
       <c r="A1142">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1142" t="s">
         <v>2016</v>
@@ -64584,7 +64584,7 @@
     </row>
     <row r="1143" spans="1:13" ht="60">
       <c r="A1143">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1143" t="s">
         <v>2014</v>
@@ -64625,7 +64625,7 @@
     </row>
     <row r="1144" spans="1:13" ht="120">
       <c r="A1144">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1144" t="s">
         <v>2015</v>
@@ -64666,7 +64666,7 @@
     </row>
     <row r="1145" spans="1:13" ht="90">
       <c r="A1145">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1145" t="s">
         <v>2016</v>
@@ -64707,7 +64707,7 @@
     </row>
     <row r="1146" spans="1:13" ht="60">
       <c r="A1146">
-        <v>1274</v>
+        <v>1380</v>
       </c>
       <c r="B1146" t="s">
         <v>2014</v>
@@ -64748,7 +64748,7 @@
     </row>
     <row r="1147" spans="1:13" ht="150">
       <c r="A1147">
-        <v>1275</v>
+        <v>1381</v>
       </c>
       <c r="B1147" t="s">
         <v>2015</v>
@@ -64789,7 +64789,7 @@
     </row>
     <row r="1148" spans="1:13" ht="120">
       <c r="A1148">
-        <v>1276</v>
+        <v>1382</v>
       </c>
       <c r="B1148" t="s">
         <v>2016</v>
@@ -64830,7 +64830,7 @@
     </row>
     <row r="1149" spans="1:13" ht="30">
       <c r="A1149">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1149" t="s">
         <v>2035</v>
@@ -64871,7 +64871,7 @@
     </row>
     <row r="1150" spans="1:13" ht="30">
       <c r="A1150">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1150" t="s">
         <v>2035</v>
@@ -64912,7 +64912,7 @@
     </row>
     <row r="1151" spans="1:13" ht="30">
       <c r="A1151">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1151" t="s">
         <v>2035</v>
@@ -64953,7 +64953,7 @@
     </row>
     <row r="1152" spans="1:13" ht="30">
       <c r="A1152">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1152" t="s">
         <v>2035</v>
@@ -64994,7 +64994,7 @@
     </row>
     <row r="1153" spans="1:13" ht="30">
       <c r="A1153">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1153" t="s">
         <v>2035</v>
@@ -65035,7 +65035,7 @@
     </row>
     <row r="1154" spans="1:13" ht="30">
       <c r="A1154">
-        <v>1277</v>
+        <v>1383</v>
       </c>
       <c r="B1154" t="s">
         <v>2035</v>
@@ -65076,7 +65076,7 @@
     </row>
     <row r="1155" spans="1:13" ht="30">
       <c r="A1155">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1155" t="s">
         <v>2036</v>
@@ -65117,7 +65117,7 @@
     </row>
     <row r="1156" spans="1:13" ht="30">
       <c r="A1156">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1156" t="s">
         <v>2036</v>
@@ -65158,7 +65158,7 @@
     </row>
     <row r="1157" spans="1:13" ht="30">
       <c r="A1157">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1157" t="s">
         <v>2036</v>
@@ -65199,7 +65199,7 @@
     </row>
     <row r="1158" spans="1:13" ht="30">
       <c r="A1158">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1158" t="s">
         <v>2036</v>
@@ -65240,7 +65240,7 @@
     </row>
     <row r="1159" spans="1:13" ht="30">
       <c r="A1159">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1159" t="s">
         <v>2036</v>
@@ -65281,7 +65281,7 @@
     </row>
     <row r="1160" spans="1:13" ht="30">
       <c r="A1160">
-        <v>1278</v>
+        <v>1384</v>
       </c>
       <c r="B1160" t="s">
         <v>2036</v>
@@ -65322,7 +65322,7 @@
     </row>
     <row r="1161" spans="1:13" ht="30">
       <c r="A1161">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1161" t="s">
         <v>2037</v>
@@ -65363,7 +65363,7 @@
     </row>
     <row r="1162" spans="1:13" ht="30">
       <c r="A1162">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1162" t="s">
         <v>2037</v>
@@ -65404,7 +65404,7 @@
     </row>
     <row r="1163" spans="1:13" ht="30">
       <c r="A1163">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1163" t="s">
         <v>2037</v>
@@ -65445,7 +65445,7 @@
     </row>
     <row r="1164" spans="1:13" ht="30">
       <c r="A1164">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1164" t="s">
         <v>2037</v>
@@ -65486,7 +65486,7 @@
     </row>
     <row r="1165" spans="1:13" ht="30">
       <c r="A1165">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1165" t="s">
         <v>2037</v>
@@ -65527,7 +65527,7 @@
     </row>
     <row r="1166" spans="1:13" ht="30">
       <c r="A1166">
-        <v>1279</v>
+        <v>1385</v>
       </c>
       <c r="B1166" t="s">
         <v>2037</v>
@@ -65568,7 +65568,7 @@
     </row>
     <row r="1167" spans="1:13" ht="60">
       <c r="A1167">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1167" t="s">
         <v>2038</v>
@@ -65609,7 +65609,7 @@
     </row>
     <row r="1168" spans="1:13" ht="60">
       <c r="A1168">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1168" t="s">
         <v>2039</v>
@@ -65691,7 +65691,7 @@
     </row>
     <row r="1170" spans="1:13" ht="45">
       <c r="A1170">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1170" t="s">
         <v>2038</v>
@@ -65732,7 +65732,7 @@
     </row>
     <row r="1171" spans="1:13" ht="45">
       <c r="A1171">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1171" t="s">
         <v>2039</v>
@@ -65814,7 +65814,7 @@
     </row>
     <row r="1173" spans="1:13" ht="60">
       <c r="A1173">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1173" t="s">
         <v>2038</v>
@@ -65855,7 +65855,7 @@
     </row>
     <row r="1174" spans="1:13" ht="60">
       <c r="A1174">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1174" t="s">
         <v>2039</v>
@@ -65937,7 +65937,7 @@
     </row>
     <row r="1176" spans="1:13" ht="60">
       <c r="A1176">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1176" t="s">
         <v>2038</v>
@@ -65978,7 +65978,7 @@
     </row>
     <row r="1177" spans="1:13" ht="60">
       <c r="A1177">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1177" t="s">
         <v>2039</v>
@@ -66060,7 +66060,7 @@
     </row>
     <row r="1179" spans="1:13" ht="60">
       <c r="A1179">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1179" t="s">
         <v>2038</v>
@@ -66101,7 +66101,7 @@
     </row>
     <row r="1180" spans="1:13" ht="60">
       <c r="A1180">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1180" t="s">
         <v>2039</v>
@@ -66183,7 +66183,7 @@
     </row>
     <row r="1182" spans="1:13" ht="60">
       <c r="A1182">
-        <v>1280</v>
+        <v>1386</v>
       </c>
       <c r="B1182" t="s">
         <v>2038</v>
@@ -66224,7 +66224,7 @@
     </row>
     <row r="1183" spans="1:13" ht="75">
       <c r="A1183">
-        <v>1281</v>
+        <v>1387</v>
       </c>
       <c r="B1183" t="s">
         <v>2039</v>
@@ -66306,7 +66306,7 @@
     </row>
     <row r="1185" spans="1:13" ht="30">
       <c r="A1185">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1185" t="s">
         <v>2047</v>
@@ -66347,7 +66347,7 @@
     </row>
     <row r="1186" spans="1:13" ht="30">
       <c r="A1186">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1186" t="s">
         <v>2047</v>
@@ -66388,7 +66388,7 @@
     </row>
     <row r="1187" spans="1:13" ht="30">
       <c r="A1187">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1187" t="s">
         <v>2047</v>
@@ -66429,7 +66429,7 @@
     </row>
     <row r="1188" spans="1:13" ht="30">
       <c r="A1188">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1188" t="s">
         <v>2047</v>
@@ -66470,7 +66470,7 @@
     </row>
     <row r="1189" spans="1:13" ht="30">
       <c r="A1189">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1189" t="s">
         <v>2047</v>
@@ -66511,7 +66511,7 @@
     </row>
     <row r="1190" spans="1:13" ht="30">
       <c r="A1190">
-        <v>1283</v>
+        <v>1388</v>
       </c>
       <c r="B1190" t="s">
         <v>2047</v>
@@ -66552,7 +66552,7 @@
     </row>
     <row r="1191" spans="1:13" ht="30">
       <c r="A1191">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1191" t="s">
         <v>2048</v>
@@ -66593,7 +66593,7 @@
     </row>
     <row r="1192" spans="1:13" ht="30">
       <c r="A1192">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1192" t="s">
         <v>2048</v>
@@ -66634,7 +66634,7 @@
     </row>
     <row r="1193" spans="1:13" ht="30">
       <c r="A1193">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1193" t="s">
         <v>2048</v>
@@ -66675,7 +66675,7 @@
     </row>
     <row r="1194" spans="1:13" ht="30">
       <c r="A1194">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1194" t="s">
         <v>2048</v>
@@ -66716,7 +66716,7 @@
     </row>
     <row r="1195" spans="1:13" ht="30">
       <c r="A1195">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1195" t="s">
         <v>2048</v>
@@ -66757,7 +66757,7 @@
     </row>
     <row r="1196" spans="1:13" ht="30">
       <c r="A1196">
-        <v>1284</v>
+        <v>1389</v>
       </c>
       <c r="B1196" t="s">
         <v>2048</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E6B413-3435-4CF3-895B-6B3C5F55A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613AC54-2CD0-4CB5-912B-E6BE91E7D3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17753,8 +17753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1197" sqref="D1197"/>
+    <sheetView tabSelected="1" topLeftCell="A1163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1168" sqref="D1168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -57942,7 +57942,7 @@
     </row>
     <row r="981" spans="1:13" ht="30">
       <c r="A981">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B981" t="s">
         <v>1937</v>
@@ -57983,7 +57983,7 @@
     </row>
     <row r="982" spans="1:13" ht="30">
       <c r="A982">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B982" t="s">
         <v>1937</v>
@@ -58024,7 +58024,7 @@
     </row>
     <row r="983" spans="1:13" ht="30">
       <c r="A983">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B983" t="s">
         <v>1937</v>
@@ -58065,7 +58065,7 @@
     </row>
     <row r="984" spans="1:13" ht="30">
       <c r="A984">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B984" t="s">
         <v>1937</v>
@@ -58106,7 +58106,7 @@
     </row>
     <row r="985" spans="1:13" ht="30">
       <c r="A985">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B985" t="s">
         <v>1937</v>
@@ -58147,7 +58147,7 @@
     </row>
     <row r="986" spans="1:13" ht="30">
       <c r="A986">
-        <v>1249</v>
+        <v>1390</v>
       </c>
       <c r="B986" t="s">
         <v>1937</v>
@@ -65650,7 +65650,7 @@
     </row>
     <row r="1169" spans="1:13" ht="90">
       <c r="A1169">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1169" t="s">
         <v>2040</v>
@@ -65773,7 +65773,7 @@
     </row>
     <row r="1172" spans="1:13" ht="90">
       <c r="A1172">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1172" t="s">
         <v>2040</v>
@@ -65896,7 +65896,7 @@
     </row>
     <row r="1175" spans="1:13" ht="90">
       <c r="A1175">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1175" t="s">
         <v>2040</v>
@@ -66019,7 +66019,7 @@
     </row>
     <row r="1178" spans="1:13" ht="90">
       <c r="A1178">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1178" t="s">
         <v>2040</v>
@@ -66142,7 +66142,7 @@
     </row>
     <row r="1181" spans="1:13" ht="90">
       <c r="A1181">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1181" t="s">
         <v>2040</v>
@@ -66265,7 +66265,7 @@
     </row>
     <row r="1184" spans="1:13" ht="120">
       <c r="A1184">
-        <v>1282</v>
+        <v>1391</v>
       </c>
       <c r="B1184" t="s">
         <v>2040</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1074108\mosipProject\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D97CF-F8D8-4FF6-AED4-27C7080C4890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C605D0-0944-40DE-A766-5D7922C7D497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19509" uniqueCount="2380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19520" uniqueCount="2383">
   <si>
     <t>id</t>
   </si>
@@ -17238,6 +17238,374 @@
 &lt;/div&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>List of supporting documents</t>
+  </si>
+  <si>
+    <t>supporting-docs-list</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;head&gt;
+&lt;/head&gt;
+&lt;body lang=EN-US style='word-wrap:break-word'&gt;
+&lt;div class=WordSection1&gt;
+&lt;p class=MsoNormal align=center style='text-align:center'&gt;&lt;b&gt;&lt;span
+style='font-size:16.0pt;line-height:107%;font-family:"Arial",sans-serif;
+color:#1D1C1D;background:yellow'&gt;Supporting documents&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;table class=MsoTableGrid border=1 cellspacing=0 cellpadding=0
+ style='border-collapse:collapse;border:none'&gt;
+ &lt;tr&gt;
+  &lt;td width=623 colspan=2 valign=top style='width:467.5pt;border:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:aqua'&gt;POI (&lt;/span&gt;&lt;/b&gt;&lt;b&gt;&lt;span style='font-size:
+  14.0pt;background:aqua'&gt;Proof of Identity)&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr style='height:35.85pt'&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt;height:35.85pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;The POI documents specification:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt;height:35.85pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;1. It should contain the Full Name and a clear Photo &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;2. It should be valid for at least the next 6 months&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;Acceptable document:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='font-size:16.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;1. Passport &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;2. PAN Card/ e-PAN &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;3. Ration / PDS Photo Card&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;4. Voter ID/ e-Voter ID &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;5. Driving License &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;6. Service photo identity card issued by Central Govt./ State Govt./ UT
+  Govt./ PSU/ Banks &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;7. Pensioner Photo Card/Freedom Fighter Photo Card &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;8. Disability ID Card/ handicapped medical certificate issued by the
+  respective Central/ State/ UT Governments&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;9. Bank Pass Book having name and Photograph Cross Stamped by bank
+  official&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;10. Valid Visa along with Foreign Passport&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+&lt;/table&gt;
+&lt;p class=MsoNormal&gt;&lt;span style='font-size:16.0pt;line-height:107%;font-family:
+"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;table class=MsoTableGrid border=1 cellspacing=0 cellpadding=0
+ style='border-collapse:collapse;border:none'&gt;
+ &lt;tr&gt;
+  &lt;td width=623 colspan=2 valign=top style='width:467.5pt;border:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:aqua'&gt;POA (Proof of Address)&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr style='height:35.3pt'&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt;height:35.3pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;The POA documents specification:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt;height:35.3pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;1. It should contain Full Name and full address &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;2. It should be valid for at least the next 6 months&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;Acceptable document:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='font-size:16.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;1. Passport/ Passport of Spouse/ Passport of Parents (in case of Minor)&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;2. Bank Statement (with Bank stamp &amp;amp; signature of bank official)/ Passbook/ Post
+  Office Account Statement/ Passbook&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;3. Ration Card&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;4. Voter ID/ e-Voter ID&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; 
+  &lt;/span&gt;5. Driving License&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;6. Service
+  photo identity card issued by PSU/ Banks/ State/ Central Governments&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;7. Pensioner
+  Card/ Freedom Fighter Card&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;8. Kissan
+  Passbook &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;9. CGHS/
+  ECHS/ ESIC/ Medi-Claim Card with Photo issued by State/ Central Govts./ PSUs &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;10. Disability ID Card/
+  handicapped medical certificate issued by the respective State/ UT
+  Governments/ Administrations/ Central Govt. &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;11. Photo ID Card/ Certificate
+  having address issued by Central/State Govt.&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+&lt;/table&gt;
+&lt;p class=MsoNormal&gt;&lt;span style='font-size:16.0pt;line-height:107%;font-family:
+"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p class=MsoNormal&gt;&lt;span style='font-size:16.0pt;line-height:107%;font-family:
+"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;table class=MsoTableGrid border=1 cellspacing=0 cellpadding=0
+ style='border-collapse:collapse;border:none'&gt;
+ &lt;tr&gt;
+  &lt;td width=623 colspan=2 valign=top style='width:467.5pt;border:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:aqua'&gt;POR (Proof of Relationship)&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr&gt;
+  &lt;td width=274 valign=top style='width:205.3pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;The POR documents specification:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=350 valign=top style='width:262.2pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;1. It should contain the Introducer’s Full Name and a clear Photo&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;2. It should contain the applicant’s Full Name and a clear Photo&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;3. The relationship between the Introducer and resident should be clearly
+  mentioned&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;4. All the produced documents should be valid for at least the next 6
+  months&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr&gt;
+  &lt;td width=274 valign=top style='width:205.3pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;Acceptable document:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='font-size:16.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=350 valign=top style='width:262.2pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;1. Passport of Spouse/ Passport of Parents (in case of Minor) &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;2. Ration card/PDS Card&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;3. Medi-Claim Card with Photo issued by Centre/ State Govts./ PSUs &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;4. Pension Card&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;5. Birth Certificate issued by Registrar of Birth, Municipal Corporation,
+  and other notified local government bodies &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;6. Any other Central/ State government-issued family entitlement document
+  &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;7. Marriage Certificate issued by the government &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;8. Photo ID card issued by Central/ State Govt. like ARMY canteen card
+  etc. &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:
+  -.25in;line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;9. Discharge card/ slip issued by Government/ Private Hospitals for birth
+  of a child (only for child aged between 0-5 years) &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;
+  line-height:normal'&gt;&lt;span style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;
+  &lt;/span&gt;10. Self-declaration from the Head of Family (HoF) certifying the
+  relationship with the resident residing at the same address as HoF&lt;span
+  style='font-size:11.5pt;font-family:"Arial",sans-serif;color:#1D1C1D;
+  background:white'&gt; &lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+&lt;/table&gt;
+&lt;p class=MsoNormal&gt;&lt;span style='font-size:16.0pt;line-height:107%;font-family:
+"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p class=MsoNormal&gt;&lt;span style='font-size:16.0pt;line-height:107%;font-family:
+"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;table class=MsoTableGrid border=1 cellspacing=0 cellpadding=0
+ style='border-collapse:collapse;border:none'&gt;
+ &lt;tr&gt;
+  &lt;td width=623 colspan=2 valign=top style='width:467.5pt;border:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:14.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:aqua'&gt;DOB (Date of Birth)&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr style='height:34.7pt'&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt;height:34.7pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;The DOB documents specification:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt;height:34.7pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;1. It
+  should contain Full Name, a clear Photo and DOB&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;2. It
+  should be valid for at least the next 6 months&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+ &lt;tr&gt;
+  &lt;td width=217 valign=top style='width:162.8pt;border:solid windowtext 1.0pt;
+  border-top:none;padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;b&gt;&lt;span style='font-size:11.5pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;Acceptable document:&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+  &lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center;
+  line-height:normal'&gt;&lt;span style='font-size:16.0pt;font-family:"Arial",sans-serif;
+  color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+  &lt;/td&gt;
+  &lt;td width=406 valign=top style='width:304.7pt;border-top:none;border-left:
+  none;border-bottom:solid windowtext 1.0pt;border-right:solid windowtext 1.0pt;
+  padding:0in 5.4pt 0in 5.4pt'&gt;
+  &lt;p class=MsoListParagraphCxSpFirst style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;1. Birth Certificate &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;2. Passport&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;3. PAN Card/e-PAN&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;4. Service photo
+  identity card issued by Central Govt./State Govt./UT Govt./PSU/Banks &lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;5. Photo ID card having
+  Date of Birth, issued by Recognized Educational Institution&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;6. Valid School
+  Identity card/Identity Card issued by recognized educational institutions&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;7. Gas Connection Bill&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;8. Marriage Certificate
+  issued by the Government containing Name and address&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpMiddle style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;9. Registered Sale/
+  Rent Agreement&lt;/p&gt;
+  &lt;p class=MsoListParagraphCxSpLast style='margin-bottom:0in;text-indent:-.25in;line-height:normal'&gt;&lt;span
+  style='font:7.0pt "Times New Roman"'&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/span&gt;10. Telephone Landline
+  Bill/ Phone (Postpaid Mobile) Bill/ Broadband Bill&lt;/p&gt;
+  &lt;/td&gt;
+ &lt;/tr&gt;
+&lt;/table&gt;
+&lt;p class=MsoNormal style='margin-bottom:0in'&gt;&lt;span style='font-size:11.5pt;
+line-height:107%;font-family:"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p class=MsoNormal style='margin-bottom:0in'&gt;&lt;span style='font-size:11.5pt;
+line-height:107%;font-family:"Arial",sans-serif;color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+&lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center'&gt;&lt;b&gt;&lt;span
+style='font-size:16.0pt;line-height:107%;font-family:"Arial",sans-serif;
+color:#1D1C1D;background:yellow'&gt;Sample acceptable identity card&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center'&gt;&lt;b&gt;&lt;span
+style='font-size:16.0pt;line-height:107%;font-family:"Arial",sans-serif;
+color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center'&gt;&lt;b&gt;&lt;span
+lang=EN-IN style='font-size:16.0pt;line-height:107%;font-family:"Arial",sans-serif;
+color:#1D1C1D;background:white'&gt;&amp;nbsp;&lt;/span&gt;&lt;/b&gt;&lt;/p&gt;
+&lt;p class=MsoNormal align=center style='margin-bottom:0in;text-align:center'&gt;&lt;b&gt;&lt;span
+lang=EN-IN style='font-size:16.0pt;line-height:107%;font-family:"Arial",sans-serif;
+color:#1D1C1D;background:white'&gt;&lt;img width=450 height=299 id="Picture 1"
+src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVIAAADhCAYAAACa/D2AAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAACxMAAAsTAQCanBgAAP+lSURBVHhe7P0HuBVVuq4N9/n+/+zzn7B3R7vtoN22Oeecs4KKomKOmHNEzBhBQRElKyAqRlAJKooREBElS845Z1h58f7P/VaNWjXnqjnXYmHv/X3X57h4qblqxKoa465nhKr6VUW52S/2i/1iv9gv1jArL9u8+ReQ/mK/2C/2i22F/QLSX+wX+8V+sa20X0D6i/1iv9gvtpX2C0h/sV/sF/vFttJ+Aekv9ov9Yr/YVtovIP3FfrFf7BfbSvsFpGmryNj3/xb7Vx/7/5vPbX3sl/Pz/2jbepBSAWSVWGVs4e+f1TY3zMrrsurIyqqsoqTMKksrov3k6ceSH/7ntDhvt7BP5aAMZZUqS3m0LRjn57GKsgqr2FTi5yA6bzrujHBbYxUcC8dGHn5M2eHqZZ6GjPPhZc06L5vrnZefb/8dznEDzMujNBpYX7zuefxQ50gvHGMRi48hihdbso8wqf21LM/f49UVJ8+y8i9m9c0jPi+ZfsE8TB15F/PPyyOTb/W0BoNUEaMKuHG9VWnH5s3V8ihViWS2WVbAEW6LrcqsWke6xaaCVpUVMflXbrLNlSVmZets87qFtnnTCh1HiW0uXWtWusb9PZ260uO4FW/LTHmXx1a23vPcXLLGqtcvVTlWqzyLbPPahTrZG2QqB3nINpdv3DIr2xCln1j8N/npGKs3LLPqlTOU56po/8aVkV9OnDrM0ypk6616zTyrXj0nPjblU56RRr1MZS9RmjpPm0t1zbzM2pccL+dSf8uvmnNYItP5yzkfObbJqjcut83rl6kO6DxnXqdCpuuhNEzH5/lsWKrro/1Z9aOgUQfLdJ11rUtWxXWMusQ1V9r416rXKVPYzapHVq02QlshvLdDpU27qdWWgqmNEo9wxK2WavC8tK2PIz7xiO95FWnzOPJU2ps9D8Ur5kK6VUXKovQ8LSyLN14+lFCBslEejx/lQRB2VVaKa4JvhQBbrqj53CtkWwxSAIpxN/NKS2NXBfeTtFGVWhXbT4QqGpU9ulAqLJXUD0qlTVxc+rAtaFzojEpUp6nAmZW3gHl4DlINLAdiaohqbA5WD6fjIf103C0GadQIE9jQEDcBMMEhbuAAoHrjCu1TvsCD34TBX2m4edg6DLAECLH1vLhWSivAk2NkqzyqV8/TfuUV9ge/YpYDzjwjD52/6pUzBdIlUb7A2suWkVZ9jDIp3erV86PzEs4H+QHZ5Lg4j3nnI8OqudYlK6M6ivk1KmRca0GIm6+ui1HPKQ91hhtxVV7dqNNoXCrnRsGcG7fDWPtq1ecM26y6qDQc4hwLZaN+ZrajlNHq4uNm62Wul4sB5cdI/hmQyncePm5bxRzlqpQoq8WJPAcPAleynOLWQDbDBVCTTr7Tvs06rqrKAFPAqstTh20RSMtKq62srNoziQ40nMQARG3YqqAOBCmd6CLp5ABZ7rj85oLTkIAPJ4OL73fP1EUJtwi3/ySQBqOxhAYl84ZJhVOZ8du8QQpGx+bKgTziypzb2LKMBijjnOj8mDd6VJPSB3JZjT6oVhQWylENBkBUS0FVr1ssP8VT2lG4vLjByjBBJQZoNefeQaNrFMCUWAxNDyuorgFUCu/li/2yjOudhifmoBbkUHwBbOSpY6heNTu6ScQ3jFrp1csUj3x1/vx8rNE14lyiEOsJ0MQ4h6hklckwrn3OtUtdQ+XrN1UAym/2UZfJU8fp4fjbG7PSKWj4x/WhAlN8nR8AXXedV53T1tUo5VdvCmWd226KmIBFGThfdSrE4MiT9kDZSaMuxzHQ3jmXdYWPYQvEFDjal+9IA3+Ov1B6AZKFjgk2cexZ/nF5Q9qbdS4rxLv6wLTeICUxQFpVzUHW42IljrBxHCoNF4FGEHeh/WLSoNRwOUneEKRavCKGeJhXnGChMtVlKrhX2C20WupSf3NxvHGpsnODAKTyc+CsWaCtGhDxPFxGfCq8jjtqfDQW/eY8eEOuZ6MnPwwY0UWmOyhgJWCsFSdOly5uCMP5DRDybREDhH4D0fVRGoA88suImwYp+Tg8ua76HfYHo/xSX65+1y2Juvv1KU+WkS/5qc5Ur5qjMipfv6nU85zmmcdfq+uptGtdRwE/ugHG1y/tFwxF5eWRQvT6VKgOKm3SowsPRFGh1FnOD6qdeEXq+maUq8cnrtJSWG5I3lYKwlT7STfU09Ct1XF7uoUccf044jLV6bYgfJK28ud3IUc6DsjC6W3meDzPLIiqBx3K5FzJdQ5wrkue32bxrry00tlXDKj1AikJlJZUWUVFONBCF6oexgVDwfkdV1tgF99V/SBpHA5VHZROnKs/VUz+9spNxUlVqFwjvfTfSi+puFtgtUCYZw5LGb9pyCqjbwEECk5dvChs3Fjo/qmBBHj6eKfDFRWU3aCLGufIfwdFJsgl3XH9HYepDuCUevJxReLVG1hKx49Jv+M8OC7vCtYKG8LEAA3QdnCSTgzQtJE+8ejyr54b3Zzy0yxqik8e5EW+7COv5Jj1u0EwVRzSCjc8rqP2+zXkb1egNdevtkXXPOqN6VpTD3PqF/GUHn4BoN7A8/wDNHLqs0zhPV3K4ACN94cuPteJ/fltVGG4CUegITz7CSPjmBEv+YAhTAjvcMrzr+XkT5n9eMijjvCEqQOO7mL1XFBlkk8oZ1YZ3Z/4WWWK45IHx5vvVMbqyp8JpFGXXpI4KYS24QJtkQFPLkqeOVjjShMgG1eM5K4bKomPyapCq0JVMzmEEnRgYvHJCumwZd+WWl0gTVu4u1PBaYBh3FFWvXKWd2EdojRGB2h+GlmNuQ5LYBIbDZdzA0DUIKqWTbMq4EQXF6A4POsL0GCKlw8/0o+PzyePgGaAORB3BapyePiM+FkWgEiawAf1y77MMsWma+7DAg5M0gh+KgvnB6W7YoZgpjA6x1sMVFe0Uqe6OaFyozFQXb+iAE2Z1x+FJU5cV71eJQAFgvG+LFO9DTelBBBx/coFaFzHU+bXh96SN1O1OeATykUYb4f57VdtG2WcdoR1yNUHoHKEI3xdyhLnXWiFQ0EWC4ufp0m4AmXwMJwPhcly8vehhUL+fn7xy0jfmRLFYwLKxaR2ZVm9QJqrRmPHATTEMi5+UQuQpYKFCuqVUL9pxFRMKpkaMY3bwUs8r9Chsiqsb3UwXlHjbSHzfOLKVx8LDdWVH1CIFRENHbDgR+NeM1eNknHWuJF5/FQDrq8l4IjNoaV8gAsKDfOyrImUqqu9GKacs/z4mVYAhL5fBkTXL47S5ncC0IZYnCYw1Q3Au/phX1Je/tYxAUfAi1+tMsfmaekcOGjjcFnnsZBxnkoUj2Ojiw4MHaBbUi8UVg14s+rk5o1MBMWCgLqVVedyjPpZGg2rUJ+oL7GYiNpFoTbEfsUNYAEgnh9+iJNiAkj+3OiT7rG2heCVdtWKS3jWD/G7mCM9lcUVM3kWdApH/n68gDzL0VVXnoQplBbH5OciIw3KUhCwStv9lH7sqquqrWRTZUFVWidIUaMlAmk0NppyORdhC8wvNid9Cy1AMNlyoKnfnLAATlU6VxPMgiq8Q8ZnZOMwVGqvYHEa+WDFL7NxYLGfGlyiOByYcaOl4bupQaoBJGrIG6egQTgaNg1U8AGqEeC09fCpBp1phI9hEcDt6kxbYOPQiMvAb8Y2UfEhHIAhXDpMppF+BvD8WHU+UZ8xQL1rzrgiYUL8WnHraZ6+tox5Mkzi+5Wvq1ZuEPo7p5yFjOOL6wHp8HfR8xtfB79G1Bdtw37lbag8/V27PmSZ6oji+TBOfK6SG3y6nmWa6iJ1VOlwfX1SizS9HdSj7RCfcq9dpLjKHyhltcPEYn/Gdhlz101YO7yJF3XEIb8Klbkg7FJOYXySyhVekfSVbjQZpLQLhSNv50ChMAGyCpN1MyAPyu3x85zCO+jz/OiNl8VjpVmcrBOkJSVI2gKzaRyQ75OFC1KXcdLTF76+5icuVLZClhGGOwsNcc0C72J7Q1yvSkbj0Anjb4chYR2q5MfB5zUMtjQkNTZvIMRTo/ffcbgEmgUt9qdBK37oGrN12AEA0nHLT4u/1dAdZmqcrjwBaAzmOm1dBJVVgl6Iz5a0C4SPIIbFeQIyJolQavyd+OtY2AfstPUlTkCeeKkw9Tflr/jVq2ZZNYB2ha20AF1mWYubl8fPk9Lw65R9Xqs5Jg+nv3PCCMiMe+tmFN1k4/pQy9gPQEkvuiEEPz9nOrZa9TMx6m6Iz7EyJBDNC3CTcrgWBKn2E98BTA9N9RpVr5uou6x2GIx27cpVRjm5ARR1aufk54qtDijivBtP2RSe/Aq6KN1ICRYJBz88jMqd5fyYOJfyLwBRHw/NVKlAXOcuC7AqW3lpuVRpdve+TpBuUsTS9aoY3FUpPHeUuIL6iQyVKP+k+knjbxm/g/1LQZphXvFVvrClslDRASmwosJx91Zj8aECQc3hSHjie8XW31RsGoKbfpfHx52yukGab3EjFqB8ORCz60rfocpv0sS8YQowNPItVmZYABoNVH+rgTNpRJ6eVlIe5ZMTR+YAXRGPX9YGaI1FYR3WK2f5efR9Af6ZcQoYx8jNhYlG0tS22hesA7lQvi2xqAyk4cMGybnXlvxI1xW9wibnIt8UnnOi8kTKtKY+Jb8V3+uG0rOy3DDk4TD2epxRl0mT+A5QxUn5+RpR6qHltx21OW76hGcWnzDE2czCd235m/aWbn9uEbQoB/Urgo72xzCL2nKG8zi0RfIgfBFHHrAC6GWBKe0oI2XxcDAjw3l6DAvoeAvlrf0oTZ+9z3LxMWfG9/Qpa0Zcz7dMsKywTRsrMrv3RUGKjN20sdJKN1EZdKHjE+MVnbszB16mikgXmorAycCP7giFJg4Xk4Indwdtk0rAtp6WVfnqYymA1pj2JYDlro/KVGOhUXn3RjAFGHQJUQOlajxUco+nNHMaUY1tOUixuKHzm+1GxgkZlhDg6JZLSUeKSuUJDT2sC6235YNMf2tf9frFgpTAQiP3he0Cl5cF8ABthgKwCGh1AhEg+VYWDylUr5yj3zqWWmXItwhSnh/A9psFcaL9nBP383Om8mUeZx2mc+pAdiiqJ+DHRJmVR53XLvL3Y1K9qIGpFIzSdoBi1KUC9SOCK8DT1oeTaGj6W8fj9Ys0s+qw1/9InUbtJmo7DsE0QPPbFPt0jBHI1O68HQpaoQ57nBRoCcNxqqeTAz/8HHQqb5aSy3ObVY4orNJI2n22A54OfcpeyJE/ACXNAo483b9QOp6P/Dn+fOfHxzmr7bfZz7POlcJUVFTZxg1lmd37OkG6cUO5d+2VUpRh+sSEC8eFBExYXDkjyFJ51Qi54DqIaCE7M5GEZV/q4odJJX4XMsJvqWWCNM8oCw0gNITQeIOCURhXiFJx0bgmcWqn3TCQ5kEBqLhCUn503Wn4G+gqC3zcpBx0ipeOU6cBpHxwyYI/6bIWdiNQRQHGICvBYtBkxc83L3ds/M045yqB1NWp/i5UjnCsDu0ieVI2QMYkV0NgShyZr11lEog0/ZrV87qpnvuwA+fHgSij+650IoDW1IVM46bNsTG0BEwBKOYihfqqdpZff8N+hfHJVFef1DXiAVDVwdCGMoy64/UUR5sM7RRRRFv2Np0y7fdzn45TDFA5Tun5MdQd3h/cIVwxhYmjm+9d8fjvLBfyJP9aLi4TN65MqMflyCiDK9sYojhAun5d6VaAdJMuZgLSlIULlgYgxMfC3+Fiq0KEBuEzkigBlIcalz/vTneWLgwVpxBQ0xUr+V2H5cEuMTUeVwGq2FF3Xb9pDHEFdXiiNtjS0GgAqTFJB4QapB9fnOZWgTSBiaDmXfwoH0/TASRj/FEK2bu8+NXbCgAsMfnTs4jVYPWyKf44Z+JXK3wB49ykzfdH8X02nqEE388+Gb9Ru35eASjHXUd+KOi183VTUfhw7upjpOvnVobaR/U7ELf0ulE3SqO43FhVpuj6F6hnOaYwqmM+7qv4VqV9Xk/rUZ8dwiq3rlH0GKn2ZbWRHFM7ov7z22/8cZz8dpxjtHMma6I2GwFX++tynhfpa5sJtBrnXXjC0s6LuM0oRNLz5CRgNi+yD2d/awPnjzRbsdQqJo7Q+dD5L+Q4jnDMGS5RsVnH58eT8lNaFaWltn59WeYyqC1QpOFEp4zMkotWwLIg6xVDlSjcVXWxHagsZZKfN2bWiKJsuftSeUJ3iIpB3FDBQhcp/J1vDlJgJyM/Kr4acKQi6E4BT6UdKnpS6fMbFw2IRqffNIa46+2/aVR0PWms7q+Gm46X/E6bIOCNW+k4SJRWgIw3/gxIBBjovNDdr/K1kkCVOFghsMgvgCjHlA75o7qTMshQkPzN2KS/yIU8SaNQOrFR/kJGmiznCaqTmwLnLVGgGellGcdCeMVzZUo5fXikkKHkdUycJwe10vBzr20om+/Lukb5pngK7z0DxWHYhXPj9S+pN0WMm7XiJzdwV6JF6m4w6jBtI9RfHVOOWClotBfaDzcP5jhofxmCKMdon1Ky1AnyqcuRnh+D8iN+MSf/mqeL6ghbVW1Vqz62ysXP6DC+scr1x1vlusNs+PzWNmr9Givt0caWNtvDysd8o8CbrXLuXCsZ0F/nSOcLly5XhnO16TeZjHIErpEGjrIqrYqyctsgkG6xIpWnRywtoXAZF6A+IM2yUEHSEOS3/63fDj5VMgemIOtLd3QHB25cYMaopKCiChbDOJ0OW/w8LaVD5aPiCgQROIEqeVDB0/BMWyEAxub+cRgaLI1UlZ2F4q6+aLjBL4kH6GiMOh4qtzdi+ReDZ76RBuBw4AE/YLAqAh5/J2Hy0kpDkDgOywAyABMDBQNWMbB8jJbJIy+vLITJMi9LIZM/QFO+LJZH9XreXr5U2eplcfnUbfWeAWUL5zrneJUv54R8iJf251wrDpNuVUF967rXXKu0cS6Vnr8vQsfgcXXt/Xqpfim97Doko54pXPRkFDDkpk29pas+389NTptIWxAbQBQVqjrux4QSxj+/XQXz7jh5EI9ybIqGBYqBFD/iUWa16+icFQGp0nFlSbsDvkVVqPxIkzbpYYs4laN6/jAr//phK//sCquc8qxVbXrGylf/Tytb8SsB9XqF2WCbPuppqx65wkoGPWKlX99lG16929Y89ICtXbzc1pfqRuBqskBenCNXxDrufAfTOKZwPIThXEtI0rVvEEiJQMSSQl37et0VMyxAr6DJPwAxGBfBwQkE4wouCPnz1VJn+HklRyFQ2fTbF79TmbxSx/HTlbyo1QHSHAtQjeGF0kOxAg9eJgH8gYmDLzREjLhxnC2yGDxpACntqlUALzoHEVTlH/KIz4k3EABK+dgX4mdZgGAM/Sq65nRLied5p/JPh08s3kd81C2TZgDcFSJl4LfKEUDXECN9bf3Gxd+cH8rnPQbSVRlrnb+Uyd+Vsd8kFDa57vGWG50fS7hu+AVTGIWv8lUKdLlD/WJLPQWgAiUQ5e90/aK+rouWZXmvLa+uk76vIWWbdLNj4zip1zntLwYAYREPoQcXix3qgIfPAimQo8zEddgGvwIgkp+DKg2cQs7DUm6FDQqviKue85GVvrKflbzwJyvp8Ff9PtgqZ7SVGj3Fyub/u1VN28Wqp55q1QsftIopL9uGHgfbuud+Y5WvHWHzfxpuF7w6zs7sMtJmr9CxZDngz/nKKrefq/QxaUtYzoVcRXnl1o2R/uwgzYdkvUxxuCChslIxuNNj3DlpBFRMGrsaKHd/BvWjYQGF9wYtuAJi0kinlWmhQdXX4vDeOOMGTuNDgQEfZuMBKt1R/AhLHli6YdfL8gCWmPYrbX/v50rGI8kfRQYIBRUAWpeqTJsfQzD9rXSi2XOlFbrK6bKkw7KNwzlAHVYKn/hHcZLlUp6Wjo1jCOnV2wRD1sf60IGOz5Wj8ql13goZNxqlsXp+dAPkWmq/z+pzDITJudZ5Rtx1i6N6Q71S+KhOCqDyr123co1jiOo49VLhgSSWD9BgtB/vsck/tEGvy4Be7cGFSEab8zT129sukB</t>
   </si>
 </sst>
 </file>
@@ -17768,10 +18136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1689"/>
+  <dimension ref="A1:M1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1257" sqref="F1257"/>
+    <sheetView tabSelected="1" topLeftCell="A1690" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1693" sqref="F1693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -87026,6 +87394,47 @@
         <v>23</v>
       </c>
     </row>
+    <row r="1690" spans="1:13" ht="409.5">
+      <c r="A1690">
+        <v>1500</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1690" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1690" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1690" s="16" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G1690" s="26">
+        <v>10006</v>
+      </c>
+      <c r="H1690" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1690" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J1690" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1690" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1690" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1690" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF95B5C-677F-480A-9B28-16C4BD007B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91333B55-4AC8-4F33-9FB9-D7615DD6493B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$K$1807</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$K$1809</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16307" uniqueCount="2444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="2442">
   <si>
     <t>id</t>
   </si>
@@ -9068,37 +9068,10 @@
     <t>vid-card-download-failure_SMS</t>
   </si>
   <si>
-    <t>Dear $!name_eng, 
-Your request for UIN for Registration ID: $!RID has been rejected by the Supervisor. Please visit your nearest Registration office for further details.
-Thank You,
-MOSIP</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng, 
-Your request for UIN for Registration ID: $!RID has been rejected by the Supervisor. Please visit your nearest Registration office for further details.</t>
-  </si>
-  <si>
     <t>Address line2</t>
   </si>
   <si>
     <t>mosip.address.line2.template.property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عزيزي $! name_ara ،
-طلبك للحصول على UIN لمعرف التسجيل: $! تم رفض RID من قبل المشرف. يرجى زيارة أقرب مكتب تسجيل لمزيد من التفاصيل.
-شكرا لك،
-MOSIP
-</t>
-  </si>
-  <si>
-    <t>عزيزي $! name_ara ،
-طلبك للحصول على UIN لمعرف التسجيل: $! تم رفض RID من قبل المشرف. يرجى زيارة أقرب مكتب تسجيل ل</t>
-  </si>
-  <si>
-    <t>प्रिय $!name_hin,
-पंजीकरण आईडी के लिए यूआईएन के लिए आपका अनुरोध: $!आरआईडी पर्यवेक्षक द्वारा अस्वीकार कर दिया गया है। अधिक जानकारी के लिए कृपया अपने निकटतम पंजीकरण कार्यालय में जाएँ।
-धन्यवाद,
-मोसिप</t>
   </si>
   <si>
     <t>प्रिय $!name_hin,
@@ -9126,9 +9099,6 @@
   </si>
   <si>
     <t>Template for Supervisor Reject Email Subject</t>
-  </si>
-  <si>
-    <t>UIN Request Rejected</t>
   </si>
   <si>
     <t>RPR_SUP_REJECT_EMAIL_SUBJECT</t>
@@ -10192,6 +10162,20 @@
 We are pleased to inform you that] National Identification Number (NIN) $!MASKEDNIN has been renewd for your application with Registration ID $!RID.
 Please pick up your ID card to access the full details.
 Thank you.</t>
+  </si>
+  <si>
+    <t>Your request for NIN for Registration ID: $!RID has been rejected by the Supervisor. Please visit your nearest Registration office for further details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear $!surname_eng $!givenName_eng,
+Your request for NIN for Registration ID: $!RID has been rejected by the Supervisor. Please visit your nearest Registration office for further details.
+Thank you </t>
+  </si>
+  <si>
+    <t>NIN Request Rejected</t>
   </si>
 </sst>
 </file>
@@ -10538,7 +10522,7 @@
   <dimension ref="A1:K1809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1809" sqref="M1809"/>
+      <selection activeCell="F1740" sqref="F1740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11054,7 +11038,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="G15">
         <v>10003</v>
@@ -11089,7 +11073,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="G16">
         <v>10003</v>
@@ -11124,7 +11108,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="G17">
         <v>10003</v>
@@ -11159,7 +11143,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="G18">
         <v>10003</v>
@@ -13364,7 +13348,7 @@
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="G81">
         <v>10003</v>
@@ -13469,7 +13453,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="G84">
         <v>10003</v>
@@ -13574,7 +13558,7 @@
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="G87">
         <v>10003</v>
@@ -13662,7 +13646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1135</v>
       </c>
@@ -13679,7 +13663,7 @@
         <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="G90">
         <v>10003</v>
@@ -13802,7 +13786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1137</v>
       </c>
@@ -15167,7 +15151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1154</v>
       </c>
@@ -15412,7 +15396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1156</v>
       </c>
@@ -71027,7 +71011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1729" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1729">
         <v>1554</v>
       </c>
@@ -71043,8 +71027,8 @@
       <c r="E1729" t="s">
         <v>13</v>
       </c>
-      <c r="F1729" t="s">
-        <v>2285</v>
+      <c r="F1729" s="1" t="s">
+        <v>2440</v>
       </c>
       <c r="G1729">
         <v>10003</v>
@@ -71062,7 +71046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1730" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1730">
         <v>1555</v>
       </c>
@@ -71078,8 +71062,8 @@
       <c r="E1730" t="s">
         <v>13</v>
       </c>
-      <c r="F1730" t="s">
-        <v>2286</v>
+      <c r="F1730" s="1" t="s">
+        <v>2440</v>
       </c>
       <c r="G1730">
         <v>10003</v>
@@ -71102,10 +71086,10 @@
         <v>1580</v>
       </c>
       <c r="B1731" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="C1731" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="D1731" t="s">
         <v>12</v>
@@ -71113,9 +71097,6 @@
       <c r="E1731" t="s">
         <v>13</v>
       </c>
-      <c r="F1731" t="s">
-        <v>2287</v>
-      </c>
       <c r="G1731">
         <v>10006</v>
       </c>
@@ -71123,7 +71104,7 @@
         <v>288</v>
       </c>
       <c r="I1731" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="J1731" t="s">
         <v>17</v>
@@ -71132,7 +71113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1732" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1732">
         <v>1558</v>
       </c>
@@ -71149,7 +71130,7 @@
         <v>13</v>
       </c>
       <c r="F1732" t="s">
-        <v>2289</v>
+        <v>2438</v>
       </c>
       <c r="G1732">
         <v>10003</v>
@@ -71183,9 +71164,6 @@
       <c r="E1733" t="s">
         <v>13</v>
       </c>
-      <c r="F1733" t="s">
-        <v>2290</v>
-      </c>
       <c r="G1733">
         <v>10003</v>
       </c>
@@ -71219,7 +71197,7 @@
         <v>13</v>
       </c>
       <c r="F1734" t="s">
-        <v>2291</v>
+        <v>2439</v>
       </c>
       <c r="G1734">
         <v>10003</v>
@@ -71254,7 +71232,7 @@
         <v>13</v>
       </c>
       <c r="F1735" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="G1735">
         <v>10003</v>
@@ -71289,7 +71267,7 @@
         <v>13</v>
       </c>
       <c r="F1736" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="G1736">
         <v>10003</v>
@@ -71324,7 +71302,7 @@
         <v>13</v>
       </c>
       <c r="F1737" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="G1737">
         <v>10003</v>
@@ -71359,7 +71337,7 @@
         <v>13</v>
       </c>
       <c r="F1738" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="G1738">
         <v>10003</v>
@@ -71377,7 +71355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1739" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1739">
         <v>1565</v>
       </c>
@@ -71394,7 +71372,7 @@
         <v>13</v>
       </c>
       <c r="F1739" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="G1739">
         <v>10003</v>
@@ -71412,15 +71390,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1740" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1740">
         <v>1566</v>
       </c>
       <c r="B1740" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C1740" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D1740" t="s">
         <v>12</v>
@@ -71429,7 +71407,7 @@
         <v>13</v>
       </c>
       <c r="F1740" t="s">
-        <v>2298</v>
+        <v>2441</v>
       </c>
       <c r="G1740">
         <v>10003</v>
@@ -71438,7 +71416,7 @@
         <v>58</v>
       </c>
       <c r="I1740" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1740" t="s">
         <v>17</v>
@@ -71452,10 +71430,10 @@
         <v>1567</v>
       </c>
       <c r="B1741" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C1741" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D1741" t="s">
         <v>12</v>
@@ -71464,7 +71442,7 @@
         <v>13</v>
       </c>
       <c r="F1741" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="G1741">
         <v>10003</v>
@@ -71473,7 +71451,7 @@
         <v>2253</v>
       </c>
       <c r="I1741" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1741" t="s">
         <v>26</v>
@@ -71487,10 +71465,10 @@
         <v>1568</v>
       </c>
       <c r="B1742" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C1742" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D1742" t="s">
         <v>12</v>
@@ -71499,7 +71477,7 @@
         <v>13</v>
       </c>
       <c r="F1742" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="G1742">
         <v>10003</v>
@@ -71508,7 +71486,7 @@
         <v>81</v>
       </c>
       <c r="I1742" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1742" t="s">
         <v>32</v>
@@ -71522,10 +71500,10 @@
         <v>1569</v>
       </c>
       <c r="B1743" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C1743" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D1743" t="s">
         <v>12</v>
@@ -71534,7 +71512,7 @@
         <v>13</v>
       </c>
       <c r="F1743" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="G1743">
         <v>10003</v>
@@ -71543,7 +71521,7 @@
         <v>1171</v>
       </c>
       <c r="I1743" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1743" t="s">
         <v>939</v>
@@ -71557,19 +71535,19 @@
         <v>1570</v>
       </c>
       <c r="B1744" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1744" t="s">
         <v>2297</v>
-      </c>
-      <c r="C1744" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D1744" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1744" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1744" t="s">
-        <v>2303</v>
       </c>
       <c r="G1744">
         <v>10003</v>
@@ -71578,7 +71556,7 @@
         <v>880</v>
       </c>
       <c r="I1744" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1744" t="s">
         <v>549</v>
@@ -71592,10 +71570,10 @@
         <v>1571</v>
       </c>
       <c r="B1745" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C1745" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D1745" t="s">
         <v>12</v>
@@ -71604,7 +71582,7 @@
         <v>13</v>
       </c>
       <c r="F1745" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="G1745">
         <v>10003</v>
@@ -71613,7 +71591,7 @@
         <v>1372</v>
       </c>
       <c r="I1745" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="J1745" t="s">
         <v>990</v>
@@ -71627,10 +71605,10 @@
         <v>1572</v>
       </c>
       <c r="B1746" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="C1746" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="D1746" t="s">
         <v>12</v>
@@ -71639,7 +71617,7 @@
         <v>13</v>
       </c>
       <c r="F1746" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="G1746">
         <v>10006</v>
@@ -71648,7 +71626,7 @@
         <v>288</v>
       </c>
       <c r="I1746" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="J1746" t="s">
         <v>17</v>
@@ -71662,10 +71640,10 @@
         <v>1573</v>
       </c>
       <c r="B1747" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="C1747" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="D1747" t="s">
         <v>12</v>
@@ -71674,7 +71652,7 @@
         <v>13</v>
       </c>
       <c r="F1747" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="G1747">
         <v>10006</v>
@@ -71683,7 +71661,7 @@
         <v>288</v>
       </c>
       <c r="I1747" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="J1747" t="s">
         <v>17</v>
@@ -71697,10 +71675,10 @@
         <v>1574</v>
       </c>
       <c r="B1748" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="C1748" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="D1748" t="s">
         <v>12</v>
@@ -71709,7 +71687,7 @@
         <v>13</v>
       </c>
       <c r="F1748" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="G1748">
         <v>10006</v>
@@ -71718,7 +71696,7 @@
         <v>288</v>
       </c>
       <c r="I1748" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="J1748" t="s">
         <v>17</v>
@@ -71732,10 +71710,10 @@
         <v>1575</v>
       </c>
       <c r="B1749" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="C1749" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="D1749" t="s">
         <v>12</v>
@@ -71744,7 +71722,7 @@
         <v>13</v>
       </c>
       <c r="F1749" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="G1749">
         <v>10006</v>
@@ -71753,7 +71731,7 @@
         <v>288</v>
       </c>
       <c r="I1749" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="J1749" t="s">
         <v>17</v>
@@ -71767,10 +71745,10 @@
         <v>1576</v>
       </c>
       <c r="B1750" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="C1750" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="D1750" t="s">
         <v>12</v>
@@ -71779,7 +71757,7 @@
         <v>13</v>
       </c>
       <c r="F1750" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="G1750">
         <v>10006</v>
@@ -71788,7 +71766,7 @@
         <v>288</v>
       </c>
       <c r="I1750" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="J1750" t="s">
         <v>17</v>
@@ -71802,10 +71780,10 @@
         <v>1577</v>
       </c>
       <c r="B1751" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="C1751" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="D1751" t="s">
         <v>12</v>
@@ -71814,7 +71792,7 @@
         <v>13</v>
       </c>
       <c r="F1751" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="G1751">
         <v>10006</v>
@@ -71823,7 +71801,7 @@
         <v>288</v>
       </c>
       <c r="I1751" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="J1751" t="s">
         <v>17</v>
@@ -71837,10 +71815,10 @@
         <v>1578</v>
       </c>
       <c r="B1752" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="C1752" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="D1752" t="s">
         <v>12</v>
@@ -71849,7 +71827,7 @@
         <v>13</v>
       </c>
       <c r="F1752" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="G1752">
         <v>10006</v>
@@ -71858,7 +71836,7 @@
         <v>288</v>
       </c>
       <c r="I1752" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="J1752" t="s">
         <v>17</v>
@@ -71872,10 +71850,10 @@
         <v>1579</v>
       </c>
       <c r="B1753" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="C1753" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="D1753" t="s">
         <v>12</v>
@@ -71884,7 +71862,7 @@
         <v>13</v>
       </c>
       <c r="F1753" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="G1753">
         <v>10006</v>
@@ -71893,7 +71871,7 @@
         <v>288</v>
       </c>
       <c r="I1753" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="J1753" t="s">
         <v>17</v>
@@ -71907,10 +71885,10 @@
         <v>1121</v>
       </c>
       <c r="B1754" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="C1754" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="D1754" t="s">
         <v>12</v>
@@ -71919,7 +71897,7 @@
         <v>13</v>
       </c>
       <c r="F1754" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="G1754">
         <v>10008</v>
@@ -71942,10 +71920,10 @@
         <v>1253</v>
       </c>
       <c r="B1755" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="C1755" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="D1755" t="s">
         <v>12</v>
@@ -71954,7 +71932,7 @@
         <v>13</v>
       </c>
       <c r="F1755" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="G1755">
         <v>10002</v>
@@ -71963,7 +71941,7 @@
         <v>50</v>
       </c>
       <c r="I1755" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1755" t="s">
         <v>17</v>
@@ -71977,10 +71955,10 @@
         <v>1109</v>
       </c>
       <c r="B1756" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="C1756" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="D1756" t="s">
         <v>12</v>
@@ -71989,7 +71967,7 @@
         <v>13</v>
       </c>
       <c r="F1756" s="1" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="G1756">
         <v>10003</v>
@@ -72012,10 +71990,10 @@
         <v>1161</v>
       </c>
       <c r="B1757" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="C1757" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="D1757" t="s">
         <v>12</v>
@@ -72024,7 +72002,7 @@
         <v>13</v>
       </c>
       <c r="F1757" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="G1757">
         <v>10003</v>
@@ -72047,10 +72025,10 @@
         <v>1113</v>
       </c>
       <c r="B1758" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="C1758" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="D1758" t="s">
         <v>12</v>
@@ -72059,7 +72037,7 @@
         <v>13</v>
       </c>
       <c r="F1758" s="1" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="G1758">
         <v>10003</v>
@@ -72082,10 +72060,10 @@
         <v>1117</v>
       </c>
       <c r="B1759" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="C1759" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="D1759" t="s">
         <v>12</v>
@@ -72117,10 +72095,10 @@
         <v>1123</v>
       </c>
       <c r="B1760" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="C1760" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="D1760" t="s">
         <v>12</v>
@@ -72129,7 +72107,7 @@
         <v>13</v>
       </c>
       <c r="F1760" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="G1760">
         <v>10008</v>
@@ -72149,13 +72127,13 @@
     </row>
     <row r="1761" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="B1761" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="C1761" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="D1761" t="s">
         <v>12</v>
@@ -72164,7 +72142,7 @@
         <v>13</v>
       </c>
       <c r="F1761" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="G1761">
         <v>10001</v>
@@ -72173,7 +72151,7 @@
         <v>153</v>
       </c>
       <c r="I1761" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="J1761" t="s">
         <v>17</v>
@@ -72190,7 +72168,7 @@
         <v>190</v>
       </c>
       <c r="C1762" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="D1762" t="s">
         <v>12</v>
@@ -72199,7 +72177,7 @@
         <v>13</v>
       </c>
       <c r="F1762" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="G1762">
         <v>10002</v>
@@ -72208,7 +72186,7 @@
         <v>50</v>
       </c>
       <c r="I1762" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1762" t="s">
         <v>17</v>
@@ -72222,10 +72200,10 @@
         <v>1111</v>
       </c>
       <c r="B1763" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="C1763" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="D1763" t="s">
         <v>12</v>
@@ -72234,7 +72212,7 @@
         <v>13</v>
       </c>
       <c r="F1763" s="1" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="G1763">
         <v>10003</v>
@@ -72257,10 +72235,10 @@
         <v>1682</v>
       </c>
       <c r="B1764" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="C1764" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="D1764" t="s">
         <v>12</v>
@@ -72278,7 +72256,7 @@
         <v>153</v>
       </c>
       <c r="I1764" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="J1764" t="s">
         <v>17</v>
@@ -72292,10 +72270,10 @@
         <v>1253</v>
       </c>
       <c r="B1765" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="C1765" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="D1765" t="s">
         <v>12</v>
@@ -72304,7 +72282,7 @@
         <v>13</v>
       </c>
       <c r="F1765" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="G1765">
         <v>10002</v>
@@ -72313,7 +72291,7 @@
         <v>50</v>
       </c>
       <c r="I1765" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1765" t="s">
         <v>26</v>
@@ -72327,10 +72305,10 @@
         <v>1253</v>
       </c>
       <c r="B1766" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="C1766" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="D1766" t="s">
         <v>12</v>
@@ -72339,7 +72317,7 @@
         <v>13</v>
       </c>
       <c r="F1766" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="G1766">
         <v>10002</v>
@@ -72348,7 +72326,7 @@
         <v>50</v>
       </c>
       <c r="I1766" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1766" t="s">
         <v>32</v>
@@ -72362,10 +72340,10 @@
         <v>1250</v>
       </c>
       <c r="B1767" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="C1767" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="D1767" t="s">
         <v>12</v>
@@ -72374,7 +72352,7 @@
         <v>13</v>
       </c>
       <c r="F1767" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="G1767">
         <v>10002</v>
@@ -72383,7 +72361,7 @@
         <v>50</v>
       </c>
       <c r="I1767" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1767" t="s">
         <v>26</v>
@@ -72400,7 +72378,7 @@
         <v>234</v>
       </c>
       <c r="C1768" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="D1768" t="s">
         <v>12</v>
@@ -72409,7 +72387,7 @@
         <v>13</v>
       </c>
       <c r="F1768" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="G1768">
         <v>10002</v>
@@ -72418,7 +72396,7 @@
         <v>50</v>
       </c>
       <c r="I1768" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1768" t="s">
         <v>32</v>
@@ -72432,10 +72410,10 @@
         <v>1681</v>
       </c>
       <c r="B1769" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="C1769" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="D1769" t="s">
         <v>12</v>
@@ -72444,7 +72422,7 @@
         <v>13</v>
       </c>
       <c r="F1769" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="G1769">
         <v>10001</v>
@@ -72453,7 +72431,7 @@
         <v>153</v>
       </c>
       <c r="I1769" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="J1769" t="s">
         <v>17</v>
@@ -72467,10 +72445,10 @@
         <v>1269</v>
       </c>
       <c r="B1770" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="C1770" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="D1770" t="s">
         <v>12</v>
@@ -72479,7 +72457,7 @@
         <v>13</v>
       </c>
       <c r="F1770" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="G1770">
         <v>10001</v>
@@ -72488,7 +72466,7 @@
         <v>153</v>
       </c>
       <c r="I1770" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="J1770" t="s">
         <v>26</v>
@@ -72502,10 +72480,10 @@
         <v>1269</v>
       </c>
       <c r="B1771" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="C1771" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="D1771" t="s">
         <v>12</v>
@@ -72514,7 +72492,7 @@
         <v>13</v>
       </c>
       <c r="F1771" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="G1771">
         <v>10001</v>
@@ -72523,7 +72501,7 @@
         <v>153</v>
       </c>
       <c r="I1771" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="J1771" t="s">
         <v>32</v>
@@ -72537,10 +72515,10 @@
         <v>1269</v>
       </c>
       <c r="B1772" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="C1772" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="D1772" t="s">
         <v>12</v>
@@ -72549,7 +72527,7 @@
         <v>13</v>
       </c>
       <c r="F1772" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="G1772">
         <v>10002</v>
@@ -72558,7 +72536,7 @@
         <v>50</v>
       </c>
       <c r="I1772" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="J1772" t="s">
         <v>17</v>
@@ -72572,10 +72550,10 @@
         <v>1253</v>
       </c>
       <c r="B1773" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="C1773" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="D1773" t="s">
         <v>12</v>
@@ -72584,7 +72562,7 @@
         <v>13</v>
       </c>
       <c r="F1773" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="G1773">
         <v>10002</v>
@@ -72593,7 +72571,7 @@
         <v>50</v>
       </c>
       <c r="I1773" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1773" t="s">
         <v>549</v>
@@ -72619,7 +72597,7 @@
         <v>13</v>
       </c>
       <c r="F1774" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="G1774">
         <v>10002</v>
@@ -72628,7 +72606,7 @@
         <v>50</v>
       </c>
       <c r="I1774" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1774" t="s">
         <v>549</v>
@@ -72642,10 +72620,10 @@
         <v>1269</v>
       </c>
       <c r="B1775" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="C1775" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="D1775" t="s">
         <v>12</v>
@@ -72654,7 +72632,7 @@
         <v>13</v>
       </c>
       <c r="F1775" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="G1775">
         <v>10001</v>
@@ -72663,7 +72641,7 @@
         <v>153</v>
       </c>
       <c r="I1775" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="J1775" t="s">
         <v>549</v>
@@ -72677,10 +72655,10 @@
         <v>1269</v>
       </c>
       <c r="B1776" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="C1776" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="D1776" t="s">
         <v>12</v>
@@ -72689,7 +72667,7 @@
         <v>13</v>
       </c>
       <c r="F1776" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="G1776">
         <v>10001</v>
@@ -72698,7 +72676,7 @@
         <v>153</v>
       </c>
       <c r="I1776" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="J1776" t="s">
         <v>939</v>
@@ -72712,10 +72690,10 @@
         <v>1253</v>
       </c>
       <c r="B1777" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="C1777" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="D1777" t="s">
         <v>12</v>
@@ -72724,7 +72702,7 @@
         <v>13</v>
       </c>
       <c r="F1777" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="G1777">
         <v>10002</v>
@@ -72733,7 +72711,7 @@
         <v>50</v>
       </c>
       <c r="I1777" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1777" t="s">
         <v>939</v>
@@ -72759,7 +72737,7 @@
         <v>13</v>
       </c>
       <c r="F1778" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="G1778">
         <v>10002</v>
@@ -72768,7 +72746,7 @@
         <v>50</v>
       </c>
       <c r="I1778" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1778" t="s">
         <v>939</v>
@@ -72794,7 +72772,7 @@
         <v>13</v>
       </c>
       <c r="F1779" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="G1779">
         <v>10002</v>
@@ -72803,7 +72781,7 @@
         <v>50</v>
       </c>
       <c r="I1779" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="J1779" t="s">
         <v>990</v>
@@ -72817,10 +72795,10 @@
         <v>1283</v>
       </c>
       <c r="B1780" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="C1780" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="D1780" t="s">
         <v>12</v>
@@ -72829,7 +72807,7 @@
         <v>13</v>
       </c>
       <c r="F1780" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="G1780">
         <v>10002</v>
@@ -72838,7 +72816,7 @@
         <v>50</v>
       </c>
       <c r="I1780" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="J1780" t="s">
         <v>26</v>
@@ -72852,10 +72830,10 @@
         <v>1284</v>
       </c>
       <c r="B1781" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="C1781" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="D1781" t="s">
         <v>12</v>
@@ -72864,7 +72842,7 @@
         <v>13</v>
       </c>
       <c r="F1781" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="G1781">
         <v>10002</v>
@@ -72873,7 +72851,7 @@
         <v>50</v>
       </c>
       <c r="I1781" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="J1781" t="s">
         <v>32</v>
@@ -72887,10 +72865,10 @@
         <v>1126</v>
       </c>
       <c r="B1782" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="C1782" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="D1782" t="s">
         <v>12</v>
@@ -72899,7 +72877,7 @@
         <v>13</v>
       </c>
       <c r="F1782" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="G1782">
         <v>10001</v>
@@ -72922,10 +72900,10 @@
         <v>1269</v>
       </c>
       <c r="B1783" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="C1783" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="D1783" t="s">
         <v>12</v>
@@ -72934,7 +72912,7 @@
         <v>13</v>
       </c>
       <c r="F1783" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="G1783">
         <v>10001</v>
@@ -72943,7 +72921,7 @@
         <v>153</v>
       </c>
       <c r="I1783" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="J1783" t="s">
         <v>990</v>
@@ -72957,10 +72935,10 @@
         <v>1260</v>
       </c>
       <c r="B1784" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="C1784" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="D1784" t="s">
         <v>12</v>
@@ -72969,7 +72947,7 @@
         <v>13</v>
       </c>
       <c r="F1784" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="G1784">
         <v>10002</v>
@@ -72978,7 +72956,7 @@
         <v>50</v>
       </c>
       <c r="I1784" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1784" t="s">
         <v>17</v>
@@ -72992,10 +72970,10 @@
         <v>1260</v>
       </c>
       <c r="B1785" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="C1785" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="D1785" t="s">
         <v>12</v>
@@ -73004,7 +72982,7 @@
         <v>13</v>
       </c>
       <c r="F1785" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="G1785">
         <v>10002</v>
@@ -73013,7 +72991,7 @@
         <v>50</v>
       </c>
       <c r="I1785" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1785" t="s">
         <v>26</v>
@@ -73027,10 +73005,10 @@
         <v>1260</v>
       </c>
       <c r="B1786" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="C1786" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="D1786" t="s">
         <v>12</v>
@@ -73039,7 +73017,7 @@
         <v>13</v>
       </c>
       <c r="F1786" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="G1786">
         <v>10002</v>
@@ -73048,7 +73026,7 @@
         <v>50</v>
       </c>
       <c r="I1786" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1786" t="s">
         <v>32</v>
@@ -73062,10 +73040,10 @@
         <v>1282</v>
       </c>
       <c r="B1787" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="C1787" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="D1787" t="s">
         <v>12</v>
@@ -73074,7 +73052,7 @@
         <v>13</v>
       </c>
       <c r="F1787" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="G1787">
         <v>10002</v>
@@ -73083,7 +73061,7 @@
         <v>50</v>
       </c>
       <c r="I1787" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="J1787" t="s">
         <v>17</v>
@@ -73097,10 +73075,10 @@
         <v>1260</v>
       </c>
       <c r="B1788" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="C1788" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="D1788" t="s">
         <v>12</v>
@@ -73109,7 +73087,7 @@
         <v>13</v>
       </c>
       <c r="F1788" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="G1788">
         <v>10002</v>
@@ -73118,7 +73096,7 @@
         <v>50</v>
       </c>
       <c r="I1788" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1788" t="s">
         <v>549</v>
@@ -73132,10 +73110,10 @@
         <v>1260</v>
       </c>
       <c r="B1789" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="C1789" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="D1789" t="s">
         <v>12</v>
@@ -73144,7 +73122,7 @@
         <v>13</v>
       </c>
       <c r="F1789" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="G1789">
         <v>10002</v>
@@ -73153,7 +73131,7 @@
         <v>50</v>
       </c>
       <c r="I1789" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1789" t="s">
         <v>939</v>
@@ -73167,10 +73145,10 @@
         <v>1260</v>
       </c>
       <c r="B1790" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="C1790" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="D1790" t="s">
         <v>12</v>
@@ -73179,7 +73157,7 @@
         <v>13</v>
       </c>
       <c r="F1790" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="G1790">
         <v>10002</v>
@@ -73188,7 +73166,7 @@
         <v>50</v>
       </c>
       <c r="I1790" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="J1790" t="s">
         <v>990</v>
@@ -73202,10 +73180,10 @@
         <v>1253</v>
       </c>
       <c r="B1791" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="C1791" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="D1791" t="s">
         <v>12</v>
@@ -73214,7 +73192,7 @@
         <v>13</v>
       </c>
       <c r="F1791" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="G1791">
         <v>10002</v>
@@ -73223,7 +73201,7 @@
         <v>50</v>
       </c>
       <c r="I1791" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="J1791" t="s">
         <v>990</v>
@@ -73234,13 +73212,13 @@
     </row>
     <row r="1792" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="B1792" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="C1792" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="D1792" t="s">
         <v>201</v>
@@ -73249,7 +73227,7 @@
         <v>13</v>
       </c>
       <c r="F1792" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="G1792">
         <v>10003</v>
@@ -73269,13 +73247,13 @@
     </row>
     <row r="1793" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="B1793" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="C1793" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="D1793" t="s">
         <v>201</v>
@@ -73284,7 +73262,7 @@
         <v>13</v>
       </c>
       <c r="F1793" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="G1793">
         <v>10003</v>
@@ -73307,10 +73285,10 @@
         <v>1131</v>
       </c>
       <c r="B1794" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="C1794" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
       <c r="D1794" t="s">
         <v>201</v>
@@ -73319,7 +73297,7 @@
         <v>13</v>
       </c>
       <c r="F1794" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="G1794">
         <v>10003</v>
@@ -73342,10 +73320,10 @@
         <v>1101</v>
       </c>
       <c r="B1795" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="C1795" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="D1795" t="s">
         <v>12</v>
@@ -73354,7 +73332,7 @@
         <v>13</v>
       </c>
       <c r="F1795" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="G1795">
         <v>10004</v>
@@ -73363,7 +73341,7 @@
         <v>31</v>
       </c>
       <c r="I1795" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1795" t="s">
         <v>32</v>
@@ -73377,10 +73355,10 @@
         <v>1101</v>
       </c>
       <c r="B1796" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="C1796" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="D1796" t="s">
         <v>12</v>
@@ -73389,7 +73367,7 @@
         <v>13</v>
       </c>
       <c r="F1796" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="G1796">
         <v>10004</v>
@@ -73398,7 +73376,7 @@
         <v>25</v>
       </c>
       <c r="I1796" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1796" t="s">
         <v>26</v>
@@ -73424,7 +73402,7 @@
         <v>13</v>
       </c>
       <c r="F1797" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="G1797">
         <v>10004</v>
@@ -73433,7 +73411,7 @@
         <v>1060</v>
       </c>
       <c r="I1797" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1797" t="s">
         <v>939</v>
@@ -73459,7 +73437,7 @@
         <v>13</v>
       </c>
       <c r="F1798" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="G1798">
         <v>10004</v>
@@ -73468,7 +73446,7 @@
         <v>548</v>
       </c>
       <c r="I1798" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1798" t="s">
         <v>549</v>
@@ -73494,7 +73472,7 @@
         <v>13</v>
       </c>
       <c r="F1799" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="G1799">
         <v>10004</v>
@@ -73503,7 +73481,7 @@
         <v>1283</v>
       </c>
       <c r="I1799" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1799" t="s">
         <v>990</v>
@@ -73517,10 +73495,10 @@
         <v>1683</v>
       </c>
       <c r="B1800" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="C1800" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="D1800" t="s">
         <v>12</v>
@@ -73529,7 +73507,7 @@
         <v>13</v>
       </c>
       <c r="F1800" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="G1800">
         <v>10002</v>
@@ -73538,7 +73516,7 @@
         <v>50</v>
       </c>
       <c r="I1800" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="J1800" t="s">
         <v>17</v>
@@ -73552,10 +73530,10 @@
         <v>1124</v>
       </c>
       <c r="B1801" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="C1801" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="D1801" t="s">
         <v>12</v>
@@ -73564,7 +73542,7 @@
         <v>13</v>
       </c>
       <c r="F1801" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
       <c r="G1801">
         <v>10001</v>
@@ -73587,10 +73565,10 @@
         <v>1125</v>
       </c>
       <c r="B1802" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="C1802" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
       <c r="D1802" t="s">
         <v>12</v>
@@ -73599,7 +73577,7 @@
         <v>13</v>
       </c>
       <c r="F1802" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="G1802">
         <v>10001</v>
@@ -73619,13 +73597,13 @@
     </row>
     <row r="1803" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="B1803" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="C1803" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="D1803" t="s">
         <v>12</v>
@@ -73634,7 +73612,7 @@
         <v>13</v>
       </c>
       <c r="F1803" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="G1803">
         <v>10001</v>
@@ -73654,13 +73632,13 @@
     </row>
     <row r="1804" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="B1804" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="C1804" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="D1804" t="s">
         <v>12</v>
@@ -73669,7 +73647,7 @@
         <v>13</v>
       </c>
       <c r="F1804" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="G1804">
         <v>10001</v>
@@ -73689,13 +73667,13 @@
     </row>
     <row r="1805" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="B1805" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="C1805" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="D1805" t="s">
         <v>12</v>
@@ -73704,7 +73682,7 @@
         <v>13</v>
       </c>
       <c r="F1805" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="G1805">
         <v>10001</v>
@@ -73727,10 +73705,10 @@
         <v>1154</v>
       </c>
       <c r="B1806" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="C1806" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="D1806" t="s">
         <v>12</v>
@@ -73739,7 +73717,7 @@
         <v>13</v>
       </c>
       <c r="F1806" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="G1806">
         <v>10001</v>
@@ -73762,10 +73740,10 @@
         <v>1101</v>
       </c>
       <c r="B1807" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="C1807" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="D1807" t="s">
         <v>12</v>
@@ -73774,7 +73752,7 @@
         <v>13</v>
       </c>
       <c r="F1807" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="G1807">
         <v>10004</v>
@@ -73783,7 +73761,7 @@
         <v>15</v>
       </c>
       <c r="I1807" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
       <c r="J1807" t="s">
         <v>17</v>
@@ -73792,15 +73770,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1808" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:11" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="B1808" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="C1808" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="D1808" t="s">
         <v>12</v>
@@ -73809,7 +73787,7 @@
         <v>13</v>
       </c>
       <c r="F1808" s="1" t="s">
-        <v>2439</v>
+        <v>2433</v>
       </c>
       <c r="G1808">
         <v>10003</v>
@@ -73818,7 +73796,7 @@
         <v>58</v>
       </c>
       <c r="I1808" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="J1808" t="s">
         <v>17</v>
@@ -73827,15 +73805,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1809" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="B1809" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="C1809" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="D1809" t="s">
         <v>12</v>
@@ -73844,7 +73822,7 @@
         <v>13</v>
       </c>
       <c r="F1809" s="1" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="G1809">
         <v>10003</v>
@@ -73853,7 +73831,7 @@
         <v>58</v>
       </c>
       <c r="I1809" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="J1809" t="s">
         <v>17</v>
@@ -73864,10 +73842,17 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:K1807" xr:uid="{5198E219-C078-4DCC-B3A9-17881A6ADC0B}">
+  <autoFilter ref="A1:K1809" xr:uid="{5198E219-C078-4DCC-B3A9-17881A6ADC0B}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Template for UIN Reactivate Email"/>
+        <filter val="Template for Supervisor Reject Email"/>
+        <filter val="Template for Supervisor Reject Email Subject"/>
+        <filter val="Template for Supervisor Reject SMS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="eng"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A86664-853D-4805-B751-5CDE69C640BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323D4AA5-7239-4E08-8668-9A6834996CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16305" uniqueCount="2460">
   <si>
     <t>id</t>
   </si>
@@ -10256,6 +10256,9 @@
 Your event id is #$eventId. &lt;br&gt;
 Log in to the official website $trackServiceRequestLink for further details. &lt;br&gt;</t>
   </si>
+  <si>
+    <t>Regproc-Renewal-Email</t>
+  </si>
 </sst>
 </file>
 
@@ -10599,14 +10602,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1809"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A1797" workbookViewId="0">
+      <selection activeCell="I1808" sqref="I1808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="6" max="6" width="56.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -73909,7 +73913,7 @@
         <v>57</v>
       </c>
       <c r="I1809" t="s">
-        <v>2388</v>
+        <v>2459</v>
       </c>
       <c r="J1809" t="s">
         <v>17</v>

--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nira_dev\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE4BA8-364E-4764-8A6A-8FC3625FBF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C009B-C07A-409C-AE5C-FE0BFA776299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -11978,8 +11978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1252" workbookViewId="0">
-      <selection activeCell="G1813" sqref="G1813"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16364,7 +16364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="270" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1124</v>
       </c>
@@ -40619,7 +40619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>1244</v>
       </c>
@@ -40829,7 +40829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" ht="330" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>1245</v>
       </c>
@@ -41039,7 +41039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>1246</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>1246</v>
       </c>
@@ -41214,7 +41214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>1246</v>
       </c>
@@ -63404,7 +63404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1470" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1470">
         <v>1357</v>
       </c>
@@ -63439,7 +63439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1471" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1471">
         <v>1357</v>
       </c>
@@ -64629,7 +64629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1505" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1505">
         <v>1363</v>
       </c>
@@ -71594,7 +71594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1704" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1704">
         <v>1511</v>
       </c>
@@ -75341,7 +75341,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:K1809" xr:uid="{5198E219-C078-4DCC-B3A9-17881A6ADC0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Documents\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karthik.SJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E2D06-B529-43E1-A08D-A0870B9371A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EED94-C183-42AE-B7D2-D30241272B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="915">
   <si>
     <t>id</t>
   </si>
@@ -6587,6 +6587,9 @@
 Please pick up your ID card to access the full details.
 Thank you.</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
@@ -6928,10 +6931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1809"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K1810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K4" sqref="K4:K1810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7007,11 +7011,11 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="K2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1101</v>
@@ -7043,10 +7047,15 @@
       <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1102</v>
@@ -7078,10 +7087,15 @@
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1103</v>
@@ -7113,10 +7127,15 @@
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1107</v>
@@ -7148,13 +7167,17 @@
       <c r="J22" t="s">
         <v>17</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F26" s="1"/>
     </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1108</v>
@@ -7186,10 +7209,15 @@
       <c r="J28" t="s">
         <v>17</v>
       </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1109</v>
@@ -7221,10 +7249,15 @@
       <c r="J34" t="s">
         <v>17</v>
       </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K34" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1110</v>
@@ -7256,10 +7289,15 @@
       <c r="J40" t="s">
         <v>17</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K40" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1111</v>
@@ -7291,10 +7329,15 @@
       <c r="J46" t="s">
         <v>17</v>
       </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K46" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1112</v>
@@ -7326,10 +7369,15 @@
       <c r="J52" t="s">
         <v>17</v>
       </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K52" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1113</v>
@@ -7361,10 +7409,15 @@
       <c r="J58" t="s">
         <v>17</v>
       </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K58" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1114</v>
@@ -7396,10 +7449,15 @@
       <c r="J64" t="s">
         <v>17</v>
       </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K64" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1115</v>
@@ -7431,10 +7489,15 @@
       <c r="J70" t="s">
         <v>17</v>
       </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K70" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1116</v>
@@ -7466,10 +7529,15 @@
       <c r="J76" t="s">
         <v>17</v>
       </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K76" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1117</v>
@@ -7501,10 +7569,15 @@
       <c r="J82" t="s">
         <v>17</v>
       </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K82" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1118</v>
@@ -7536,10 +7609,15 @@
       <c r="J88" t="s">
         <v>17</v>
       </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K88" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1119</v>
@@ -7571,10 +7649,15 @@
       <c r="J94" t="s">
         <v>17</v>
       </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K94" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1120</v>
@@ -7606,10 +7689,15 @@
       <c r="J100" t="s">
         <v>17</v>
       </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K100" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1121</v>
@@ -7641,10 +7729,15 @@
       <c r="J106" t="s">
         <v>17</v>
       </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K106" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1122</v>
@@ -7676,10 +7769,15 @@
       <c r="J112" t="s">
         <v>17</v>
       </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K112" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1123</v>
@@ -7711,14 +7809,17 @@
       <c r="J118" t="s">
         <v>17</v>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K118" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -7752,16 +7853,19 @@
       <c r="J124" t="s">
         <v>17</v>
       </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K124" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F126" s="1"/>
     </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="130" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1125</v>
@@ -7793,14 +7897,17 @@
       <c r="J130" t="s">
         <v>17</v>
       </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K130" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="1:11" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F134" s="1"/>
     </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1126</v>
@@ -7832,11 +7939,15 @@
       <c r="J136" t="s">
         <v>17</v>
       </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="K136" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1127</v>
@@ -7868,10 +7979,15 @@
       <c r="J142" t="s">
         <v>17</v>
       </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K142" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1128</v>
@@ -7903,10 +8019,15 @@
       <c r="J148" t="s">
         <v>17</v>
       </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K148" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1129</v>
@@ -7938,10 +8059,15 @@
       <c r="J154" t="s">
         <v>17</v>
       </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K154" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1130</v>
@@ -7973,10 +8099,15 @@
       <c r="J160" t="s">
         <v>17</v>
       </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K160" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1131</v>
@@ -8008,19 +8139,21 @@
       <c r="J166" t="s">
         <v>17</v>
       </c>
-      <c r="K166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K166" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F170" s="1"/>
     </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1132</v>
@@ -8052,10 +8185,15 @@
       <c r="J172" t="s">
         <v>17</v>
       </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K172" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="178" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1133</v>
@@ -8087,10 +8225,15 @@
       <c r="J178" t="s">
         <v>17</v>
       </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K178" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="184" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1134</v>
@@ -8122,10 +8265,15 @@
       <c r="J184" t="s">
         <v>17</v>
       </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K184" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="190" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1135</v>
@@ -8157,10 +8305,15 @@
       <c r="J190" t="s">
         <v>17</v>
       </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K190" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1136</v>
@@ -8192,13 +8345,17 @@
       <c r="J196" t="s">
         <v>17</v>
       </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K196" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H200" s="1"/>
     </row>
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1137</v>
@@ -8230,16 +8387,19 @@
       <c r="J202" t="s">
         <v>17</v>
       </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K202" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F204" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H206" s="1"/>
     </row>
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1142</v>
@@ -8271,10 +8431,15 @@
       <c r="J208" t="s">
         <v>17</v>
       </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K208" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1143</v>
@@ -8306,10 +8471,15 @@
       <c r="J214" t="s">
         <v>17</v>
       </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K214" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1144</v>
@@ -8341,10 +8511,15 @@
       <c r="J220" t="s">
         <v>17</v>
       </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K220" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1145</v>
@@ -8376,13 +8551,17 @@
       <c r="J226" t="s">
         <v>17</v>
       </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K226" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H230" s="1"/>
     </row>
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1146</v>
@@ -8414,13 +8593,17 @@
       <c r="J232" t="s">
         <v>17</v>
       </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K232" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H236" s="1"/>
     </row>
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1147</v>
@@ -8452,13 +8635,17 @@
       <c r="J238" t="s">
         <v>17</v>
       </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K238" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H242" s="1"/>
     </row>
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1148</v>
@@ -8490,10 +8677,15 @@
       <c r="J244" t="s">
         <v>17</v>
       </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K244" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1149</v>
@@ -8525,13 +8717,17 @@
       <c r="J250" t="s">
         <v>17</v>
       </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K250" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H254" s="1"/>
     </row>
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1150</v>
@@ -8563,13 +8759,17 @@
       <c r="J256" t="s">
         <v>17</v>
       </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K256" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H260" s="1"/>
     </row>
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1151</v>
@@ -8601,13 +8801,17 @@
       <c r="J262" t="s">
         <v>17</v>
       </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K262" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H266" s="1"/>
     </row>
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1152</v>
@@ -8639,13 +8843,17 @@
       <c r="J268" t="s">
         <v>17</v>
       </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K268" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H272" s="1"/>
     </row>
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1153</v>
@@ -8677,13 +8885,17 @@
       <c r="J274" t="s">
         <v>17</v>
       </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K274" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H278" s="1"/>
     </row>
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="280" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1154</v>
@@ -8715,10 +8927,15 @@
       <c r="J280" t="s">
         <v>17</v>
       </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K280" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1155</v>
@@ -8750,13 +8967,17 @@
       <c r="J286" t="s">
         <v>17</v>
       </c>
-      <c r="K286" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K286" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="H290" s="1"/>
     </row>
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1156</v>
@@ -8788,10 +9009,15 @@
       <c r="J292" t="s">
         <v>17</v>
       </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K292" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1157</v>
@@ -8823,10 +9049,15 @@
       <c r="J298" t="s">
         <v>17</v>
       </c>
-      <c r="K298" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K298" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1158</v>
@@ -8858,11 +9089,15 @@
       <c r="J304" t="s">
         <v>17</v>
       </c>
-      <c r="K304" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K304" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:11" ht="116" x14ac:dyDescent="0.35">
@@ -8896,13 +9131,17 @@
       <c r="J310" t="s">
         <v>17</v>
       </c>
-      <c r="K310" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K310" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F311" s="1"/>
     </row>
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1160</v>
@@ -8934,10 +9173,15 @@
       <c r="J316" t="s">
         <v>17</v>
       </c>
-      <c r="K316" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K316" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1161</v>
@@ -8969,10 +9213,15 @@
       <c r="J322" t="s">
         <v>17</v>
       </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K322" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1162</v>
@@ -9004,19 +9253,21 @@
       <c r="J328" t="s">
         <v>17</v>
       </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K328" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F332" s="1"/>
     </row>
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1163</v>
@@ -9048,10 +9299,15 @@
       <c r="J334" t="s">
         <v>17</v>
       </c>
-      <c r="K334" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K334" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1164</v>
@@ -9083,10 +9339,15 @@
       <c r="J340" t="s">
         <v>17</v>
       </c>
-      <c r="K340" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K340" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1165</v>
@@ -9118,10 +9379,15 @@
       <c r="J346" t="s">
         <v>17</v>
       </c>
-      <c r="K346" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K346" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1166</v>
@@ -9153,10 +9419,15 @@
       <c r="J352" t="s">
         <v>17</v>
       </c>
-      <c r="K352" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K352" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1167</v>
@@ -9188,10 +9459,15 @@
       <c r="J358" t="s">
         <v>17</v>
       </c>
-      <c r="K358" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K358" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1168</v>
@@ -9223,10 +9499,15 @@
       <c r="J364" t="s">
         <v>17</v>
       </c>
-      <c r="K364" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K364" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1169</v>
@@ -9258,10 +9539,15 @@
       <c r="J370" t="s">
         <v>17</v>
       </c>
-      <c r="K370" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K370" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1170</v>
@@ -9293,10 +9579,15 @@
       <c r="J376" t="s">
         <v>17</v>
       </c>
-      <c r="K376" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K376" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1171</v>
@@ -9328,10 +9619,15 @@
       <c r="J382" t="s">
         <v>17</v>
       </c>
-      <c r="K382" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K382" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1172</v>
@@ -9363,10 +9659,15 @@
       <c r="J388" t="s">
         <v>17</v>
       </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K388" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1173</v>
@@ -9398,10 +9699,15 @@
       <c r="J394" t="s">
         <v>17</v>
       </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K394" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1174</v>
@@ -9433,10 +9739,15 @@
       <c r="J400" t="s">
         <v>17</v>
       </c>
-      <c r="K400" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K400" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1175</v>
@@ -9468,10 +9779,15 @@
       <c r="J406" t="s">
         <v>17</v>
       </c>
-      <c r="K406" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K406" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1176</v>
@@ -9503,10 +9819,15 @@
       <c r="J412" t="s">
         <v>17</v>
       </c>
-      <c r="K412" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K412" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1177</v>
@@ -9538,10 +9859,15 @@
       <c r="J418" t="s">
         <v>17</v>
       </c>
-      <c r="K418" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K418" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1178</v>
@@ -9573,10 +9899,15 @@
       <c r="J424" t="s">
         <v>17</v>
       </c>
-      <c r="K424" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K424" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1179</v>
@@ -9608,10 +9939,15 @@
       <c r="J430" t="s">
         <v>17</v>
       </c>
-      <c r="K430" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K430" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1180</v>
@@ -9643,10 +9979,15 @@
       <c r="J436" t="s">
         <v>17</v>
       </c>
-      <c r="K436" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K436" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1181</v>
@@ -9678,10 +10019,15 @@
       <c r="J442" t="s">
         <v>17</v>
       </c>
-      <c r="K442" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K442" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1182</v>
@@ -9713,10 +10059,15 @@
       <c r="J448" t="s">
         <v>17</v>
       </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K448" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1183</v>
@@ -9748,10 +10099,15 @@
       <c r="J454" t="s">
         <v>17</v>
       </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K454" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1184</v>
@@ -9783,10 +10139,15 @@
       <c r="J460" t="s">
         <v>17</v>
       </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K460" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>1185</v>
@@ -9818,10 +10179,15 @@
       <c r="J466" t="s">
         <v>17</v>
       </c>
-      <c r="K466" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K466" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>1186</v>
@@ -9853,10 +10219,15 @@
       <c r="J472" t="s">
         <v>17</v>
       </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K472" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1187</v>
@@ -9888,10 +10259,15 @@
       <c r="J478" t="s">
         <v>17</v>
       </c>
-      <c r="K478" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K478" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1188</v>
@@ -9923,10 +10299,15 @@
       <c r="J484" t="s">
         <v>17</v>
       </c>
-      <c r="K484" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K484" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>1189</v>
@@ -9958,10 +10339,15 @@
       <c r="J490" t="s">
         <v>17</v>
       </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K490" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1190</v>
@@ -9993,10 +10379,15 @@
       <c r="J496" t="s">
         <v>17</v>
       </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K496" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>1191</v>
@@ -10028,10 +10419,15 @@
       <c r="J502" t="s">
         <v>17</v>
       </c>
-      <c r="K502" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K502" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>1192</v>
@@ -10063,10 +10459,15 @@
       <c r="J508" t="s">
         <v>17</v>
       </c>
-      <c r="K508" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K508" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>1193</v>
@@ -10098,10 +10499,15 @@
       <c r="J514" t="s">
         <v>17</v>
       </c>
-      <c r="K514" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K514" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>1194</v>
@@ -10133,10 +10539,15 @@
       <c r="J520" t="s">
         <v>17</v>
       </c>
-      <c r="K520" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K520" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>1195</v>
@@ -10168,10 +10579,15 @@
       <c r="J526" t="s">
         <v>17</v>
       </c>
-      <c r="K526" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K526" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>1196</v>
@@ -10203,10 +10619,15 @@
       <c r="J532" t="s">
         <v>17</v>
       </c>
-      <c r="K532" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K532" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>1197</v>
@@ -10238,10 +10659,15 @@
       <c r="J538" t="s">
         <v>17</v>
       </c>
-      <c r="K538" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K538" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>1198</v>
@@ -10273,10 +10699,15 @@
       <c r="J544" t="s">
         <v>17</v>
       </c>
-      <c r="K544" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K544" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>1199</v>
@@ -10308,10 +10739,15 @@
       <c r="J550" t="s">
         <v>17</v>
       </c>
-      <c r="K550" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K550" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="556" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>1200</v>
@@ -10343,10 +10779,15 @@
       <c r="J556" t="s">
         <v>17</v>
       </c>
-      <c r="K556" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K556" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="562" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>1201</v>
@@ -10378,10 +10819,15 @@
       <c r="J562" t="s">
         <v>17</v>
       </c>
-      <c r="K562" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K562" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="568" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>1202</v>
@@ -10413,10 +10859,15 @@
       <c r="J568" t="s">
         <v>17</v>
       </c>
-      <c r="K568" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K568" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="574" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>1203</v>
@@ -10448,10 +10899,15 @@
       <c r="J574" t="s">
         <v>17</v>
       </c>
-      <c r="K574" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K574" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>1204</v>
@@ -10483,10 +10939,15 @@
       <c r="J580" t="s">
         <v>17</v>
       </c>
-      <c r="K580" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K580" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>1205</v>
@@ -10518,10 +10979,15 @@
       <c r="J586" t="s">
         <v>17</v>
       </c>
-      <c r="K586" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K586" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>1206</v>
@@ -10553,10 +11019,15 @@
       <c r="J592" t="s">
         <v>17</v>
       </c>
-      <c r="K592" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K592" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="598" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>1207</v>
@@ -10588,10 +11059,15 @@
       <c r="J598" t="s">
         <v>17</v>
       </c>
-      <c r="K598" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K598" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="604" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>1208</v>
@@ -10623,10 +11099,15 @@
       <c r="J604" t="s">
         <v>17</v>
       </c>
-      <c r="K604" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K604" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="610" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>1209</v>
@@ -10658,10 +11139,15 @@
       <c r="J610" t="s">
         <v>17</v>
       </c>
-      <c r="K610" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K610" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="616" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>1210</v>
@@ -10693,10 +11179,15 @@
       <c r="J616" t="s">
         <v>17</v>
       </c>
-      <c r="K616" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K616" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="622" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>1211</v>
@@ -10728,10 +11219,15 @@
       <c r="J622" t="s">
         <v>17</v>
       </c>
-      <c r="K622" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K622" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="628" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>1212</v>
@@ -10763,10 +11259,15 @@
       <c r="J628" t="s">
         <v>17</v>
       </c>
-      <c r="K628" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K628" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="634" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>1213</v>
@@ -10798,10 +11299,15 @@
       <c r="J634" t="s">
         <v>17</v>
       </c>
-      <c r="K634" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K634" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="640" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>1214</v>
@@ -10833,10 +11339,15 @@
       <c r="J640" t="s">
         <v>17</v>
       </c>
-      <c r="K640" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K640" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="646" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>1215</v>
@@ -10868,10 +11379,15 @@
       <c r="J646" t="s">
         <v>17</v>
       </c>
-      <c r="K646" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K646" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="652" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>1216</v>
@@ -10903,10 +11419,15 @@
       <c r="J652" t="s">
         <v>17</v>
       </c>
-      <c r="K652" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K652" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="658" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>1217</v>
@@ -10938,10 +11459,15 @@
       <c r="J658" t="s">
         <v>17</v>
       </c>
-      <c r="K658" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K658" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="664" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>1218</v>
@@ -10973,10 +11499,15 @@
       <c r="J664" t="s">
         <v>17</v>
       </c>
-      <c r="K664" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K664" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="670" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>1219</v>
@@ -11008,10 +11539,15 @@
       <c r="J670" t="s">
         <v>17</v>
       </c>
-      <c r="K670" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K670" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="676" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>1220</v>
@@ -11043,10 +11579,15 @@
       <c r="J676" t="s">
         <v>17</v>
       </c>
-      <c r="K676" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K676" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="682" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>1221</v>
@@ -11078,10 +11619,15 @@
       <c r="J682" t="s">
         <v>17</v>
       </c>
-      <c r="K682" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K682" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="688" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>1222</v>
@@ -11113,10 +11659,15 @@
       <c r="J688" t="s">
         <v>17</v>
       </c>
-      <c r="K688" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K688" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="694" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>1223</v>
@@ -11148,10 +11699,15 @@
       <c r="J694" t="s">
         <v>17</v>
       </c>
-      <c r="K694" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K694" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="700" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>1224</v>
@@ -11183,10 +11739,15 @@
       <c r="J700" t="s">
         <v>17</v>
       </c>
-      <c r="K700" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K700" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="706" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>1225</v>
@@ -11218,13 +11779,17 @@
       <c r="J706" t="s">
         <v>17</v>
       </c>
-      <c r="K706" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K706" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B708" s="1"/>
     </row>
+    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="712" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>1226</v>
@@ -11256,10 +11821,15 @@
       <c r="J712" t="s">
         <v>17</v>
       </c>
-      <c r="K712" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K712" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="718" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>1227</v>
@@ -11291,10 +11861,15 @@
       <c r="J718" t="s">
         <v>17</v>
       </c>
-      <c r="K718" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K718" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="724" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>1228</v>
@@ -11326,10 +11901,15 @@
       <c r="J724" t="s">
         <v>17</v>
       </c>
-      <c r="K724" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K724" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="730" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>1229</v>
@@ -11361,10 +11941,15 @@
       <c r="J730" t="s">
         <v>17</v>
       </c>
-      <c r="K730" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K730" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="736" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>1230</v>
@@ -11396,10 +11981,15 @@
       <c r="J736" t="s">
         <v>17</v>
       </c>
-      <c r="K736" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K736" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="742" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>1231</v>
@@ -11431,10 +12021,15 @@
       <c r="J742" t="s">
         <v>17</v>
       </c>
-      <c r="K742" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K742" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="748" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>1232</v>
@@ -11466,10 +12061,15 @@
       <c r="J748" t="s">
         <v>17</v>
       </c>
-      <c r="K748" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K748" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="754" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>1233</v>
@@ -11501,10 +12101,15 @@
       <c r="J754" t="s">
         <v>17</v>
       </c>
-      <c r="K754" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K754" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="760" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>1234</v>
@@ -11536,10 +12141,15 @@
       <c r="J760" t="s">
         <v>17</v>
       </c>
-      <c r="K760" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K760" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="766" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>1235</v>
@@ -11571,10 +12181,15 @@
       <c r="J766" t="s">
         <v>17</v>
       </c>
-      <c r="K766" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K766" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="772" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>1236</v>
@@ -11606,10 +12221,15 @@
       <c r="J772" t="s">
         <v>17</v>
       </c>
-      <c r="K772" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K772" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="778" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>1237</v>
@@ -11641,10 +12261,15 @@
       <c r="J778" t="s">
         <v>17</v>
       </c>
-      <c r="K778" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K778" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="784" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>1238</v>
@@ -11676,10 +12301,15 @@
       <c r="J784" t="s">
         <v>17</v>
       </c>
-      <c r="K784" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K784" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="790" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>1239</v>
@@ -11711,10 +12341,15 @@
       <c r="J790" t="s">
         <v>17</v>
       </c>
-      <c r="K790" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K790" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="796" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>1240</v>
@@ -11746,10 +12381,15 @@
       <c r="J796" t="s">
         <v>17</v>
       </c>
-      <c r="K796" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K796" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="802" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>1241</v>
@@ -11781,10 +12421,15 @@
       <c r="J802" t="s">
         <v>17</v>
       </c>
-      <c r="K802" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K802" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="808" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>1242</v>
@@ -11816,10 +12461,15 @@
       <c r="J808" t="s">
         <v>17</v>
       </c>
-      <c r="K808" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K808" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="814" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>1243</v>
@@ -11851,11 +12501,15 @@
       <c r="J814" t="s">
         <v>17</v>
       </c>
-      <c r="K814" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K814" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F819" s="1"/>
     </row>
     <row r="820" spans="1:11" ht="203" x14ac:dyDescent="0.35">
@@ -11889,23 +12543,23 @@
       <c r="J820" t="s">
         <v>17</v>
       </c>
-      <c r="K820" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K820" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F821" s="1"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F822" s="1"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F823" s="1"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F824" s="1"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F825" s="1"/>
     </row>
     <row r="826" spans="1:11" ht="174" x14ac:dyDescent="0.35">
@@ -11939,23 +12593,23 @@
       <c r="J826" t="s">
         <v>17</v>
       </c>
-      <c r="K826" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K826" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F827" s="1"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F828" s="1"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F829" s="1"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F830" s="1"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F831" s="1"/>
     </row>
     <row r="832" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
@@ -11989,22 +12643,23 @@
       <c r="J832" t="s">
         <v>17</v>
       </c>
-      <c r="K832" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K832" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F833" s="1"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F834" s="1"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F835" s="1"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F836" s="1"/>
     </row>
+    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="838" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>1247</v>
@@ -12036,10 +12691,15 @@
       <c r="J838" t="s">
         <v>17</v>
       </c>
-      <c r="K838" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K838" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="839" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="842" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="844" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>1248</v>
@@ -12071,10 +12731,15 @@
       <c r="J844" t="s">
         <v>17</v>
       </c>
-      <c r="K844" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K844" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="845" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="850" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>1250</v>
@@ -12106,20 +12771,21 @@
       <c r="J850" t="s">
         <v>17</v>
       </c>
-      <c r="K850" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K850" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F852" s="1"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F854" s="1"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F855" s="1"/>
     </row>
     <row r="856" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12153,23 +12819,23 @@
       <c r="J856" t="s">
         <v>17</v>
       </c>
-      <c r="K856" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K856" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="857" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F861" s="1"/>
     </row>
     <row r="862" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12203,22 +12869,23 @@
       <c r="J862" t="s">
         <v>17</v>
       </c>
-      <c r="K862" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K862" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F864" s="1"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F865" s="1"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F866" s="1"/>
     </row>
+    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="868" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>1253</v>
@@ -12250,19 +12917,21 @@
       <c r="J868" t="s">
         <v>17</v>
       </c>
-      <c r="K868" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K868" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F870" s="1"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F871" s="1"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F872" s="1"/>
     </row>
+    <row r="873" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="874" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>1254</v>
@@ -12294,10 +12963,15 @@
       <c r="J874" t="s">
         <v>17</v>
       </c>
-      <c r="K874" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K874" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="876" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="879" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="880" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>1255</v>
@@ -12329,11 +13003,15 @@
       <c r="J880" t="s">
         <v>17</v>
       </c>
-      <c r="K880" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K880" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="881" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="884" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F885" s="1"/>
     </row>
     <row r="886" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12367,23 +13045,23 @@
       <c r="J886" t="s">
         <v>17</v>
       </c>
-      <c r="K886" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K886" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="887" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F887" s="1"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F888" s="1"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F889" s="1"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F890" s="1"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F891" s="1"/>
     </row>
     <row r="892" spans="1:11" ht="116" x14ac:dyDescent="0.35">
@@ -12417,23 +13095,23 @@
       <c r="J892" t="s">
         <v>17</v>
       </c>
-      <c r="K892" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K892" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F893" s="1"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F894" s="1"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F895" s="1"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F896" s="1"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F897" s="1"/>
     </row>
     <row r="898" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12467,22 +13145,23 @@
       <c r="J898" t="s">
         <v>17</v>
       </c>
-      <c r="K898" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K898" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F899" s="1"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F900" s="1"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F901" s="1"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F902" s="1"/>
     </row>
+    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="904" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>1259</v>
@@ -12514,10 +13193,15 @@
       <c r="J904" t="s">
         <v>17</v>
       </c>
-      <c r="K904" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K904" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="906" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="910" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>1260</v>
@@ -12549,16 +13233,19 @@
       <c r="J910" t="s">
         <v>17</v>
       </c>
-      <c r="K910" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K910" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F912" s="1"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F914" s="1"/>
     </row>
+    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="916" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>1261</v>
@@ -12590,11 +13277,15 @@
       <c r="J916" t="s">
         <v>17</v>
       </c>
-      <c r="K916" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K916" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="918" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="920" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F921" s="1"/>
     </row>
     <row r="922" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12628,22 +13319,23 @@
       <c r="J922" t="s">
         <v>17</v>
       </c>
-      <c r="K922" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K922" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F923" s="1"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F924" s="1"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F925" s="1"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F926" s="1"/>
     </row>
+    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="928" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>1263</v>
@@ -12675,10 +13367,14 @@
       <c r="J928" t="s">
         <v>17</v>
       </c>
-      <c r="K928" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K928" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="931" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="933" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>1264</v>
@@ -12710,10 +13406,14 @@
       <c r="J933" t="s">
         <v>17</v>
       </c>
-      <c r="K933" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K933" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="938" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>1265</v>
@@ -12745,10 +13445,14 @@
       <c r="J938" t="s">
         <v>17</v>
       </c>
-      <c r="K938" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K938" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="943" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>1266</v>
@@ -12780,10 +13484,14 @@
       <c r="J943" t="s">
         <v>17</v>
       </c>
-      <c r="K943" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K943" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="945" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="946" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="947" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="948" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>1267</v>
@@ -12815,13 +13523,16 @@
       <c r="J948" t="s">
         <v>17</v>
       </c>
-      <c r="K948" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K948" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="949" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="950" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="951" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F951" s="1"/>
     </row>
+    <row r="952" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="953" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>1268</v>
@@ -12853,13 +13564,16 @@
       <c r="J953" t="s">
         <v>17</v>
       </c>
-      <c r="K953" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K953" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="954" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="955" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="956" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F956" s="1"/>
     </row>
+    <row r="957" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="958" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>1269</v>
@@ -12891,17 +13605,19 @@
       <c r="J958" t="s">
         <v>17</v>
       </c>
-      <c r="K958" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K958" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="959" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="960" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F960" s="1"/>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F962" s="1"/>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F963" s="1"/>
     </row>
     <row r="964" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -12935,22 +13651,23 @@
       <c r="J964" t="s">
         <v>17</v>
       </c>
-      <c r="K964" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K964" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F965" s="1"/>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F966" s="1"/>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F967" s="1"/>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F968" s="1"/>
     </row>
+    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="970" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>1271</v>
@@ -12982,10 +13699,15 @@
       <c r="J970" t="s">
         <v>17</v>
       </c>
-      <c r="K970" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K970" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="973" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="976" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>1272</v>
@@ -13017,23 +13739,23 @@
       <c r="J976" t="s">
         <v>17</v>
       </c>
-      <c r="K976" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K976" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F977" s="1"/>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F978" s="1"/>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F979" s="1"/>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F980" s="1"/>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F981" s="1"/>
     </row>
     <row r="982" spans="1:11" ht="116" x14ac:dyDescent="0.35">
@@ -13067,22 +13789,23 @@
       <c r="J982" t="s">
         <v>17</v>
       </c>
-      <c r="K982" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K982" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F983" s="1"/>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F984" s="1"/>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F985" s="1"/>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F986" s="1"/>
     </row>
+    <row r="987" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="988" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A988">
         <v>1274</v>
@@ -13114,10 +13837,15 @@
       <c r="J988" t="s">
         <v>17</v>
       </c>
-      <c r="K988" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K988" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="990" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="991" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="992" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="993" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="994" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A994">
         <v>1275</v>
@@ -13149,10 +13877,15 @@
       <c r="J994" t="s">
         <v>17</v>
       </c>
-      <c r="K994" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K994" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="996" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="997" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="998" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1000">
         <v>1276</v>
@@ -13184,10 +13917,15 @@
       <c r="J1000" t="s">
         <v>17</v>
       </c>
-      <c r="K1000" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1000" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1003" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1006" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1006">
         <v>1277</v>
@@ -13219,10 +13957,15 @@
       <c r="J1006" t="s">
         <v>17</v>
       </c>
-      <c r="K1006" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1006" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1012" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1012">
         <v>1278</v>
@@ -13254,10 +13997,15 @@
       <c r="J1012" t="s">
         <v>17</v>
       </c>
-      <c r="K1012" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1012" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1018" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1018">
         <v>1279</v>
@@ -13289,10 +14037,15 @@
       <c r="J1018" t="s">
         <v>17</v>
       </c>
-      <c r="K1018" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1018" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1023" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1024" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1024">
         <v>1280</v>
@@ -13324,10 +14077,15 @@
       <c r="J1024" t="s">
         <v>17</v>
       </c>
-      <c r="K1024" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1024" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1027" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1028" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1030" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1030">
         <v>1281</v>
@@ -13359,10 +14117,14 @@
       <c r="J1030" t="s">
         <v>17</v>
       </c>
-      <c r="K1030" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1030" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1035">
         <v>1282</v>
@@ -13394,10 +14156,13 @@
       <c r="J1035" t="s">
         <v>17</v>
       </c>
-      <c r="K1035" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1035" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1039">
         <v>1285</v>
@@ -13429,11 +14194,15 @@
       <c r="J1039" t="s">
         <v>17</v>
       </c>
-      <c r="K1039" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1039" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1044" s="1"/>
     </row>
     <row r="1045" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13467,23 +14236,23 @@
       <c r="J1045" t="s">
         <v>17</v>
       </c>
-      <c r="K1045" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1045" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1046" s="1"/>
     </row>
-    <row r="1047" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1047" s="1"/>
     </row>
-    <row r="1048" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1048" s="1"/>
     </row>
-    <row r="1049" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1049" s="1"/>
     </row>
-    <row r="1050" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1050" s="1"/>
     </row>
     <row r="1051" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13517,23 +14286,23 @@
       <c r="J1051" t="s">
         <v>17</v>
       </c>
-      <c r="K1051" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1051" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1052" s="1"/>
     </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1053" s="1"/>
     </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1054" s="1"/>
     </row>
-    <row r="1055" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1055" s="1"/>
     </row>
-    <row r="1056" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1056" s="1"/>
     </row>
     <row r="1057" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13567,22 +14336,23 @@
       <c r="J1057" t="s">
         <v>17</v>
       </c>
-      <c r="K1057" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1057" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1058" s="1"/>
     </row>
-    <row r="1059" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1059" s="1"/>
     </row>
-    <row r="1060" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1060" s="1"/>
     </row>
-    <row r="1061" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1061" s="1"/>
     </row>
+    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1063" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1063">
         <v>1289</v>
@@ -13614,10 +14384,15 @@
       <c r="J1063" t="s">
         <v>17</v>
       </c>
-      <c r="K1063" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1063" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1065" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1068" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1069" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1069">
         <v>1290</v>
@@ -13649,10 +14424,15 @@
       <c r="J1069" t="s">
         <v>17</v>
       </c>
-      <c r="K1069" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1069" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1071" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1072" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1073" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1074" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1075" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1075">
         <v>1291</v>
@@ -13684,11 +14464,15 @@
       <c r="J1075" t="s">
         <v>17</v>
       </c>
-      <c r="K1075" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1075" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1077" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1078" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1079" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1080" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1080" s="1"/>
     </row>
     <row r="1081" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13722,23 +14506,23 @@
       <c r="J1081" t="s">
         <v>17</v>
       </c>
-      <c r="K1081" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1081" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1082" s="1"/>
     </row>
-    <row r="1083" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1083" s="1"/>
     </row>
-    <row r="1084" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1084" s="1"/>
     </row>
-    <row r="1085" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1085" s="1"/>
     </row>
-    <row r="1086" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1086" s="1"/>
     </row>
     <row r="1087" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13772,23 +14556,23 @@
       <c r="J1087" t="s">
         <v>17</v>
       </c>
-      <c r="K1087" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1087" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1088" s="1"/>
     </row>
-    <row r="1089" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1089" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1089" s="1"/>
     </row>
-    <row r="1090" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1090" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1090" s="1"/>
     </row>
-    <row r="1091" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1091" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1091" s="1"/>
     </row>
-    <row r="1092" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1092" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1092" s="1"/>
     </row>
     <row r="1093" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13822,20 +14606,20 @@
       <c r="J1093" t="s">
         <v>17</v>
       </c>
-      <c r="K1093" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1093" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1094" s="1"/>
     </row>
-    <row r="1095" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1095" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1095" s="1"/>
     </row>
-    <row r="1096" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1096" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1096" s="1"/>
     </row>
-    <row r="1097" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1097" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1097" s="1"/>
     </row>
     <row r="1098" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -13869,11 +14653,11 @@
       <c r="J1098" t="s">
         <v>17</v>
       </c>
-      <c r="K1098" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1098" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1099" s="1"/>
     </row>
     <row r="1100" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13907,23 +14691,23 @@
       <c r="J1100" t="s">
         <v>17</v>
       </c>
-      <c r="K1100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1100" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1101" s="1"/>
     </row>
-    <row r="1102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1102" s="1"/>
     </row>
-    <row r="1103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1103" s="1"/>
     </row>
-    <row r="1104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1104" s="1"/>
     </row>
-    <row r="1105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1105" s="1"/>
     </row>
     <row r="1106" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -13957,23 +14741,23 @@
       <c r="J1106" t="s">
         <v>17</v>
       </c>
-      <c r="K1106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1106" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1107" s="1"/>
     </row>
-    <row r="1108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1108" s="1"/>
     </row>
-    <row r="1109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1109" s="1"/>
     </row>
-    <row r="1110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1110" s="1"/>
     </row>
-    <row r="1111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1111" s="1"/>
     </row>
     <row r="1112" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14007,23 +14791,23 @@
       <c r="J1112" t="s">
         <v>17</v>
       </c>
-      <c r="K1112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1112" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1113" s="1"/>
     </row>
-    <row r="1114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1114" s="1"/>
     </row>
-    <row r="1115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1115" s="1"/>
     </row>
-    <row r="1116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1116" s="1"/>
     </row>
-    <row r="1117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1117" s="1"/>
     </row>
     <row r="1118" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14057,23 +14841,23 @@
       <c r="J1118" t="s">
         <v>17</v>
       </c>
-      <c r="K1118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1118" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1119" s="1"/>
     </row>
-    <row r="1120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1120" s="1"/>
     </row>
-    <row r="1121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1121" s="1"/>
     </row>
-    <row r="1122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1122" s="1"/>
     </row>
-    <row r="1123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1123" s="1"/>
     </row>
     <row r="1124" spans="1:11" ht="116" x14ac:dyDescent="0.35">
@@ -14107,23 +14891,23 @@
       <c r="J1124" t="s">
         <v>17</v>
       </c>
-      <c r="K1124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1124" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1125" s="1"/>
     </row>
-    <row r="1126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1126" s="1"/>
     </row>
-    <row r="1127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1127" s="1"/>
     </row>
-    <row r="1128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1128" s="1"/>
     </row>
-    <row r="1129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1129" s="1"/>
     </row>
     <row r="1130" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14157,23 +14941,23 @@
       <c r="J1130" t="s">
         <v>17</v>
       </c>
-      <c r="K1130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1130" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1131" s="1"/>
     </row>
-    <row r="1132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1132" s="1"/>
     </row>
-    <row r="1133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1133" s="1"/>
     </row>
-    <row r="1134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1134" s="1"/>
     </row>
-    <row r="1135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1135" s="1"/>
     </row>
     <row r="1136" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14207,23 +14991,23 @@
       <c r="J1136" t="s">
         <v>17</v>
       </c>
-      <c r="K1136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1136" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1137" s="1"/>
     </row>
-    <row r="1138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1138" s="1"/>
     </row>
-    <row r="1139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1139" s="1"/>
     </row>
-    <row r="1140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1140" s="1"/>
     </row>
-    <row r="1141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1141" s="1"/>
     </row>
     <row r="1142" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14257,23 +15041,23 @@
       <c r="J1142" t="s">
         <v>17</v>
       </c>
-      <c r="K1142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1142" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1143" s="1"/>
     </row>
-    <row r="1144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1144" s="1"/>
     </row>
-    <row r="1145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1145" s="1"/>
     </row>
-    <row r="1146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1146" s="1"/>
     </row>
-    <row r="1147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1147" s="1"/>
     </row>
     <row r="1148" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14307,20 +15091,20 @@
       <c r="J1148" t="s">
         <v>17</v>
       </c>
-      <c r="K1148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1148" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1149" s="1"/>
     </row>
-    <row r="1150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1150" s="1"/>
     </row>
-    <row r="1151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1151" s="1"/>
     </row>
-    <row r="1152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1152" s="1"/>
     </row>
     <row r="1153" spans="1:11" x14ac:dyDescent="0.35">
@@ -14354,11 +15138,11 @@
       <c r="J1153" t="s">
         <v>17</v>
       </c>
-      <c r="K1153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1153" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1154" s="1"/>
     </row>
     <row r="1155" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14392,23 +15176,23 @@
       <c r="J1155" t="s">
         <v>17</v>
       </c>
-      <c r="K1155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1155" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1156" s="1"/>
     </row>
-    <row r="1157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1157" s="1"/>
     </row>
-    <row r="1158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1158" s="1"/>
     </row>
-    <row r="1159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1159" s="1"/>
     </row>
-    <row r="1160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1160" s="1"/>
     </row>
     <row r="1161" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14442,23 +15226,23 @@
       <c r="J1161" t="s">
         <v>17</v>
       </c>
-      <c r="K1161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1161" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1162" s="1"/>
     </row>
-    <row r="1163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1163" s="1"/>
     </row>
-    <row r="1164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1164" s="1"/>
     </row>
-    <row r="1165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1165" s="1"/>
     </row>
-    <row r="1166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1166" s="1"/>
     </row>
     <row r="1167" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14492,23 +15276,23 @@
       <c r="J1167" t="s">
         <v>17</v>
       </c>
-      <c r="K1167" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1167" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1168" s="1"/>
     </row>
-    <row r="1169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1169" s="1"/>
     </row>
-    <row r="1170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1170" s="1"/>
     </row>
-    <row r="1171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1171" s="1"/>
     </row>
-    <row r="1172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1172" s="1"/>
     </row>
     <row r="1173" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14542,23 +15326,23 @@
       <c r="J1173" t="s">
         <v>17</v>
       </c>
-      <c r="K1173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1173" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1174" s="1"/>
     </row>
-    <row r="1175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1175" s="1"/>
     </row>
-    <row r="1176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1176" s="1"/>
     </row>
-    <row r="1177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1177" s="1"/>
     </row>
-    <row r="1178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1178" s="1"/>
     </row>
     <row r="1179" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14592,23 +15376,23 @@
       <c r="J1179" t="s">
         <v>17</v>
       </c>
-      <c r="K1179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1179" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1180" s="1"/>
     </row>
-    <row r="1181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1181" s="1"/>
     </row>
-    <row r="1182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1182" s="1"/>
     </row>
-    <row r="1183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1183" s="1"/>
     </row>
-    <row r="1184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1184" s="1"/>
     </row>
     <row r="1185" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14642,23 +15426,23 @@
       <c r="J1185" t="s">
         <v>17</v>
       </c>
-      <c r="K1185" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1185" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1186" s="1"/>
     </row>
-    <row r="1187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1187" s="1"/>
     </row>
-    <row r="1188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1188" s="1"/>
     </row>
-    <row r="1189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1189" s="1"/>
     </row>
-    <row r="1190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1190" s="1"/>
     </row>
     <row r="1191" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14692,23 +15476,23 @@
       <c r="J1191" t="s">
         <v>17</v>
       </c>
-      <c r="K1191" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1191" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1192" s="1"/>
     </row>
-    <row r="1193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1193" s="1"/>
     </row>
-    <row r="1194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1194" s="1"/>
     </row>
-    <row r="1195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1195" s="1"/>
     </row>
-    <row r="1196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1196" s="1"/>
     </row>
     <row r="1197" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14742,23 +15526,23 @@
       <c r="J1197" t="s">
         <v>17</v>
       </c>
-      <c r="K1197" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1197" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1198" s="1"/>
     </row>
-    <row r="1199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1199" s="1"/>
     </row>
-    <row r="1200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1200" s="1"/>
     </row>
-    <row r="1201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1201" s="1"/>
     </row>
-    <row r="1202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1202" s="1"/>
     </row>
     <row r="1203" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14792,23 +15576,23 @@
       <c r="J1203" t="s">
         <v>17</v>
       </c>
-      <c r="K1203" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1203" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1204" s="1"/>
     </row>
-    <row r="1205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1205" s="1"/>
     </row>
-    <row r="1206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1206" s="1"/>
     </row>
-    <row r="1207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1207" s="1"/>
     </row>
-    <row r="1208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1208" s="1"/>
     </row>
     <row r="1209" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14842,23 +15626,23 @@
       <c r="J1209" t="s">
         <v>17</v>
       </c>
-      <c r="K1209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1209" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1210" s="1"/>
     </row>
-    <row r="1211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1211" s="1"/>
     </row>
-    <row r="1212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1212" s="1"/>
     </row>
-    <row r="1213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1213" s="1"/>
     </row>
-    <row r="1214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1214" s="1"/>
     </row>
     <row r="1215" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14892,23 +15676,23 @@
       <c r="J1215" t="s">
         <v>17</v>
       </c>
-      <c r="K1215" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1215" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1216" s="1"/>
     </row>
-    <row r="1217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1217" s="1"/>
     </row>
-    <row r="1218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1218" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1218" s="1"/>
     </row>
-    <row r="1219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1219" s="1"/>
     </row>
-    <row r="1220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1220" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1220" s="1"/>
     </row>
     <row r="1221" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14942,23 +15726,23 @@
       <c r="J1221" t="s">
         <v>17</v>
       </c>
-      <c r="K1221" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1221" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1222" s="1"/>
     </row>
-    <row r="1223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1223" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1223" s="1"/>
     </row>
-    <row r="1224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1224" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1224" s="1"/>
     </row>
-    <row r="1225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1225" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1225" s="1"/>
     </row>
-    <row r="1226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1226" s="1"/>
     </row>
     <row r="1227" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -14992,23 +15776,23 @@
       <c r="J1227" t="s">
         <v>17</v>
       </c>
-      <c r="K1227" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1227" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1228" s="1"/>
     </row>
-    <row r="1229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1229" s="1"/>
     </row>
-    <row r="1230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1230" s="1"/>
     </row>
-    <row r="1231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1231" s="1"/>
     </row>
-    <row r="1232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1232" s="1"/>
     </row>
     <row r="1233" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -15042,23 +15826,23 @@
       <c r="J1233" t="s">
         <v>17</v>
       </c>
-      <c r="K1233" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1233" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1234" s="1"/>
     </row>
-    <row r="1235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1235" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1235" s="1"/>
     </row>
-    <row r="1236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1236" s="1"/>
     </row>
-    <row r="1237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1237" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1237" s="1"/>
     </row>
-    <row r="1238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1238" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1238" s="1"/>
     </row>
     <row r="1239" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -15092,22 +15876,23 @@
       <c r="J1239" t="s">
         <v>17</v>
       </c>
-      <c r="K1239" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1239" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1240" s="1"/>
     </row>
-    <row r="1241" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1241" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1241" s="1"/>
     </row>
-    <row r="1242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1242" s="1"/>
     </row>
-    <row r="1243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1243" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1243" s="1"/>
     </row>
+    <row r="1244" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1245">
         <v>1320</v>
@@ -15139,11 +15924,15 @@
       <c r="J1245" t="s">
         <v>17</v>
       </c>
-      <c r="K1245" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1245" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1247" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1248" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1249" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1250" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1250" s="1"/>
     </row>
     <row r="1251" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15177,23 +15966,23 @@
       <c r="J1251" t="s">
         <v>17</v>
       </c>
-      <c r="K1251" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1251" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1252" s="1"/>
     </row>
-    <row r="1253" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1253" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1253" s="1"/>
     </row>
-    <row r="1254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1254" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1254" s="1"/>
     </row>
-    <row r="1255" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1255" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1255" s="1"/>
     </row>
-    <row r="1256" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1256" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1256" s="1"/>
     </row>
     <row r="1257" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15227,22 +16016,23 @@
       <c r="J1257" t="s">
         <v>17</v>
       </c>
-      <c r="K1257" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1257" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1258" s="1"/>
     </row>
-    <row r="1259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1259" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1259" s="1"/>
     </row>
-    <row r="1260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1260" s="1"/>
     </row>
-    <row r="1261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1261" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1261" s="1"/>
     </row>
+    <row r="1262" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1263">
         <v>1323</v>
@@ -15274,11 +16064,15 @@
       <c r="J1263" t="s">
         <v>17</v>
       </c>
-      <c r="K1263" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1263" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1265" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1266" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1267" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1268" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1268" s="1"/>
     </row>
     <row r="1269" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15312,23 +16106,23 @@
       <c r="J1269" t="s">
         <v>17</v>
       </c>
-      <c r="K1269" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1269" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1270" s="1"/>
     </row>
-    <row r="1271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1271" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1271" s="1"/>
     </row>
-    <row r="1272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1272" s="1"/>
     </row>
-    <row r="1273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1273" s="1"/>
     </row>
-    <row r="1274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1274" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1274" s="1"/>
     </row>
     <row r="1275" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15362,22 +16156,23 @@
       <c r="J1275" t="s">
         <v>17</v>
       </c>
-      <c r="K1275" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1275" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1276" s="1"/>
     </row>
-    <row r="1277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1277" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1277" s="1"/>
     </row>
-    <row r="1278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1278" s="1"/>
     </row>
-    <row r="1279" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1279" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1279" s="1"/>
     </row>
+    <row r="1280" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1281">
         <v>1326</v>
@@ -15409,11 +16204,15 @@
       <c r="J1281" t="s">
         <v>17</v>
       </c>
-      <c r="K1281" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1281" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1283" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1284" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1285" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1286" s="1"/>
     </row>
     <row r="1287" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15447,23 +16246,23 @@
       <c r="J1287" t="s">
         <v>17</v>
       </c>
-      <c r="K1287" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1287" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1288" s="1"/>
     </row>
-    <row r="1289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1289" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1289" s="1"/>
     </row>
-    <row r="1290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1290" s="1"/>
     </row>
-    <row r="1291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1291" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1291" s="1"/>
     </row>
-    <row r="1292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1292" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1292" s="1"/>
     </row>
     <row r="1293" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15497,22 +16296,23 @@
       <c r="J1293" t="s">
         <v>17</v>
       </c>
-      <c r="K1293" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1293" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1294" s="1"/>
     </row>
-    <row r="1295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1295" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1295" s="1"/>
     </row>
-    <row r="1296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1296" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1296" s="1"/>
     </row>
-    <row r="1297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1297" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1297" s="1"/>
     </row>
+    <row r="1298" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1299">
         <v>1329</v>
@@ -15544,11 +16344,15 @@
       <c r="J1299" t="s">
         <v>17</v>
       </c>
-      <c r="K1299" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1299" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1301" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1302" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1303" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1304" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1304" s="1"/>
     </row>
     <row r="1305" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15582,23 +16386,23 @@
       <c r="J1305" t="s">
         <v>17</v>
       </c>
-      <c r="K1305" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1305" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1306" s="1"/>
     </row>
-    <row r="1307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1307" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1307" s="1"/>
     </row>
-    <row r="1308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1308" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1308" s="1"/>
     </row>
-    <row r="1309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1309" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1309" s="1"/>
     </row>
-    <row r="1310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1310" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1310" s="1"/>
     </row>
     <row r="1311" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15632,22 +16436,23 @@
       <c r="J1311" t="s">
         <v>17</v>
       </c>
-      <c r="K1311" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1311" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1312" s="1"/>
     </row>
-    <row r="1313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1313" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1313" s="1"/>
     </row>
-    <row r="1314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1314" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1314" s="1"/>
     </row>
-    <row r="1315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1315" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1315" s="1"/>
     </row>
+    <row r="1316" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1317">
         <v>1332</v>
@@ -15679,11 +16484,15 @@
       <c r="J1317" t="s">
         <v>17</v>
       </c>
-      <c r="K1317" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1317" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1319" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1320" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1321" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1322" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1322" s="1"/>
     </row>
     <row r="1323" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15717,23 +16526,23 @@
       <c r="J1323" t="s">
         <v>17</v>
       </c>
-      <c r="K1323" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1323" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1324" s="1"/>
     </row>
-    <row r="1325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1325" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1325" s="1"/>
     </row>
-    <row r="1326" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1326" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1326" s="1"/>
     </row>
-    <row r="1327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1327" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1327" s="1"/>
     </row>
-    <row r="1328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1328" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1328" s="1"/>
     </row>
     <row r="1329" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15767,22 +16576,23 @@
       <c r="J1329" t="s">
         <v>17</v>
       </c>
-      <c r="K1329" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1329" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1330" s="1"/>
     </row>
-    <row r="1331" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1331" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1331" s="1"/>
     </row>
-    <row r="1332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1332" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1332" s="1"/>
     </row>
-    <row r="1333" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1333" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1333" s="1"/>
     </row>
+    <row r="1334" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1335">
         <v>1335</v>
@@ -15814,11 +16624,15 @@
       <c r="J1335" t="s">
         <v>17</v>
       </c>
-      <c r="K1335" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1335" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1337" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1338" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1339" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1340" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1340" s="1"/>
     </row>
     <row r="1341" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15852,23 +16666,23 @@
       <c r="J1341" t="s">
         <v>17</v>
       </c>
-      <c r="K1341" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1341" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1342" s="1"/>
     </row>
-    <row r="1343" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1343" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1343" s="1"/>
     </row>
-    <row r="1344" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1344" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1344" s="1"/>
     </row>
-    <row r="1345" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1345" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1345" s="1"/>
     </row>
-    <row r="1346" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1346" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1346" s="1"/>
     </row>
     <row r="1347" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15902,22 +16716,23 @@
       <c r="J1347" t="s">
         <v>17</v>
       </c>
-      <c r="K1347" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1347" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1348" s="1"/>
     </row>
-    <row r="1349" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1349" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1349" s="1"/>
     </row>
-    <row r="1350" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1350" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1350" s="1"/>
     </row>
-    <row r="1351" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1351" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1351" s="1"/>
     </row>
+    <row r="1352" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1353">
         <v>1338</v>
@@ -15949,11 +16764,15 @@
       <c r="J1353" t="s">
         <v>17</v>
       </c>
-      <c r="K1353" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1353" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1355" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1356" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1357" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1358" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1358" s="1"/>
     </row>
     <row r="1359" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -15987,23 +16806,23 @@
       <c r="J1359" t="s">
         <v>17</v>
       </c>
-      <c r="K1359" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1359" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1360" s="1"/>
     </row>
-    <row r="1361" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1361" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1361" s="1"/>
     </row>
-    <row r="1362" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1362" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1362" s="1"/>
     </row>
-    <row r="1363" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1363" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1363" s="1"/>
     </row>
-    <row r="1364" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1364" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1364" s="1"/>
     </row>
     <row r="1365" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -16037,22 +16856,23 @@
       <c r="J1365" t="s">
         <v>17</v>
       </c>
-      <c r="K1365" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1365" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1366" s="1"/>
     </row>
-    <row r="1367" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1367" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1367" s="1"/>
     </row>
-    <row r="1368" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1368" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1368" s="1"/>
     </row>
-    <row r="1369" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1369" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1369" s="1"/>
     </row>
+    <row r="1370" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1371">
         <v>1341</v>
@@ -16084,11 +16904,15 @@
       <c r="J1371" t="s">
         <v>17</v>
       </c>
-      <c r="K1371" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1371" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1373" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1374" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1375" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1376" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1376" s="1"/>
     </row>
     <row r="1377" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -16122,23 +16946,23 @@
       <c r="J1377" t="s">
         <v>17</v>
       </c>
-      <c r="K1377" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1377" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1378" s="1"/>
     </row>
-    <row r="1379" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1379" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1379" s="1"/>
     </row>
-    <row r="1380" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1380" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1380" s="1"/>
     </row>
-    <row r="1381" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1381" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1381" s="1"/>
     </row>
-    <row r="1382" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1382" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1382" s="1"/>
     </row>
     <row r="1383" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -16172,22 +16996,23 @@
       <c r="J1383" t="s">
         <v>17</v>
       </c>
-      <c r="K1383" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1383" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1384" s="1"/>
     </row>
-    <row r="1385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1385" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1385" s="1"/>
     </row>
-    <row r="1386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1386" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1386" s="1"/>
     </row>
-    <row r="1387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1387" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1387" s="1"/>
     </row>
+    <row r="1388" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1389">
         <v>1344</v>
@@ -16219,10 +17044,15 @@
       <c r="J1389" t="s">
         <v>17</v>
       </c>
-      <c r="K1389" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1389" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1391" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1392" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1393" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1394" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1395">
         <v>1345</v>
@@ -16254,10 +17084,15 @@
       <c r="J1395" t="s">
         <v>17</v>
       </c>
-      <c r="K1395" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1395" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1397" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1398" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1399" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1400" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1401">
         <v>1346</v>
@@ -16289,10 +17124,15 @@
       <c r="J1401" t="s">
         <v>17</v>
       </c>
-      <c r="K1401" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1401" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1403" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1404" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1405" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1406" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1407">
         <v>1347</v>
@@ -16324,10 +17164,15 @@
       <c r="J1407" t="s">
         <v>17</v>
       </c>
-      <c r="K1407" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1407" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1409" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1410" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1411" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1412" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1413">
         <v>1348</v>
@@ -16359,10 +17204,15 @@
       <c r="J1413" t="s">
         <v>17</v>
       </c>
-      <c r="K1413" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1413" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1415" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1416" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1417" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1418" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1419">
         <v>1349</v>
@@ -16394,11 +17244,15 @@
       <c r="J1419" t="s">
         <v>17</v>
       </c>
-      <c r="K1419" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1419" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1421" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1422" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1423" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1424" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1424" s="1"/>
     </row>
     <row r="1425" spans="1:11" x14ac:dyDescent="0.35">
@@ -16432,23 +17286,23 @@
       <c r="J1425" t="s">
         <v>17</v>
       </c>
-      <c r="K1425" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1425" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1426" s="1"/>
     </row>
-    <row r="1427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1427" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1427" s="1"/>
     </row>
-    <row r="1428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1428" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1428" s="1"/>
     </row>
-    <row r="1429" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1429" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1429" s="1"/>
     </row>
-    <row r="1430" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1430" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1430" s="1"/>
     </row>
     <row r="1431" spans="1:11" x14ac:dyDescent="0.35">
@@ -16482,22 +17336,23 @@
       <c r="J1431" t="s">
         <v>17</v>
       </c>
-      <c r="K1431" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1431" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1432" s="1"/>
     </row>
-    <row r="1433" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1433" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1433" s="1"/>
     </row>
-    <row r="1434" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1434" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1434" s="1"/>
     </row>
-    <row r="1435" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1435" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1435" s="1"/>
     </row>
+    <row r="1436" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1437">
         <v>1352</v>
@@ -16529,10 +17384,15 @@
       <c r="J1437" t="s">
         <v>17</v>
       </c>
-      <c r="K1437" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1437" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1439" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1440" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1441" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1442" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1443">
         <v>1353</v>
@@ -16564,11 +17424,15 @@
       <c r="J1443" t="s">
         <v>17</v>
       </c>
-      <c r="K1443" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1443" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1445" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1446" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1447" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1448" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1448" s="1"/>
     </row>
     <row r="1449" spans="1:11" x14ac:dyDescent="0.35">
@@ -16602,23 +17466,23 @@
       <c r="J1449" t="s">
         <v>17</v>
       </c>
-      <c r="K1449" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1449" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1450" s="1"/>
     </row>
-    <row r="1451" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1451" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1451" s="1"/>
     </row>
-    <row r="1452" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1452" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1452" s="1"/>
     </row>
-    <row r="1453" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1453" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1453" s="1"/>
     </row>
-    <row r="1454" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1454" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1454" s="1"/>
     </row>
     <row r="1455" spans="1:11" x14ac:dyDescent="0.35">
@@ -16652,23 +17516,23 @@
       <c r="J1455" t="s">
         <v>17</v>
       </c>
-      <c r="K1455" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1455" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1456" s="1"/>
     </row>
-    <row r="1457" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1457" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1457" s="1"/>
     </row>
-    <row r="1458" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1458" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1458" s="1"/>
     </row>
-    <row r="1459" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1459" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1459" s="1"/>
     </row>
-    <row r="1460" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1460" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1460" s="1"/>
     </row>
     <row r="1461" spans="1:11" x14ac:dyDescent="0.35">
@@ -16702,23 +17566,23 @@
       <c r="J1461" t="s">
         <v>17</v>
       </c>
-      <c r="K1461" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1461" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1462" s="1"/>
     </row>
-    <row r="1463" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1463" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1463" s="1"/>
     </row>
-    <row r="1464" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1464" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1464" s="1"/>
     </row>
-    <row r="1465" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1465" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1465" s="1"/>
     </row>
-    <row r="1466" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1466" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1466" s="1"/>
     </row>
     <row r="1467" spans="1:11" x14ac:dyDescent="0.35">
@@ -16752,23 +17616,23 @@
       <c r="J1467" t="s">
         <v>17</v>
       </c>
-      <c r="K1467" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1467" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1468" s="1"/>
     </row>
-    <row r="1469" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1469" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1469" s="1"/>
     </row>
-    <row r="1470" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1470" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1470" s="1"/>
     </row>
-    <row r="1471" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1471" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1471" s="1"/>
     </row>
-    <row r="1472" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1472" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1472" s="1"/>
     </row>
     <row r="1473" spans="1:11" x14ac:dyDescent="0.35">
@@ -16802,23 +17666,23 @@
       <c r="J1473" t="s">
         <v>17</v>
       </c>
-      <c r="K1473" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1473" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1474" s="1"/>
     </row>
-    <row r="1475" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1475" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1475" s="1"/>
     </row>
-    <row r="1476" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1476" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1476" s="1"/>
     </row>
-    <row r="1477" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1477" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1477" s="1"/>
     </row>
-    <row r="1478" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1478" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1478" s="1"/>
     </row>
     <row r="1479" spans="1:11" x14ac:dyDescent="0.35">
@@ -16852,22 +17716,23 @@
       <c r="J1479" t="s">
         <v>17</v>
       </c>
-      <c r="K1479" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1479" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1480" s="1"/>
     </row>
-    <row r="1481" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1481" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1481" s="1"/>
     </row>
-    <row r="1482" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1482" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1482" s="1"/>
     </row>
-    <row r="1483" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1483" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1483" s="1"/>
     </row>
+    <row r="1484" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1485">
         <v>1360</v>
@@ -16899,10 +17764,15 @@
       <c r="J1485" t="s">
         <v>17</v>
       </c>
-      <c r="K1485" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1485" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1487" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1488" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1489" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1490" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1491">
         <v>1361</v>
@@ -16934,10 +17804,15 @@
       <c r="J1491" t="s">
         <v>17</v>
       </c>
-      <c r="K1491" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1491" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1493" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1494" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1495" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1496" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1497">
         <v>1362</v>
@@ -16969,11 +17844,15 @@
       <c r="J1497" t="s">
         <v>17</v>
       </c>
-      <c r="K1497" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1497" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1499" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1500" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1501" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1502" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1502" s="1"/>
     </row>
     <row r="1503" spans="1:11" x14ac:dyDescent="0.35">
@@ -17007,22 +17886,23 @@
       <c r="J1503" t="s">
         <v>17</v>
       </c>
-      <c r="K1503" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1503" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1504" s="1"/>
     </row>
-    <row r="1505" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1505" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1505" s="1"/>
     </row>
-    <row r="1506" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1506" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1506" s="1"/>
     </row>
-    <row r="1507" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1507" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1507" s="1"/>
     </row>
+    <row r="1508" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1509">
         <v>1364</v>
@@ -17054,11 +17934,15 @@
       <c r="J1509" t="s">
         <v>17</v>
       </c>
-      <c r="K1509" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1509" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1511" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1512" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1513" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1514" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1514" s="1"/>
     </row>
     <row r="1515" spans="1:11" x14ac:dyDescent="0.35">
@@ -17092,22 +17976,23 @@
       <c r="J1515" t="s">
         <v>17</v>
       </c>
-      <c r="K1515" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1515" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1516" s="1"/>
     </row>
-    <row r="1517" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1517" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1517" s="1"/>
     </row>
-    <row r="1518" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1518" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1518" s="1"/>
     </row>
-    <row r="1519" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1519" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1519" s="1"/>
     </row>
+    <row r="1520" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1521">
         <v>1366</v>
@@ -17139,11 +18024,15 @@
       <c r="J1521" t="s">
         <v>17</v>
       </c>
-      <c r="K1521" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1521" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1523" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1524" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1525" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1526" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1526" s="1"/>
     </row>
     <row r="1527" spans="1:11" x14ac:dyDescent="0.35">
@@ -17177,23 +18066,23 @@
       <c r="J1527" t="s">
         <v>17</v>
       </c>
-      <c r="K1527" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1528" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1527" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1528" s="1"/>
     </row>
-    <row r="1529" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1529" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1529" s="1"/>
     </row>
-    <row r="1530" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1530" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1530" s="1"/>
     </row>
-    <row r="1531" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1531" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1531" s="1"/>
     </row>
-    <row r="1532" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1532" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1532" s="1"/>
     </row>
     <row r="1533" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17227,22 +18116,23 @@
       <c r="J1533" t="s">
         <v>17</v>
       </c>
-      <c r="K1533" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1534" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1533" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1534" s="1"/>
     </row>
-    <row r="1535" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1535" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1535" s="1"/>
     </row>
-    <row r="1536" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1536" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1536" s="1"/>
     </row>
-    <row r="1537" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1537" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1537" s="1"/>
     </row>
+    <row r="1538" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1539">
         <v>1369</v>
@@ -17274,10 +18164,15 @@
       <c r="J1539" t="s">
         <v>17</v>
       </c>
-      <c r="K1539" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1539" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1541" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1542" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1543" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1544" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1545">
         <v>1370</v>
@@ -17309,11 +18204,15 @@
       <c r="J1545" t="s">
         <v>17</v>
       </c>
-      <c r="K1545" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1545" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1547" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1548" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1549" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1550" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1550" s="1"/>
     </row>
     <row r="1551" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17347,23 +18246,23 @@
       <c r="J1551" t="s">
         <v>17</v>
       </c>
-      <c r="K1551" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1551" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1552" s="1"/>
     </row>
-    <row r="1553" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1553" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1553" s="1"/>
     </row>
-    <row r="1554" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1554" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1554" s="1"/>
     </row>
-    <row r="1555" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1555" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1555" s="1"/>
     </row>
-    <row r="1556" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1556" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1556" s="1"/>
     </row>
     <row r="1557" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17397,22 +18296,23 @@
       <c r="J1557" t="s">
         <v>17</v>
       </c>
-      <c r="K1557" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1557" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1558" s="1"/>
     </row>
-    <row r="1559" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1559" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1559" s="1"/>
     </row>
-    <row r="1560" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1560" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1560" s="1"/>
     </row>
-    <row r="1561" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1561" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1561" s="1"/>
     </row>
+    <row r="1562" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1563" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1563">
         <v>1373</v>
@@ -17444,10 +18344,15 @@
       <c r="J1563" t="s">
         <v>17</v>
       </c>
-      <c r="K1563" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1563" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1565" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1566" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1567" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1568" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1569" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1569">
         <v>1374</v>
@@ -17479,10 +18384,15 @@
       <c r="J1569" t="s">
         <v>17</v>
       </c>
-      <c r="K1569" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1569" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1571" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1572" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1573" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1574" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1575" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1575">
         <v>1375</v>
@@ -17514,11 +18424,15 @@
       <c r="J1575" t="s">
         <v>17</v>
       </c>
-      <c r="K1575" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1575" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1577" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1578" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1579" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1580" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1580" s="1"/>
     </row>
     <row r="1581" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17552,23 +18466,23 @@
       <c r="J1581" t="s">
         <v>17</v>
       </c>
-      <c r="K1581" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1581" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1582" s="1"/>
     </row>
-    <row r="1583" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1583" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1583" s="1"/>
     </row>
-    <row r="1584" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1584" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1584" s="1"/>
     </row>
-    <row r="1585" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1585" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1585" s="1"/>
     </row>
-    <row r="1586" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1586" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1586" s="1"/>
     </row>
     <row r="1587" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17602,22 +18516,23 @@
       <c r="J1587" t="s">
         <v>17</v>
       </c>
-      <c r="K1587" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1587" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1588" s="1"/>
     </row>
-    <row r="1589" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1589" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1589" s="1"/>
     </row>
-    <row r="1590" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1590" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1590" s="1"/>
     </row>
-    <row r="1591" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1591" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1591" s="1"/>
     </row>
+    <row r="1592" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1593">
         <v>1378</v>
@@ -17649,10 +18564,15 @@
       <c r="J1593" t="s">
         <v>17</v>
       </c>
-      <c r="K1593" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1593" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1595" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1596" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1597" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1598" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1599" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1599">
         <v>1379</v>
@@ -17684,11 +18604,15 @@
       <c r="J1599" t="s">
         <v>17</v>
       </c>
-      <c r="K1599" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1599" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1601" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1602" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1603" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1604" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1604" s="1"/>
     </row>
     <row r="1605" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17722,23 +18646,23 @@
       <c r="J1605" t="s">
         <v>17</v>
       </c>
-      <c r="K1605" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1605" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1606" s="1"/>
     </row>
-    <row r="1607" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1607" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1607" s="1"/>
     </row>
-    <row r="1608" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1608" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1608" s="1"/>
     </row>
-    <row r="1609" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1609" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1609" s="1"/>
     </row>
-    <row r="1610" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1610" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1610" s="1"/>
     </row>
     <row r="1611" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17772,23 +18696,23 @@
       <c r="J1611" t="s">
         <v>17</v>
       </c>
-      <c r="K1611" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1611" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1612" s="1"/>
     </row>
-    <row r="1613" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1613" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1613" s="1"/>
     </row>
-    <row r="1614" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1614" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1614" s="1"/>
     </row>
-    <row r="1615" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1615" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1615" s="1"/>
     </row>
-    <row r="1616" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1616" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1616" s="1"/>
     </row>
     <row r="1617" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17822,22 +18746,23 @@
       <c r="J1617" t="s">
         <v>17</v>
       </c>
-      <c r="K1617" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1617" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1618" s="1"/>
     </row>
-    <row r="1619" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1619" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1619" s="1"/>
     </row>
-    <row r="1620" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1620" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1620" s="1"/>
     </row>
-    <row r="1621" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1621" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1621" s="1"/>
     </row>
+    <row r="1622" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1623">
         <v>1383</v>
@@ -17869,10 +18794,15 @@
       <c r="J1623" t="s">
         <v>17</v>
       </c>
-      <c r="K1623" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1623" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1625" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1626" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1627" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1628" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1629">
         <v>1384</v>
@@ -17904,10 +18834,15 @@
       <c r="J1629" t="s">
         <v>17</v>
       </c>
-      <c r="K1629" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1629" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1631" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1632" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1633" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1634" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1635">
         <v>1385</v>
@@ -17939,11 +18874,15 @@
       <c r="J1635" t="s">
         <v>17</v>
       </c>
-      <c r="K1635" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1640" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1635" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1637" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1638" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1639" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1640" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1640" s="1"/>
     </row>
     <row r="1641" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -17977,23 +18916,23 @@
       <c r="J1641" t="s">
         <v>17</v>
       </c>
-      <c r="K1641" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1641" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1642" s="1"/>
     </row>
-    <row r="1643" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1643" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1643" s="1"/>
     </row>
-    <row r="1644" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1644" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1644" s="1"/>
     </row>
-    <row r="1645" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1645" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1645" s="1"/>
     </row>
-    <row r="1646" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1646" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1646" s="1"/>
     </row>
     <row r="1647" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -18027,22 +18966,23 @@
       <c r="J1647" t="s">
         <v>17</v>
       </c>
-      <c r="K1647" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1648" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1647" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1648" s="1"/>
     </row>
-    <row r="1649" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1649" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1649" s="1"/>
     </row>
-    <row r="1650" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1650" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1650" s="1"/>
     </row>
-    <row r="1651" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1651" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1651" s="1"/>
     </row>
+    <row r="1652" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1653">
         <v>1388</v>
@@ -18074,10 +19014,15 @@
       <c r="J1653" t="s">
         <v>17</v>
       </c>
-      <c r="K1653" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1653" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1655" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1656" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1657" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1658" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1659">
         <v>1389</v>
@@ -18109,10 +19054,15 @@
       <c r="J1659" t="s">
         <v>17</v>
       </c>
-      <c r="K1659" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1659" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1661" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1662" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1663" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1664" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1665" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1665">
         <v>1390</v>
@@ -18144,11 +19094,15 @@
       <c r="J1665" t="s">
         <v>17</v>
       </c>
-      <c r="K1665" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1665" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1667" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1668" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1669" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1670" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1670" s="1"/>
     </row>
     <row r="1671" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -18182,20 +19136,20 @@
       <c r="J1671" t="s">
         <v>17</v>
       </c>
-      <c r="K1671" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1671" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1672" s="1"/>
     </row>
-    <row r="1673" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1673" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1673" s="1"/>
     </row>
-    <row r="1674" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1674" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1674" s="1"/>
     </row>
-    <row r="1675" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1675" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1675" s="1"/>
     </row>
     <row r="1676" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18229,8 +19183,8 @@
       <c r="J1676" t="s">
         <v>17</v>
       </c>
-      <c r="K1676" t="b">
-        <v>1</v>
+      <c r="K1676" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1677" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18264,8 +19218,8 @@
       <c r="J1677" t="s">
         <v>17</v>
       </c>
-      <c r="K1677" t="b">
-        <v>1</v>
+      <c r="K1677" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1678" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18299,8 +19253,8 @@
       <c r="J1678" t="s">
         <v>17</v>
       </c>
-      <c r="K1678" t="b">
-        <v>1</v>
+      <c r="K1678" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1679" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18334,8 +19288,8 @@
       <c r="J1679" t="s">
         <v>17</v>
       </c>
-      <c r="K1679" t="b">
-        <v>1</v>
+      <c r="K1679" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1680" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18369,8 +19323,8 @@
       <c r="J1680" t="s">
         <v>17</v>
       </c>
-      <c r="K1680" t="b">
-        <v>1</v>
+      <c r="K1680" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1681" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18404,8 +19358,8 @@
       <c r="J1681" t="s">
         <v>17</v>
       </c>
-      <c r="K1681" t="b">
-        <v>1</v>
+      <c r="K1681" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1682" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18439,8 +19393,8 @@
       <c r="J1682" t="s">
         <v>17</v>
       </c>
-      <c r="K1682" t="b">
-        <v>1</v>
+      <c r="K1682" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1683" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18474,10 +19428,11 @@
       <c r="J1683" t="s">
         <v>17</v>
       </c>
-      <c r="K1683" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1683" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1685">
         <v>1508</v>
@@ -18509,11 +19464,15 @@
       <c r="J1685" t="s">
         <v>17</v>
       </c>
-      <c r="K1685" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1685" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1687" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1688" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1689" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1690" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1690" s="1"/>
     </row>
     <row r="1691" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -18547,22 +19506,23 @@
       <c r="J1691" t="s">
         <v>17</v>
       </c>
-      <c r="K1691" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1691" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1692" s="1"/>
     </row>
-    <row r="1693" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1693" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1693" s="1"/>
     </row>
-    <row r="1694" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1694" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1694" s="1"/>
     </row>
-    <row r="1695" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1695" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1695" s="1"/>
     </row>
+    <row r="1696" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1697">
         <v>1510</v>
@@ -18594,11 +19554,15 @@
       <c r="J1697" t="s">
         <v>17</v>
       </c>
-      <c r="K1697" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1697" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1699" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1700" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1701" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1702" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1702" s="1"/>
     </row>
     <row r="1703" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -18632,22 +19596,23 @@
       <c r="J1703" t="s">
         <v>17</v>
       </c>
-      <c r="K1703" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1703" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1704" s="1"/>
     </row>
-    <row r="1705" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1705" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1705" s="1"/>
     </row>
-    <row r="1706" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1706" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1706" s="1"/>
     </row>
-    <row r="1707" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1707" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1707" s="1"/>
     </row>
+    <row r="1708" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1709">
         <v>1512</v>
@@ -18679,10 +19644,15 @@
       <c r="J1709" t="s">
         <v>17</v>
       </c>
-      <c r="K1709" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1709" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1711" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1712" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1713" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1714" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1715">
         <v>1513</v>
@@ -18714,10 +19684,14 @@
       <c r="J1715" t="s">
         <v>17</v>
       </c>
-      <c r="K1715" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1715" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1717" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1718" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1719" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1720" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A1720">
         <v>1514</v>
@@ -18749,8 +19723,8 @@
       <c r="J1720" t="s">
         <v>17</v>
       </c>
-      <c r="K1720" t="b">
-        <v>1</v>
+      <c r="K1720" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1721" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18784,8 +19758,8 @@
       <c r="J1721" t="s">
         <v>17</v>
       </c>
-      <c r="K1721" t="b">
-        <v>1</v>
+      <c r="K1721" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1722" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18819,8 +19793,8 @@
       <c r="J1722" t="s">
         <v>17</v>
       </c>
-      <c r="K1722" t="b">
-        <v>1</v>
+      <c r="K1722" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1723" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -18854,8 +19828,8 @@
       <c r="J1723" t="s">
         <v>17</v>
       </c>
-      <c r="K1723" t="b">
-        <v>1</v>
+      <c r="K1723" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.35">
@@ -18889,8 +19863,8 @@
       <c r="J1724" t="s">
         <v>17</v>
       </c>
-      <c r="K1724" t="b">
-        <v>1</v>
+      <c r="K1724" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.35">
@@ -18924,8 +19898,8 @@
       <c r="J1725" t="s">
         <v>17</v>
       </c>
-      <c r="K1725" t="b">
-        <v>1</v>
+      <c r="K1725" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.35">
@@ -18959,8 +19933,8 @@
       <c r="J1726" t="s">
         <v>17</v>
       </c>
-      <c r="K1726" t="b">
-        <v>1</v>
+      <c r="K1726" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.35">
@@ -18994,8 +19968,8 @@
       <c r="J1727" t="s">
         <v>17</v>
       </c>
-      <c r="K1727" t="b">
-        <v>1</v>
+      <c r="K1727" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.35">
@@ -19029,8 +20003,8 @@
       <c r="J1728" t="s">
         <v>17</v>
       </c>
-      <c r="K1728" t="b">
-        <v>1</v>
+      <c r="K1728" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1729" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -19064,8 +20038,8 @@
       <c r="J1729" t="s">
         <v>17</v>
       </c>
-      <c r="K1729" t="b">
-        <v>1</v>
+      <c r="K1729" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1730" spans="1:11" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19099,8 +20073,8 @@
       <c r="J1730" t="s">
         <v>17</v>
       </c>
-      <c r="K1730" t="b">
-        <v>1</v>
+      <c r="K1730" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.35">
@@ -19134,8 +20108,8 @@
       <c r="J1731" t="s">
         <v>17</v>
       </c>
-      <c r="K1731" t="b">
-        <v>1</v>
+      <c r="K1731" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1732" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19169,8 +20143,8 @@
       <c r="J1732" t="s">
         <v>17</v>
       </c>
-      <c r="K1732" t="b">
-        <v>1</v>
+      <c r="K1732" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.35">
@@ -19204,8 +20178,8 @@
       <c r="J1733" t="s">
         <v>17</v>
       </c>
-      <c r="K1733" t="b">
-        <v>1</v>
+      <c r="K1733" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.35">
@@ -19239,8 +20213,8 @@
       <c r="J1734" t="s">
         <v>17</v>
       </c>
-      <c r="K1734" t="b">
-        <v>1</v>
+      <c r="K1734" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.35">
@@ -19274,8 +20248,8 @@
       <c r="J1735" t="s">
         <v>17</v>
       </c>
-      <c r="K1735" t="b">
-        <v>1</v>
+      <c r="K1735" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.35">
@@ -19309,8 +20283,8 @@
       <c r="J1736" t="s">
         <v>17</v>
       </c>
-      <c r="K1736" t="b">
-        <v>1</v>
+      <c r="K1736" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.35">
@@ -19344,8 +20318,8 @@
       <c r="J1737" t="s">
         <v>17</v>
       </c>
-      <c r="K1737" t="b">
-        <v>1</v>
+      <c r="K1737" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.35">
@@ -19379,8 +20353,8 @@
       <c r="J1738" t="s">
         <v>17</v>
       </c>
-      <c r="K1738" t="b">
-        <v>1</v>
+      <c r="K1738" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1739" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -19414,8 +20388,8 @@
       <c r="J1739" t="s">
         <v>17</v>
       </c>
-      <c r="K1739" t="b">
-        <v>1</v>
+      <c r="K1739" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.35">
@@ -19449,8 +20423,8 @@
       <c r="J1740" t="s">
         <v>17</v>
       </c>
-      <c r="K1740" t="b">
-        <v>1</v>
+      <c r="K1740" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.35">
@@ -19484,8 +20458,8 @@
       <c r="J1741" t="s">
         <v>17</v>
       </c>
-      <c r="K1741" t="b">
-        <v>1</v>
+      <c r="K1741" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1742" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19519,8 +20493,8 @@
       <c r="J1742" t="s">
         <v>17</v>
       </c>
-      <c r="K1742" t="b">
-        <v>1</v>
+      <c r="K1742" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1743" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19554,8 +20528,8 @@
       <c r="J1743" t="s">
         <v>17</v>
       </c>
-      <c r="K1743" t="b">
-        <v>1</v>
+      <c r="K1743" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1744" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19589,8 +20563,8 @@
       <c r="J1744" t="s">
         <v>17</v>
       </c>
-      <c r="K1744" t="b">
-        <v>1</v>
+      <c r="K1744" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1745" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19624,8 +20598,8 @@
       <c r="J1745" t="s">
         <v>17</v>
       </c>
-      <c r="K1745" t="b">
-        <v>1</v>
+      <c r="K1745" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1746" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19659,8 +20633,8 @@
       <c r="J1746" t="s">
         <v>17</v>
       </c>
-      <c r="K1746" t="b">
-        <v>1</v>
+      <c r="K1746" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1747" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -19694,8 +20668,8 @@
       <c r="J1747" t="s">
         <v>17</v>
       </c>
-      <c r="K1747" t="b">
-        <v>1</v>
+      <c r="K1747" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1748" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
@@ -19729,8 +20703,8 @@
       <c r="J1748" t="s">
         <v>17</v>
       </c>
-      <c r="K1748" t="b">
-        <v>1</v>
+      <c r="K1748" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1749" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
@@ -19764,38 +20738,38 @@
       <c r="J1749" t="s">
         <v>17</v>
       </c>
-      <c r="K1749" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1749" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1750" s="1"/>
     </row>
-    <row r="1751" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1751" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1751" s="1"/>
     </row>
-    <row r="1752" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1752" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1752" s="1"/>
     </row>
-    <row r="1753" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1753" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1753" s="1"/>
     </row>
-    <row r="1754" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1754" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1754" s="1"/>
     </row>
-    <row r="1755" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1755" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1755" s="1"/>
     </row>
-    <row r="1756" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1756" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1756" s="1"/>
     </row>
-    <row r="1757" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1757" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1757" s="1"/>
     </row>
-    <row r="1758" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1758" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1758" s="1"/>
     </row>
-    <row r="1759" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1759" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F1759" s="1"/>
     </row>
     <row r="1760" spans="1:11" x14ac:dyDescent="0.35">
@@ -19829,10 +20803,15 @@
       <c r="J1760" t="s">
         <v>17</v>
       </c>
-      <c r="K1760" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1760" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1762" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1763" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1764" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1765" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1766" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1766">
         <v>1572</v>
@@ -19864,8 +20843,8 @@
       <c r="J1766" t="s">
         <v>17</v>
       </c>
-      <c r="K1766" t="b">
-        <v>1</v>
+      <c r="K1766" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1767" spans="1:11" x14ac:dyDescent="0.35">
@@ -19899,8 +20878,8 @@
       <c r="J1767" t="s">
         <v>17</v>
       </c>
-      <c r="K1767" t="b">
-        <v>1</v>
+      <c r="K1767" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1768" spans="1:11" x14ac:dyDescent="0.35">
@@ -19934,8 +20913,8 @@
       <c r="J1768" t="s">
         <v>17</v>
       </c>
-      <c r="K1768" t="b">
-        <v>1</v>
+      <c r="K1768" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1769" spans="1:11" x14ac:dyDescent="0.35">
@@ -19969,8 +20948,8 @@
       <c r="J1769" t="s">
         <v>17</v>
       </c>
-      <c r="K1769" t="b">
-        <v>1</v>
+      <c r="K1769" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1770" spans="1:11" x14ac:dyDescent="0.35">
@@ -20004,8 +20983,8 @@
       <c r="J1770" t="s">
         <v>17</v>
       </c>
-      <c r="K1770" t="b">
-        <v>1</v>
+      <c r="K1770" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1771" spans="1:11" x14ac:dyDescent="0.35">
@@ -20039,8 +21018,8 @@
       <c r="J1771" t="s">
         <v>17</v>
       </c>
-      <c r="K1771" t="b">
-        <v>1</v>
+      <c r="K1771" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1772" spans="1:11" x14ac:dyDescent="0.35">
@@ -20074,8 +21053,8 @@
       <c r="J1772" t="s">
         <v>17</v>
       </c>
-      <c r="K1772" t="b">
-        <v>1</v>
+      <c r="K1772" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.35">
@@ -20109,8 +21088,8 @@
       <c r="J1773" t="s">
         <v>17</v>
       </c>
-      <c r="K1773" t="b">
-        <v>1</v>
+      <c r="K1773" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.35">
@@ -20144,8 +21123,8 @@
       <c r="J1774" t="s">
         <v>17</v>
       </c>
-      <c r="K1774" t="b">
-        <v>1</v>
+      <c r="K1774" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.35">
@@ -20179,8 +21158,8 @@
       <c r="J1775" t="s">
         <v>17</v>
       </c>
-      <c r="K1775" t="b">
-        <v>1</v>
+      <c r="K1775" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.35">
@@ -20214,8 +21193,8 @@
       <c r="J1776" t="s">
         <v>17</v>
       </c>
-      <c r="K1776" t="b">
-        <v>1</v>
+      <c r="K1776" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1777" spans="1:11" x14ac:dyDescent="0.35">
@@ -20249,8 +21228,8 @@
       <c r="J1777" t="s">
         <v>17</v>
       </c>
-      <c r="K1777" t="b">
-        <v>1</v>
+      <c r="K1777" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1778" spans="1:11" x14ac:dyDescent="0.35">
@@ -20284,8 +21263,8 @@
       <c r="J1778" t="s">
         <v>17</v>
       </c>
-      <c r="K1778" t="b">
-        <v>1</v>
+      <c r="K1778" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1779" spans="1:11" x14ac:dyDescent="0.35">
@@ -20319,8 +21298,8 @@
       <c r="J1779" t="s">
         <v>17</v>
       </c>
-      <c r="K1779" t="b">
-        <v>1</v>
+      <c r="K1779" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1780" spans="1:11" x14ac:dyDescent="0.35">
@@ -20354,8 +21333,8 @@
       <c r="J1780" t="s">
         <v>17</v>
       </c>
-      <c r="K1780" t="b">
-        <v>1</v>
+      <c r="K1780" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1781" spans="1:11" x14ac:dyDescent="0.35">
@@ -20389,8 +21368,8 @@
       <c r="J1781" t="s">
         <v>17</v>
       </c>
-      <c r="K1781" t="b">
-        <v>1</v>
+      <c r="K1781" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1782" spans="1:11" x14ac:dyDescent="0.35">
@@ -20424,8 +21403,8 @@
       <c r="J1782" t="s">
         <v>17</v>
       </c>
-      <c r="K1782" t="b">
-        <v>1</v>
+      <c r="K1782" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1783" spans="1:11" x14ac:dyDescent="0.35">
@@ -20459,8 +21438,8 @@
       <c r="J1783" t="s">
         <v>17</v>
       </c>
-      <c r="K1783" t="b">
-        <v>1</v>
+      <c r="K1783" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1784" spans="1:11" x14ac:dyDescent="0.35">
@@ -20494,8 +21473,8 @@
       <c r="J1784" t="s">
         <v>17</v>
       </c>
-      <c r="K1784" t="b">
-        <v>1</v>
+      <c r="K1784" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1785" spans="1:11" x14ac:dyDescent="0.35">
@@ -20529,8 +21508,8 @@
       <c r="J1785" t="s">
         <v>17</v>
       </c>
-      <c r="K1785" t="b">
-        <v>1</v>
+      <c r="K1785" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1786" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -20564,8 +21543,8 @@
       <c r="J1786" t="s">
         <v>17</v>
       </c>
-      <c r="K1786" t="b">
-        <v>1</v>
+      <c r="K1786" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.35">
@@ -20599,8 +21578,8 @@
       <c r="J1787" t="s">
         <v>17</v>
       </c>
-      <c r="K1787" t="b">
-        <v>1</v>
+      <c r="K1787" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1788" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -20634,8 +21613,8 @@
       <c r="J1788" t="s">
         <v>17</v>
       </c>
-      <c r="K1788" t="b">
-        <v>1</v>
+      <c r="K1788" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1789" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -20669,8 +21648,8 @@
       <c r="J1789" t="s">
         <v>17</v>
       </c>
-      <c r="K1789" t="b">
-        <v>1</v>
+      <c r="K1789" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.35">
@@ -20704,8 +21683,8 @@
       <c r="J1790" t="s">
         <v>17</v>
       </c>
-      <c r="K1790" t="b">
-        <v>0</v>
+      <c r="K1790" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1791" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
@@ -20739,8 +21718,8 @@
       <c r="J1791" t="s">
         <v>17</v>
       </c>
-      <c r="K1791" t="b">
-        <v>1</v>
+      <c r="K1791" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.35">
@@ -20774,8 +21753,8 @@
       <c r="J1792" t="s">
         <v>17</v>
       </c>
-      <c r="K1792" t="b">
-        <v>1</v>
+      <c r="K1792" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1793" spans="1:11" ht="409.5" x14ac:dyDescent="0.35">
@@ -20809,8 +21788,8 @@
       <c r="J1793" t="s">
         <v>17</v>
       </c>
-      <c r="K1793" t="b">
-        <v>1</v>
+      <c r="K1793" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1794" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
@@ -20844,8 +21823,8 @@
       <c r="J1794" t="s">
         <v>17</v>
       </c>
-      <c r="K1794" t="b">
-        <v>1</v>
+      <c r="K1794" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.35">
@@ -20879,10 +21858,13 @@
       <c r="J1795" t="s">
         <v>17</v>
       </c>
-      <c r="K1795" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1795" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1797" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1798" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1799" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1799" t="s">
         <v>92</v>
@@ -20914,10 +21896,13 @@
       <c r="J1799" t="s">
         <v>17</v>
       </c>
-      <c r="K1799" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1799" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1801" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1802" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1803" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1803" t="s">
         <v>100</v>
@@ -20949,10 +21934,13 @@
       <c r="J1803" t="s">
         <v>17</v>
       </c>
-      <c r="K1803" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="K1803" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1805" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="1806" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="1807" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1807" t="s">
         <v>98</v>
@@ -20984,14 +21972,22 @@
       <c r="J1807" t="s">
         <v>17</v>
       </c>
-      <c r="K1807" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1808" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1809" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="K1807" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:11" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1809" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1810" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:K1810" xr:uid="{5198E219-C078-4DCC-B3A9-17881A6ADC0B}">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>